--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -5780,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9624,11 +9624,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9640,12 +9641,11 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -13087,17 +13087,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E89"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="E92:E105"/>
+    <mergeCell ref="E106:E113"/>
     <mergeCell ref="E57:E72"/>
     <mergeCell ref="E3:E16"/>
     <mergeCell ref="E17:E24"/>
     <mergeCell ref="E25:E32"/>
     <mergeCell ref="E35:E48"/>
     <mergeCell ref="E49:E56"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E76:E89"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="E92:E105"/>
-    <mergeCell ref="E106:E113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -5312,31 +5312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5369,11 +5345,35 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5682,8 +5682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5723,7 +5723,7 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="45" t="s">
         <v>603</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5732,7 +5732,7 @@
       <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="49" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="9"/>
@@ -5742,7 +5742,7 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="46" t="s">
         <v>604</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5751,13 +5751,13 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="46" t="s">
         <v>605</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5766,13 +5766,13 @@
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="46" t="s">
         <v>606</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -5781,13 +5781,13 @@
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="46" t="s">
         <v>607</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5796,13 +5796,13 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="46" t="s">
         <v>608</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5811,13 +5811,13 @@
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="46" t="s">
         <v>609</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5826,13 +5826,13 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="46" t="s">
         <v>610</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5841,13 +5841,13 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="46" t="s">
         <v>611</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5856,13 +5856,13 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="46" t="s">
         <v>612</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -5871,13 +5871,13 @@
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="46" t="s">
         <v>613</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -5886,13 +5886,13 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="46" t="s">
         <v>614</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5901,13 +5901,13 @@
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="46" t="s">
         <v>615</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -5916,13 +5916,13 @@
       <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="46" t="s">
         <v>616</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -5931,13 +5931,13 @@
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="45" t="s">
         <v>413</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -5954,7 +5954,7 @@
       <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="45" t="s">
         <v>414</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5971,7 +5971,7 @@
       <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="46" t="s">
         <v>617</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -5980,7 +5980,7 @@
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="49" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
       <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="46" t="s">
         <v>618</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5997,13 +5997,13 @@
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="46" t="s">
         <v>619</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -6012,13 +6012,13 @@
       <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="46" t="s">
         <v>620</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -6027,13 +6027,13 @@
       <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="38"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="46" t="s">
         <v>621</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -6042,13 +6042,13 @@
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="46" t="s">
         <v>622</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -6057,13 +6057,13 @@
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="38"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="46" t="s">
         <v>623</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6072,13 +6072,13 @@
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="46" t="s">
         <v>624</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -6087,13 +6087,13 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="45" t="s">
         <v>625</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -6102,7 +6102,7 @@
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="49" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6110,7 +6110,7 @@
       <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="45" t="s">
         <v>626</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -6119,13 +6119,13 @@
       <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="45" t="s">
         <v>627</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -6134,13 +6134,13 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="45" t="s">
         <v>628</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -6149,13 +6149,13 @@
       <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="45" t="s">
         <v>629</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -6164,13 +6164,13 @@
       <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="38"/>
+      <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="45" t="s">
         <v>630</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -6179,13 +6179,13 @@
       <c r="D31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="45" t="s">
         <v>631</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6194,13 +6194,13 @@
       <c r="D32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="45" t="s">
         <v>632</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -6209,13 +6209,13 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="38"/>
+      <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="45" t="s">
         <v>633</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6224,13 +6224,13 @@
       <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="38"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="45" t="s">
         <v>634</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -6239,13 +6239,13 @@
       <c r="D35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="38"/>
+      <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="45" t="s">
         <v>635</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -6254,13 +6254,13 @@
       <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="45" t="s">
         <v>636</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6269,13 +6269,13 @@
       <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="38"/>
+      <c r="E37" s="51"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="45" t="s">
         <v>637</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -6284,13 +6284,13 @@
       <c r="D38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="38"/>
+      <c r="E38" s="51"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="45" t="s">
         <v>638</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -6299,13 +6299,13 @@
       <c r="D39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="39"/>
+      <c r="E39" s="50"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="46" t="s">
         <v>639</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -6314,7 +6314,7 @@
       <c r="D40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="49" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       <c r="A41" s="14">
         <v>40</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="46" t="s">
         <v>640</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -6331,13 +6331,13 @@
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="38"/>
+      <c r="E41" s="51"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>41</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="46" t="s">
         <v>641</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -6346,13 +6346,13 @@
       <c r="D42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="38"/>
+      <c r="E42" s="51"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="46" t="s">
         <v>642</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -6361,13 +6361,13 @@
       <c r="D43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="38"/>
+      <c r="E43" s="51"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="46" t="s">
         <v>643</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -6376,13 +6376,13 @@
       <c r="D44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="38"/>
+      <c r="E44" s="51"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>44</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="46" t="s">
         <v>644</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -6391,13 +6391,13 @@
       <c r="D45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="38"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="46" t="s">
         <v>645</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -6406,13 +6406,13 @@
       <c r="D46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="38"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="46" t="s">
         <v>646</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -6421,13 +6421,13 @@
       <c r="D47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="38"/>
+      <c r="E47" s="51"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="46" t="s">
         <v>647</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -6436,13 +6436,13 @@
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="38"/>
+      <c r="E48" s="51"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="46" t="s">
         <v>648</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -6451,13 +6451,13 @@
       <c r="D49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="38"/>
+      <c r="E49" s="51"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="46" t="s">
         <v>649</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -6466,13 +6466,13 @@
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="38"/>
+      <c r="E50" s="51"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>50</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="46" t="s">
         <v>650</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -6481,13 +6481,13 @@
       <c r="D51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="38"/>
+      <c r="E51" s="51"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>51</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="46" t="s">
         <v>651</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -6496,13 +6496,13 @@
       <c r="D52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="38"/>
+      <c r="E52" s="51"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="46" t="s">
         <v>652</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -6511,13 +6511,13 @@
       <c r="D53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="39"/>
+      <c r="E53" s="50"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>53</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="45" t="s">
         <v>653</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -6526,7 +6526,7 @@
       <c r="D54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="49" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       <c r="A55" s="14">
         <v>54</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="45" t="s">
         <v>654</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -6543,13 +6543,13 @@
       <c r="D55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="38"/>
+      <c r="E55" s="51"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>55</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="45" t="s">
         <v>655</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -6558,13 +6558,13 @@
       <c r="D56" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="38"/>
+      <c r="E56" s="51"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>56</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="45" t="s">
         <v>656</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -6573,13 +6573,13 @@
       <c r="D57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="38"/>
+      <c r="E57" s="51"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>57</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="45" t="s">
         <v>657</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -6588,13 +6588,13 @@
       <c r="D58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="38"/>
+      <c r="E58" s="51"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>58</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="45" t="s">
         <v>658</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -6603,13 +6603,13 @@
       <c r="D59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="38"/>
+      <c r="E59" s="51"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>59</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="45" t="s">
         <v>659</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -6618,13 +6618,13 @@
       <c r="D60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="38"/>
+      <c r="E60" s="51"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>60</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="45" t="s">
         <v>660</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -6633,13 +6633,13 @@
       <c r="D61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="39"/>
+      <c r="E61" s="50"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>61</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="45" t="s">
         <v>661</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -6648,7 +6648,7 @@
       <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="49" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       <c r="A63" s="14">
         <v>62</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="45" t="s">
         <v>662</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -6665,13 +6665,13 @@
       <c r="D63" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="38"/>
+      <c r="E63" s="51"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>63</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="46" t="s">
         <v>663</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -6680,13 +6680,13 @@
       <c r="D64" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="38"/>
+      <c r="E64" s="51"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>64</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="46" t="s">
         <v>664</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -6695,13 +6695,13 @@
       <c r="D65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="38"/>
+      <c r="E65" s="51"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>65</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="46" t="s">
         <v>665</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -6710,13 +6710,13 @@
       <c r="D66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="38"/>
+      <c r="E66" s="51"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>66</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="46" t="s">
         <v>666</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -6725,13 +6725,13 @@
       <c r="D67" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="38"/>
+      <c r="E67" s="51"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>67</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="46" t="s">
         <v>667</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -6740,13 +6740,13 @@
       <c r="D68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="38"/>
+      <c r="E68" s="51"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>68</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="46" t="s">
         <v>668</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -6755,13 +6755,13 @@
       <c r="D69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="39"/>
+      <c r="E69" s="50"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>69</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="45" t="s">
         <v>669</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -6770,7 +6770,7 @@
       <c r="D70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="37" t="s">
+      <c r="E70" s="49" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
       <c r="A71" s="14">
         <v>70</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="45" t="s">
         <v>670</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -6787,13 +6787,13 @@
       <c r="D71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="38"/>
+      <c r="E71" s="51"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>71</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="45" t="s">
         <v>671</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -6802,13 +6802,13 @@
       <c r="D72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="38"/>
+      <c r="E72" s="51"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>72</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="45" t="s">
         <v>672</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -6817,13 +6817,13 @@
       <c r="D73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="38"/>
+      <c r="E73" s="51"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>73</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="45" t="s">
         <v>673</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -6832,13 +6832,13 @@
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="38"/>
+      <c r="E74" s="51"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>74</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="45" t="s">
         <v>674</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -6847,13 +6847,13 @@
       <c r="D75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="38"/>
+      <c r="E75" s="51"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>75</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="45" t="s">
         <v>675</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -6862,13 +6862,13 @@
       <c r="D76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="38"/>
+      <c r="E76" s="51"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>76</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="45" t="s">
         <v>676</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -6877,7 +6877,7 @@
       <c r="D77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="39"/>
+      <c r="E77" s="50"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
@@ -6900,7 +6900,7 @@
       <c r="A79" s="14">
         <v>78</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="45" t="s">
         <v>677</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -6909,7 +6909,7 @@
       <c r="D79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="37" t="s">
+      <c r="E79" s="49" t="s">
         <v>410</v>
       </c>
       <c r="F79" s="30"/>
@@ -6918,7 +6918,7 @@
       <c r="A80" s="14">
         <v>79</v>
       </c>
-      <c r="B80" s="53" t="s">
+      <c r="B80" s="45" t="s">
         <v>678</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -6927,14 +6927,14 @@
       <c r="D80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="38"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>80</v>
       </c>
-      <c r="B81" s="53" t="s">
+      <c r="B81" s="45" t="s">
         <v>679</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -6943,14 +6943,14 @@
       <c r="D81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="38"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>81</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="45" t="s">
         <v>680</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -6959,13 +6959,13 @@
       <c r="D82" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="38"/>
+      <c r="E82" s="51"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>82</v>
       </c>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="45" t="s">
         <v>681</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -6974,14 +6974,14 @@
       <c r="D83" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="38"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>83</v>
       </c>
-      <c r="B84" s="53" t="s">
+      <c r="B84" s="45" t="s">
         <v>682</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -6990,14 +6990,14 @@
       <c r="D84" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="38"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>84</v>
       </c>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="45" t="s">
         <v>683</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -7006,14 +7006,14 @@
       <c r="D85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E85" s="38"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>85</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="45" t="s">
         <v>684</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -7022,14 +7022,14 @@
       <c r="D86" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="39"/>
+      <c r="E86" s="50"/>
       <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>86</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="45" t="s">
         <v>685</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -7038,7 +7038,7 @@
       <c r="D87" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="37" t="s">
+      <c r="E87" s="49" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
       <c r="A88" s="14">
         <v>87</v>
       </c>
-      <c r="B88" s="53" t="s">
+      <c r="B88" s="45" t="s">
         <v>686</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -7055,13 +7055,13 @@
       <c r="D88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="39"/>
+      <c r="E88" s="50"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>88</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="45" t="s">
         <v>687</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -7070,7 +7070,7 @@
       <c r="D89" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E89" s="49" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       <c r="A90" s="14">
         <v>89</v>
       </c>
-      <c r="B90" s="53" t="s">
+      <c r="B90" s="45" t="s">
         <v>688</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -7087,13 +7087,13 @@
       <c r="D90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="38"/>
+      <c r="E90" s="51"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>90</v>
       </c>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="45" t="s">
         <v>689</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -7102,13 +7102,13 @@
       <c r="D91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="38"/>
+      <c r="E91" s="51"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>91</v>
       </c>
-      <c r="B92" s="53" t="s">
+      <c r="B92" s="45" t="s">
         <v>690</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -7117,13 +7117,13 @@
       <c r="D92" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="38"/>
+      <c r="E92" s="51"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>92</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="45" t="s">
         <v>691</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -7132,13 +7132,13 @@
       <c r="D93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E93" s="38"/>
+      <c r="E93" s="51"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>93</v>
       </c>
-      <c r="B94" s="53" t="s">
+      <c r="B94" s="45" t="s">
         <v>692</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -7147,13 +7147,13 @@
       <c r="D94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="38"/>
+      <c r="E94" s="51"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>94</v>
       </c>
-      <c r="B95" s="53" t="s">
+      <c r="B95" s="45" t="s">
         <v>693</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -7162,13 +7162,13 @@
       <c r="D95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="38"/>
+      <c r="E95" s="51"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>95</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="45" t="s">
         <v>694</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -7177,13 +7177,13 @@
       <c r="D96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="38"/>
+      <c r="E96" s="51"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>96</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="45" t="s">
         <v>695</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -7192,13 +7192,13 @@
       <c r="D97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E97" s="38"/>
+      <c r="E97" s="51"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>97</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="45" t="s">
         <v>696</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -7207,13 +7207,13 @@
       <c r="D98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="38"/>
+      <c r="E98" s="51"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>98</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="45" t="s">
         <v>697</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -7222,13 +7222,13 @@
       <c r="D99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="38"/>
+      <c r="E99" s="51"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>99</v>
       </c>
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="45" t="s">
         <v>698</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -7237,13 +7237,13 @@
       <c r="D100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="38"/>
+      <c r="E100" s="51"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>100</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="45" t="s">
         <v>699</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -7252,13 +7252,13 @@
       <c r="D101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="38"/>
+      <c r="E101" s="51"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>101</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="45" t="s">
         <v>700</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -7267,13 +7267,13 @@
       <c r="D102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="39"/>
+      <c r="E102" s="50"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>102</v>
       </c>
-      <c r="B103" s="54" t="s">
+      <c r="B103" s="46" t="s">
         <v>701</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -7282,7 +7282,7 @@
       <c r="D103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="37" t="s">
+      <c r="E103" s="49" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       <c r="A104" s="14">
         <v>103</v>
       </c>
-      <c r="B104" s="54" t="s">
+      <c r="B104" s="46" t="s">
         <v>702</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -7299,13 +7299,13 @@
       <c r="D104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="38"/>
+      <c r="E104" s="51"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>104</v>
       </c>
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="46" t="s">
         <v>703</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -7314,13 +7314,13 @@
       <c r="D105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="38"/>
+      <c r="E105" s="51"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>105</v>
       </c>
-      <c r="B106" s="54" t="s">
+      <c r="B106" s="46" t="s">
         <v>704</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -7329,13 +7329,13 @@
       <c r="D106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E106" s="38"/>
+      <c r="E106" s="51"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>106</v>
       </c>
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="46" t="s">
         <v>705</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -7344,13 +7344,13 @@
       <c r="D107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="38"/>
+      <c r="E107" s="51"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>107</v>
       </c>
-      <c r="B108" s="54" t="s">
+      <c r="B108" s="46" t="s">
         <v>706</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -7359,13 +7359,13 @@
       <c r="D108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E108" s="38"/>
+      <c r="E108" s="51"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>108</v>
       </c>
-      <c r="B109" s="54" t="s">
+      <c r="B109" s="46" t="s">
         <v>707</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -7374,13 +7374,13 @@
       <c r="D109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="38"/>
+      <c r="E109" s="51"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>109</v>
       </c>
-      <c r="B110" s="54" t="s">
+      <c r="B110" s="46" t="s">
         <v>708</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -7389,13 +7389,13 @@
       <c r="D110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="39"/>
+      <c r="E110" s="50"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>110</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="45" t="s">
         <v>709</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -7404,7 +7404,7 @@
       <c r="D111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="37" t="s">
+      <c r="E111" s="49" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7412,7 +7412,7 @@
       <c r="A112" s="14">
         <v>111</v>
       </c>
-      <c r="B112" s="54" t="s">
+      <c r="B112" s="46" t="s">
         <v>710</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -7421,13 +7421,13 @@
       <c r="D112" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E112" s="38"/>
+      <c r="E112" s="51"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>112</v>
       </c>
-      <c r="B113" s="54" t="s">
+      <c r="B113" s="46" t="s">
         <v>711</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -7436,13 +7436,13 @@
       <c r="D113" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="38"/>
+      <c r="E113" s="51"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>113</v>
       </c>
-      <c r="B114" s="54" t="s">
+      <c r="B114" s="46" t="s">
         <v>712</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -7451,13 +7451,13 @@
       <c r="D114" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="38"/>
+      <c r="E114" s="51"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>114</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="46" t="s">
         <v>713</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -7466,13 +7466,13 @@
       <c r="D115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="38"/>
+      <c r="E115" s="51"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
         <v>115</v>
       </c>
-      <c r="B116" s="54" t="s">
+      <c r="B116" s="46" t="s">
         <v>714</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -7481,13 +7481,13 @@
       <c r="D116" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="38"/>
+      <c r="E116" s="51"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>116</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="46" t="s">
         <v>715</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -7496,13 +7496,13 @@
       <c r="D117" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="38"/>
+      <c r="E117" s="51"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>117</v>
       </c>
-      <c r="B118" s="54" t="s">
+      <c r="B118" s="46" t="s">
         <v>716</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -7511,13 +7511,13 @@
       <c r="D118" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="38"/>
+      <c r="E118" s="51"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>118</v>
       </c>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="46" t="s">
         <v>717</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -7526,13 +7526,13 @@
       <c r="D119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="38"/>
+      <c r="E119" s="51"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
         <v>119</v>
       </c>
-      <c r="B120" s="53" t="s">
+      <c r="B120" s="45" t="s">
         <v>718</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -7541,13 +7541,13 @@
       <c r="D120" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E120" s="38"/>
+      <c r="E120" s="51"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>120</v>
       </c>
-      <c r="B121" s="54" t="s">
+      <c r="B121" s="46" t="s">
         <v>719</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -7556,13 +7556,13 @@
       <c r="D121" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="38"/>
+      <c r="E121" s="51"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
         <v>121</v>
       </c>
-      <c r="B122" s="54" t="s">
+      <c r="B122" s="46" t="s">
         <v>720</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -7571,13 +7571,13 @@
       <c r="D122" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E122" s="38"/>
+      <c r="E122" s="51"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>122</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="46" t="s">
         <v>721</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -7586,7 +7586,7 @@
       <c r="D123" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E123" s="38"/>
+      <c r="E123" s="51"/>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
@@ -7601,7 +7601,7 @@
       <c r="D124" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="39"/>
+      <c r="E124" s="50"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
@@ -7616,7 +7616,7 @@
       <c r="D125" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="37" t="s">
+      <c r="E125" s="49" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
       <c r="D126" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="38"/>
+      <c r="E126" s="51"/>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
@@ -7648,7 +7648,7 @@
       <c r="D127" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="38"/>
+      <c r="E127" s="51"/>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
@@ -7663,7 +7663,7 @@
       <c r="D128" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E128" s="38"/>
+      <c r="E128" s="51"/>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
@@ -7678,7 +7678,7 @@
       <c r="D129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="38"/>
+      <c r="E129" s="51"/>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
@@ -7693,7 +7693,7 @@
       <c r="D130" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="38"/>
+      <c r="E130" s="51"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
@@ -7708,7 +7708,7 @@
       <c r="D131" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E131" s="38"/>
+      <c r="E131" s="51"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
@@ -7723,7 +7723,7 @@
       <c r="D132" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E132" s="38"/>
+      <c r="E132" s="51"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
@@ -7738,7 +7738,7 @@
       <c r="D133" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E133" s="38"/>
+      <c r="E133" s="51"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
@@ -7753,7 +7753,7 @@
       <c r="D134" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E134" s="38"/>
+      <c r="E134" s="51"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
@@ -7768,7 +7768,7 @@
       <c r="D135" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="38"/>
+      <c r="E135" s="51"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
@@ -7783,7 +7783,7 @@
       <c r="D136" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E136" s="38"/>
+      <c r="E136" s="51"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
@@ -7798,7 +7798,7 @@
       <c r="D137" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="38"/>
+      <c r="E137" s="51"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
@@ -7813,7 +7813,7 @@
       <c r="D138" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E138" s="39"/>
+      <c r="E138" s="50"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
@@ -7828,7 +7828,7 @@
       <c r="D139" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E139" s="37" t="s">
+      <c r="E139" s="49" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       <c r="D140" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E140" s="38"/>
+      <c r="E140" s="51"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
@@ -7860,7 +7860,7 @@
       <c r="D141" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E141" s="38"/>
+      <c r="E141" s="51"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
@@ -7875,7 +7875,7 @@
       <c r="D142" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="38"/>
+      <c r="E142" s="51"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
@@ -7890,7 +7890,7 @@
       <c r="D143" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E143" s="38"/>
+      <c r="E143" s="51"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
@@ -7905,7 +7905,7 @@
       <c r="D144" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="38"/>
+      <c r="E144" s="51"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
@@ -7920,7 +7920,7 @@
       <c r="D145" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E145" s="38"/>
+      <c r="E145" s="51"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
@@ -7935,7 +7935,7 @@
       <c r="D146" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E146" s="39"/>
+      <c r="E146" s="50"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
@@ -7968,7 +7968,7 @@
       <c r="D148" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E148" s="37" t="s">
+      <c r="E148" s="49" t="s">
         <v>369</v>
       </c>
       <c r="F148" s="30"/>
@@ -7986,7 +7986,7 @@
       <c r="D149" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E149" s="38"/>
+      <c r="E149" s="51"/>
       <c r="F149" s="30"/>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8002,7 +8002,7 @@
       <c r="D150" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="38"/>
+      <c r="E150" s="51"/>
       <c r="F150" s="30"/>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8018,7 +8018,7 @@
       <c r="D151" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E151" s="38"/>
+      <c r="E151" s="51"/>
       <c r="F151" s="30"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8034,7 +8034,7 @@
       <c r="D152" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E152" s="38"/>
+      <c r="E152" s="51"/>
       <c r="F152" s="30"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8050,7 +8050,7 @@
       <c r="D153" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E153" s="38"/>
+      <c r="E153" s="51"/>
       <c r="F153" s="30"/>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8066,7 +8066,7 @@
       <c r="D154" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="38"/>
+      <c r="E154" s="51"/>
       <c r="F154" s="30"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8082,7 +8082,7 @@
       <c r="D155" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="39"/>
+      <c r="E155" s="50"/>
       <c r="F155" s="30"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
       <c r="D156" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E156" s="37" t="s">
+      <c r="E156" s="49" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8115,7 +8115,7 @@
       <c r="D157" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="38"/>
+      <c r="E157" s="51"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
@@ -8130,7 +8130,7 @@
       <c r="D158" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E158" s="38"/>
+      <c r="E158" s="51"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
@@ -8145,7 +8145,7 @@
       <c r="D159" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E159" s="38"/>
+      <c r="E159" s="51"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
@@ -8160,7 +8160,7 @@
       <c r="D160" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E160" s="38"/>
+      <c r="E160" s="51"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
@@ -8175,7 +8175,7 @@
       <c r="D161" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E161" s="38"/>
+      <c r="E161" s="51"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
@@ -8190,7 +8190,7 @@
       <c r="D162" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E162" s="38"/>
+      <c r="E162" s="51"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
@@ -8205,7 +8205,7 @@
       <c r="D163" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="38"/>
+      <c r="E163" s="51"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
@@ -8220,7 +8220,7 @@
       <c r="D164" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E164" s="38"/>
+      <c r="E164" s="51"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
@@ -8235,7 +8235,7 @@
       <c r="D165" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E165" s="38"/>
+      <c r="E165" s="51"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
@@ -8250,7 +8250,7 @@
       <c r="D166" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="38"/>
+      <c r="E166" s="51"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
@@ -8265,7 +8265,7 @@
       <c r="D167" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E167" s="38"/>
+      <c r="E167" s="51"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
@@ -8280,7 +8280,7 @@
       <c r="D168" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E168" s="38"/>
+      <c r="E168" s="51"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
@@ -8295,7 +8295,7 @@
       <c r="D169" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E169" s="39"/>
+      <c r="E169" s="50"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
@@ -8310,7 +8310,7 @@
       <c r="D170" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="37" t="s">
+      <c r="E170" s="49" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8327,7 +8327,7 @@
       <c r="D171" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="38"/>
+      <c r="E171" s="51"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
@@ -8342,7 +8342,7 @@
       <c r="D172" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="38"/>
+      <c r="E172" s="51"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
@@ -8357,7 +8357,7 @@
       <c r="D173" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="38"/>
+      <c r="E173" s="51"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
@@ -8372,7 +8372,7 @@
       <c r="D174" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="38"/>
+      <c r="E174" s="51"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
@@ -8387,7 +8387,7 @@
       <c r="D175" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="39"/>
+      <c r="E175" s="50"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
@@ -8402,7 +8402,7 @@
       <c r="D176" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="37" t="s">
+      <c r="E176" s="49" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8419,7 +8419,7 @@
       <c r="D177" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="38"/>
+      <c r="E177" s="51"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
@@ -8434,7 +8434,7 @@
       <c r="D178" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="38"/>
+      <c r="E178" s="51"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
@@ -8449,7 +8449,7 @@
       <c r="D179" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="38"/>
+      <c r="E179" s="51"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
@@ -8464,7 +8464,7 @@
       <c r="D180" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="38"/>
+      <c r="E180" s="51"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
@@ -8479,7 +8479,7 @@
       <c r="D181" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="38"/>
+      <c r="E181" s="51"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
@@ -8494,7 +8494,7 @@
       <c r="D182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="38"/>
+      <c r="E182" s="51"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
@@ -8509,7 +8509,7 @@
       <c r="D183" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E183" s="39"/>
+      <c r="E183" s="50"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
@@ -8524,7 +8524,7 @@
       <c r="D184" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E184" s="37" t="s">
+      <c r="E184" s="49" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
       <c r="D185" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E185" s="38"/>
+      <c r="E185" s="51"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
@@ -8556,7 +8556,7 @@
       <c r="D186" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E186" s="38"/>
+      <c r="E186" s="51"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
@@ -8571,7 +8571,7 @@
       <c r="D187" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="39"/>
+      <c r="E187" s="50"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
@@ -8586,7 +8586,7 @@
       <c r="D188" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="37" t="s">
+      <c r="E188" s="49" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8603,7 +8603,7 @@
       <c r="D189" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E189" s="38"/>
+      <c r="E189" s="51"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
@@ -8618,7 +8618,7 @@
       <c r="D190" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="38"/>
+      <c r="E190" s="51"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
@@ -8633,7 +8633,7 @@
       <c r="D191" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="38"/>
+      <c r="E191" s="51"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
@@ -8648,7 +8648,7 @@
       <c r="D192" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="38"/>
+      <c r="E192" s="51"/>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
@@ -8663,7 +8663,7 @@
       <c r="D193" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E193" s="38"/>
+      <c r="E193" s="51"/>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
@@ -8678,7 +8678,7 @@
       <c r="D194" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E194" s="38"/>
+      <c r="E194" s="51"/>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
@@ -8693,7 +8693,7 @@
       <c r="D195" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E195" s="38"/>
+      <c r="E195" s="51"/>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
@@ -8708,7 +8708,7 @@
       <c r="D196" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E196" s="38"/>
+      <c r="E196" s="51"/>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
@@ -8723,7 +8723,7 @@
       <c r="D197" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E197" s="38"/>
+      <c r="E197" s="51"/>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
@@ -8738,7 +8738,7 @@
       <c r="D198" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E198" s="38"/>
+      <c r="E198" s="51"/>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
@@ -8753,7 +8753,7 @@
       <c r="D199" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E199" s="38"/>
+      <c r="E199" s="51"/>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
@@ -8768,7 +8768,7 @@
       <c r="D200" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E200" s="38"/>
+      <c r="E200" s="51"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
@@ -8783,7 +8783,7 @@
       <c r="D201" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E201" s="39"/>
+      <c r="E201" s="50"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
@@ -8818,7 +8818,7 @@
       <c r="D203" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="E203" s="37" t="s">
+      <c r="E203" s="49" t="s">
         <v>411</v>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       <c r="D204" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E204" s="38"/>
+      <c r="E204" s="51"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
@@ -8850,7 +8850,7 @@
       <c r="D205" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E205" s="38"/>
+      <c r="E205" s="51"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
@@ -8865,7 +8865,7 @@
       <c r="D206" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E206" s="38"/>
+      <c r="E206" s="51"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
@@ -8880,7 +8880,7 @@
       <c r="D207" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E207" s="38"/>
+      <c r="E207" s="51"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
@@ -8895,13 +8895,13 @@
       <c r="D208" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="E208" s="38"/>
+      <c r="E208" s="51"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>208</v>
       </c>
-      <c r="B209" s="53" t="s">
+      <c r="B209" s="45" t="s">
         <v>418</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -8918,7 +8918,7 @@
       <c r="A210" s="14">
         <v>209</v>
       </c>
-      <c r="B210" s="53" t="s">
+      <c r="B210" s="45" t="s">
         <v>419</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -9063,7 +9063,7 @@
       <c r="A220" s="14">
         <v>219</v>
       </c>
-      <c r="B220" s="50" t="s">
+      <c r="B220" s="42" t="s">
         <v>852</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -9072,7 +9072,7 @@
       <c r="D220" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E220" s="51" t="s">
+      <c r="E220" s="43" t="s">
         <v>376</v>
       </c>
     </row>
@@ -9254,7 +9254,7 @@
       <c r="D232" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="E232" s="52" t="s">
+      <c r="E232" s="44" t="s">
         <v>805</v>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
       <c r="D233" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="E233" s="46" t="s">
+      <c r="E233" s="38" t="s">
         <v>814</v>
       </c>
     </row>
@@ -9294,7 +9294,7 @@
       <c r="A235" s="14">
         <v>234</v>
       </c>
-      <c r="B235" s="50" t="s">
+      <c r="B235" s="42" t="s">
         <v>855</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -9324,7 +9324,7 @@
       <c r="D237" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="E237" s="37" t="s">
+      <c r="E237" s="49" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       <c r="D238" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="E238" s="38"/>
+      <c r="E238" s="51"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
@@ -9356,7 +9356,7 @@
       <c r="D239" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E239" s="38"/>
+      <c r="E239" s="51"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
@@ -9371,7 +9371,7 @@
       <c r="D240" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E240" s="38"/>
+      <c r="E240" s="51"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
@@ -9386,7 +9386,7 @@
       <c r="D241" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E241" s="38"/>
+      <c r="E241" s="51"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
@@ -9401,7 +9401,7 @@
       <c r="D242" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E242" s="38"/>
+      <c r="E242" s="51"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
@@ -9416,7 +9416,7 @@
       <c r="D243" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="E243" s="38"/>
+      <c r="E243" s="51"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
@@ -9431,7 +9431,7 @@
       <c r="D244" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="E244" s="39"/>
+      <c r="E244" s="50"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
@@ -9445,14 +9445,14 @@
       <c r="A246" s="14">
         <v>245</v>
       </c>
-      <c r="B246" s="50" t="s">
+      <c r="B246" s="42" t="s">
         <v>856</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D246" s="12"/>
-      <c r="E246" s="37" t="s">
+      <c r="E246" s="49" t="s">
         <v>858</v>
       </c>
     </row>
@@ -9460,20 +9460,25 @@
       <c r="A247" s="14">
         <v>246</v>
       </c>
-      <c r="B247" s="50" t="s">
+      <c r="B247" s="42" t="s">
         <v>857</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D247" s="12"/>
-      <c r="E247" s="39"/>
+      <c r="E247" s="50"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>247</v>
       </c>
-      <c r="C248" s="2"/>
+      <c r="B248" s="42" t="s">
+        <v>837</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
     </row>
@@ -9481,7 +9486,12 @@
       <c r="A249" s="14">
         <v>248</v>
       </c>
-      <c r="C249" s="2"/>
+      <c r="B249" s="42" t="s">
+        <v>838</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
     </row>
@@ -9549,6 +9559,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E148:E155"/>
+    <mergeCell ref="E156:E169"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
     <mergeCell ref="E246:E247"/>
     <mergeCell ref="E62:E69"/>
     <mergeCell ref="E2:E15"/>
@@ -9565,13 +9582,6 @@
     <mergeCell ref="E79:E86"/>
     <mergeCell ref="E125:E138"/>
     <mergeCell ref="E139:E146"/>
-    <mergeCell ref="E148:E155"/>
-    <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9582,8 +9592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E239" sqref="E239"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9620,7 +9630,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="41" t="s">
         <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -9629,7 +9639,7 @@
       <c r="D2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="49" t="s">
         <v>377</v>
       </c>
       <c r="F2" s="9"/>
@@ -9639,7 +9649,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="41" t="s">
         <v>433</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -9648,7 +9658,7 @@
       <c r="D3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="38"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
@@ -9656,7 +9666,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="41" t="s">
         <v>434</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -9665,7 +9675,7 @@
       <c r="D4" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -9673,7 +9683,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="41" t="s">
         <v>435</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -9682,7 +9692,7 @@
       <c r="D5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="38"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
@@ -9690,7 +9700,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="41" t="s">
         <v>436</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -9699,7 +9709,7 @@
       <c r="D6" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
@@ -9707,7 +9717,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="41" t="s">
         <v>437</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -9716,7 +9726,7 @@
       <c r="D7" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
@@ -9724,7 +9734,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="41" t="s">
         <v>438</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -9733,7 +9743,7 @@
       <c r="D8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
@@ -9741,7 +9751,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="41" t="s">
         <v>439</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -9750,7 +9760,7 @@
       <c r="D9" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
@@ -9758,7 +9768,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="41" t="s">
         <v>440</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9767,7 +9777,7 @@
       <c r="D10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
@@ -9784,7 +9794,7 @@
       <c r="D11" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
@@ -9801,7 +9811,7 @@
       <c r="D12" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
@@ -9818,7 +9828,7 @@
       <c r="D13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -9835,7 +9845,7 @@
       <c r="D14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
@@ -9852,7 +9862,7 @@
       <c r="D15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
@@ -9869,7 +9879,7 @@
       <c r="D16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="49" t="s">
         <v>378</v>
       </c>
       <c r="F16" s="9"/>
@@ -9888,7 +9898,7 @@
       <c r="D17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
@@ -9905,7 +9915,7 @@
       <c r="D18" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
@@ -9922,7 +9932,7 @@
       <c r="D19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
@@ -9939,7 +9949,7 @@
       <c r="D20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
@@ -9956,7 +9966,7 @@
       <c r="D21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="38"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
@@ -9973,7 +9983,7 @@
       <c r="D22" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="38"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
@@ -9990,7 +10000,7 @@
       <c r="D23" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="50"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
@@ -10007,7 +10017,7 @@
       <c r="D24" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="49" t="s">
         <v>379</v>
       </c>
       <c r="F24" s="9"/>
@@ -10026,7 +10036,7 @@
       <c r="D25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
@@ -10043,7 +10053,7 @@
       <c r="D26" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
@@ -10060,7 +10070,7 @@
       <c r="D27" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
@@ -10077,7 +10087,7 @@
       <c r="D28" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
@@ -10094,7 +10104,7 @@
       <c r="D29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="38"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
@@ -10111,7 +10121,7 @@
       <c r="D30" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="38"/>
+      <c r="E30" s="51"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
@@ -10128,7 +10138,7 @@
       <c r="D31" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="50"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
@@ -10183,7 +10193,7 @@
       <c r="D34" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="49" t="s">
         <v>380</v>
       </c>
       <c r="F34" s="9"/>
@@ -10202,7 +10212,7 @@
       <c r="D35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="38"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
@@ -10219,7 +10229,7 @@
       <c r="D36" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
@@ -10236,7 +10246,7 @@
       <c r="D37" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="38"/>
+      <c r="E37" s="51"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
@@ -10253,7 +10263,7 @@
       <c r="D38" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="38"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
@@ -10270,7 +10280,7 @@
       <c r="D39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="38"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
@@ -10287,7 +10297,7 @@
       <c r="D40" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="38"/>
+      <c r="E40" s="51"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
@@ -10304,7 +10314,7 @@
       <c r="D41" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="38"/>
+      <c r="E41" s="51"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
@@ -10321,7 +10331,7 @@
       <c r="D42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="38"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
@@ -10338,7 +10348,7 @@
       <c r="D43" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="38"/>
+      <c r="E43" s="51"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
@@ -10355,7 +10365,7 @@
       <c r="D44" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="38"/>
+      <c r="E44" s="51"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
@@ -10372,7 +10382,7 @@
       <c r="D45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="38"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
@@ -10389,7 +10399,7 @@
       <c r="D46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="38"/>
+      <c r="E46" s="51"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
@@ -10406,7 +10416,7 @@
       <c r="D47" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="39"/>
+      <c r="E47" s="50"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
@@ -10423,7 +10433,7 @@
       <c r="D48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="49" t="s">
         <v>381</v>
       </c>
       <c r="F48" s="9"/>
@@ -10442,7 +10452,7 @@
       <c r="D49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="38"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
@@ -10459,7 +10469,7 @@
       <c r="D50" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="38"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
@@ -10476,7 +10486,7 @@
       <c r="D51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="38"/>
+      <c r="E51" s="51"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
@@ -10493,7 +10503,7 @@
       <c r="D52" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="38"/>
+      <c r="E52" s="51"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
@@ -10510,7 +10520,7 @@
       <c r="D53" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="38"/>
+      <c r="E53" s="51"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
@@ -10527,7 +10537,7 @@
       <c r="D54" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="38"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
@@ -10544,7 +10554,7 @@
       <c r="D55" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="39"/>
+      <c r="E55" s="50"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
@@ -10561,7 +10571,7 @@
       <c r="D56" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="49" t="s">
         <v>382</v>
       </c>
       <c r="F56" s="9"/>
@@ -10580,7 +10590,7 @@
       <c r="D57" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="38"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
@@ -10597,7 +10607,7 @@
       <c r="D58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E58" s="38"/>
+      <c r="E58" s="51"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
@@ -10614,7 +10624,7 @@
       <c r="D59" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="38"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
@@ -10631,7 +10641,7 @@
       <c r="D60" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="38"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
@@ -10648,7 +10658,7 @@
       <c r="D61" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E61" s="38"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
@@ -10665,7 +10675,7 @@
       <c r="D62" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="38"/>
+      <c r="E62" s="51"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
@@ -10682,7 +10692,7 @@
       <c r="D63" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="38"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
@@ -10699,7 +10709,7 @@
       <c r="D64" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="38"/>
+      <c r="E64" s="51"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
@@ -10716,7 +10726,7 @@
       <c r="D65" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="38"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
@@ -10733,7 +10743,7 @@
       <c r="D66" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="38"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
@@ -10750,7 +10760,7 @@
       <c r="D67" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="38"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
@@ -10767,7 +10777,7 @@
       <c r="D68" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E68" s="38"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
@@ -10784,7 +10794,7 @@
       <c r="D69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="38"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
@@ -10801,7 +10811,7 @@
       <c r="D70" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E70" s="38"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
@@ -10818,7 +10828,7 @@
       <c r="D71" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="39"/>
+      <c r="E71" s="50"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
@@ -10854,7 +10864,7 @@
       <c r="D73" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="54" t="s">
         <v>383</v>
       </c>
       <c r="F73" s="9"/>
@@ -10873,7 +10883,7 @@
       <c r="D74" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="41"/>
+      <c r="E74" s="57"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
@@ -10890,7 +10900,7 @@
       <c r="D75" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="37" t="s">
+      <c r="E75" s="49" t="s">
         <v>384</v>
       </c>
       <c r="F75" s="9"/>
@@ -10909,7 +10919,7 @@
       <c r="D76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="38"/>
+      <c r="E76" s="51"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
@@ -10926,7 +10936,7 @@
       <c r="D77" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="38"/>
+      <c r="E77" s="51"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
@@ -10943,7 +10953,7 @@
       <c r="D78" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="38"/>
+      <c r="E78" s="51"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
@@ -10960,7 +10970,7 @@
       <c r="D79" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E79" s="38"/>
+      <c r="E79" s="51"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
@@ -10977,7 +10987,7 @@
       <c r="D80" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="38"/>
+      <c r="E80" s="51"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -10994,7 +11004,7 @@
       <c r="D81" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="38"/>
+      <c r="E81" s="51"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
@@ -11011,7 +11021,7 @@
       <c r="D82" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="38"/>
+      <c r="E82" s="51"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
@@ -11028,7 +11038,7 @@
       <c r="D83" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="38"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
@@ -11045,7 +11055,7 @@
       <c r="D84" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="38"/>
+      <c r="E84" s="51"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
@@ -11062,7 +11072,7 @@
       <c r="D85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="38"/>
+      <c r="E85" s="51"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
@@ -11079,7 +11089,7 @@
       <c r="D86" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="38"/>
+      <c r="E86" s="51"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
@@ -11096,7 +11106,7 @@
       <c r="D87" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="38"/>
+      <c r="E87" s="51"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
@@ -11113,7 +11123,7 @@
       <c r="D88" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="39"/>
+      <c r="E88" s="50"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
@@ -11130,7 +11140,7 @@
       <c r="D89" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="54" t="s">
         <v>385</v>
       </c>
       <c r="F89" s="9"/>
@@ -11149,7 +11159,7 @@
       <c r="D90" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="41"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
@@ -11166,7 +11176,7 @@
       <c r="D91" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="37" t="s">
+      <c r="E91" s="49" t="s">
         <v>386</v>
       </c>
       <c r="F91" s="9"/>
@@ -11185,7 +11195,7 @@
       <c r="D92" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E92" s="38"/>
+      <c r="E92" s="51"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
@@ -11202,7 +11212,7 @@
       <c r="D93" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E93" s="38"/>
+      <c r="E93" s="51"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
@@ -11219,7 +11229,7 @@
       <c r="D94" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E94" s="38"/>
+      <c r="E94" s="51"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
@@ -11236,7 +11246,7 @@
       <c r="D95" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="38"/>
+      <c r="E95" s="51"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
@@ -11253,7 +11263,7 @@
       <c r="D96" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="38"/>
+      <c r="E96" s="51"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
@@ -11270,7 +11280,7 @@
       <c r="D97" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="38"/>
+      <c r="E97" s="51"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
@@ -11287,7 +11297,7 @@
       <c r="D98" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E98" s="38"/>
+      <c r="E98" s="51"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
@@ -11304,7 +11314,7 @@
       <c r="D99" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="38"/>
+      <c r="E99" s="51"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
@@ -11321,7 +11331,7 @@
       <c r="D100" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="38"/>
+      <c r="E100" s="51"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
@@ -11338,7 +11348,7 @@
       <c r="D101" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="38"/>
+      <c r="E101" s="51"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
@@ -11355,7 +11365,7 @@
       <c r="D102" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="38"/>
+      <c r="E102" s="51"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
@@ -11372,7 +11382,7 @@
       <c r="D103" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E103" s="38"/>
+      <c r="E103" s="51"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
@@ -11389,7 +11399,7 @@
       <c r="D104" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E104" s="39"/>
+      <c r="E104" s="50"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
@@ -11406,7 +11416,7 @@
       <c r="D105" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="37" t="s">
+      <c r="E105" s="49" t="s">
         <v>387</v>
       </c>
       <c r="F105" s="9"/>
@@ -11425,7 +11435,7 @@
       <c r="D106" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="38"/>
+      <c r="E106" s="51"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
@@ -11442,7 +11452,7 @@
       <c r="D107" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E107" s="38"/>
+      <c r="E107" s="51"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
@@ -11459,7 +11469,7 @@
       <c r="D108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E108" s="38"/>
+      <c r="E108" s="51"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
@@ -11476,7 +11486,7 @@
       <c r="D109" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="38"/>
+      <c r="E109" s="51"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
@@ -11493,7 +11503,7 @@
       <c r="D110" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="38"/>
+      <c r="E110" s="51"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
@@ -11510,7 +11520,7 @@
       <c r="D111" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E111" s="38"/>
+      <c r="E111" s="51"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
@@ -11527,7 +11537,7 @@
       <c r="D112" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="39"/>
+      <c r="E112" s="50"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
@@ -11803,7 +11813,7 @@
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="45" t="s">
+      <c r="D141" s="52" t="s">
         <v>426</v>
       </c>
       <c r="F141" s="9"/>
@@ -11819,7 +11829,7 @@
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="45"/>
+      <c r="D142" s="52"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
@@ -11833,7 +11843,7 @@
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="45"/>
+      <c r="D143" s="52"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
@@ -11847,7 +11857,7 @@
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="45"/>
+      <c r="D144" s="52"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
@@ -11861,7 +11871,7 @@
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="45" t="s">
+      <c r="D145" s="52" t="s">
         <v>427</v>
       </c>
       <c r="F145" s="9"/>
@@ -11877,7 +11887,7 @@
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="45"/>
+      <c r="D146" s="52"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
@@ -11891,7 +11901,7 @@
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="45"/>
+      <c r="D147" s="52"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
@@ -11905,7 +11915,7 @@
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="45"/>
+      <c r="D148" s="52"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
@@ -11919,7 +11929,7 @@
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="45" t="s">
+      <c r="D149" s="52" t="s">
         <v>428</v>
       </c>
       <c r="F149" s="9"/>
@@ -11935,7 +11945,7 @@
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="45"/>
+      <c r="D150" s="52"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
@@ -11949,7 +11959,7 @@
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="45"/>
+      <c r="D151" s="52"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
@@ -11963,7 +11973,7 @@
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="45"/>
+      <c r="D152" s="52"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
@@ -11977,7 +11987,7 @@
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="45"/>
+      <c r="D153" s="52"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
@@ -11991,7 +12001,7 @@
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="45"/>
+      <c r="D154" s="52"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
@@ -12005,7 +12015,7 @@
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="45"/>
+      <c r="D155" s="52"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
@@ -12019,7 +12029,7 @@
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="45"/>
+      <c r="D156" s="52"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
@@ -12033,7 +12043,7 @@
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="D157" s="52" t="s">
         <v>429</v>
       </c>
       <c r="F157" s="9"/>
@@ -12049,7 +12059,7 @@
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="45"/>
+      <c r="D158" s="52"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
@@ -12063,7 +12073,7 @@
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="45"/>
+      <c r="D159" s="52"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
@@ -12077,7 +12087,7 @@
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="45"/>
+      <c r="D160" s="52"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
@@ -12091,7 +12101,7 @@
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="45" t="s">
+      <c r="D161" s="52" t="s">
         <v>430</v>
       </c>
       <c r="F161" s="9"/>
@@ -12107,7 +12117,7 @@
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="45"/>
+      <c r="D162" s="52"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
@@ -12121,7 +12131,7 @@
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="45"/>
+      <c r="D163" s="52"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
@@ -12135,7 +12145,7 @@
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="45"/>
+      <c r="D164" s="52"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
@@ -12149,7 +12159,7 @@
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="45" t="s">
+      <c r="D165" s="52" t="s">
         <v>564</v>
       </c>
       <c r="F165" s="9"/>
@@ -12165,7 +12175,7 @@
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="45"/>
+      <c r="D166" s="52"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
@@ -12179,7 +12189,7 @@
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="45"/>
+      <c r="D167" s="52"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
@@ -12193,7 +12203,7 @@
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="45"/>
+      <c r="D168" s="52"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
@@ -12207,7 +12217,7 @@
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="45"/>
+      <c r="D169" s="52"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
@@ -12221,7 +12231,7 @@
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="45"/>
+      <c r="D170" s="52"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
@@ -12235,7 +12245,7 @@
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="45"/>
+      <c r="D171" s="52"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
@@ -12249,7 +12259,7 @@
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="45"/>
+      <c r="D172" s="52"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
@@ -12263,7 +12273,7 @@
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="45" t="s">
+      <c r="D173" s="52" t="s">
         <v>573</v>
       </c>
       <c r="F173" s="9"/>
@@ -12279,7 +12289,7 @@
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="45"/>
+      <c r="D174" s="52"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
@@ -12293,7 +12303,7 @@
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="45"/>
+      <c r="D175" s="52"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
@@ -12307,7 +12317,7 @@
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="45"/>
+      <c r="D176" s="52"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
@@ -12321,10 +12331,10 @@
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="45" t="s">
+      <c r="D177" s="52" t="s">
         <v>578</v>
       </c>
-      <c r="E177" s="40" t="s">
+      <c r="E177" s="54" t="s">
         <v>431</v>
       </c>
       <c r="F177" s="9"/>
@@ -12340,8 +12350,8 @@
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="42"/>
-      <c r="E178" s="43"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="55"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
@@ -12355,8 +12365,8 @@
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="42"/>
-      <c r="E179" s="43"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="55"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
@@ -12370,8 +12380,8 @@
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="42"/>
-      <c r="E180" s="43"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="55"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
@@ -12385,8 +12395,8 @@
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="42"/>
-      <c r="E181" s="43"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="55"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
@@ -12400,8 +12410,8 @@
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="42"/>
-      <c r="E182" s="43"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="55"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
@@ -12412,11 +12422,11 @@
       <c r="B183" s="36" t="s">
         <v>585</v>
       </c>
-      <c r="C183" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" s="42"/>
-      <c r="E183" s="43"/>
+      <c r="C183" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="53"/>
+      <c r="E183" s="55"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
@@ -12424,7 +12434,7 @@
       <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="48" t="s">
+      <c r="B184" s="40" t="s">
         <v>586</v>
       </c>
       <c r="C184" s="2" t="s">
@@ -12440,7 +12450,7 @@
       <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="48" t="s">
+      <c r="B185" s="40" t="s">
         <v>587</v>
       </c>
       <c r="C185" s="2" t="s">
@@ -12454,7 +12464,7 @@
       <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186" s="48" t="s">
+      <c r="B186" s="40" t="s">
         <v>588</v>
       </c>
       <c r="C186" s="2" t="s">
@@ -12468,10 +12478,10 @@
       <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="48" t="s">
+      <c r="B187" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="C187" s="44" t="s">
+      <c r="C187" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D187" s="56"/>
@@ -12840,7 +12850,7 @@
       <c r="A223" s="4">
         <v>222</v>
       </c>
-      <c r="B223" s="55" t="s">
+      <c r="B223" s="47" t="s">
         <v>835</v>
       </c>
       <c r="C223" s="22" t="s">
@@ -12854,7 +12864,7 @@
       <c r="A224" s="4">
         <v>223</v>
       </c>
-      <c r="B224" s="55" t="s">
+      <c r="B224" s="47" t="s">
         <v>836</v>
       </c>
       <c r="C224" s="22" t="s">
@@ -12868,12 +12878,8 @@
       <c r="A225" s="4">
         <v>224</v>
       </c>
-      <c r="B225" s="55" t="s">
-        <v>837</v>
-      </c>
-      <c r="C225" s="22" t="s">
-        <v>226</v>
-      </c>
+      <c r="B225" s="35"/>
+      <c r="C225" s="22"/>
       <c r="D225" s="11"/>
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
@@ -12882,12 +12888,8 @@
       <c r="A226" s="4">
         <v>225</v>
       </c>
-      <c r="B226" s="55" t="s">
-        <v>838</v>
-      </c>
-      <c r="C226" s="22" t="s">
-        <v>226</v>
-      </c>
+      <c r="B226" s="35"/>
+      <c r="C226" s="22"/>
       <c r="D226" s="11"/>
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
@@ -12924,7 +12926,7 @@
       <c r="A231" s="4">
         <v>230</v>
       </c>
-      <c r="B231" s="57" t="s">
+      <c r="B231" s="48" t="s">
         <v>352</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -12933,7 +12935,7 @@
       <c r="D231" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E231" s="47" t="s">
+      <c r="E231" s="39" t="s">
         <v>859</v>
       </c>
       <c r="F231" s="9"/>
@@ -13135,6 +13137,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13143,12 +13151,6 @@
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="E91:E104"/>
     <mergeCell ref="E105:E112"/>
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D173:D176"/>
     <mergeCell ref="D141:D144"/>
     <mergeCell ref="D145:D148"/>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="KNX_1 (192.168.1.51)" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="855">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -3551,9 +3551,6 @@
   </si>
   <si>
     <t>Garaż</t>
-  </si>
-  <si>
-    <t>Pom 1.01 Temperatura aktualna (odczyt)</t>
   </si>
   <si>
     <t>P14 (6+T)</t>
@@ -4894,9 +4891,6 @@
     <t>P9 Klawisz 14</t>
   </si>
   <si>
-    <t>Pom 1.01 Temperatura aktualna</t>
-  </si>
-  <si>
     <t xml:space="preserve">P32 Klawisz 1       </t>
   </si>
   <si>
@@ -4921,9 +4915,6 @@
     <t>P32 Klawisz 8</t>
   </si>
   <si>
-    <t>Pom 1.01 Temperatura zadana</t>
-  </si>
-  <si>
     <t>P4 Temp_Act</t>
   </si>
   <si>
@@ -4993,9 +4984,6 @@
     <t>P29 Temp_Act (odczyt)</t>
   </si>
   <si>
-    <t>P31 Temp_Act (odczyt)</t>
-  </si>
-  <si>
     <t>Czujka Ruchu 01</t>
   </si>
   <si>
@@ -5051,9 +5039,6 @@
   </si>
   <si>
     <t>P13 Temp_Set</t>
-  </si>
-  <si>
-    <t>Przycisk na boku ściany w salonie</t>
   </si>
   <si>
     <t>Do czego potrzebne? Co na którym bajcie?</t>
@@ -5224,7 +5209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5315,9 +5300,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5326,15 +5308,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5351,10 +5324,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5374,6 +5347,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5682,8 +5661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5691,7 +5670,7 @@
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="50.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17" style="13" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" style="13" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="10"/>
@@ -5723,8 +5702,8 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>603</v>
+      <c r="B2" s="41" t="s">
+        <v>602</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -5732,7 +5711,7 @@
       <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="45" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="9"/>
@@ -5742,8 +5721,8 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>604</v>
+      <c r="B3" s="42" t="s">
+        <v>603</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -5751,14 +5730,14 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>605</v>
+      <c r="B4" s="42" t="s">
+        <v>604</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -5766,14 +5745,14 @@
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>606</v>
+      <c r="B5" s="42" t="s">
+        <v>605</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -5781,14 +5760,14 @@
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>607</v>
+      <c r="B6" s="42" t="s">
+        <v>606</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -5796,14 +5775,14 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>608</v>
+      <c r="B7" s="42" t="s">
+        <v>607</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -5811,14 +5790,14 @@
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>609</v>
+      <c r="B8" s="42" t="s">
+        <v>608</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -5826,14 +5805,14 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>610</v>
+      <c r="B9" s="42" t="s">
+        <v>609</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -5841,14 +5820,14 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>611</v>
+      <c r="B10" s="42" t="s">
+        <v>610</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -5856,14 +5835,14 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>612</v>
+      <c r="B11" s="42" t="s">
+        <v>611</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -5871,14 +5850,14 @@
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>613</v>
+      <c r="B12" s="42" t="s">
+        <v>612</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -5886,14 +5865,14 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>614</v>
+      <c r="B13" s="42" t="s">
+        <v>613</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -5901,14 +5880,14 @@
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>615</v>
+      <c r="B14" s="42" t="s">
+        <v>614</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -5916,14 +5895,14 @@
       <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>616</v>
+      <c r="B15" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -5931,14 +5910,14 @@
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>413</v>
+      <c r="B16" s="41" t="s">
+        <v>412</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -5947,15 +5926,15 @@
         <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>414</v>
+      <c r="B17" s="41" t="s">
+        <v>413</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -5964,15 +5943,15 @@
         <v>20</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>617</v>
+      <c r="B18" s="42" t="s">
+        <v>616</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -5980,7 +5959,7 @@
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="45" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5988,8 +5967,8 @@
       <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>618</v>
+      <c r="B19" s="42" t="s">
+        <v>617</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -5997,14 +5976,14 @@
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>619</v>
+      <c r="B20" s="42" t="s">
+        <v>618</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -6012,14 +5991,14 @@
       <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="46" t="s">
-        <v>620</v>
+      <c r="B21" s="42" t="s">
+        <v>619</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -6027,14 +6006,14 @@
       <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>621</v>
+      <c r="B22" s="42" t="s">
+        <v>620</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -6042,14 +6021,14 @@
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="46" t="s">
-        <v>622</v>
+      <c r="B23" s="42" t="s">
+        <v>621</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -6057,14 +6036,14 @@
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="51"/>
+      <c r="E23" s="46"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="46" t="s">
-        <v>623</v>
+      <c r="B24" s="42" t="s">
+        <v>622</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -6072,14 +6051,14 @@
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="51"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>624</v>
+      <c r="B25" s="42" t="s">
+        <v>623</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -6087,14 +6066,14 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="50"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="45" t="s">
-        <v>625</v>
+      <c r="B26" s="41" t="s">
+        <v>624</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -6102,7 +6081,7 @@
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="45" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6110,8 +6089,8 @@
       <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>626</v>
+      <c r="B27" s="41" t="s">
+        <v>625</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -6119,14 +6098,14 @@
       <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>627</v>
+      <c r="B28" s="41" t="s">
+        <v>626</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -6134,14 +6113,14 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="46"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="45" t="s">
-        <v>628</v>
+      <c r="B29" s="41" t="s">
+        <v>627</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -6149,14 +6128,14 @@
       <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="46"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>629</v>
+      <c r="B30" s="41" t="s">
+        <v>628</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -6164,14 +6143,14 @@
       <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="46"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>630</v>
+      <c r="B31" s="41" t="s">
+        <v>629</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -6179,14 +6158,14 @@
       <c r="D31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="51"/>
+      <c r="E31" s="46"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>631</v>
+      <c r="B32" s="41" t="s">
+        <v>630</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -6194,14 +6173,14 @@
       <c r="D32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="51"/>
+      <c r="E32" s="46"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="45" t="s">
-        <v>632</v>
+      <c r="B33" s="41" t="s">
+        <v>631</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -6209,14 +6188,14 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="51"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>633</v>
+      <c r="B34" s="41" t="s">
+        <v>632</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -6224,14 +6203,14 @@
       <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>634</v>
+      <c r="B35" s="41" t="s">
+        <v>633</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -6239,14 +6218,14 @@
       <c r="D35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="46"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="45" t="s">
-        <v>635</v>
+      <c r="B36" s="41" t="s">
+        <v>634</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -6254,14 +6233,14 @@
       <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="46"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="45" t="s">
-        <v>636</v>
+      <c r="B37" s="41" t="s">
+        <v>635</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -6269,14 +6248,14 @@
       <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="46"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="45" t="s">
-        <v>637</v>
+      <c r="B38" s="41" t="s">
+        <v>636</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -6284,14 +6263,14 @@
       <c r="D38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="46"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="45" t="s">
-        <v>638</v>
+      <c r="B39" s="41" t="s">
+        <v>637</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -6299,14 +6278,14 @@
       <c r="D39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="50"/>
+      <c r="E39" s="47"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="46" t="s">
-        <v>639</v>
+      <c r="B40" s="42" t="s">
+        <v>638</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -6314,7 +6293,7 @@
       <c r="D40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="45" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6322,8 +6301,8 @@
       <c r="A41" s="14">
         <v>40</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>640</v>
+      <c r="B41" s="42" t="s">
+        <v>639</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -6331,14 +6310,14 @@
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>41</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>641</v>
+      <c r="B42" s="42" t="s">
+        <v>640</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -6346,14 +6325,14 @@
       <c r="D42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="46"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>642</v>
+      <c r="B43" s="42" t="s">
+        <v>641</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
@@ -6361,14 +6340,14 @@
       <c r="D43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
-      <c r="B44" s="46" t="s">
-        <v>643</v>
+      <c r="B44" s="42" t="s">
+        <v>642</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
@@ -6376,14 +6355,14 @@
       <c r="D44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>44</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>644</v>
+      <c r="B45" s="42" t="s">
+        <v>643</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -6391,14 +6370,14 @@
       <c r="D45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
-      <c r="B46" s="46" t="s">
-        <v>645</v>
+      <c r="B46" s="42" t="s">
+        <v>644</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -6406,14 +6385,14 @@
       <c r="D46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="46"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>646</v>
+      <c r="B47" s="42" t="s">
+        <v>645</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
@@ -6421,14 +6400,14 @@
       <c r="D47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="51"/>
+      <c r="E47" s="46"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
-      <c r="B48" s="46" t="s">
-        <v>647</v>
+      <c r="B48" s="42" t="s">
+        <v>646</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -6436,14 +6415,14 @@
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>648</v>
+      <c r="B49" s="42" t="s">
+        <v>647</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
@@ -6451,14 +6430,14 @@
       <c r="D49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
-      <c r="B50" s="46" t="s">
-        <v>649</v>
+      <c r="B50" s="42" t="s">
+        <v>648</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
@@ -6466,14 +6445,14 @@
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="46"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>50</v>
       </c>
-      <c r="B51" s="46" t="s">
-        <v>650</v>
+      <c r="B51" s="42" t="s">
+        <v>649</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -6481,14 +6460,14 @@
       <c r="D51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="51"/>
+      <c r="E51" s="46"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>51</v>
       </c>
-      <c r="B52" s="46" t="s">
-        <v>651</v>
+      <c r="B52" s="42" t="s">
+        <v>650</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -6496,14 +6475,14 @@
       <c r="D52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="51"/>
+      <c r="E52" s="46"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
-      <c r="B53" s="46" t="s">
-        <v>652</v>
+      <c r="B53" s="42" t="s">
+        <v>651</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -6511,14 +6490,14 @@
       <c r="D53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="50"/>
+      <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>53</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>653</v>
+      <c r="B54" s="41" t="s">
+        <v>652</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -6526,7 +6505,7 @@
       <c r="D54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="45" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6534,8 +6513,8 @@
       <c r="A55" s="14">
         <v>54</v>
       </c>
-      <c r="B55" s="45" t="s">
-        <v>654</v>
+      <c r="B55" s="41" t="s">
+        <v>653</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
@@ -6543,14 +6522,14 @@
       <c r="D55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="51"/>
+      <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>55</v>
       </c>
-      <c r="B56" s="45" t="s">
-        <v>655</v>
+      <c r="B56" s="41" t="s">
+        <v>654</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -6558,14 +6537,14 @@
       <c r="D56" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="51"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>56</v>
       </c>
-      <c r="B57" s="45" t="s">
-        <v>656</v>
+      <c r="B57" s="41" t="s">
+        <v>655</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -6573,14 +6552,14 @@
       <c r="D57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="51"/>
+      <c r="E57" s="46"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>57</v>
       </c>
-      <c r="B58" s="45" t="s">
-        <v>657</v>
+      <c r="B58" s="41" t="s">
+        <v>656</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -6588,14 +6567,14 @@
       <c r="D58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="51"/>
+      <c r="E58" s="46"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>58</v>
       </c>
-      <c r="B59" s="45" t="s">
-        <v>658</v>
+      <c r="B59" s="41" t="s">
+        <v>657</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -6603,14 +6582,14 @@
       <c r="D59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="51"/>
+      <c r="E59" s="46"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>59</v>
       </c>
-      <c r="B60" s="45" t="s">
-        <v>659</v>
+      <c r="B60" s="41" t="s">
+        <v>658</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -6618,14 +6597,14 @@
       <c r="D60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="51"/>
+      <c r="E60" s="46"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>60</v>
       </c>
-      <c r="B61" s="45" t="s">
-        <v>660</v>
+      <c r="B61" s="41" t="s">
+        <v>659</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
@@ -6633,14 +6612,14 @@
       <c r="D61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="50"/>
+      <c r="E61" s="47"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>61</v>
       </c>
-      <c r="B62" s="45" t="s">
-        <v>661</v>
+      <c r="B62" s="41" t="s">
+        <v>660</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>4</v>
@@ -6648,7 +6627,7 @@
       <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="45" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6656,8 +6635,8 @@
       <c r="A63" s="14">
         <v>62</v>
       </c>
-      <c r="B63" s="45" t="s">
-        <v>662</v>
+      <c r="B63" s="41" t="s">
+        <v>661</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
@@ -6665,14 +6644,14 @@
       <c r="D63" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="51"/>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>63</v>
       </c>
-      <c r="B64" s="46" t="s">
-        <v>663</v>
+      <c r="B64" s="42" t="s">
+        <v>662</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -6680,14 +6659,14 @@
       <c r="D64" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="51"/>
+      <c r="E64" s="46"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>64</v>
       </c>
-      <c r="B65" s="46" t="s">
-        <v>664</v>
+      <c r="B65" s="42" t="s">
+        <v>663</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
@@ -6695,14 +6674,14 @@
       <c r="D65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="51"/>
+      <c r="E65" s="46"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>65</v>
       </c>
-      <c r="B66" s="46" t="s">
-        <v>665</v>
+      <c r="B66" s="42" t="s">
+        <v>664</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
@@ -6710,14 +6689,14 @@
       <c r="D66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="46"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>66</v>
       </c>
-      <c r="B67" s="46" t="s">
-        <v>666</v>
+      <c r="B67" s="42" t="s">
+        <v>665</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>4</v>
@@ -6725,14 +6704,14 @@
       <c r="D67" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="46"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>67</v>
       </c>
-      <c r="B68" s="46" t="s">
-        <v>667</v>
+      <c r="B68" s="42" t="s">
+        <v>666</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>4</v>
@@ -6740,14 +6719,14 @@
       <c r="D68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="46"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>68</v>
       </c>
-      <c r="B69" s="46" t="s">
-        <v>668</v>
+      <c r="B69" s="42" t="s">
+        <v>667</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>4</v>
@@ -6755,14 +6734,14 @@
       <c r="D69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="50"/>
+      <c r="E69" s="47"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>69</v>
       </c>
-      <c r="B70" s="45" t="s">
-        <v>669</v>
+      <c r="B70" s="41" t="s">
+        <v>668</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -6770,7 +6749,7 @@
       <c r="D70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E70" s="45" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6778,8 +6757,8 @@
       <c r="A71" s="14">
         <v>70</v>
       </c>
-      <c r="B71" s="45" t="s">
-        <v>670</v>
+      <c r="B71" s="41" t="s">
+        <v>669</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
@@ -6787,14 +6766,14 @@
       <c r="D71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="46"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>71</v>
       </c>
-      <c r="B72" s="45" t="s">
-        <v>671</v>
+      <c r="B72" s="41" t="s">
+        <v>670</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>4</v>
@@ -6802,14 +6781,14 @@
       <c r="D72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="51"/>
+      <c r="E72" s="46"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>72</v>
       </c>
-      <c r="B73" s="45" t="s">
-        <v>672</v>
+      <c r="B73" s="41" t="s">
+        <v>671</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>4</v>
@@ -6817,14 +6796,14 @@
       <c r="D73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="51"/>
+      <c r="E73" s="46"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>73</v>
       </c>
-      <c r="B74" s="45" t="s">
-        <v>673</v>
+      <c r="B74" s="41" t="s">
+        <v>672</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -6832,14 +6811,14 @@
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="46"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>74</v>
       </c>
-      <c r="B75" s="45" t="s">
-        <v>674</v>
+      <c r="B75" s="41" t="s">
+        <v>673</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
@@ -6847,14 +6826,14 @@
       <c r="D75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="51"/>
+      <c r="E75" s="46"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>75</v>
       </c>
-      <c r="B76" s="45" t="s">
-        <v>675</v>
+      <c r="B76" s="41" t="s">
+        <v>674</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>4</v>
@@ -6862,14 +6841,14 @@
       <c r="D76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="51"/>
+      <c r="E76" s="46"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>76</v>
       </c>
-      <c r="B77" s="45" t="s">
-        <v>676</v>
+      <c r="B77" s="41" t="s">
+        <v>675</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>4</v>
@@ -6877,14 +6856,14 @@
       <c r="D77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="50"/>
+      <c r="E77" s="47"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -6893,15 +6872,15 @@
         <v>82</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>78</v>
       </c>
-      <c r="B79" s="45" t="s">
-        <v>677</v>
+      <c r="B79" s="41" t="s">
+        <v>676</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>4</v>
@@ -6909,8 +6888,8 @@
       <c r="D79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="49" t="s">
-        <v>410</v>
+      <c r="E79" s="45" t="s">
+        <v>409</v>
       </c>
       <c r="F79" s="30"/>
     </row>
@@ -6918,8 +6897,8 @@
       <c r="A80" s="14">
         <v>79</v>
       </c>
-      <c r="B80" s="45" t="s">
-        <v>678</v>
+      <c r="B80" s="41" t="s">
+        <v>677</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>4</v>
@@ -6927,15 +6906,15 @@
       <c r="D80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="51"/>
+      <c r="E80" s="46"/>
       <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>80</v>
       </c>
-      <c r="B81" s="45" t="s">
-        <v>679</v>
+      <c r="B81" s="41" t="s">
+        <v>678</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -6943,15 +6922,15 @@
       <c r="D81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="51"/>
+      <c r="E81" s="46"/>
       <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>81</v>
       </c>
-      <c r="B82" s="45" t="s">
-        <v>680</v>
+      <c r="B82" s="41" t="s">
+        <v>679</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
@@ -6959,14 +6938,14 @@
       <c r="D82" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="51"/>
+      <c r="E82" s="46"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>82</v>
       </c>
-      <c r="B83" s="45" t="s">
-        <v>681</v>
+      <c r="B83" s="41" t="s">
+        <v>680</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
@@ -6974,15 +6953,15 @@
       <c r="D83" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="51"/>
+      <c r="E83" s="46"/>
       <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>83</v>
       </c>
-      <c r="B84" s="45" t="s">
-        <v>682</v>
+      <c r="B84" s="41" t="s">
+        <v>681</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>4</v>
@@ -6990,15 +6969,15 @@
       <c r="D84" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="51"/>
+      <c r="E84" s="46"/>
       <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>84</v>
       </c>
-      <c r="B85" s="45" t="s">
-        <v>683</v>
+      <c r="B85" s="41" t="s">
+        <v>682</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
@@ -7006,15 +6985,15 @@
       <c r="D85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E85" s="51"/>
+      <c r="E85" s="46"/>
       <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>85</v>
       </c>
-      <c r="B86" s="45" t="s">
-        <v>684</v>
+      <c r="B86" s="41" t="s">
+        <v>683</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>4</v>
@@ -7022,15 +7001,15 @@
       <c r="D86" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="50"/>
+      <c r="E86" s="47"/>
       <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>86</v>
       </c>
-      <c r="B87" s="45" t="s">
-        <v>685</v>
+      <c r="B87" s="41" t="s">
+        <v>684</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
@@ -7038,7 +7017,7 @@
       <c r="D87" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="49" t="s">
+      <c r="E87" s="45" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7046,8 +7025,8 @@
       <c r="A88" s="14">
         <v>87</v>
       </c>
-      <c r="B88" s="45" t="s">
-        <v>686</v>
+      <c r="B88" s="41" t="s">
+        <v>685</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -7055,14 +7034,14 @@
       <c r="D88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="50"/>
+      <c r="E88" s="47"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>88</v>
       </c>
-      <c r="B89" s="45" t="s">
-        <v>687</v>
+      <c r="B89" s="41" t="s">
+        <v>686</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -7070,7 +7049,7 @@
       <c r="D89" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E89" s="45" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7078,8 +7057,8 @@
       <c r="A90" s="14">
         <v>89</v>
       </c>
-      <c r="B90" s="45" t="s">
-        <v>688</v>
+      <c r="B90" s="41" t="s">
+        <v>687</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>4</v>
@@ -7087,14 +7066,14 @@
       <c r="D90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="51"/>
+      <c r="E90" s="46"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>90</v>
       </c>
-      <c r="B91" s="45" t="s">
-        <v>689</v>
+      <c r="B91" s="41" t="s">
+        <v>688</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
@@ -7102,14 +7081,14 @@
       <c r="D91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="51"/>
+      <c r="E91" s="46"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>91</v>
       </c>
-      <c r="B92" s="45" t="s">
-        <v>690</v>
+      <c r="B92" s="41" t="s">
+        <v>689</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -7117,14 +7096,14 @@
       <c r="D92" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="51"/>
+      <c r="E92" s="46"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>92</v>
       </c>
-      <c r="B93" s="45" t="s">
-        <v>691</v>
+      <c r="B93" s="41" t="s">
+        <v>690</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
@@ -7132,14 +7111,14 @@
       <c r="D93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E93" s="51"/>
+      <c r="E93" s="46"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>93</v>
       </c>
-      <c r="B94" s="45" t="s">
-        <v>692</v>
+      <c r="B94" s="41" t="s">
+        <v>691</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>4</v>
@@ -7147,14 +7126,14 @@
       <c r="D94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="51"/>
+      <c r="E94" s="46"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>94</v>
       </c>
-      <c r="B95" s="45" t="s">
-        <v>693</v>
+      <c r="B95" s="41" t="s">
+        <v>692</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
@@ -7162,14 +7141,14 @@
       <c r="D95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="51"/>
+      <c r="E95" s="46"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>95</v>
       </c>
-      <c r="B96" s="45" t="s">
-        <v>694</v>
+      <c r="B96" s="41" t="s">
+        <v>693</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>4</v>
@@ -7177,14 +7156,14 @@
       <c r="D96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="51"/>
+      <c r="E96" s="46"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>96</v>
       </c>
-      <c r="B97" s="45" t="s">
-        <v>695</v>
+      <c r="B97" s="41" t="s">
+        <v>694</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>4</v>
@@ -7192,14 +7171,14 @@
       <c r="D97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E97" s="51"/>
+      <c r="E97" s="46"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>97</v>
       </c>
-      <c r="B98" s="45" t="s">
-        <v>696</v>
+      <c r="B98" s="41" t="s">
+        <v>695</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
@@ -7207,14 +7186,14 @@
       <c r="D98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="51"/>
+      <c r="E98" s="46"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>98</v>
       </c>
-      <c r="B99" s="45" t="s">
-        <v>697</v>
+      <c r="B99" s="41" t="s">
+        <v>696</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>4</v>
@@ -7222,14 +7201,14 @@
       <c r="D99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="51"/>
+      <c r="E99" s="46"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>99</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>698</v>
+      <c r="B100" s="41" t="s">
+        <v>697</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>4</v>
@@ -7237,14 +7216,14 @@
       <c r="D100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="51"/>
+      <c r="E100" s="46"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>100</v>
       </c>
-      <c r="B101" s="45" t="s">
-        <v>699</v>
+      <c r="B101" s="41" t="s">
+        <v>698</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>4</v>
@@ -7252,14 +7231,14 @@
       <c r="D101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="51"/>
+      <c r="E101" s="46"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>101</v>
       </c>
-      <c r="B102" s="45" t="s">
-        <v>700</v>
+      <c r="B102" s="41" t="s">
+        <v>699</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
@@ -7267,14 +7246,14 @@
       <c r="D102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="50"/>
+      <c r="E102" s="47"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>102</v>
       </c>
-      <c r="B103" s="46" t="s">
-        <v>701</v>
+      <c r="B103" s="42" t="s">
+        <v>700</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
@@ -7282,7 +7261,7 @@
       <c r="D103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="49" t="s">
+      <c r="E103" s="45" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7290,8 +7269,8 @@
       <c r="A104" s="14">
         <v>103</v>
       </c>
-      <c r="B104" s="46" t="s">
-        <v>702</v>
+      <c r="B104" s="42" t="s">
+        <v>701</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
@@ -7299,14 +7278,14 @@
       <c r="D104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="51"/>
+      <c r="E104" s="46"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>104</v>
       </c>
-      <c r="B105" s="46" t="s">
-        <v>703</v>
+      <c r="B105" s="42" t="s">
+        <v>702</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
@@ -7314,14 +7293,14 @@
       <c r="D105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="51"/>
+      <c r="E105" s="46"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>105</v>
       </c>
-      <c r="B106" s="46" t="s">
-        <v>704</v>
+      <c r="B106" s="42" t="s">
+        <v>703</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -7329,14 +7308,14 @@
       <c r="D106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E106" s="51"/>
+      <c r="E106" s="46"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>106</v>
       </c>
-      <c r="B107" s="46" t="s">
-        <v>705</v>
+      <c r="B107" s="42" t="s">
+        <v>704</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
@@ -7344,14 +7323,14 @@
       <c r="D107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="51"/>
+      <c r="E107" s="46"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>107</v>
       </c>
-      <c r="B108" s="46" t="s">
-        <v>706</v>
+      <c r="B108" s="42" t="s">
+        <v>705</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
@@ -7359,14 +7338,14 @@
       <c r="D108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E108" s="51"/>
+      <c r="E108" s="46"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>108</v>
       </c>
-      <c r="B109" s="46" t="s">
-        <v>707</v>
+      <c r="B109" s="42" t="s">
+        <v>706</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
@@ -7374,14 +7353,14 @@
       <c r="D109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="51"/>
+      <c r="E109" s="46"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>109</v>
       </c>
-      <c r="B110" s="46" t="s">
-        <v>708</v>
+      <c r="B110" s="42" t="s">
+        <v>707</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
@@ -7389,14 +7368,14 @@
       <c r="D110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="50"/>
+      <c r="E110" s="47"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>110</v>
       </c>
-      <c r="B111" s="45" t="s">
-        <v>709</v>
+      <c r="B111" s="41" t="s">
+        <v>708</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -7404,7 +7383,7 @@
       <c r="D111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="49" t="s">
+      <c r="E111" s="45" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7412,8 +7391,8 @@
       <c r="A112" s="14">
         <v>111</v>
       </c>
-      <c r="B112" s="46" t="s">
-        <v>710</v>
+      <c r="B112" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
@@ -7421,14 +7400,14 @@
       <c r="D112" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E112" s="51"/>
+      <c r="E112" s="46"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>112</v>
       </c>
-      <c r="B113" s="46" t="s">
-        <v>711</v>
+      <c r="B113" s="42" t="s">
+        <v>710</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>4</v>
@@ -7436,14 +7415,14 @@
       <c r="D113" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="51"/>
+      <c r="E113" s="46"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>113</v>
       </c>
-      <c r="B114" s="46" t="s">
-        <v>712</v>
+      <c r="B114" s="42" t="s">
+        <v>711</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
@@ -7451,14 +7430,14 @@
       <c r="D114" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="51"/>
+      <c r="E114" s="46"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>114</v>
       </c>
-      <c r="B115" s="46" t="s">
-        <v>713</v>
+      <c r="B115" s="42" t="s">
+        <v>712</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>4</v>
@@ -7466,14 +7445,14 @@
       <c r="D115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="51"/>
+      <c r="E115" s="46"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
         <v>115</v>
       </c>
-      <c r="B116" s="46" t="s">
-        <v>714</v>
+      <c r="B116" s="42" t="s">
+        <v>713</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>4</v>
@@ -7481,14 +7460,14 @@
       <c r="D116" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="51"/>
+      <c r="E116" s="46"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>116</v>
       </c>
-      <c r="B117" s="46" t="s">
-        <v>715</v>
+      <c r="B117" s="42" t="s">
+        <v>714</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>4</v>
@@ -7496,14 +7475,14 @@
       <c r="D117" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="51"/>
+      <c r="E117" s="46"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>117</v>
       </c>
-      <c r="B118" s="46" t="s">
-        <v>716</v>
+      <c r="B118" s="42" t="s">
+        <v>715</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
@@ -7511,14 +7490,14 @@
       <c r="D118" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="51"/>
+      <c r="E118" s="46"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>118</v>
       </c>
-      <c r="B119" s="46" t="s">
-        <v>717</v>
+      <c r="B119" s="42" t="s">
+        <v>716</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>4</v>
@@ -7526,14 +7505,14 @@
       <c r="D119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="51"/>
+      <c r="E119" s="46"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
         <v>119</v>
       </c>
-      <c r="B120" s="45" t="s">
-        <v>718</v>
+      <c r="B120" s="41" t="s">
+        <v>717</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
@@ -7541,14 +7520,14 @@
       <c r="D120" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E120" s="51"/>
+      <c r="E120" s="46"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>120</v>
       </c>
-      <c r="B121" s="46" t="s">
-        <v>719</v>
+      <c r="B121" s="42" t="s">
+        <v>718</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>4</v>
@@ -7556,14 +7535,14 @@
       <c r="D121" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="51"/>
+      <c r="E121" s="46"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
         <v>121</v>
       </c>
-      <c r="B122" s="46" t="s">
-        <v>720</v>
+      <c r="B122" s="42" t="s">
+        <v>719</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>4</v>
@@ -7571,14 +7550,14 @@
       <c r="D122" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E122" s="51"/>
+      <c r="E122" s="46"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>122</v>
       </c>
-      <c r="B123" s="46" t="s">
-        <v>721</v>
+      <c r="B123" s="42" t="s">
+        <v>720</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>4</v>
@@ -7586,14 +7565,14 @@
       <c r="D123" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E123" s="51"/>
+      <c r="E123" s="46"/>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
@@ -7601,14 +7580,14 @@
       <c r="D124" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="50"/>
+      <c r="E124" s="47"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>124</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>4</v>
@@ -7616,7 +7595,7 @@
       <c r="D125" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="49" t="s">
+      <c r="E125" s="45" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7625,7 +7604,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
@@ -7633,14 +7612,14 @@
       <c r="D126" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="51"/>
+      <c r="E126" s="46"/>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
         <v>126</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>4</v>
@@ -7648,14 +7627,14 @@
       <c r="D127" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="51"/>
+      <c r="E127" s="46"/>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>4</v>
@@ -7663,14 +7642,14 @@
       <c r="D128" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E128" s="51"/>
+      <c r="E128" s="46"/>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>128</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>4</v>
@@ -7678,14 +7657,14 @@
       <c r="D129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="51"/>
+      <c r="E129" s="46"/>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
         <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
@@ -7693,14 +7672,14 @@
       <c r="D130" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="51"/>
+      <c r="E130" s="46"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>4</v>
@@ -7708,14 +7687,14 @@
       <c r="D131" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E131" s="51"/>
+      <c r="E131" s="46"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
         <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>4</v>
@@ -7723,14 +7702,14 @@
       <c r="D132" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E132" s="51"/>
+      <c r="E132" s="46"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
@@ -7738,14 +7717,14 @@
       <c r="D133" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E133" s="51"/>
+      <c r="E133" s="46"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
         <v>133</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
@@ -7753,14 +7732,14 @@
       <c r="D134" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E134" s="51"/>
+      <c r="E134" s="46"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>4</v>
@@ -7768,14 +7747,14 @@
       <c r="D135" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="51"/>
+      <c r="E135" s="46"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>135</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
@@ -7783,14 +7762,14 @@
       <c r="D136" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E136" s="51"/>
+      <c r="E136" s="46"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
@@ -7798,14 +7777,14 @@
       <c r="D137" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="51"/>
+      <c r="E137" s="46"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
@@ -7813,14 +7792,14 @@
       <c r="D138" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E138" s="50"/>
+      <c r="E138" s="47"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
@@ -7828,7 +7807,7 @@
       <c r="D139" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E139" s="49" t="s">
+      <c r="E139" s="45" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7837,7 +7816,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
@@ -7845,14 +7824,14 @@
       <c r="D140" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E140" s="51"/>
+      <c r="E140" s="46"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
@@ -7860,14 +7839,14 @@
       <c r="D141" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E141" s="51"/>
+      <c r="E141" s="46"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>141</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
@@ -7875,14 +7854,14 @@
       <c r="D142" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="51"/>
+      <c r="E142" s="46"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>142</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
@@ -7890,14 +7869,14 @@
       <c r="D143" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E143" s="51"/>
+      <c r="E143" s="46"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>143</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
@@ -7905,14 +7884,14 @@
       <c r="D144" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="51"/>
+      <c r="E144" s="46"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
@@ -7920,14 +7899,14 @@
       <c r="D145" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E145" s="51"/>
+      <c r="E145" s="46"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
@@ -7935,14 +7914,14 @@
       <c r="D146" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E146" s="50"/>
+      <c r="E146" s="47"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>146</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
@@ -7951,7 +7930,7 @@
         <v>151</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F147" s="12"/>
     </row>
@@ -7960,7 +7939,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
@@ -7968,7 +7947,7 @@
       <c r="D148" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E148" s="49" t="s">
+      <c r="E148" s="45" t="s">
         <v>369</v>
       </c>
       <c r="F148" s="30"/>
@@ -7978,7 +7957,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
@@ -7986,7 +7965,7 @@
       <c r="D149" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E149" s="51"/>
+      <c r="E149" s="46"/>
       <c r="F149" s="30"/>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7994,7 +7973,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
@@ -8002,7 +7981,7 @@
       <c r="D150" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="51"/>
+      <c r="E150" s="46"/>
       <c r="F150" s="30"/>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8010,7 +7989,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
@@ -8018,7 +7997,7 @@
       <c r="D151" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E151" s="51"/>
+      <c r="E151" s="46"/>
       <c r="F151" s="30"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8026,7 +8005,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>4</v>
@@ -8034,7 +8013,7 @@
       <c r="D152" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E152" s="51"/>
+      <c r="E152" s="46"/>
       <c r="F152" s="30"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8042,7 +8021,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
@@ -8050,7 +8029,7 @@
       <c r="D153" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E153" s="51"/>
+      <c r="E153" s="46"/>
       <c r="F153" s="30"/>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8058,7 +8037,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
@@ -8066,7 +8045,7 @@
       <c r="D154" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="51"/>
+      <c r="E154" s="46"/>
       <c r="F154" s="30"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8074,7 +8053,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
@@ -8082,7 +8061,7 @@
       <c r="D155" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="50"/>
+      <c r="E155" s="47"/>
       <c r="F155" s="30"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8090,7 +8069,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
@@ -8098,7 +8077,7 @@
       <c r="D156" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E156" s="49" t="s">
+      <c r="E156" s="45" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8107,7 +8086,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
@@ -8115,14 +8094,14 @@
       <c r="D157" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="51"/>
+      <c r="E157" s="46"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>157</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
@@ -8130,14 +8109,14 @@
       <c r="D158" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E158" s="51"/>
+      <c r="E158" s="46"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
@@ -8145,14 +8124,14 @@
       <c r="D159" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E159" s="51"/>
+      <c r="E159" s="46"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>159</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
@@ -8160,14 +8139,14 @@
       <c r="D160" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E160" s="51"/>
+      <c r="E160" s="46"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>160</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
@@ -8175,14 +8154,14 @@
       <c r="D161" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E161" s="51"/>
+      <c r="E161" s="46"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
         <v>161</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
@@ -8190,14 +8169,14 @@
       <c r="D162" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E162" s="51"/>
+      <c r="E162" s="46"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>162</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
@@ -8205,14 +8184,14 @@
       <c r="D163" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="51"/>
+      <c r="E163" s="46"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>163</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>4</v>
@@ -8220,14 +8199,14 @@
       <c r="D164" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E164" s="51"/>
+      <c r="E164" s="46"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>164</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>4</v>
@@ -8235,14 +8214,14 @@
       <c r="D165" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E165" s="51"/>
+      <c r="E165" s="46"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
         <v>165</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
@@ -8250,14 +8229,14 @@
       <c r="D166" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="51"/>
+      <c r="E166" s="46"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>166</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>4</v>
@@ -8265,14 +8244,14 @@
       <c r="D167" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E167" s="51"/>
+      <c r="E167" s="46"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>167</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>4</v>
@@ -8280,14 +8259,14 @@
       <c r="D168" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E168" s="51"/>
+      <c r="E168" s="46"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>168</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>4</v>
@@ -8295,14 +8274,14 @@
       <c r="D169" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E169" s="50"/>
+      <c r="E169" s="47"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
         <v>169</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
@@ -8310,7 +8289,7 @@
       <c r="D170" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="49" t="s">
+      <c r="E170" s="45" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8319,7 +8298,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>4</v>
@@ -8327,14 +8306,14 @@
       <c r="D171" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="51"/>
+      <c r="E171" s="46"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>171</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>4</v>
@@ -8342,14 +8321,14 @@
       <c r="D172" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="51"/>
+      <c r="E172" s="46"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>172</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>4</v>
@@ -8357,14 +8336,14 @@
       <c r="D173" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="51"/>
+      <c r="E173" s="46"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
         <v>173</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
@@ -8372,14 +8351,14 @@
       <c r="D174" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="51"/>
+      <c r="E174" s="46"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>4</v>
@@ -8387,14 +8366,14 @@
       <c r="D175" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="50"/>
+      <c r="E175" s="47"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>175</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
@@ -8402,7 +8381,7 @@
       <c r="D176" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="49" t="s">
+      <c r="E176" s="45" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8411,7 +8390,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
@@ -8419,14 +8398,14 @@
       <c r="D177" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="51"/>
+      <c r="E177" s="46"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
         <v>177</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
@@ -8434,14 +8413,14 @@
       <c r="D178" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="51"/>
+      <c r="E178" s="46"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>4</v>
@@ -8449,14 +8428,14 @@
       <c r="D179" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="51"/>
+      <c r="E179" s="46"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
@@ -8464,14 +8443,14 @@
       <c r="D180" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="51"/>
+      <c r="E180" s="46"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
@@ -8479,14 +8458,14 @@
       <c r="D181" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="51"/>
+      <c r="E181" s="46"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
         <v>181</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
@@ -8494,14 +8473,14 @@
       <c r="D182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="51"/>
+      <c r="E182" s="46"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>182</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>4</v>
@@ -8509,14 +8488,14 @@
       <c r="D183" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E183" s="50"/>
+      <c r="E183" s="47"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
@@ -8524,7 +8503,7 @@
       <c r="D184" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E184" s="49" t="s">
+      <c r="E184" s="45" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8533,7 +8512,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
@@ -8541,14 +8520,14 @@
       <c r="D185" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E185" s="51"/>
+      <c r="E185" s="46"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
@@ -8556,14 +8535,14 @@
       <c r="D186" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E186" s="51"/>
+      <c r="E186" s="46"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
         <v>186</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>4</v>
@@ -8571,14 +8550,14 @@
       <c r="D187" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="50"/>
+      <c r="E187" s="47"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
         <v>187</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
@@ -8586,7 +8565,7 @@
       <c r="D188" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="49" t="s">
+      <c r="E188" s="45" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8595,7 +8574,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>4</v>
@@ -8603,14 +8582,14 @@
       <c r="D189" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E189" s="51"/>
+      <c r="E189" s="46"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>189</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>4</v>
@@ -8618,14 +8597,14 @@
       <c r="D190" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="51"/>
+      <c r="E190" s="46"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>190</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>4</v>
@@ -8633,14 +8612,14 @@
       <c r="D191" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="51"/>
+      <c r="E191" s="46"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
@@ -8648,14 +8627,14 @@
       <c r="D192" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="51"/>
+      <c r="E192" s="46"/>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>4</v>
@@ -8663,14 +8642,14 @@
       <c r="D193" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E193" s="51"/>
+      <c r="E193" s="46"/>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
         <v>193</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
@@ -8678,14 +8657,14 @@
       <c r="D194" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E194" s="51"/>
+      <c r="E194" s="46"/>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
         <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>4</v>
@@ -8693,14 +8672,14 @@
       <c r="D195" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E195" s="51"/>
+      <c r="E195" s="46"/>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>195</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>4</v>
@@ -8708,14 +8687,14 @@
       <c r="D196" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E196" s="51"/>
+      <c r="E196" s="46"/>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>196</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>4</v>
@@ -8723,14 +8702,14 @@
       <c r="D197" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E197" s="51"/>
+      <c r="E197" s="46"/>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>197</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>4</v>
@@ -8738,14 +8717,14 @@
       <c r="D198" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E198" s="51"/>
+      <c r="E198" s="46"/>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>4</v>
@@ -8753,14 +8732,14 @@
       <c r="D199" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E199" s="51"/>
+      <c r="E199" s="46"/>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>4</v>
@@ -8768,14 +8747,14 @@
       <c r="D200" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E200" s="51"/>
+      <c r="E200" s="46"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>4</v>
@@ -8783,14 +8762,14 @@
       <c r="D201" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E201" s="50"/>
+      <c r="E201" s="47"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>4</v>
@@ -8799,7 +8778,7 @@
         <v>227</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>375</v>
@@ -8810,16 +8789,16 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E203" s="49" t="s">
-        <v>411</v>
+        <v>394</v>
+      </c>
+      <c r="E203" s="45" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -8827,108 +8806,108 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E204" s="51"/>
+        <v>395</v>
+      </c>
+      <c r="E204" s="46"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E205" s="51"/>
+        <v>396</v>
+      </c>
+      <c r="E205" s="46"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="E206" s="51"/>
+        <v>397</v>
+      </c>
+      <c r="E206" s="46"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E207" s="51"/>
+        <v>398</v>
+      </c>
+      <c r="E207" s="46"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="E208" s="51"/>
+        <v>399</v>
+      </c>
+      <c r="E208" s="46"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>208</v>
       </c>
-      <c r="B209" s="45" t="s">
-        <v>418</v>
+      <c r="B209" s="41" t="s">
+        <v>417</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="14">
         <v>209</v>
       </c>
-      <c r="B210" s="45" t="s">
-        <v>419</v>
+      <c r="B210" s="41" t="s">
+        <v>418</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -8944,7 +8923,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="34" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>226</v>
@@ -8959,7 +8938,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="34" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>226</v>
@@ -8974,7 +8953,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="34" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>226</v>
@@ -8989,7 +8968,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="34" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>226</v>
@@ -9004,7 +8983,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="34" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>226</v>
@@ -9019,7 +8998,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="34" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>226</v>
@@ -9034,7 +9013,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="34" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>226</v>
@@ -9049,7 +9028,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="34" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>226</v>
@@ -9063,8 +9042,8 @@
       <c r="A220" s="14">
         <v>219</v>
       </c>
-      <c r="B220" s="42" t="s">
-        <v>852</v>
+      <c r="B220" s="34" t="s">
+        <v>848</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>226</v>
@@ -9072,16 +9051,14 @@
       <c r="D220" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E220" s="43" t="s">
-        <v>376</v>
-      </c>
+      <c r="E220" s="41"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>220</v>
       </c>
       <c r="B221" s="34" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>226</v>
@@ -9096,7 +9073,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="34" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>226</v>
@@ -9111,7 +9088,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>226</v>
@@ -9126,7 +9103,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>226</v>
@@ -9141,7 +9118,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="34" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>226</v>
@@ -9156,7 +9133,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>226</v>
@@ -9171,7 +9148,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="34" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>226</v>
@@ -9186,7 +9163,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>226</v>
@@ -9201,7 +9178,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>226</v>
@@ -9216,7 +9193,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>226</v>
@@ -9231,7 +9208,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>226</v>
@@ -9246,47 +9223,43 @@
         <v>231</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="E232" s="44" t="s">
-        <v>805</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="E232" s="42"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>232</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E233" s="38" t="s">
-        <v>814</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="E233" s="5"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>233</v>
       </c>
       <c r="B234" s="34" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E234" s="12"/>
     </row>
@@ -9294,8 +9267,8 @@
       <c r="A235" s="14">
         <v>234</v>
       </c>
-      <c r="B235" s="42" t="s">
-        <v>855</v>
+      <c r="B235" s="34" t="s">
+        <v>851</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>226</v>
@@ -9307,6 +9280,9 @@
       <c r="A236" s="14">
         <v>235</v>
       </c>
+      <c r="B236" s="34" t="s">
+        <v>834</v>
+      </c>
       <c r="C236" s="2"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
@@ -9316,16 +9292,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="E237" s="49" t="s">
-        <v>412</v>
+        <v>393</v>
+      </c>
+      <c r="E237" s="45" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -9333,105 +9309,105 @@
         <v>237</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="E238" s="51"/>
+        <v>402</v>
+      </c>
+      <c r="E238" s="46"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>238</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="E239" s="51"/>
+        <v>403</v>
+      </c>
+      <c r="E239" s="46"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>239</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E240" s="51"/>
+        <v>404</v>
+      </c>
+      <c r="E240" s="46"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>240</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="E241" s="51"/>
+        <v>405</v>
+      </c>
+      <c r="E241" s="46"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>241</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E242" s="51"/>
+        <v>406</v>
+      </c>
+      <c r="E242" s="46"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>242</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="E243" s="51"/>
+        <v>407</v>
+      </c>
+      <c r="E243" s="46"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>243</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="E244" s="50"/>
+        <v>408</v>
+      </c>
+      <c r="E244" s="47"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
@@ -9445,40 +9421,34 @@
       <c r="A246" s="14">
         <v>245</v>
       </c>
-      <c r="B246" s="42" t="s">
-        <v>856</v>
+      <c r="B246" s="34" t="s">
+        <v>852</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D246" s="12"/>
-      <c r="E246" s="49" t="s">
-        <v>858</v>
-      </c>
+      <c r="E246" s="54"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>246</v>
       </c>
-      <c r="B247" s="42" t="s">
-        <v>857</v>
+      <c r="B247" s="34" t="s">
+        <v>853</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D247" s="12"/>
-      <c r="E247" s="50"/>
+      <c r="E247" s="55"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>247</v>
       </c>
-      <c r="B248" s="42" t="s">
-        <v>837</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="B248" s="41"/>
+      <c r="C248" s="2"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
     </row>
@@ -9486,12 +9456,8 @@
       <c r="A249" s="14">
         <v>248</v>
       </c>
-      <c r="B249" s="42" t="s">
-        <v>838</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>226</v>
-      </c>
+      <c r="B249" s="41"/>
+      <c r="C249" s="2"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
     </row>
@@ -9558,15 +9524,7 @@
       <c r="H257" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="E148:E155"/>
-    <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
-    <mergeCell ref="E246:E247"/>
+  <mergeCells count="22">
     <mergeCell ref="E62:E69"/>
     <mergeCell ref="E2:E15"/>
     <mergeCell ref="E18:E25"/>
@@ -9582,6 +9540,13 @@
     <mergeCell ref="E79:E86"/>
     <mergeCell ref="E125:E138"/>
     <mergeCell ref="E139:E146"/>
+    <mergeCell ref="E148:E155"/>
+    <mergeCell ref="E156:E169"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9592,8 +9557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9630,8 +9595,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>432</v>
+      <c r="B2" s="40" t="s">
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -9639,8 +9604,8 @@
       <c r="D2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>377</v>
+      <c r="E2" s="45" t="s">
+        <v>376</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -9649,8 +9614,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>433</v>
+      <c r="B3" s="40" t="s">
+        <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -9658,7 +9623,7 @@
       <c r="D3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
@@ -9666,8 +9631,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>434</v>
+      <c r="B4" s="40" t="s">
+        <v>433</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -9675,7 +9640,7 @@
       <c r="D4" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -9683,8 +9648,8 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>435</v>
+      <c r="B5" s="40" t="s">
+        <v>434</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -9692,7 +9657,7 @@
       <c r="D5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
@@ -9700,8 +9665,8 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>436</v>
+      <c r="B6" s="40" t="s">
+        <v>435</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -9709,7 +9674,7 @@
       <c r="D6" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
@@ -9717,8 +9682,8 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>437</v>
+      <c r="B7" s="40" t="s">
+        <v>436</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -9726,7 +9691,7 @@
       <c r="D7" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
@@ -9734,8 +9699,8 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>438</v>
+      <c r="B8" s="40" t="s">
+        <v>437</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -9743,7 +9708,7 @@
       <c r="D8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
@@ -9751,8 +9716,8 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="41" t="s">
-        <v>439</v>
+      <c r="B9" s="40" t="s">
+        <v>438</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -9760,7 +9725,7 @@
       <c r="D9" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
@@ -9768,8 +9733,8 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>440</v>
+      <c r="B10" s="40" t="s">
+        <v>439</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -9777,7 +9742,7 @@
       <c r="D10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="51"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
@@ -9786,7 +9751,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -9794,7 +9759,7 @@
       <c r="D11" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
@@ -9803,7 +9768,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -9811,7 +9776,7 @@
       <c r="D12" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="51"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
@@ -9820,7 +9785,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -9828,7 +9793,7 @@
       <c r="D13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="51"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -9837,7 +9802,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -9845,7 +9810,7 @@
       <c r="D14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="51"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
@@ -9854,7 +9819,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -9862,7 +9827,7 @@
       <c r="D15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
@@ -9871,7 +9836,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -9879,8 +9844,8 @@
       <c r="D16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>378</v>
+      <c r="E16" s="45" t="s">
+        <v>377</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -9890,7 +9855,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -9898,7 +9863,7 @@
       <c r="D17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="51"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
@@ -9907,7 +9872,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -9915,7 +9880,7 @@
       <c r="D18" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
@@ -9924,7 +9889,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -9932,7 +9897,7 @@
       <c r="D19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
@@ -9941,7 +9906,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -9949,7 +9914,7 @@
       <c r="D20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
@@ -9958,7 +9923,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -9966,7 +9931,7 @@
       <c r="D21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
@@ -9975,7 +9940,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -9983,7 +9948,7 @@
       <c r="D22" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="51"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
@@ -9992,7 +9957,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -10000,7 +9965,7 @@
       <c r="D23" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="50"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
@@ -10009,7 +9974,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -10017,8 +9982,8 @@
       <c r="D24" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="49" t="s">
-        <v>379</v>
+      <c r="E24" s="45" t="s">
+        <v>378</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -10028,7 +9993,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -10036,7 +10001,7 @@
       <c r="D25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
@@ -10045,7 +10010,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -10053,7 +10018,7 @@
       <c r="D26" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
@@ -10062,7 +10027,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -10070,7 +10035,7 @@
       <c r="D27" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
@@ -10079,7 +10044,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -10087,7 +10052,7 @@
       <c r="D28" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
@@ -10096,7 +10061,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -10104,7 +10069,7 @@
       <c r="D29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="51"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
@@ -10113,7 +10078,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -10121,7 +10086,7 @@
       <c r="D30" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
@@ -10130,7 +10095,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -10138,7 +10103,7 @@
       <c r="D31" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="50"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
@@ -10147,7 +10112,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -10156,7 +10121,7 @@
         <v>258</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -10166,7 +10131,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -10175,7 +10140,7 @@
         <v>259</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -10185,7 +10150,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -10193,8 +10158,8 @@
       <c r="D34" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="49" t="s">
-        <v>380</v>
+      <c r="E34" s="45" t="s">
+        <v>379</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -10204,7 +10169,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -10212,7 +10177,7 @@
       <c r="D35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
@@ -10221,7 +10186,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -10229,7 +10194,7 @@
       <c r="D36" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
@@ -10238,7 +10203,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -10246,7 +10211,7 @@
       <c r="D37" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
@@ -10255,7 +10220,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -10263,7 +10228,7 @@
       <c r="D38" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
@@ -10272,7 +10237,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -10280,7 +10245,7 @@
       <c r="D39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
@@ -10289,7 +10254,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -10297,7 +10262,7 @@
       <c r="D40" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
@@ -10306,7 +10271,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -10314,7 +10279,7 @@
       <c r="D41" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
@@ -10323,7 +10288,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -10331,7 +10296,7 @@
       <c r="D42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="51"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
@@ -10340,7 +10305,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
@@ -10348,7 +10313,7 @@
       <c r="D43" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="51"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
@@ -10357,7 +10322,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
@@ -10365,7 +10330,7 @@
       <c r="D44" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="51"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
@@ -10374,7 +10339,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -10382,7 +10347,7 @@
       <c r="D45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
@@ -10391,7 +10356,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -10399,7 +10364,7 @@
       <c r="D46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
@@ -10408,7 +10373,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
@@ -10416,7 +10381,7 @@
       <c r="D47" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="50"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
@@ -10425,7 +10390,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -10433,8 +10398,8 @@
       <c r="D48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="49" t="s">
-        <v>381</v>
+      <c r="E48" s="45" t="s">
+        <v>380</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -10444,7 +10409,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
@@ -10452,7 +10417,7 @@
       <c r="D49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
@@ -10461,7 +10426,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
@@ -10469,7 +10434,7 @@
       <c r="D50" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
@@ -10478,7 +10443,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -10486,7 +10451,7 @@
       <c r="D51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="51"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
@@ -10495,7 +10460,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -10503,7 +10468,7 @@
       <c r="D52" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="51"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
@@ -10512,7 +10477,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -10520,7 +10485,7 @@
       <c r="D53" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="51"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
@@ -10529,7 +10494,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -10537,7 +10502,7 @@
       <c r="D54" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
@@ -10546,7 +10511,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
@@ -10554,7 +10519,7 @@
       <c r="D55" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="50"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
@@ -10563,7 +10528,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -10571,8 +10536,8 @@
       <c r="D56" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="49" t="s">
-        <v>382</v>
+      <c r="E56" s="45" t="s">
+        <v>381</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -10582,7 +10547,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -10590,7 +10555,7 @@
       <c r="D57" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="51"/>
+      <c r="E57" s="46"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
@@ -10599,7 +10564,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -10607,7 +10572,7 @@
       <c r="D58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E58" s="51"/>
+      <c r="E58" s="46"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
@@ -10616,7 +10581,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -10624,7 +10589,7 @@
       <c r="D59" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="51"/>
+      <c r="E59" s="46"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
@@ -10633,7 +10598,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -10641,7 +10606,7 @@
       <c r="D60" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="51"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
@@ -10650,7 +10615,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
@@ -10658,7 +10623,7 @@
       <c r="D61" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E61" s="51"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
@@ -10667,7 +10632,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>4</v>
@@ -10675,7 +10640,7 @@
       <c r="D62" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="51"/>
+      <c r="E62" s="46"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
@@ -10684,7 +10649,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
@@ -10692,7 +10657,7 @@
       <c r="D63" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="51"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
@@ -10701,7 +10666,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -10709,7 +10674,7 @@
       <c r="D64" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="51"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
@@ -10718,7 +10683,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
@@ -10726,7 +10691,7 @@
       <c r="D65" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="51"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
@@ -10735,7 +10700,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
@@ -10743,7 +10708,7 @@
       <c r="D66" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="51"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
@@ -10752,7 +10717,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>4</v>
@@ -10760,7 +10725,7 @@
       <c r="D67" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
@@ -10769,7 +10734,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>4</v>
@@ -10777,7 +10742,7 @@
       <c r="D68" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
@@ -10786,7 +10751,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>4</v>
@@ -10794,7 +10759,7 @@
       <c r="D69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
@@ -10803,7 +10768,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -10811,7 +10776,7 @@
       <c r="D70" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
@@ -10820,7 +10785,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
@@ -10828,7 +10793,7 @@
       <c r="D71" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="50"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
@@ -10837,7 +10802,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>4</v>
@@ -10846,7 +10811,7 @@
         <v>298</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -10856,7 +10821,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>4</v>
@@ -10864,8 +10829,8 @@
       <c r="D73" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="54" t="s">
-        <v>383</v>
+      <c r="E73" s="50" t="s">
+        <v>382</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -10875,7 +10840,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -10883,7 +10848,7 @@
       <c r="D74" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="57"/>
+      <c r="E74" s="53"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
@@ -10892,7 +10857,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
@@ -10900,8 +10865,8 @@
       <c r="D75" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="49" t="s">
-        <v>384</v>
+      <c r="E75" s="45" t="s">
+        <v>383</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -10911,7 +10876,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>4</v>
@@ -10919,7 +10884,7 @@
       <c r="D76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="51"/>
+      <c r="E76" s="46"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
@@ -10928,7 +10893,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>4</v>
@@ -10936,7 +10901,7 @@
       <c r="D77" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="51"/>
+      <c r="E77" s="46"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
@@ -10945,7 +10910,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -10953,7 +10918,7 @@
       <c r="D78" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="51"/>
+      <c r="E78" s="46"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
@@ -10962,7 +10927,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>4</v>
@@ -10970,7 +10935,7 @@
       <c r="D79" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E79" s="51"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
@@ -10979,7 +10944,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>4</v>
@@ -10987,7 +10952,7 @@
       <c r="D80" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="51"/>
+      <c r="E80" s="46"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -10996,7 +10961,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -11004,7 +10969,7 @@
       <c r="D81" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="51"/>
+      <c r="E81" s="46"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
@@ -11013,7 +10978,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
@@ -11021,7 +10986,7 @@
       <c r="D82" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="51"/>
+      <c r="E82" s="46"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
@@ -11030,7 +10995,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
@@ -11038,7 +11003,7 @@
       <c r="D83" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="51"/>
+      <c r="E83" s="46"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
@@ -11047,7 +11012,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>4</v>
@@ -11055,7 +11020,7 @@
       <c r="D84" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="51"/>
+      <c r="E84" s="46"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
@@ -11064,7 +11029,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
@@ -11072,7 +11037,7 @@
       <c r="D85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="51"/>
+      <c r="E85" s="46"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
@@ -11081,7 +11046,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>4</v>
@@ -11089,7 +11054,7 @@
       <c r="D86" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="51"/>
+      <c r="E86" s="46"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
@@ -11098,7 +11063,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
@@ -11106,7 +11071,7 @@
       <c r="D87" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="51"/>
+      <c r="E87" s="46"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
@@ -11115,7 +11080,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -11123,7 +11088,7 @@
       <c r="D88" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="50"/>
+      <c r="E88" s="47"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
@@ -11132,7 +11097,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -11140,8 +11105,8 @@
       <c r="D89" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="54" t="s">
-        <v>385</v>
+      <c r="E89" s="50" t="s">
+        <v>384</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -11151,7 +11116,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>4</v>
@@ -11159,7 +11124,7 @@
       <c r="D90" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="57"/>
+      <c r="E90" s="53"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
@@ -11168,7 +11133,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
@@ -11176,8 +11141,8 @@
       <c r="D91" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="49" t="s">
-        <v>386</v>
+      <c r="E91" s="45" t="s">
+        <v>385</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -11187,7 +11152,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -11195,7 +11160,7 @@
       <c r="D92" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E92" s="51"/>
+      <c r="E92" s="46"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
@@ -11204,7 +11169,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
@@ -11212,7 +11177,7 @@
       <c r="D93" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E93" s="51"/>
+      <c r="E93" s="46"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
@@ -11221,7 +11186,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>4</v>
@@ -11229,7 +11194,7 @@
       <c r="D94" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E94" s="51"/>
+      <c r="E94" s="46"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
@@ -11238,7 +11203,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
@@ -11246,7 +11211,7 @@
       <c r="D95" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="51"/>
+      <c r="E95" s="46"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
@@ -11255,7 +11220,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>4</v>
@@ -11263,7 +11228,7 @@
       <c r="D96" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="51"/>
+      <c r="E96" s="46"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
@@ -11272,7 +11237,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>4</v>
@@ -11280,7 +11245,7 @@
       <c r="D97" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="51"/>
+      <c r="E97" s="46"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
@@ -11289,7 +11254,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
@@ -11297,7 +11262,7 @@
       <c r="D98" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E98" s="51"/>
+      <c r="E98" s="46"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
@@ -11306,7 +11271,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>4</v>
@@ -11314,7 +11279,7 @@
       <c r="D99" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="51"/>
+      <c r="E99" s="46"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
@@ -11323,7 +11288,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>4</v>
@@ -11331,7 +11296,7 @@
       <c r="D100" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="51"/>
+      <c r="E100" s="46"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
@@ -11340,7 +11305,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>4</v>
@@ -11348,7 +11313,7 @@
       <c r="D101" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="51"/>
+      <c r="E101" s="46"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
@@ -11357,7 +11322,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
@@ -11365,7 +11330,7 @@
       <c r="D102" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="51"/>
+      <c r="E102" s="46"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
@@ -11374,7 +11339,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
@@ -11382,7 +11347,7 @@
       <c r="D103" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E103" s="51"/>
+      <c r="E103" s="46"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
@@ -11391,7 +11356,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
@@ -11399,7 +11364,7 @@
       <c r="D104" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E104" s="50"/>
+      <c r="E104" s="47"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
@@ -11408,7 +11373,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
@@ -11416,8 +11381,8 @@
       <c r="D105" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="49" t="s">
-        <v>387</v>
+      <c r="E105" s="45" t="s">
+        <v>386</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
@@ -11427,7 +11392,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -11435,7 +11400,7 @@
       <c r="D106" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="51"/>
+      <c r="E106" s="46"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
@@ -11444,7 +11409,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
@@ -11452,7 +11417,7 @@
       <c r="D107" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E107" s="51"/>
+      <c r="E107" s="46"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
@@ -11461,7 +11426,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
@@ -11469,7 +11434,7 @@
       <c r="D108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E108" s="51"/>
+      <c r="E108" s="46"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
@@ -11478,7 +11443,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
@@ -11486,7 +11451,7 @@
       <c r="D109" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="51"/>
+      <c r="E109" s="46"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
@@ -11495,7 +11460,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
@@ -11503,7 +11468,7 @@
       <c r="D110" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="51"/>
+      <c r="E110" s="46"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
@@ -11512,7 +11477,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -11520,7 +11485,7 @@
       <c r="D111" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E111" s="51"/>
+      <c r="E111" s="46"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
@@ -11529,7 +11494,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
@@ -11537,7 +11502,7 @@
       <c r="D112" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="50"/>
+      <c r="E112" s="47"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
@@ -11546,16 +11511,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -11566,16 +11531,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -11585,16 +11550,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -11808,13 +11773,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="52" t="s">
-        <v>426</v>
+      <c r="D141" s="48" t="s">
+        <v>425</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
@@ -11824,12 +11789,12 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="52"/>
+      <c r="D142" s="48"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
@@ -11838,12 +11803,12 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="52"/>
+      <c r="D143" s="48"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
@@ -11852,12 +11817,12 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="52"/>
+      <c r="D144" s="48"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
@@ -11866,13 +11831,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="52" t="s">
-        <v>427</v>
+      <c r="D145" s="48" t="s">
+        <v>426</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
@@ -11882,12 +11847,12 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="52"/>
+      <c r="D146" s="48"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
@@ -11896,12 +11861,12 @@
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="52"/>
+      <c r="D147" s="48"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
@@ -11910,12 +11875,12 @@
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="52"/>
+      <c r="D148" s="48"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
@@ -11924,13 +11889,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="52" t="s">
-        <v>428</v>
+      <c r="D149" s="48" t="s">
+        <v>427</v>
       </c>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
@@ -11940,12 +11905,12 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="52"/>
+      <c r="D150" s="48"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
@@ -11954,12 +11919,12 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="52"/>
+      <c r="D151" s="48"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
@@ -11968,12 +11933,12 @@
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="52"/>
+      <c r="D152" s="48"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
@@ -11982,12 +11947,12 @@
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="52"/>
+      <c r="D153" s="48"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
@@ -11996,12 +11961,12 @@
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="52"/>
+      <c r="D154" s="48"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
@@ -12010,12 +11975,12 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="52"/>
+      <c r="D155" s="48"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
@@ -12024,12 +11989,12 @@
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="52"/>
+      <c r="D156" s="48"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
@@ -12038,13 +12003,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="52" t="s">
-        <v>429</v>
+      <c r="D157" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
@@ -12054,12 +12019,12 @@
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="52"/>
+      <c r="D158" s="48"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
@@ -12068,12 +12033,12 @@
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="52"/>
+      <c r="D159" s="48"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
@@ -12082,12 +12047,12 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="52"/>
+      <c r="D160" s="48"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
@@ -12096,13 +12061,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="52" t="s">
-        <v>430</v>
+      <c r="D161" s="48" t="s">
+        <v>429</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -12112,12 +12077,12 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="52"/>
+      <c r="D162" s="48"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
@@ -12126,12 +12091,12 @@
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="52"/>
+      <c r="D163" s="48"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
@@ -12140,12 +12105,12 @@
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="52"/>
+      <c r="D164" s="48"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
@@ -12154,13 +12119,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="52" t="s">
-        <v>564</v>
+      <c r="D165" s="48" t="s">
+        <v>563</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -12170,12 +12135,12 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="52"/>
+      <c r="D166" s="48"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
@@ -12184,12 +12149,12 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="52"/>
+      <c r="D167" s="48"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
@@ -12198,12 +12163,12 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="52"/>
+      <c r="D168" s="48"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
@@ -12212,12 +12177,12 @@
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="52"/>
+      <c r="D169" s="48"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
@@ -12226,12 +12191,12 @@
         <v>169</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="52"/>
+      <c r="D170" s="48"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
@@ -12240,12 +12205,12 @@
         <v>170</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="52"/>
+      <c r="D171" s="48"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
@@ -12254,12 +12219,12 @@
         <v>171</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="52"/>
+      <c r="D172" s="48"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
@@ -12268,13 +12233,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="52" t="s">
-        <v>573</v>
+      <c r="D173" s="48" t="s">
+        <v>572</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -12284,12 +12249,12 @@
         <v>173</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="52"/>
+      <c r="D174" s="48"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
@@ -12298,12 +12263,12 @@
         <v>174</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="52"/>
+      <c r="D175" s="48"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
@@ -12312,12 +12277,12 @@
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="52"/>
+      <c r="D176" s="48"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
@@ -12326,16 +12291,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="52" t="s">
-        <v>578</v>
-      </c>
-      <c r="E177" s="54" t="s">
-        <v>431</v>
+      <c r="D177" s="48" t="s">
+        <v>577</v>
+      </c>
+      <c r="E177" s="50" t="s">
+        <v>430</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
@@ -12345,13 +12310,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="53"/>
-      <c r="E178" s="55"/>
+      <c r="D178" s="49"/>
+      <c r="E178" s="51"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
@@ -12360,13 +12325,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="53"/>
-      <c r="E179" s="55"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="51"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
@@ -12375,13 +12340,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="53"/>
-      <c r="E180" s="55"/>
+      <c r="D180" s="49"/>
+      <c r="E180" s="51"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
@@ -12390,13 +12355,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="53"/>
-      <c r="E181" s="55"/>
+      <c r="D181" s="49"/>
+      <c r="E181" s="51"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
@@ -12405,13 +12370,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="53"/>
-      <c r="E182" s="55"/>
+      <c r="D182" s="49"/>
+      <c r="E182" s="51"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
@@ -12420,13 +12385,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="36" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C183" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="53"/>
-      <c r="E183" s="55"/>
+      <c r="D183" s="49"/>
+      <c r="E183" s="51"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
@@ -12434,14 +12399,14 @@
       <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="40" t="s">
-        <v>586</v>
+      <c r="B184" s="39" t="s">
+        <v>585</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="56" t="s">
-        <v>590</v>
+      <c r="D184" s="52" t="s">
+        <v>589</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
@@ -12450,13 +12415,13 @@
       <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="40" t="s">
-        <v>587</v>
+      <c r="B185" s="39" t="s">
+        <v>586</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="56"/>
+      <c r="D185" s="52"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
@@ -12464,13 +12429,13 @@
       <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186" s="40" t="s">
-        <v>588</v>
+      <c r="B186" s="39" t="s">
+        <v>587</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="56"/>
+      <c r="D186" s="52"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
@@ -12478,13 +12443,13 @@
       <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="40" t="s">
-        <v>589</v>
+      <c r="B187" s="39" t="s">
+        <v>588</v>
       </c>
       <c r="C187" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="56"/>
+      <c r="D187" s="52"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
@@ -12675,7 +12640,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C212" s="22" t="s">
         <v>226</v>
@@ -12691,7 +12656,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C213" s="22" t="s">
         <v>226</v>
@@ -12707,7 +12672,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C214" s="22" t="s">
         <v>226</v>
@@ -12723,7 +12688,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C215" s="22" t="s">
         <v>226</v>
@@ -12739,7 +12704,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C216" s="22" t="s">
         <v>226</v>
@@ -12755,7 +12720,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C217" s="22" t="s">
         <v>226</v>
@@ -12771,7 +12736,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C218" s="22" t="s">
         <v>226</v>
@@ -12787,7 +12752,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C219" s="22" t="s">
         <v>226</v>
@@ -12803,7 +12768,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C220" s="22" t="s">
         <v>226</v>
@@ -12819,7 +12784,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C221" s="22" t="s">
         <v>226</v>
@@ -12835,7 +12800,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C222" s="22" t="s">
         <v>226</v>
@@ -12850,8 +12815,8 @@
       <c r="A223" s="4">
         <v>222</v>
       </c>
-      <c r="B223" s="47" t="s">
-        <v>835</v>
+      <c r="B223" s="43" t="s">
+        <v>832</v>
       </c>
       <c r="C223" s="22" t="s">
         <v>226</v>
@@ -12864,8 +12829,8 @@
       <c r="A224" s="4">
         <v>223</v>
       </c>
-      <c r="B224" s="47" t="s">
-        <v>836</v>
+      <c r="B224" s="43" t="s">
+        <v>833</v>
       </c>
       <c r="C224" s="22" t="s">
         <v>226</v>
@@ -12926,7 +12891,7 @@
       <c r="A231" s="4">
         <v>230</v>
       </c>
-      <c r="B231" s="48" t="s">
+      <c r="B231" s="44" t="s">
         <v>352</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -12935,8 +12900,8 @@
       <c r="D231" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E231" s="39" t="s">
-        <v>859</v>
+      <c r="E231" s="38" t="s">
+        <v>854</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
@@ -12946,7 +12911,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>226</v>
@@ -13137,12 +13102,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13158,6 +13117,12 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12825"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KNX_1 (192.168.1.51)" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="858">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -5042,6 +5042,15 @@
   </si>
   <si>
     <t>Do czego potrzebne? Co na którym bajcie?</t>
+  </si>
+  <si>
+    <t>przyjmuje wartosci ujemne</t>
+  </si>
+  <si>
+    <t>0/2/0</t>
+  </si>
+  <si>
+    <t>Natężenie światła (luxy) na zewnątrz (przy bramie)</t>
   </si>
 </sst>
 </file>
@@ -5106,7 +5115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5127,19 +5136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5209,7 +5206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5282,15 +5279,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5298,12 +5286,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5315,11 +5297,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5347,12 +5335,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5661,8 +5643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5702,7 +5684,7 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="36" t="s">
         <v>602</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -5711,7 +5693,7 @@
       <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="42" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="9"/>
@@ -5721,7 +5703,7 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="37" t="s">
         <v>603</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -5730,13 +5712,13 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="37" t="s">
         <v>604</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5745,13 +5727,13 @@
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>605</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -5760,13 +5742,13 @@
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>606</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5775,13 +5757,13 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>607</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -5790,13 +5772,13 @@
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="37" t="s">
         <v>608</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -5805,13 +5787,13 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="43"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="37" t="s">
         <v>609</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -5820,13 +5802,13 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="37" t="s">
         <v>610</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -5835,13 +5817,13 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="37" t="s">
         <v>611</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -5850,13 +5832,13 @@
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="37" t="s">
         <v>612</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -5865,13 +5847,13 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="37" t="s">
         <v>613</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5880,13 +5862,13 @@
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="37" t="s">
         <v>614</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -5895,13 +5877,13 @@
       <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="37" t="s">
         <v>615</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -5910,13 +5892,13 @@
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="47"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>412</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -5933,7 +5915,7 @@
       <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="36" t="s">
         <v>413</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -5950,7 +5932,7 @@
       <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="37" t="s">
         <v>616</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -5959,7 +5941,7 @@
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="42" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5967,7 +5949,7 @@
       <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="37" t="s">
         <v>617</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -5976,13 +5958,13 @@
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="37" t="s">
         <v>618</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -5991,13 +5973,13 @@
       <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="37" t="s">
         <v>619</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -6006,13 +5988,13 @@
       <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="46"/>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="37" t="s">
         <v>620</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -6021,13 +6003,13 @@
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="43"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="37" t="s">
         <v>621</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -6036,13 +6018,13 @@
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="43"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="37" t="s">
         <v>622</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6051,13 +6033,13 @@
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="37" t="s">
         <v>623</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -6066,13 +6048,13 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="36" t="s">
         <v>624</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -6081,7 +6063,7 @@
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="42" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6089,7 +6071,7 @@
       <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="36" t="s">
         <v>625</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -6098,13 +6080,13 @@
       <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="46"/>
+      <c r="E27" s="43"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="36" t="s">
         <v>626</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -6113,13 +6095,13 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="E28" s="43"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="36" t="s">
         <v>627</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -6128,13 +6110,13 @@
       <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="43"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="36" t="s">
         <v>628</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -6143,13 +6125,13 @@
       <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="43"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="36" t="s">
         <v>629</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -6158,13 +6140,13 @@
       <c r="D31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="36" t="s">
         <v>630</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6173,13 +6155,13 @@
       <c r="D32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="46"/>
+      <c r="E32" s="43"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="36" t="s">
         <v>631</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -6188,13 +6170,13 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="46"/>
+      <c r="E33" s="43"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="36" t="s">
         <v>632</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -6203,13 +6185,13 @@
       <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="46"/>
+      <c r="E34" s="43"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="36" t="s">
         <v>633</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -6218,13 +6200,13 @@
       <c r="D35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="36" t="s">
         <v>634</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -6233,13 +6215,13 @@
       <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="46"/>
+      <c r="E36" s="43"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="36" t="s">
         <v>635</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -6248,13 +6230,13 @@
       <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="E37" s="43"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="36" t="s">
         <v>636</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -6263,13 +6245,13 @@
       <c r="D38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="36" t="s">
         <v>637</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -6278,13 +6260,13 @@
       <c r="D39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="47"/>
+      <c r="E39" s="44"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="37" t="s">
         <v>638</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -6293,7 +6275,7 @@
       <c r="D40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="42" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6301,7 +6283,7 @@
       <c r="A41" s="14">
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="37" t="s">
         <v>639</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -6310,13 +6292,13 @@
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="43"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>41</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="37" t="s">
         <v>640</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -6325,13 +6307,13 @@
       <c r="D42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="46"/>
+      <c r="E42" s="43"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="37" t="s">
         <v>641</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -6340,13 +6322,13 @@
       <c r="D43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="46"/>
+      <c r="E43" s="43"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="37" t="s">
         <v>642</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -6355,13 +6337,13 @@
       <c r="D44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="46"/>
+      <c r="E44" s="43"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>44</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="37" t="s">
         <v>643</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -6370,13 +6352,13 @@
       <c r="D45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="46"/>
+      <c r="E45" s="43"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="37" t="s">
         <v>644</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -6385,13 +6367,13 @@
       <c r="D46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="46"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="37" t="s">
         <v>645</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -6400,13 +6382,13 @@
       <c r="D47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="46"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="37" t="s">
         <v>646</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -6415,13 +6397,13 @@
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="46"/>
+      <c r="E48" s="43"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="37" t="s">
         <v>647</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -6430,13 +6412,13 @@
       <c r="D49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="46"/>
+      <c r="E49" s="43"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="37" t="s">
         <v>648</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -6445,13 +6427,13 @@
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="46"/>
+      <c r="E50" s="43"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>50</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="37" t="s">
         <v>649</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -6460,13 +6442,13 @@
       <c r="D51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="46"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>51</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="37" t="s">
         <v>650</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -6475,13 +6457,13 @@
       <c r="D52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="46"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="37" t="s">
         <v>651</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -6490,13 +6472,13 @@
       <c r="D53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="47"/>
+      <c r="E53" s="44"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>53</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="36" t="s">
         <v>652</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -6505,7 +6487,7 @@
       <c r="D54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="45" t="s">
+      <c r="E54" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6513,7 +6495,7 @@
       <c r="A55" s="14">
         <v>54</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="36" t="s">
         <v>653</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -6522,13 +6504,13 @@
       <c r="D55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="46"/>
+      <c r="E55" s="43"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>55</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="36" t="s">
         <v>654</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -6537,13 +6519,13 @@
       <c r="D56" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="46"/>
+      <c r="E56" s="43"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>56</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="36" t="s">
         <v>655</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -6552,13 +6534,13 @@
       <c r="D57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="46"/>
+      <c r="E57" s="43"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>57</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="36" t="s">
         <v>656</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -6567,13 +6549,13 @@
       <c r="D58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="46"/>
+      <c r="E58" s="43"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>58</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="36" t="s">
         <v>657</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -6582,13 +6564,13 @@
       <c r="D59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="46"/>
+      <c r="E59" s="43"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>59</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="36" t="s">
         <v>658</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -6597,13 +6579,13 @@
       <c r="D60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="46"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>60</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="36" t="s">
         <v>659</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -6612,13 +6594,13 @@
       <c r="D61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="47"/>
+      <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>61</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="36" t="s">
         <v>660</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -6627,7 +6609,7 @@
       <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="42" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6635,7 +6617,7 @@
       <c r="A63" s="14">
         <v>62</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="36" t="s">
         <v>661</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -6644,13 +6626,13 @@
       <c r="D63" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="46"/>
+      <c r="E63" s="43"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>63</v>
       </c>
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="37" t="s">
         <v>662</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -6659,13 +6641,13 @@
       <c r="D64" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="46"/>
+      <c r="E64" s="43"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>64</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="37" t="s">
         <v>663</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -6674,13 +6656,13 @@
       <c r="D65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="46"/>
+      <c r="E65" s="43"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>65</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="37" t="s">
         <v>664</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -6689,13 +6671,13 @@
       <c r="D66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="46"/>
+      <c r="E66" s="43"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>66</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="37" t="s">
         <v>665</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -6704,13 +6686,13 @@
       <c r="D67" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="46"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>67</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="37" t="s">
         <v>666</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -6719,13 +6701,13 @@
       <c r="D68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="46"/>
+      <c r="E68" s="43"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>68</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="37" t="s">
         <v>667</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -6734,13 +6716,13 @@
       <c r="D69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="47"/>
+      <c r="E69" s="44"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>69</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="36" t="s">
         <v>668</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -6749,7 +6731,7 @@
       <c r="D70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="42" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6757,7 +6739,7 @@
       <c r="A71" s="14">
         <v>70</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="36" t="s">
         <v>669</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -6766,13 +6748,13 @@
       <c r="D71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="46"/>
+      <c r="E71" s="43"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>71</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="36" t="s">
         <v>670</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -6781,13 +6763,13 @@
       <c r="D72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="46"/>
+      <c r="E72" s="43"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>72</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="36" t="s">
         <v>671</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -6796,13 +6778,13 @@
       <c r="D73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="46"/>
+      <c r="E73" s="43"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>73</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="36" t="s">
         <v>672</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -6811,13 +6793,13 @@
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="46"/>
+      <c r="E74" s="43"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>74</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="36" t="s">
         <v>673</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -6826,13 +6808,13 @@
       <c r="D75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="46"/>
+      <c r="E75" s="43"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>75</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="36" t="s">
         <v>674</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -6841,13 +6823,13 @@
       <c r="D76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="46"/>
+      <c r="E76" s="43"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>76</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="36" t="s">
         <v>675</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -6856,7 +6838,7 @@
       <c r="D77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="47"/>
+      <c r="E77" s="44"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
@@ -6879,7 +6861,7 @@
       <c r="A79" s="14">
         <v>78</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="36" t="s">
         <v>676</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -6888,7 +6870,7 @@
       <c r="D79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="45" t="s">
+      <c r="E79" s="42" t="s">
         <v>409</v>
       </c>
       <c r="F79" s="30"/>
@@ -6897,7 +6879,7 @@
       <c r="A80" s="14">
         <v>79</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="36" t="s">
         <v>677</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -6906,14 +6888,14 @@
       <c r="D80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="46"/>
+      <c r="E80" s="43"/>
       <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>80</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="36" t="s">
         <v>678</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -6922,14 +6904,14 @@
       <c r="D81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="46"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>81</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="36" t="s">
         <v>679</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -6938,13 +6920,13 @@
       <c r="D82" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="46"/>
+      <c r="E82" s="43"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>82</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="36" t="s">
         <v>680</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -6953,14 +6935,14 @@
       <c r="D83" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="46"/>
+      <c r="E83" s="43"/>
       <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>83</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="36" t="s">
         <v>681</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -6969,14 +6951,14 @@
       <c r="D84" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="46"/>
+      <c r="E84" s="43"/>
       <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>84</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="36" t="s">
         <v>682</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -6985,14 +6967,14 @@
       <c r="D85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E85" s="46"/>
+      <c r="E85" s="43"/>
       <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>85</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="36" t="s">
         <v>683</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -7001,14 +6983,14 @@
       <c r="D86" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="47"/>
+      <c r="E86" s="44"/>
       <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>86</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="36" t="s">
         <v>684</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -7017,7 +6999,7 @@
       <c r="D87" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="45" t="s">
+      <c r="E87" s="42" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7025,7 +7007,7 @@
       <c r="A88" s="14">
         <v>87</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="36" t="s">
         <v>685</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -7034,13 +7016,13 @@
       <c r="D88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="47"/>
+      <c r="E88" s="44"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>88</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="36" t="s">
         <v>686</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -7049,7 +7031,7 @@
       <c r="D89" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="45" t="s">
+      <c r="E89" s="42" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7057,7 +7039,7 @@
       <c r="A90" s="14">
         <v>89</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="36" t="s">
         <v>687</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -7066,13 +7048,13 @@
       <c r="D90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="46"/>
+      <c r="E90" s="43"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>90</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="36" t="s">
         <v>688</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -7081,13 +7063,13 @@
       <c r="D91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="46"/>
+      <c r="E91" s="43"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>91</v>
       </c>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="36" t="s">
         <v>689</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -7096,13 +7078,13 @@
       <c r="D92" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="46"/>
+      <c r="E92" s="43"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>92</v>
       </c>
-      <c r="B93" s="41" t="s">
+      <c r="B93" s="36" t="s">
         <v>690</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -7111,13 +7093,13 @@
       <c r="D93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E93" s="46"/>
+      <c r="E93" s="43"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>93</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="36" t="s">
         <v>691</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -7126,13 +7108,13 @@
       <c r="D94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="46"/>
+      <c r="E94" s="43"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>94</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="36" t="s">
         <v>692</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -7141,13 +7123,13 @@
       <c r="D95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="46"/>
+      <c r="E95" s="43"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>95</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="36" t="s">
         <v>693</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -7156,13 +7138,13 @@
       <c r="D96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="46"/>
+      <c r="E96" s="43"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>96</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="36" t="s">
         <v>694</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -7171,13 +7153,13 @@
       <c r="D97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E97" s="46"/>
+      <c r="E97" s="43"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>97</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="36" t="s">
         <v>695</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -7186,13 +7168,13 @@
       <c r="D98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="46"/>
+      <c r="E98" s="43"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>98</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="36" t="s">
         <v>696</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -7201,13 +7183,13 @@
       <c r="D99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="46"/>
+      <c r="E99" s="43"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>99</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="36" t="s">
         <v>697</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -7216,13 +7198,13 @@
       <c r="D100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="46"/>
+      <c r="E100" s="43"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>100</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="36" t="s">
         <v>698</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -7231,13 +7213,13 @@
       <c r="D101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="46"/>
+      <c r="E101" s="43"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>101</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="36" t="s">
         <v>699</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -7246,13 +7228,13 @@
       <c r="D102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="47"/>
+      <c r="E102" s="44"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>102</v>
       </c>
-      <c r="B103" s="42" t="s">
+      <c r="B103" s="37" t="s">
         <v>700</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -7261,7 +7243,7 @@
       <c r="D103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="45" t="s">
+      <c r="E103" s="42" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7269,7 +7251,7 @@
       <c r="A104" s="14">
         <v>103</v>
       </c>
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="37" t="s">
         <v>701</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -7278,13 +7260,13 @@
       <c r="D104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="46"/>
+      <c r="E104" s="43"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>104</v>
       </c>
-      <c r="B105" s="42" t="s">
+      <c r="B105" s="37" t="s">
         <v>702</v>
       </c>
       <c r="C105" s="2" t="s">
@@ -7293,13 +7275,13 @@
       <c r="D105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="46"/>
+      <c r="E105" s="43"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>105</v>
       </c>
-      <c r="B106" s="42" t="s">
+      <c r="B106" s="37" t="s">
         <v>703</v>
       </c>
       <c r="C106" s="2" t="s">
@@ -7308,13 +7290,13 @@
       <c r="D106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E106" s="46"/>
+      <c r="E106" s="43"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>106</v>
       </c>
-      <c r="B107" s="42" t="s">
+      <c r="B107" s="37" t="s">
         <v>704</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -7323,13 +7305,13 @@
       <c r="D107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="46"/>
+      <c r="E107" s="43"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>107</v>
       </c>
-      <c r="B108" s="42" t="s">
+      <c r="B108" s="37" t="s">
         <v>705</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -7338,13 +7320,13 @@
       <c r="D108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E108" s="46"/>
+      <c r="E108" s="43"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>108</v>
       </c>
-      <c r="B109" s="42" t="s">
+      <c r="B109" s="37" t="s">
         <v>706</v>
       </c>
       <c r="C109" s="2" t="s">
@@ -7353,13 +7335,13 @@
       <c r="D109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="46"/>
+      <c r="E109" s="43"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>109</v>
       </c>
-      <c r="B110" s="42" t="s">
+      <c r="B110" s="37" t="s">
         <v>707</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -7368,13 +7350,13 @@
       <c r="D110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="47"/>
+      <c r="E110" s="44"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>110</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="36" t="s">
         <v>708</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -7383,7 +7365,7 @@
       <c r="D111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="45" t="s">
+      <c r="E111" s="42" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7391,7 +7373,7 @@
       <c r="A112" s="14">
         <v>111</v>
       </c>
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="37" t="s">
         <v>709</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -7400,13 +7382,13 @@
       <c r="D112" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E112" s="46"/>
+      <c r="E112" s="43"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>112</v>
       </c>
-      <c r="B113" s="42" t="s">
+      <c r="B113" s="37" t="s">
         <v>710</v>
       </c>
       <c r="C113" s="2" t="s">
@@ -7415,13 +7397,13 @@
       <c r="D113" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="46"/>
+      <c r="E113" s="43"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>113</v>
       </c>
-      <c r="B114" s="42" t="s">
+      <c r="B114" s="37" t="s">
         <v>711</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -7430,13 +7412,13 @@
       <c r="D114" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="46"/>
+      <c r="E114" s="43"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>114</v>
       </c>
-      <c r="B115" s="42" t="s">
+      <c r="B115" s="37" t="s">
         <v>712</v>
       </c>
       <c r="C115" s="2" t="s">
@@ -7445,13 +7427,13 @@
       <c r="D115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="46"/>
+      <c r="E115" s="43"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
         <v>115</v>
       </c>
-      <c r="B116" s="42" t="s">
+      <c r="B116" s="37" t="s">
         <v>713</v>
       </c>
       <c r="C116" s="2" t="s">
@@ -7460,13 +7442,13 @@
       <c r="D116" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="46"/>
+      <c r="E116" s="43"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>116</v>
       </c>
-      <c r="B117" s="42" t="s">
+      <c r="B117" s="37" t="s">
         <v>714</v>
       </c>
       <c r="C117" s="2" t="s">
@@ -7475,13 +7457,13 @@
       <c r="D117" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="46"/>
+      <c r="E117" s="43"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>117</v>
       </c>
-      <c r="B118" s="42" t="s">
+      <c r="B118" s="37" t="s">
         <v>715</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -7490,13 +7472,13 @@
       <c r="D118" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="46"/>
+      <c r="E118" s="43"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>118</v>
       </c>
-      <c r="B119" s="42" t="s">
+      <c r="B119" s="37" t="s">
         <v>716</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -7505,13 +7487,13 @@
       <c r="D119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="46"/>
+      <c r="E119" s="43"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
         <v>119</v>
       </c>
-      <c r="B120" s="41" t="s">
+      <c r="B120" s="36" t="s">
         <v>717</v>
       </c>
       <c r="C120" s="2" t="s">
@@ -7520,13 +7502,13 @@
       <c r="D120" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E120" s="46"/>
+      <c r="E120" s="43"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>120</v>
       </c>
-      <c r="B121" s="42" t="s">
+      <c r="B121" s="37" t="s">
         <v>718</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -7535,13 +7517,13 @@
       <c r="D121" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="46"/>
+      <c r="E121" s="43"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
         <v>121</v>
       </c>
-      <c r="B122" s="42" t="s">
+      <c r="B122" s="37" t="s">
         <v>719</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -7550,13 +7532,13 @@
       <c r="D122" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E122" s="46"/>
+      <c r="E122" s="43"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>122</v>
       </c>
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="37" t="s">
         <v>720</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -7565,7 +7547,7 @@
       <c r="D123" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E123" s="46"/>
+      <c r="E123" s="43"/>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
@@ -7580,7 +7562,7 @@
       <c r="D124" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="47"/>
+      <c r="E124" s="44"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
@@ -7595,7 +7577,7 @@
       <c r="D125" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="45" t="s">
+      <c r="E125" s="42" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7612,7 +7594,7 @@
       <c r="D126" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="46"/>
+      <c r="E126" s="43"/>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
@@ -7627,7 +7609,7 @@
       <c r="D127" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="46"/>
+      <c r="E127" s="43"/>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
@@ -7642,7 +7624,7 @@
       <c r="D128" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E128" s="46"/>
+      <c r="E128" s="43"/>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
@@ -7657,7 +7639,7 @@
       <c r="D129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="46"/>
+      <c r="E129" s="43"/>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
@@ -7672,7 +7654,7 @@
       <c r="D130" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="46"/>
+      <c r="E130" s="43"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
@@ -7687,7 +7669,7 @@
       <c r="D131" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E131" s="46"/>
+      <c r="E131" s="43"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
@@ -7702,7 +7684,7 @@
       <c r="D132" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E132" s="46"/>
+      <c r="E132" s="43"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
@@ -7717,7 +7699,7 @@
       <c r="D133" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E133" s="46"/>
+      <c r="E133" s="43"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
@@ -7732,7 +7714,7 @@
       <c r="D134" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E134" s="46"/>
+      <c r="E134" s="43"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
@@ -7747,7 +7729,7 @@
       <c r="D135" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="46"/>
+      <c r="E135" s="43"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
@@ -7762,7 +7744,7 @@
       <c r="D136" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E136" s="46"/>
+      <c r="E136" s="43"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
@@ -7777,7 +7759,7 @@
       <c r="D137" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="46"/>
+      <c r="E137" s="43"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
@@ -7792,7 +7774,7 @@
       <c r="D138" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E138" s="47"/>
+      <c r="E138" s="44"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
@@ -7807,7 +7789,7 @@
       <c r="D139" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E139" s="45" t="s">
+      <c r="E139" s="42" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7824,7 +7806,7 @@
       <c r="D140" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E140" s="46"/>
+      <c r="E140" s="43"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
@@ -7839,7 +7821,7 @@
       <c r="D141" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E141" s="46"/>
+      <c r="E141" s="43"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
@@ -7854,7 +7836,7 @@
       <c r="D142" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="46"/>
+      <c r="E142" s="43"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
@@ -7869,7 +7851,7 @@
       <c r="D143" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E143" s="46"/>
+      <c r="E143" s="43"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
@@ -7884,7 +7866,7 @@
       <c r="D144" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="46"/>
+      <c r="E144" s="43"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
@@ -7899,7 +7881,7 @@
       <c r="D145" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E145" s="46"/>
+      <c r="E145" s="43"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
@@ -7914,13 +7896,13 @@
       <c r="D146" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E146" s="47"/>
+      <c r="E146" s="44"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>146</v>
       </c>
-      <c r="B147" s="35" t="s">
+      <c r="B147" s="32" t="s">
         <v>415</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -7947,7 +7929,7 @@
       <c r="D148" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E148" s="45" t="s">
+      <c r="E148" s="42" t="s">
         <v>369</v>
       </c>
       <c r="F148" s="30"/>
@@ -7965,7 +7947,7 @@
       <c r="D149" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E149" s="46"/>
+      <c r="E149" s="43"/>
       <c r="F149" s="30"/>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7981,7 +7963,7 @@
       <c r="D150" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="46"/>
+      <c r="E150" s="43"/>
       <c r="F150" s="30"/>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7997,7 +7979,7 @@
       <c r="D151" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E151" s="46"/>
+      <c r="E151" s="43"/>
       <c r="F151" s="30"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8013,7 +7995,7 @@
       <c r="D152" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E152" s="46"/>
+      <c r="E152" s="43"/>
       <c r="F152" s="30"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8029,7 +8011,7 @@
       <c r="D153" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E153" s="46"/>
+      <c r="E153" s="43"/>
       <c r="F153" s="30"/>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8045,7 +8027,7 @@
       <c r="D154" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="46"/>
+      <c r="E154" s="43"/>
       <c r="F154" s="30"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8061,7 +8043,7 @@
       <c r="D155" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="47"/>
+      <c r="E155" s="44"/>
       <c r="F155" s="30"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8077,7 +8059,7 @@
       <c r="D156" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E156" s="45" t="s">
+      <c r="E156" s="42" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8094,7 +8076,7 @@
       <c r="D157" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="46"/>
+      <c r="E157" s="43"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
@@ -8109,7 +8091,7 @@
       <c r="D158" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E158" s="46"/>
+      <c r="E158" s="43"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
@@ -8124,7 +8106,7 @@
       <c r="D159" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E159" s="46"/>
+      <c r="E159" s="43"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
@@ -8139,7 +8121,7 @@
       <c r="D160" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E160" s="46"/>
+      <c r="E160" s="43"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
@@ -8154,7 +8136,7 @@
       <c r="D161" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E161" s="46"/>
+      <c r="E161" s="43"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
@@ -8169,7 +8151,7 @@
       <c r="D162" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E162" s="46"/>
+      <c r="E162" s="43"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
@@ -8184,7 +8166,7 @@
       <c r="D163" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="46"/>
+      <c r="E163" s="43"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
@@ -8199,7 +8181,7 @@
       <c r="D164" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E164" s="46"/>
+      <c r="E164" s="43"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
@@ -8214,7 +8196,7 @@
       <c r="D165" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E165" s="46"/>
+      <c r="E165" s="43"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
@@ -8229,7 +8211,7 @@
       <c r="D166" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="46"/>
+      <c r="E166" s="43"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
@@ -8244,7 +8226,7 @@
       <c r="D167" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E167" s="46"/>
+      <c r="E167" s="43"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
@@ -8259,7 +8241,7 @@
       <c r="D168" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E168" s="46"/>
+      <c r="E168" s="43"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
@@ -8274,7 +8256,7 @@
       <c r="D169" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E169" s="47"/>
+      <c r="E169" s="44"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
@@ -8289,7 +8271,7 @@
       <c r="D170" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="45" t="s">
+      <c r="E170" s="42" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8306,7 +8288,7 @@
       <c r="D171" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="46"/>
+      <c r="E171" s="43"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
@@ -8321,7 +8303,7 @@
       <c r="D172" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="46"/>
+      <c r="E172" s="43"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
@@ -8336,7 +8318,7 @@
       <c r="D173" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="46"/>
+      <c r="E173" s="43"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
@@ -8351,7 +8333,7 @@
       <c r="D174" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="46"/>
+      <c r="E174" s="43"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
@@ -8366,7 +8348,7 @@
       <c r="D175" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="47"/>
+      <c r="E175" s="44"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
@@ -8381,7 +8363,7 @@
       <c r="D176" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="45" t="s">
+      <c r="E176" s="42" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8398,7 +8380,7 @@
       <c r="D177" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="46"/>
+      <c r="E177" s="43"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
@@ -8413,7 +8395,7 @@
       <c r="D178" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="46"/>
+      <c r="E178" s="43"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
@@ -8428,7 +8410,7 @@
       <c r="D179" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="46"/>
+      <c r="E179" s="43"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
@@ -8443,7 +8425,7 @@
       <c r="D180" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="46"/>
+      <c r="E180" s="43"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
@@ -8458,7 +8440,7 @@
       <c r="D181" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="46"/>
+      <c r="E181" s="43"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
@@ -8473,7 +8455,7 @@
       <c r="D182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="46"/>
+      <c r="E182" s="43"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
@@ -8488,7 +8470,7 @@
       <c r="D183" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E183" s="47"/>
+      <c r="E183" s="44"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
@@ -8503,7 +8485,7 @@
       <c r="D184" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E184" s="45" t="s">
+      <c r="E184" s="42" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8520,7 +8502,7 @@
       <c r="D185" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E185" s="46"/>
+      <c r="E185" s="43"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
@@ -8535,7 +8517,7 @@
       <c r="D186" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E186" s="46"/>
+      <c r="E186" s="43"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
@@ -8550,7 +8532,7 @@
       <c r="D187" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="47"/>
+      <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
@@ -8565,7 +8547,7 @@
       <c r="D188" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="45" t="s">
+      <c r="E188" s="42" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8582,7 +8564,7 @@
       <c r="D189" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E189" s="46"/>
+      <c r="E189" s="43"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
@@ -8597,7 +8579,7 @@
       <c r="D190" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="46"/>
+      <c r="E190" s="43"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
@@ -8612,7 +8594,7 @@
       <c r="D191" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="46"/>
+      <c r="E191" s="43"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
@@ -8627,7 +8609,7 @@
       <c r="D192" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="46"/>
+      <c r="E192" s="43"/>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
@@ -8642,7 +8624,7 @@
       <c r="D193" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E193" s="46"/>
+      <c r="E193" s="43"/>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
@@ -8657,7 +8639,7 @@
       <c r="D194" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E194" s="46"/>
+      <c r="E194" s="43"/>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
@@ -8672,7 +8654,7 @@
       <c r="D195" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E195" s="46"/>
+      <c r="E195" s="43"/>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
@@ -8687,7 +8669,7 @@
       <c r="D196" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E196" s="46"/>
+      <c r="E196" s="43"/>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
@@ -8702,7 +8684,7 @@
       <c r="D197" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E197" s="46"/>
+      <c r="E197" s="43"/>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
@@ -8717,7 +8699,7 @@
       <c r="D198" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E198" s="46"/>
+      <c r="E198" s="43"/>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
@@ -8732,7 +8714,7 @@
       <c r="D199" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E199" s="46"/>
+      <c r="E199" s="43"/>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
@@ -8747,7 +8729,7 @@
       <c r="D200" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E200" s="46"/>
+      <c r="E200" s="43"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
@@ -8762,7 +8744,7 @@
       <c r="D201" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E201" s="47"/>
+      <c r="E201" s="44"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
@@ -8797,7 +8779,7 @@
       <c r="D203" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E203" s="45" t="s">
+      <c r="E203" s="42" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8814,7 +8796,7 @@
       <c r="D204" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="E204" s="46"/>
+      <c r="E204" s="43"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
@@ -8829,7 +8811,7 @@
       <c r="D205" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E205" s="46"/>
+      <c r="E205" s="43"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
@@ -8844,7 +8826,7 @@
       <c r="D206" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E206" s="46"/>
+      <c r="E206" s="43"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
@@ -8859,7 +8841,7 @@
       <c r="D207" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E207" s="46"/>
+      <c r="E207" s="43"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
@@ -8874,13 +8856,13 @@
       <c r="D208" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E208" s="46"/>
+      <c r="E208" s="43"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>208</v>
       </c>
-      <c r="B209" s="41" t="s">
+      <c r="B209" s="36" t="s">
         <v>417</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -8897,7 +8879,7 @@
       <c r="A210" s="14">
         <v>209</v>
       </c>
-      <c r="B210" s="41" t="s">
+      <c r="B210" s="36" t="s">
         <v>418</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -8922,7 +8904,7 @@
       <c r="A212" s="14">
         <v>211</v>
       </c>
-      <c r="B212" s="34" t="s">
+      <c r="B212" s="36" t="s">
         <v>812</v>
       </c>
       <c r="C212" s="2" t="s">
@@ -8937,7 +8919,7 @@
       <c r="A213" s="14">
         <v>212</v>
       </c>
-      <c r="B213" s="34" t="s">
+      <c r="B213" s="36" t="s">
         <v>824</v>
       </c>
       <c r="C213" s="2" t="s">
@@ -8952,7 +8934,7 @@
       <c r="A214" s="14">
         <v>213</v>
       </c>
-      <c r="B214" s="34" t="s">
+      <c r="B214" s="36" t="s">
         <v>813</v>
       </c>
       <c r="C214" s="2" t="s">
@@ -8967,7 +8949,7 @@
       <c r="A215" s="14">
         <v>214</v>
       </c>
-      <c r="B215" s="34" t="s">
+      <c r="B215" s="36" t="s">
         <v>825</v>
       </c>
       <c r="C215" s="2" t="s">
@@ -8982,7 +8964,7 @@
       <c r="A216" s="14">
         <v>215</v>
       </c>
-      <c r="B216" s="34" t="s">
+      <c r="B216" s="36" t="s">
         <v>814</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -8997,7 +8979,7 @@
       <c r="A217" s="14">
         <v>216</v>
       </c>
-      <c r="B217" s="34" t="s">
+      <c r="B217" s="36" t="s">
         <v>826</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -9012,7 +8994,7 @@
       <c r="A218" s="14">
         <v>217</v>
       </c>
-      <c r="B218" s="34" t="s">
+      <c r="B218" s="36" t="s">
         <v>815</v>
       </c>
       <c r="C218" s="2" t="s">
@@ -9027,7 +9009,7 @@
       <c r="A219" s="14">
         <v>218</v>
       </c>
-      <c r="B219" s="34" t="s">
+      <c r="B219" s="36" t="s">
         <v>816</v>
       </c>
       <c r="C219" s="2" t="s">
@@ -9042,7 +9024,7 @@
       <c r="A220" s="14">
         <v>219</v>
       </c>
-      <c r="B220" s="34" t="s">
+      <c r="B220" s="36" t="s">
         <v>848</v>
       </c>
       <c r="C220" s="2" t="s">
@@ -9051,13 +9033,13 @@
       <c r="D220" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E220" s="41"/>
+      <c r="E220" s="36"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>220</v>
       </c>
-      <c r="B221" s="34" t="s">
+      <c r="B221" s="36" t="s">
         <v>817</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -9072,7 +9054,7 @@
       <c r="A222" s="14">
         <v>221</v>
       </c>
-      <c r="B222" s="34" t="s">
+      <c r="B222" s="36" t="s">
         <v>827</v>
       </c>
       <c r="C222" s="2" t="s">
@@ -9087,7 +9069,7 @@
       <c r="A223" s="14">
         <v>222</v>
       </c>
-      <c r="B223" s="34" t="s">
+      <c r="B223" s="36" t="s">
         <v>818</v>
       </c>
       <c r="C223" s="2" t="s">
@@ -9102,7 +9084,7 @@
       <c r="A224" s="14">
         <v>223</v>
       </c>
-      <c r="B224" s="34" t="s">
+      <c r="B224" s="36" t="s">
         <v>828</v>
       </c>
       <c r="C224" s="2" t="s">
@@ -9117,7 +9099,7 @@
       <c r="A225" s="14">
         <v>224</v>
       </c>
-      <c r="B225" s="34" t="s">
+      <c r="B225" s="36" t="s">
         <v>819</v>
       </c>
       <c r="C225" s="2" t="s">
@@ -9132,7 +9114,7 @@
       <c r="A226" s="14">
         <v>225</v>
       </c>
-      <c r="B226" s="34" t="s">
+      <c r="B226" s="36" t="s">
         <v>820</v>
       </c>
       <c r="C226" s="2" t="s">
@@ -9147,7 +9129,7 @@
       <c r="A227" s="14">
         <v>226</v>
       </c>
-      <c r="B227" s="34" t="s">
+      <c r="B227" s="36" t="s">
         <v>829</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -9162,7 +9144,7 @@
       <c r="A228" s="14">
         <v>227</v>
       </c>
-      <c r="B228" s="34" t="s">
+      <c r="B228" s="36" t="s">
         <v>821</v>
       </c>
       <c r="C228" s="2" t="s">
@@ -9177,7 +9159,7 @@
       <c r="A229" s="14">
         <v>228</v>
       </c>
-      <c r="B229" s="34" t="s">
+      <c r="B229" s="36" t="s">
         <v>830</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -9192,7 +9174,7 @@
       <c r="A230" s="14">
         <v>229</v>
       </c>
-      <c r="B230" s="34" t="s">
+      <c r="B230" s="36" t="s">
         <v>822</v>
       </c>
       <c r="C230" s="2" t="s">
@@ -9207,7 +9189,7 @@
       <c r="A231" s="14">
         <v>230</v>
       </c>
-      <c r="B231" s="34" t="s">
+      <c r="B231" s="36" t="s">
         <v>831</v>
       </c>
       <c r="C231" s="2" t="s">
@@ -9222,7 +9204,7 @@
       <c r="A232" s="14">
         <v>231</v>
       </c>
-      <c r="B232" s="34" t="s">
+      <c r="B232" s="36" t="s">
         <v>849</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -9231,13 +9213,13 @@
       <c r="D232" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="E232" s="42"/>
+      <c r="E232" s="37"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>232</v>
       </c>
-      <c r="B233" s="34" t="s">
+      <c r="B233" s="36" t="s">
         <v>850</v>
       </c>
       <c r="C233" s="2" t="s">
@@ -9252,7 +9234,7 @@
       <c r="A234" s="14">
         <v>233</v>
       </c>
-      <c r="B234" s="34" t="s">
+      <c r="B234" s="36" t="s">
         <v>823</v>
       </c>
       <c r="C234" s="2" t="s">
@@ -9267,7 +9249,7 @@
       <c r="A235" s="14">
         <v>234</v>
       </c>
-      <c r="B235" s="34" t="s">
+      <c r="B235" s="36" t="s">
         <v>851</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -9280,10 +9262,12 @@
       <c r="A236" s="14">
         <v>235</v>
       </c>
-      <c r="B236" s="34" t="s">
+      <c r="B236" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="C236" s="2"/>
+      <c r="C236" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
@@ -9300,7 +9284,7 @@
       <c r="D237" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="E237" s="45" t="s">
+      <c r="E237" s="42" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9317,7 +9301,7 @@
       <c r="D238" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E238" s="46"/>
+      <c r="E238" s="43"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
@@ -9332,7 +9316,7 @@
       <c r="D239" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="E239" s="46"/>
+      <c r="E239" s="43"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
@@ -9347,7 +9331,7 @@
       <c r="D240" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E240" s="46"/>
+      <c r="E240" s="43"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
@@ -9362,7 +9346,7 @@
       <c r="D241" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E241" s="46"/>
+      <c r="E241" s="43"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
@@ -9377,7 +9361,7 @@
       <c r="D242" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E242" s="46"/>
+      <c r="E242" s="43"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
@@ -9392,7 +9376,7 @@
       <c r="D243" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E243" s="46"/>
+      <c r="E243" s="43"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
@@ -9407,7 +9391,7 @@
       <c r="D244" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="E244" s="47"/>
+      <c r="E244" s="44"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
@@ -9421,33 +9405,33 @@
       <c r="A246" s="14">
         <v>245</v>
       </c>
-      <c r="B246" s="34" t="s">
+      <c r="B246" s="36" t="s">
         <v>852</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D246" s="12"/>
-      <c r="E246" s="54"/>
+      <c r="E246" s="38"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>246</v>
       </c>
-      <c r="B247" s="34" t="s">
+      <c r="B247" s="36" t="s">
         <v>853</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D247" s="12"/>
-      <c r="E247" s="55"/>
+      <c r="E247" s="39"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>247</v>
       </c>
-      <c r="B248" s="41"/>
+      <c r="B248" s="36"/>
       <c r="C248" s="2"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
@@ -9456,7 +9440,7 @@
       <c r="A249" s="14">
         <v>248</v>
       </c>
-      <c r="B249" s="41"/>
+      <c r="B249" s="36"/>
       <c r="C249" s="2"/>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
@@ -9525,12 +9509,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9542,11 +9525,12 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9557,8 +9541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9595,7 +9579,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="35" t="s">
         <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -9604,7 +9588,7 @@
       <c r="D2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="42" t="s">
         <v>376</v>
       </c>
       <c r="F2" s="9"/>
@@ -9614,7 +9598,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="35" t="s">
         <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -9623,7 +9607,7 @@
       <c r="D3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
@@ -9631,7 +9615,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="35" t="s">
         <v>433</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -9640,7 +9624,7 @@
       <c r="D4" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -9648,7 +9632,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="35" t="s">
         <v>434</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -9657,7 +9641,7 @@
       <c r="D5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
@@ -9665,7 +9649,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="35" t="s">
         <v>435</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -9674,7 +9658,7 @@
       <c r="D6" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
@@ -9682,7 +9666,7 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="35" t="s">
         <v>436</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -9691,7 +9675,7 @@
       <c r="D7" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="46"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
@@ -9699,7 +9683,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="35" t="s">
         <v>437</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -9708,7 +9692,7 @@
       <c r="D8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
@@ -9716,7 +9700,7 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="35" t="s">
         <v>438</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -9725,7 +9709,7 @@
       <c r="D9" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
@@ -9733,7 +9717,7 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="35" t="s">
         <v>439</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9742,7 +9726,7 @@
       <c r="D10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="46"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
@@ -9759,7 +9743,7 @@
       <c r="D11" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="46"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
@@ -9776,7 +9760,7 @@
       <c r="D12" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="46"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
@@ -9793,7 +9777,7 @@
       <c r="D13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="46"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -9810,7 +9794,7 @@
       <c r="D14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
@@ -9827,7 +9811,7 @@
       <c r="D15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="47"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
@@ -9844,7 +9828,7 @@
       <c r="D16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="42" t="s">
         <v>377</v>
       </c>
       <c r="F16" s="9"/>
@@ -9863,7 +9847,7 @@
       <c r="D17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="46"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
@@ -9880,7 +9864,7 @@
       <c r="D18" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
@@ -9897,7 +9881,7 @@
       <c r="D19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
@@ -9914,7 +9898,7 @@
       <c r="D20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
@@ -9931,7 +9915,7 @@
       <c r="D21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="46"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
@@ -9948,7 +9932,7 @@
       <c r="D22" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
@@ -9965,7 +9949,7 @@
       <c r="D23" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="47"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
@@ -9982,7 +9966,7 @@
       <c r="D24" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="42" t="s">
         <v>378</v>
       </c>
       <c r="F24" s="9"/>
@@ -10001,7 +9985,7 @@
       <c r="D25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="46"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
@@ -10018,7 +10002,7 @@
       <c r="D26" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="46"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
@@ -10035,7 +10019,7 @@
       <c r="D27" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="46"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
@@ -10052,7 +10036,7 @@
       <c r="D28" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="46"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
@@ -10069,7 +10053,7 @@
       <c r="D29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
@@ -10086,7 +10070,7 @@
       <c r="D30" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
@@ -10103,7 +10087,7 @@
       <c r="D31" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="47"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
@@ -10111,7 +10095,7 @@
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="32" t="s">
         <v>419</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -10130,7 +10114,7 @@
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="32" t="s">
         <v>420</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -10158,7 +10142,7 @@
       <c r="D34" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="42" t="s">
         <v>379</v>
       </c>
       <c r="F34" s="9"/>
@@ -10177,7 +10161,7 @@
       <c r="D35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
@@ -10194,7 +10178,7 @@
       <c r="D36" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="46"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
@@ -10211,7 +10195,7 @@
       <c r="D37" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="46"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
@@ -10228,7 +10212,7 @@
       <c r="D38" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="46"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
@@ -10245,7 +10229,7 @@
       <c r="D39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
@@ -10262,7 +10246,7 @@
       <c r="D40" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
@@ -10279,7 +10263,7 @@
       <c r="D41" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
@@ -10296,7 +10280,7 @@
       <c r="D42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="46"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
@@ -10313,7 +10297,7 @@
       <c r="D43" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="46"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
@@ -10330,7 +10314,7 @@
       <c r="D44" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="46"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
@@ -10347,7 +10331,7 @@
       <c r="D45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="46"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
@@ -10364,7 +10348,7 @@
       <c r="D46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="46"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
@@ -10381,7 +10365,7 @@
       <c r="D47" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="47"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
@@ -10398,7 +10382,7 @@
       <c r="D48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="42" t="s">
         <v>380</v>
       </c>
       <c r="F48" s="9"/>
@@ -10417,7 +10401,7 @@
       <c r="D49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="46"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
@@ -10434,7 +10418,7 @@
       <c r="D50" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="46"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
@@ -10451,7 +10435,7 @@
       <c r="D51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="46"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
@@ -10468,7 +10452,7 @@
       <c r="D52" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="46"/>
+      <c r="E52" s="43"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
@@ -10485,7 +10469,7 @@
       <c r="D53" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="46"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
@@ -10502,7 +10486,7 @@
       <c r="D54" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="46"/>
+      <c r="E54" s="43"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
@@ -10519,7 +10503,7 @@
       <c r="D55" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="47"/>
+      <c r="E55" s="44"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
@@ -10536,7 +10520,7 @@
       <c r="D56" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="42" t="s">
         <v>381</v>
       </c>
       <c r="F56" s="9"/>
@@ -10555,7 +10539,7 @@
       <c r="D57" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="46"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
@@ -10572,7 +10556,7 @@
       <c r="D58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E58" s="46"/>
+      <c r="E58" s="43"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
@@ -10589,7 +10573,7 @@
       <c r="D59" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="46"/>
+      <c r="E59" s="43"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
@@ -10606,7 +10590,7 @@
       <c r="D60" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="46"/>
+      <c r="E60" s="43"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
@@ -10623,7 +10607,7 @@
       <c r="D61" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E61" s="46"/>
+      <c r="E61" s="43"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
@@ -10640,7 +10624,7 @@
       <c r="D62" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="46"/>
+      <c r="E62" s="43"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
@@ -10657,7 +10641,7 @@
       <c r="D63" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="46"/>
+      <c r="E63" s="43"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
@@ -10674,7 +10658,7 @@
       <c r="D64" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="46"/>
+      <c r="E64" s="43"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
@@ -10691,7 +10675,7 @@
       <c r="D65" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="46"/>
+      <c r="E65" s="43"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
@@ -10708,7 +10692,7 @@
       <c r="D66" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="46"/>
+      <c r="E66" s="43"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
@@ -10725,7 +10709,7 @@
       <c r="D67" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="46"/>
+      <c r="E67" s="43"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
@@ -10742,7 +10726,7 @@
       <c r="D68" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E68" s="46"/>
+      <c r="E68" s="43"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
@@ -10759,7 +10743,7 @@
       <c r="D69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="46"/>
+      <c r="E69" s="43"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
@@ -10776,7 +10760,7 @@
       <c r="D70" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E70" s="46"/>
+      <c r="E70" s="43"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
@@ -10793,7 +10777,7 @@
       <c r="D71" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="47"/>
+      <c r="E71" s="44"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
@@ -10801,7 +10785,7 @@
       <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="32" t="s">
         <v>421</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -10829,7 +10813,7 @@
       <c r="D73" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="50" t="s">
+      <c r="E73" s="47" t="s">
         <v>382</v>
       </c>
       <c r="F73" s="9"/>
@@ -10848,7 +10832,7 @@
       <c r="D74" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="53"/>
+      <c r="E74" s="50"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
@@ -10865,7 +10849,7 @@
       <c r="D75" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="42" t="s">
         <v>383</v>
       </c>
       <c r="F75" s="9"/>
@@ -10884,7 +10868,7 @@
       <c r="D76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="46"/>
+      <c r="E76" s="43"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
@@ -10901,7 +10885,7 @@
       <c r="D77" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="46"/>
+      <c r="E77" s="43"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
@@ -10918,7 +10902,7 @@
       <c r="D78" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="46"/>
+      <c r="E78" s="43"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
@@ -10935,7 +10919,7 @@
       <c r="D79" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E79" s="46"/>
+      <c r="E79" s="43"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
@@ -10952,7 +10936,7 @@
       <c r="D80" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="46"/>
+      <c r="E80" s="43"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -10969,7 +10953,7 @@
       <c r="D81" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="46"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
@@ -10986,7 +10970,7 @@
       <c r="D82" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="46"/>
+      <c r="E82" s="43"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
@@ -11003,7 +10987,7 @@
       <c r="D83" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="46"/>
+      <c r="E83" s="43"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
@@ -11020,7 +11004,7 @@
       <c r="D84" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="46"/>
+      <c r="E84" s="43"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
@@ -11037,7 +11021,7 @@
       <c r="D85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="46"/>
+      <c r="E85" s="43"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
@@ -11054,7 +11038,7 @@
       <c r="D86" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="46"/>
+      <c r="E86" s="43"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
@@ -11071,7 +11055,7 @@
       <c r="D87" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="46"/>
+      <c r="E87" s="43"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
@@ -11088,7 +11072,7 @@
       <c r="D88" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="47"/>
+      <c r="E88" s="44"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
@@ -11105,7 +11089,7 @@
       <c r="D89" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="50" t="s">
+      <c r="E89" s="47" t="s">
         <v>384</v>
       </c>
       <c r="F89" s="9"/>
@@ -11124,7 +11108,7 @@
       <c r="D90" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="53"/>
+      <c r="E90" s="50"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
@@ -11141,7 +11125,7 @@
       <c r="D91" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="45" t="s">
+      <c r="E91" s="42" t="s">
         <v>385</v>
       </c>
       <c r="F91" s="9"/>
@@ -11160,7 +11144,7 @@
       <c r="D92" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E92" s="46"/>
+      <c r="E92" s="43"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
@@ -11177,7 +11161,7 @@
       <c r="D93" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E93" s="46"/>
+      <c r="E93" s="43"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
@@ -11194,7 +11178,7 @@
       <c r="D94" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E94" s="46"/>
+      <c r="E94" s="43"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
@@ -11211,7 +11195,7 @@
       <c r="D95" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="46"/>
+      <c r="E95" s="43"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
@@ -11228,7 +11212,7 @@
       <c r="D96" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="46"/>
+      <c r="E96" s="43"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
@@ -11245,7 +11229,7 @@
       <c r="D97" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="46"/>
+      <c r="E97" s="43"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
@@ -11262,7 +11246,7 @@
       <c r="D98" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E98" s="46"/>
+      <c r="E98" s="43"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
@@ -11279,7 +11263,7 @@
       <c r="D99" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="46"/>
+      <c r="E99" s="43"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
@@ -11296,7 +11280,7 @@
       <c r="D100" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="46"/>
+      <c r="E100" s="43"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
@@ -11313,7 +11297,7 @@
       <c r="D101" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="46"/>
+      <c r="E101" s="43"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
@@ -11330,7 +11314,7 @@
       <c r="D102" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="46"/>
+      <c r="E102" s="43"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
@@ -11347,7 +11331,7 @@
       <c r="D103" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E103" s="46"/>
+      <c r="E103" s="43"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
@@ -11364,7 +11348,7 @@
       <c r="D104" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E104" s="47"/>
+      <c r="E104" s="44"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
@@ -11381,7 +11365,7 @@
       <c r="D105" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="45" t="s">
+      <c r="E105" s="42" t="s">
         <v>386</v>
       </c>
       <c r="F105" s="9"/>
@@ -11400,7 +11384,7 @@
       <c r="D106" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="46"/>
+      <c r="E106" s="43"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
@@ -11417,7 +11401,7 @@
       <c r="D107" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E107" s="46"/>
+      <c r="E107" s="43"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
@@ -11434,7 +11418,7 @@
       <c r="D108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E108" s="46"/>
+      <c r="E108" s="43"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
@@ -11451,7 +11435,7 @@
       <c r="D109" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="46"/>
+      <c r="E109" s="43"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
@@ -11468,7 +11452,7 @@
       <c r="D110" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="46"/>
+      <c r="E110" s="43"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
@@ -11485,7 +11469,7 @@
       <c r="D111" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E111" s="46"/>
+      <c r="E111" s="43"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
@@ -11502,7 +11486,7 @@
       <c r="D112" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="47"/>
+      <c r="E112" s="44"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
@@ -11516,7 +11500,7 @@
       <c r="C113" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="D113" s="32" t="s">
         <v>387</v>
       </c>
       <c r="E113" s="12" t="s">
@@ -11536,7 +11520,7 @@
       <c r="C114" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="32" t="s">
         <v>388</v>
       </c>
       <c r="E114" s="12" t="s">
@@ -11555,7 +11539,7 @@
       <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E115" s="12" t="s">
@@ -11778,7 +11762,7 @@
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="48" t="s">
+      <c r="D141" s="45" t="s">
         <v>425</v>
       </c>
       <c r="F141" s="9"/>
@@ -11794,7 +11778,7 @@
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="48"/>
+      <c r="D142" s="45"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
@@ -11808,7 +11792,7 @@
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="48"/>
+      <c r="D143" s="45"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
@@ -11822,7 +11806,7 @@
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="48"/>
+      <c r="D144" s="45"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
@@ -11836,7 +11820,7 @@
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="48" t="s">
+      <c r="D145" s="45" t="s">
         <v>426</v>
       </c>
       <c r="F145" s="9"/>
@@ -11852,7 +11836,7 @@
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="48"/>
+      <c r="D146" s="45"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
@@ -11866,7 +11850,7 @@
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="48"/>
+      <c r="D147" s="45"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
@@ -11880,7 +11864,7 @@
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="48"/>
+      <c r="D148" s="45"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
@@ -11894,7 +11878,7 @@
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="48" t="s">
+      <c r="D149" s="45" t="s">
         <v>427</v>
       </c>
       <c r="F149" s="9"/>
@@ -11910,7 +11894,7 @@
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="48"/>
+      <c r="D150" s="45"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
@@ -11924,7 +11908,7 @@
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="48"/>
+      <c r="D151" s="45"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
@@ -11938,7 +11922,7 @@
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="48"/>
+      <c r="D152" s="45"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
@@ -11952,7 +11936,7 @@
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="48"/>
+      <c r="D153" s="45"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
@@ -11966,7 +11950,7 @@
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="48"/>
+      <c r="D154" s="45"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
@@ -11980,7 +11964,7 @@
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="48"/>
+      <c r="D155" s="45"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
@@ -11994,7 +11978,7 @@
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="48"/>
+      <c r="D156" s="45"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
@@ -12008,7 +11992,7 @@
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="48" t="s">
+      <c r="D157" s="45" t="s">
         <v>428</v>
       </c>
       <c r="F157" s="9"/>
@@ -12024,7 +12008,7 @@
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="48"/>
+      <c r="D158" s="45"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
@@ -12038,7 +12022,7 @@
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="48"/>
+      <c r="D159" s="45"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
@@ -12052,7 +12036,7 @@
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="48"/>
+      <c r="D160" s="45"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
@@ -12066,7 +12050,7 @@
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="48" t="s">
+      <c r="D161" s="45" t="s">
         <v>429</v>
       </c>
       <c r="F161" s="9"/>
@@ -12082,7 +12066,7 @@
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="48"/>
+      <c r="D162" s="45"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
@@ -12096,7 +12080,7 @@
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="48"/>
+      <c r="D163" s="45"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
@@ -12110,7 +12094,7 @@
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="48"/>
+      <c r="D164" s="45"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
@@ -12124,7 +12108,7 @@
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="48" t="s">
+      <c r="D165" s="45" t="s">
         <v>563</v>
       </c>
       <c r="F165" s="9"/>
@@ -12140,7 +12124,7 @@
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="48"/>
+      <c r="D166" s="45"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
@@ -12154,7 +12138,7 @@
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="48"/>
+      <c r="D167" s="45"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
@@ -12168,7 +12152,7 @@
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="48"/>
+      <c r="D168" s="45"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
@@ -12182,7 +12166,7 @@
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="48"/>
+      <c r="D169" s="45"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
@@ -12196,7 +12180,7 @@
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="48"/>
+      <c r="D170" s="45"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
@@ -12210,7 +12194,7 @@
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="48"/>
+      <c r="D171" s="45"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
@@ -12224,7 +12208,7 @@
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="48"/>
+      <c r="D172" s="45"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
@@ -12238,7 +12222,7 @@
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="48" t="s">
+      <c r="D173" s="45" t="s">
         <v>572</v>
       </c>
       <c r="F173" s="9"/>
@@ -12254,7 +12238,7 @@
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="48"/>
+      <c r="D174" s="45"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
@@ -12268,7 +12252,7 @@
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="48"/>
+      <c r="D175" s="45"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
@@ -12282,7 +12266,7 @@
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="48"/>
+      <c r="D176" s="45"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
@@ -12296,10 +12280,10 @@
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="48" t="s">
+      <c r="D177" s="45" t="s">
         <v>577</v>
       </c>
-      <c r="E177" s="50" t="s">
+      <c r="E177" s="47" t="s">
         <v>430</v>
       </c>
       <c r="F177" s="9"/>
@@ -12315,8 +12299,8 @@
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="49"/>
-      <c r="E178" s="51"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="48"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
@@ -12330,8 +12314,8 @@
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="49"/>
-      <c r="E179" s="51"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="48"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
@@ -12345,8 +12329,8 @@
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="49"/>
-      <c r="E180" s="51"/>
+      <c r="D180" s="46"/>
+      <c r="E180" s="48"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
@@ -12360,8 +12344,8 @@
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="49"/>
-      <c r="E181" s="51"/>
+      <c r="D181" s="46"/>
+      <c r="E181" s="48"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
@@ -12375,8 +12359,8 @@
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="49"/>
-      <c r="E182" s="51"/>
+      <c r="D182" s="46"/>
+      <c r="E182" s="48"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
@@ -12384,14 +12368,14 @@
       <c r="A183" s="4">
         <v>182</v>
       </c>
-      <c r="B183" s="36" t="s">
+      <c r="B183" s="33" t="s">
         <v>584</v>
       </c>
-      <c r="C183" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D183" s="49"/>
-      <c r="E183" s="51"/>
+      <c r="C183" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="46"/>
+      <c r="E183" s="48"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
@@ -12399,13 +12383,13 @@
       <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184" s="39" t="s">
+      <c r="B184" s="5" t="s">
         <v>585</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="52" t="s">
+      <c r="D184" s="49" t="s">
         <v>589</v>
       </c>
       <c r="F184" s="9"/>
@@ -12415,13 +12399,13 @@
       <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185" s="39" t="s">
+      <c r="B185" s="5" t="s">
         <v>586</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="52"/>
+      <c r="D185" s="49"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
@@ -12429,13 +12413,13 @@
       <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186" s="39" t="s">
+      <c r="B186" s="5" t="s">
         <v>587</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="52"/>
+      <c r="D186" s="49"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
@@ -12443,13 +12427,13 @@
       <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187" s="39" t="s">
+      <c r="B187" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="C187" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D187" s="52"/>
+      <c r="C187" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D187" s="49"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
@@ -12639,7 +12623,7 @@
       <c r="A212" s="4">
         <v>211</v>
       </c>
-      <c r="B212" s="33" t="s">
+      <c r="B212" s="32" t="s">
         <v>590</v>
       </c>
       <c r="C212" s="22" t="s">
@@ -12655,7 +12639,7 @@
       <c r="A213" s="4">
         <v>212</v>
       </c>
-      <c r="B213" s="33" t="s">
+      <c r="B213" s="32" t="s">
         <v>597</v>
       </c>
       <c r="C213" s="22" t="s">
@@ -12671,7 +12655,7 @@
       <c r="A214" s="4">
         <v>213</v>
       </c>
-      <c r="B214" s="33" t="s">
+      <c r="B214" s="32" t="s">
         <v>593</v>
       </c>
       <c r="C214" s="22" t="s">
@@ -12687,7 +12671,7 @@
       <c r="A215" s="4">
         <v>214</v>
       </c>
-      <c r="B215" s="33" t="s">
+      <c r="B215" s="32" t="s">
         <v>594</v>
       </c>
       <c r="C215" s="22" t="s">
@@ -12703,7 +12687,7 @@
       <c r="A216" s="4">
         <v>215</v>
       </c>
-      <c r="B216" s="32" t="s">
+      <c r="B216" s="11" t="s">
         <v>595</v>
       </c>
       <c r="C216" s="22" t="s">
@@ -12719,7 +12703,7 @@
       <c r="A217" s="4">
         <v>216</v>
       </c>
-      <c r="B217" s="32" t="s">
+      <c r="B217" s="11" t="s">
         <v>598</v>
       </c>
       <c r="C217" s="22" t="s">
@@ -12735,7 +12719,7 @@
       <c r="A218" s="4">
         <v>217</v>
       </c>
-      <c r="B218" s="33" t="s">
+      <c r="B218" s="32" t="s">
         <v>592</v>
       </c>
       <c r="C218" s="22" t="s">
@@ -12751,7 +12735,7 @@
       <c r="A219" s="4">
         <v>218</v>
       </c>
-      <c r="B219" s="32" t="s">
+      <c r="B219" s="11" t="s">
         <v>599</v>
       </c>
       <c r="C219" s="22" t="s">
@@ -12767,7 +12751,7 @@
       <c r="A220" s="4">
         <v>219</v>
       </c>
-      <c r="B220" s="32" t="s">
+      <c r="B220" s="11" t="s">
         <v>591</v>
       </c>
       <c r="C220" s="22" t="s">
@@ -12783,7 +12767,7 @@
       <c r="A221" s="4">
         <v>220</v>
       </c>
-      <c r="B221" s="32" t="s">
+      <c r="B221" s="11" t="s">
         <v>600</v>
       </c>
       <c r="C221" s="22" t="s">
@@ -12799,7 +12783,7 @@
       <c r="A222" s="4">
         <v>221</v>
       </c>
-      <c r="B222" s="33" t="s">
+      <c r="B222" s="32" t="s">
         <v>596</v>
       </c>
       <c r="C222" s="22" t="s">
@@ -12815,7 +12799,7 @@
       <c r="A223" s="4">
         <v>222</v>
       </c>
-      <c r="B223" s="43" t="s">
+      <c r="B223" s="32" t="s">
         <v>832</v>
       </c>
       <c r="C223" s="22" t="s">
@@ -12829,7 +12813,7 @@
       <c r="A224" s="4">
         <v>223</v>
       </c>
-      <c r="B224" s="43" t="s">
+      <c r="B224" s="32" t="s">
         <v>833</v>
       </c>
       <c r="C224" s="22" t="s">
@@ -12843,7 +12827,7 @@
       <c r="A225" s="4">
         <v>224</v>
       </c>
-      <c r="B225" s="35"/>
+      <c r="B225" s="32"/>
       <c r="C225" s="22"/>
       <c r="D225" s="11"/>
       <c r="F225" s="9"/>
@@ -12853,7 +12837,7 @@
       <c r="A226" s="4">
         <v>225</v>
       </c>
-      <c r="B226" s="35"/>
+      <c r="B226" s="32"/>
       <c r="C226" s="22"/>
       <c r="D226" s="11"/>
       <c r="F226" s="9"/>
@@ -12884,6 +12868,15 @@
       <c r="A230" s="4">
         <v>229</v>
       </c>
+      <c r="B230" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>856</v>
+      </c>
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
     </row>
@@ -12891,8 +12884,8 @@
       <c r="A231" s="4">
         <v>230</v>
       </c>
-      <c r="B231" s="44" t="s">
-        <v>352</v>
+      <c r="B231" s="32" t="s">
+        <v>601</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>353</v>
@@ -12900,8 +12893,8 @@
       <c r="D231" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E231" s="38" t="s">
-        <v>854</v>
+      <c r="E231" s="7" t="s">
+        <v>855</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
@@ -12910,14 +12903,17 @@
       <c r="A232" s="4">
         <v>231</v>
       </c>
-      <c r="B232" s="33" t="s">
-        <v>601</v>
+      <c r="B232" s="40" t="s">
+        <v>352</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>351</v>
+      </c>
+      <c r="E232" s="41" t="s">
+        <v>854</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
@@ -13102,6 +13098,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13117,12 +13119,6 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12825" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="KNX_1 (192.168.1.51)" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="864">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -5051,6 +5051,24 @@
   </si>
   <si>
     <t>Natężenie światła (luxy) na zewnątrz (przy bramie)</t>
+  </si>
+  <si>
+    <t>CR_14</t>
+  </si>
+  <si>
+    <t>0/0/218</t>
+  </si>
+  <si>
+    <t>Czujka Ruchu 14</t>
+  </si>
+  <si>
+    <t>CR_15</t>
+  </si>
+  <si>
+    <t>0/0/219</t>
+  </si>
+  <si>
+    <t>Czujka Ruchu 15</t>
   </si>
 </sst>
 </file>
@@ -5206,7 +5224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5297,17 +5315,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5643,8 +5658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="D235" sqref="D235"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5693,7 +5708,7 @@
       <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="9"/>
@@ -5712,7 +5727,7 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
@@ -5727,7 +5742,7 @@
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
@@ -5742,7 +5757,7 @@
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -5757,7 +5772,7 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
@@ -5772,7 +5787,7 @@
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
@@ -5787,7 +5802,7 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -5802,7 +5817,7 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -5817,7 +5832,7 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -5832,7 +5847,7 @@
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -5847,7 +5862,7 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -5862,7 +5877,7 @@
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -5877,7 +5892,7 @@
       <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -5892,7 +5907,7 @@
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="43"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -5941,7 +5956,7 @@
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="41" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5958,7 +5973,7 @@
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -5973,7 +5988,7 @@
       <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -5988,7 +6003,7 @@
       <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -6003,7 +6018,7 @@
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -6018,7 +6033,7 @@
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -6033,7 +6048,7 @@
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -6048,7 +6063,7 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="44"/>
+      <c r="E25" s="43"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -6063,7 +6078,7 @@
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="41" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6080,7 +6095,7 @@
       <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -6095,7 +6110,7 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
@@ -6110,7 +6125,7 @@
       <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
@@ -6125,7 +6140,7 @@
       <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
@@ -6140,7 +6155,7 @@
       <c r="D31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
@@ -6155,7 +6170,7 @@
       <c r="D32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
@@ -6170,7 +6185,7 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
@@ -6185,7 +6200,7 @@
       <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
@@ -6200,7 +6215,7 @@
       <c r="D35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="42"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
@@ -6215,7 +6230,7 @@
       <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="43"/>
+      <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
@@ -6230,7 +6245,7 @@
       <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="43"/>
+      <c r="E37" s="42"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
@@ -6245,7 +6260,7 @@
       <c r="D38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="43"/>
+      <c r="E38" s="42"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -6260,7 +6275,7 @@
       <c r="D39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="44"/>
+      <c r="E39" s="43"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -6275,7 +6290,7 @@
       <c r="D40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="41" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6292,7 +6307,7 @@
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="43"/>
+      <c r="E41" s="42"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -6307,7 +6322,7 @@
       <c r="D42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="43"/>
+      <c r="E42" s="42"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -6322,7 +6337,7 @@
       <c r="D43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" s="42"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
@@ -6337,7 +6352,7 @@
       <c r="D44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="43"/>
+      <c r="E44" s="42"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
@@ -6352,7 +6367,7 @@
       <c r="D45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="43"/>
+      <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
@@ -6367,7 +6382,7 @@
       <c r="D46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="43"/>
+      <c r="E46" s="42"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
@@ -6382,7 +6397,7 @@
       <c r="D47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="43"/>
+      <c r="E47" s="42"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
@@ -6397,7 +6412,7 @@
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="43"/>
+      <c r="E48" s="42"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
@@ -6412,7 +6427,7 @@
       <c r="D49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="43"/>
+      <c r="E49" s="42"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -6427,7 +6442,7 @@
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="43"/>
+      <c r="E50" s="42"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
@@ -6442,7 +6457,7 @@
       <c r="D51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="43"/>
+      <c r="E51" s="42"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -6457,7 +6472,7 @@
       <c r="D52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="43"/>
+      <c r="E52" s="42"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
@@ -6472,7 +6487,7 @@
       <c r="D53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="44"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
@@ -6487,7 +6502,7 @@
       <c r="D54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="42" t="s">
+      <c r="E54" s="41" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6504,7 +6519,7 @@
       <c r="D55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="43"/>
+      <c r="E55" s="42"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
@@ -6519,7 +6534,7 @@
       <c r="D56" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="43"/>
+      <c r="E56" s="42"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
@@ -6534,7 +6549,7 @@
       <c r="D57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="43"/>
+      <c r="E57" s="42"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
@@ -6549,7 +6564,7 @@
       <c r="D58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="43"/>
+      <c r="E58" s="42"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
@@ -6564,7 +6579,7 @@
       <c r="D59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="43"/>
+      <c r="E59" s="42"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
@@ -6579,7 +6594,7 @@
       <c r="D60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="43"/>
+      <c r="E60" s="42"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
@@ -6594,7 +6609,7 @@
       <c r="D61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="44"/>
+      <c r="E61" s="43"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
@@ -6609,7 +6624,7 @@
       <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="41" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6626,7 +6641,7 @@
       <c r="D63" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="43"/>
+      <c r="E63" s="42"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
@@ -6641,7 +6656,7 @@
       <c r="D64" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="43"/>
+      <c r="E64" s="42"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
@@ -6656,7 +6671,7 @@
       <c r="D65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="43"/>
+      <c r="E65" s="42"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
@@ -6671,7 +6686,7 @@
       <c r="D66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="43"/>
+      <c r="E66" s="42"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
@@ -6686,7 +6701,7 @@
       <c r="D67" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="43"/>
+      <c r="E67" s="42"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
@@ -6701,7 +6716,7 @@
       <c r="D68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="43"/>
+      <c r="E68" s="42"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
@@ -6716,7 +6731,7 @@
       <c r="D69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="44"/>
+      <c r="E69" s="43"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
@@ -6731,7 +6746,7 @@
       <c r="D70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="41" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6748,7 +6763,7 @@
       <c r="D71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="43"/>
+      <c r="E71" s="42"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
@@ -6763,7 +6778,7 @@
       <c r="D72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="43"/>
+      <c r="E72" s="42"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
@@ -6778,7 +6793,7 @@
       <c r="D73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="43"/>
+      <c r="E73" s="42"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
@@ -6793,7 +6808,7 @@
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="43"/>
+      <c r="E74" s="42"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
@@ -6808,7 +6823,7 @@
       <c r="D75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="43"/>
+      <c r="E75" s="42"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
@@ -6823,7 +6838,7 @@
       <c r="D76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="43"/>
+      <c r="E76" s="42"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
@@ -6838,7 +6853,7 @@
       <c r="D77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="44"/>
+      <c r="E77" s="43"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
@@ -6870,7 +6885,7 @@
       <c r="D79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="42" t="s">
+      <c r="E79" s="41" t="s">
         <v>409</v>
       </c>
       <c r="F79" s="30"/>
@@ -6888,7 +6903,7 @@
       <c r="D80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="43"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6904,7 +6919,7 @@
       <c r="D81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="43"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6920,7 +6935,7 @@
       <c r="D82" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="43"/>
+      <c r="E82" s="42"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
@@ -6935,7 +6950,7 @@
       <c r="D83" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="43"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,7 +6966,7 @@
       <c r="D84" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="43"/>
+      <c r="E84" s="42"/>
       <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6967,7 +6982,7 @@
       <c r="D85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E85" s="43"/>
+      <c r="E85" s="42"/>
       <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6983,7 +6998,7 @@
       <c r="D86" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="44"/>
+      <c r="E86" s="43"/>
       <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,7 +7014,7 @@
       <c r="D87" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="E87" s="41" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7016,7 +7031,7 @@
       <c r="D88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="44"/>
+      <c r="E88" s="43"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
@@ -7031,7 +7046,7 @@
       <c r="D89" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="41" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7048,7 +7063,7 @@
       <c r="D90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="43"/>
+      <c r="E90" s="42"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
@@ -7063,7 +7078,7 @@
       <c r="D91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="43"/>
+      <c r="E91" s="42"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
@@ -7078,7 +7093,7 @@
       <c r="D92" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="43"/>
+      <c r="E92" s="42"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
@@ -7093,7 +7108,7 @@
       <c r="D93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E93" s="43"/>
+      <c r="E93" s="42"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
@@ -7108,7 +7123,7 @@
       <c r="D94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="43"/>
+      <c r="E94" s="42"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
@@ -7123,7 +7138,7 @@
       <c r="D95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="43"/>
+      <c r="E95" s="42"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
@@ -7138,7 +7153,7 @@
       <c r="D96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="43"/>
+      <c r="E96" s="42"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
@@ -7153,7 +7168,7 @@
       <c r="D97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E97" s="43"/>
+      <c r="E97" s="42"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
@@ -7168,7 +7183,7 @@
       <c r="D98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="43"/>
+      <c r="E98" s="42"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
@@ -7183,7 +7198,7 @@
       <c r="D99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="43"/>
+      <c r="E99" s="42"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
@@ -7198,7 +7213,7 @@
       <c r="D100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="43"/>
+      <c r="E100" s="42"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
@@ -7213,7 +7228,7 @@
       <c r="D101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="43"/>
+      <c r="E101" s="42"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
@@ -7228,7 +7243,7 @@
       <c r="D102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="44"/>
+      <c r="E102" s="43"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
@@ -7243,7 +7258,7 @@
       <c r="D103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="42" t="s">
+      <c r="E103" s="41" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7260,7 +7275,7 @@
       <c r="D104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="43"/>
+      <c r="E104" s="42"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
@@ -7275,7 +7290,7 @@
       <c r="D105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="43"/>
+      <c r="E105" s="42"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
@@ -7290,7 +7305,7 @@
       <c r="D106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E106" s="43"/>
+      <c r="E106" s="42"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
@@ -7305,7 +7320,7 @@
       <c r="D107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="43"/>
+      <c r="E107" s="42"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
@@ -7320,7 +7335,7 @@
       <c r="D108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E108" s="43"/>
+      <c r="E108" s="42"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
@@ -7335,7 +7350,7 @@
       <c r="D109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="43"/>
+      <c r="E109" s="42"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
@@ -7350,7 +7365,7 @@
       <c r="D110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="44"/>
+      <c r="E110" s="43"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
@@ -7365,7 +7380,7 @@
       <c r="D111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="42" t="s">
+      <c r="E111" s="41" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7382,7 +7397,7 @@
       <c r="D112" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E112" s="43"/>
+      <c r="E112" s="42"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
@@ -7397,7 +7412,7 @@
       <c r="D113" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="43"/>
+      <c r="E113" s="42"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
@@ -7412,7 +7427,7 @@
       <c r="D114" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="43"/>
+      <c r="E114" s="42"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
@@ -7427,7 +7442,7 @@
       <c r="D115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="43"/>
+      <c r="E115" s="42"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
@@ -7442,7 +7457,7 @@
       <c r="D116" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="43"/>
+      <c r="E116" s="42"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
@@ -7457,7 +7472,7 @@
       <c r="D117" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="43"/>
+      <c r="E117" s="42"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
@@ -7472,7 +7487,7 @@
       <c r="D118" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="43"/>
+      <c r="E118" s="42"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
@@ -7487,7 +7502,7 @@
       <c r="D119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="43"/>
+      <c r="E119" s="42"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
@@ -7502,7 +7517,7 @@
       <c r="D120" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E120" s="43"/>
+      <c r="E120" s="42"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
@@ -7517,7 +7532,7 @@
       <c r="D121" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="43"/>
+      <c r="E121" s="42"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
@@ -7532,7 +7547,7 @@
       <c r="D122" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E122" s="43"/>
+      <c r="E122" s="42"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
@@ -7547,7 +7562,7 @@
       <c r="D123" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E123" s="43"/>
+      <c r="E123" s="42"/>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
@@ -7562,7 +7577,7 @@
       <c r="D124" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="44"/>
+      <c r="E124" s="43"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
@@ -7577,7 +7592,7 @@
       <c r="D125" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="42" t="s">
+      <c r="E125" s="41" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7594,7 +7609,7 @@
       <c r="D126" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="43"/>
+      <c r="E126" s="42"/>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
@@ -7609,7 +7624,7 @@
       <c r="D127" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="43"/>
+      <c r="E127" s="42"/>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
@@ -7624,7 +7639,7 @@
       <c r="D128" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E128" s="43"/>
+      <c r="E128" s="42"/>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
@@ -7639,7 +7654,7 @@
       <c r="D129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="43"/>
+      <c r="E129" s="42"/>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
@@ -7654,7 +7669,7 @@
       <c r="D130" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="43"/>
+      <c r="E130" s="42"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
@@ -7669,7 +7684,7 @@
       <c r="D131" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E131" s="43"/>
+      <c r="E131" s="42"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
@@ -7684,7 +7699,7 @@
       <c r="D132" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E132" s="43"/>
+      <c r="E132" s="42"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
@@ -7699,7 +7714,7 @@
       <c r="D133" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E133" s="43"/>
+      <c r="E133" s="42"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
@@ -7714,7 +7729,7 @@
       <c r="D134" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E134" s="43"/>
+      <c r="E134" s="42"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
@@ -7729,7 +7744,7 @@
       <c r="D135" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="43"/>
+      <c r="E135" s="42"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
@@ -7744,7 +7759,7 @@
       <c r="D136" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E136" s="43"/>
+      <c r="E136" s="42"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
@@ -7759,7 +7774,7 @@
       <c r="D137" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="43"/>
+      <c r="E137" s="42"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
@@ -7774,7 +7789,7 @@
       <c r="D138" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E138" s="44"/>
+      <c r="E138" s="43"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
@@ -7789,7 +7804,7 @@
       <c r="D139" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E139" s="42" t="s">
+      <c r="E139" s="41" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7806,7 +7821,7 @@
       <c r="D140" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E140" s="43"/>
+      <c r="E140" s="42"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
@@ -7821,7 +7836,7 @@
       <c r="D141" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E141" s="43"/>
+      <c r="E141" s="42"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
@@ -7836,7 +7851,7 @@
       <c r="D142" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="43"/>
+      <c r="E142" s="42"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
@@ -7851,7 +7866,7 @@
       <c r="D143" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E143" s="43"/>
+      <c r="E143" s="42"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
@@ -7866,7 +7881,7 @@
       <c r="D144" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="43"/>
+      <c r="E144" s="42"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
@@ -7881,7 +7896,7 @@
       <c r="D145" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E145" s="43"/>
+      <c r="E145" s="42"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
@@ -7896,7 +7911,7 @@
       <c r="D146" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E146" s="44"/>
+      <c r="E146" s="43"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
@@ -7929,7 +7944,7 @@
       <c r="D148" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E148" s="42" t="s">
+      <c r="E148" s="41" t="s">
         <v>369</v>
       </c>
       <c r="F148" s="30"/>
@@ -7947,7 +7962,7 @@
       <c r="D149" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E149" s="43"/>
+      <c r="E149" s="42"/>
       <c r="F149" s="30"/>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7963,7 +7978,7 @@
       <c r="D150" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="43"/>
+      <c r="E150" s="42"/>
       <c r="F150" s="30"/>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7979,7 +7994,7 @@
       <c r="D151" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E151" s="43"/>
+      <c r="E151" s="42"/>
       <c r="F151" s="30"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7995,7 +8010,7 @@
       <c r="D152" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E152" s="43"/>
+      <c r="E152" s="42"/>
       <c r="F152" s="30"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8011,7 +8026,7 @@
       <c r="D153" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E153" s="43"/>
+      <c r="E153" s="42"/>
       <c r="F153" s="30"/>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8027,7 +8042,7 @@
       <c r="D154" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="43"/>
+      <c r="E154" s="42"/>
       <c r="F154" s="30"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8043,7 +8058,7 @@
       <c r="D155" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="44"/>
+      <c r="E155" s="43"/>
       <c r="F155" s="30"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8059,7 +8074,7 @@
       <c r="D156" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E156" s="42" t="s">
+      <c r="E156" s="41" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8076,7 +8091,7 @@
       <c r="D157" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="43"/>
+      <c r="E157" s="42"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
@@ -8091,7 +8106,7 @@
       <c r="D158" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E158" s="43"/>
+      <c r="E158" s="42"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
@@ -8106,7 +8121,7 @@
       <c r="D159" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E159" s="43"/>
+      <c r="E159" s="42"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
@@ -8121,7 +8136,7 @@
       <c r="D160" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E160" s="43"/>
+      <c r="E160" s="42"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
@@ -8136,7 +8151,7 @@
       <c r="D161" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E161" s="43"/>
+      <c r="E161" s="42"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
@@ -8151,7 +8166,7 @@
       <c r="D162" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E162" s="43"/>
+      <c r="E162" s="42"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
@@ -8166,7 +8181,7 @@
       <c r="D163" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="43"/>
+      <c r="E163" s="42"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
@@ -8181,7 +8196,7 @@
       <c r="D164" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E164" s="43"/>
+      <c r="E164" s="42"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
@@ -8196,7 +8211,7 @@
       <c r="D165" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E165" s="43"/>
+      <c r="E165" s="42"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
@@ -8211,7 +8226,7 @@
       <c r="D166" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="43"/>
+      <c r="E166" s="42"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
@@ -8226,7 +8241,7 @@
       <c r="D167" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E167" s="43"/>
+      <c r="E167" s="42"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
@@ -8241,7 +8256,7 @@
       <c r="D168" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E168" s="43"/>
+      <c r="E168" s="42"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
@@ -8256,7 +8271,7 @@
       <c r="D169" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E169" s="44"/>
+      <c r="E169" s="43"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
@@ -8271,7 +8286,7 @@
       <c r="D170" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="42" t="s">
+      <c r="E170" s="41" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8288,7 +8303,7 @@
       <c r="D171" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="43"/>
+      <c r="E171" s="42"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
@@ -8303,7 +8318,7 @@
       <c r="D172" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="43"/>
+      <c r="E172" s="42"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
@@ -8318,7 +8333,7 @@
       <c r="D173" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="43"/>
+      <c r="E173" s="42"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
@@ -8333,7 +8348,7 @@
       <c r="D174" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="43"/>
+      <c r="E174" s="42"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
@@ -8348,7 +8363,7 @@
       <c r="D175" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="44"/>
+      <c r="E175" s="43"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
@@ -8363,7 +8378,7 @@
       <c r="D176" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="42" t="s">
+      <c r="E176" s="41" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8380,7 +8395,7 @@
       <c r="D177" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="43"/>
+      <c r="E177" s="42"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
@@ -8395,7 +8410,7 @@
       <c r="D178" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="43"/>
+      <c r="E178" s="42"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
@@ -8410,7 +8425,7 @@
       <c r="D179" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="43"/>
+      <c r="E179" s="42"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
@@ -8425,7 +8440,7 @@
       <c r="D180" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="43"/>
+      <c r="E180" s="42"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
@@ -8440,7 +8455,7 @@
       <c r="D181" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="43"/>
+      <c r="E181" s="42"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
@@ -8455,7 +8470,7 @@
       <c r="D182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="43"/>
+      <c r="E182" s="42"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
@@ -8470,7 +8485,7 @@
       <c r="D183" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E183" s="44"/>
+      <c r="E183" s="43"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
@@ -8485,7 +8500,7 @@
       <c r="D184" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E184" s="42" t="s">
+      <c r="E184" s="41" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8502,7 +8517,7 @@
       <c r="D185" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E185" s="43"/>
+      <c r="E185" s="42"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
@@ -8517,7 +8532,7 @@
       <c r="D186" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E186" s="43"/>
+      <c r="E186" s="42"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
@@ -8532,7 +8547,7 @@
       <c r="D187" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="44"/>
+      <c r="E187" s="43"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
@@ -8547,7 +8562,7 @@
       <c r="D188" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="42" t="s">
+      <c r="E188" s="41" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8564,7 +8579,7 @@
       <c r="D189" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E189" s="43"/>
+      <c r="E189" s="42"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
@@ -8579,7 +8594,7 @@
       <c r="D190" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="43"/>
+      <c r="E190" s="42"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
@@ -8594,7 +8609,7 @@
       <c r="D191" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="43"/>
+      <c r="E191" s="42"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
@@ -8609,7 +8624,7 @@
       <c r="D192" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="43"/>
+      <c r="E192" s="42"/>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
@@ -8624,7 +8639,7 @@
       <c r="D193" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E193" s="43"/>
+      <c r="E193" s="42"/>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
@@ -8639,7 +8654,7 @@
       <c r="D194" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E194" s="43"/>
+      <c r="E194" s="42"/>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
@@ -8654,7 +8669,7 @@
       <c r="D195" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E195" s="43"/>
+      <c r="E195" s="42"/>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
@@ -8669,7 +8684,7 @@
       <c r="D196" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E196" s="43"/>
+      <c r="E196" s="42"/>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
@@ -8684,7 +8699,7 @@
       <c r="D197" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E197" s="43"/>
+      <c r="E197" s="42"/>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
@@ -8699,7 +8714,7 @@
       <c r="D198" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E198" s="43"/>
+      <c r="E198" s="42"/>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
@@ -8714,7 +8729,7 @@
       <c r="D199" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E199" s="43"/>
+      <c r="E199" s="42"/>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
@@ -8729,7 +8744,7 @@
       <c r="D200" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E200" s="43"/>
+      <c r="E200" s="42"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
@@ -8744,7 +8759,7 @@
       <c r="D201" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E201" s="44"/>
+      <c r="E201" s="43"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
@@ -8779,7 +8794,7 @@
       <c r="D203" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E203" s="42" t="s">
+      <c r="E203" s="41" t="s">
         <v>410</v>
       </c>
     </row>
@@ -8796,7 +8811,7 @@
       <c r="D204" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="E204" s="43"/>
+      <c r="E204" s="42"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
@@ -8811,7 +8826,7 @@
       <c r="D205" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E205" s="43"/>
+      <c r="E205" s="42"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
@@ -8826,7 +8841,7 @@
       <c r="D206" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E206" s="43"/>
+      <c r="E206" s="42"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
@@ -8841,7 +8856,7 @@
       <c r="D207" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E207" s="43"/>
+      <c r="E207" s="42"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
@@ -8856,7 +8871,7 @@
       <c r="D208" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="E208" s="43"/>
+      <c r="E208" s="42"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
@@ -8896,9 +8911,18 @@
       <c r="A211" s="14">
         <v>210</v>
       </c>
-      <c r="C211" s="2"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
+      <c r="B211" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
@@ -9284,7 +9308,7 @@
       <c r="D237" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="E237" s="42" t="s">
+      <c r="E237" s="41" t="s">
         <v>411</v>
       </c>
     </row>
@@ -9301,7 +9325,7 @@
       <c r="D238" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E238" s="43"/>
+      <c r="E238" s="42"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
@@ -9316,7 +9340,7 @@
       <c r="D239" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="E239" s="43"/>
+      <c r="E239" s="42"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
@@ -9331,7 +9355,7 @@
       <c r="D240" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E240" s="43"/>
+      <c r="E240" s="42"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
@@ -9346,7 +9370,7 @@
       <c r="D241" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E241" s="43"/>
+      <c r="E241" s="42"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
@@ -9361,7 +9385,7 @@
       <c r="D242" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E242" s="43"/>
+      <c r="E242" s="42"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
@@ -9376,7 +9400,7 @@
       <c r="D243" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E243" s="43"/>
+      <c r="E243" s="42"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
@@ -9391,15 +9415,24 @@
       <c r="D244" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="E244" s="44"/>
+      <c r="E244" s="43"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>244</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
+      <c r="B245" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
@@ -9412,7 +9445,7 @@
         <v>226</v>
       </c>
       <c r="D246" s="12"/>
-      <c r="E246" s="38"/>
+      <c r="E246" s="40"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
@@ -9425,7 +9458,7 @@
         <v>226</v>
       </c>
       <c r="D247" s="12"/>
-      <c r="E247" s="39"/>
+      <c r="E247" s="40"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
@@ -9509,11 +9542,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9525,12 +9559,11 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9541,8 +9574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9588,7 +9621,7 @@
       <c r="D2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>376</v>
       </c>
       <c r="F2" s="9"/>
@@ -9607,7 +9640,7 @@
       <c r="D3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
@@ -9624,7 +9657,7 @@
       <c r="D4" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -9641,7 +9674,7 @@
       <c r="D5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
@@ -9658,7 +9691,7 @@
       <c r="D6" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
@@ -9675,7 +9708,7 @@
       <c r="D7" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
@@ -9692,7 +9725,7 @@
       <c r="D8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
@@ -9709,7 +9742,7 @@
       <c r="D9" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
@@ -9726,7 +9759,7 @@
       <c r="D10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
@@ -9743,7 +9776,7 @@
       <c r="D11" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
@@ -9760,7 +9793,7 @@
       <c r="D12" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
@@ -9777,7 +9810,7 @@
       <c r="D13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="43"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -9794,7 +9827,7 @@
       <c r="D14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
@@ -9811,7 +9844,7 @@
       <c r="D15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="44"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
@@ -9828,7 +9861,7 @@
       <c r="D16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="41" t="s">
         <v>377</v>
       </c>
       <c r="F16" s="9"/>
@@ -9847,7 +9880,7 @@
       <c r="D17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
@@ -9864,7 +9897,7 @@
       <c r="D18" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
@@ -9881,7 +9914,7 @@
       <c r="D19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
@@ -9898,7 +9931,7 @@
       <c r="D20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
@@ -9915,7 +9948,7 @@
       <c r="D21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
@@ -9932,7 +9965,7 @@
       <c r="D22" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
@@ -9949,7 +9982,7 @@
       <c r="D23" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="44"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
@@ -9966,7 +9999,7 @@
       <c r="D24" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>378</v>
       </c>
       <c r="F24" s="9"/>
@@ -9985,7 +10018,7 @@
       <c r="D25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
@@ -10002,7 +10035,7 @@
       <c r="D26" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
@@ -10019,7 +10052,7 @@
       <c r="D27" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
@@ -10036,7 +10069,7 @@
       <c r="D28" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
@@ -10053,7 +10086,7 @@
       <c r="D29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
@@ -10070,7 +10103,7 @@
       <c r="D30" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
@@ -10087,7 +10120,7 @@
       <c r="D31" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="44"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
@@ -10142,7 +10175,7 @@
       <c r="D34" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="41" t="s">
         <v>379</v>
       </c>
       <c r="F34" s="9"/>
@@ -10161,7 +10194,7 @@
       <c r="D35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
@@ -10178,7 +10211,7 @@
       <c r="D36" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="43"/>
+      <c r="E36" s="42"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
@@ -10195,7 +10228,7 @@
       <c r="D37" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="43"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
@@ -10212,7 +10245,7 @@
       <c r="D38" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="43"/>
+      <c r="E38" s="42"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
@@ -10229,7 +10262,7 @@
       <c r="D39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="43"/>
+      <c r="E39" s="42"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
@@ -10246,7 +10279,7 @@
       <c r="D40" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="43"/>
+      <c r="E40" s="42"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
@@ -10263,7 +10296,7 @@
       <c r="D41" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="43"/>
+      <c r="E41" s="42"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
@@ -10280,7 +10313,7 @@
       <c r="D42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="43"/>
+      <c r="E42" s="42"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
@@ -10297,7 +10330,7 @@
       <c r="D43" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" s="42"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
@@ -10314,7 +10347,7 @@
       <c r="D44" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="43"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
@@ -10331,7 +10364,7 @@
       <c r="D45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="43"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
@@ -10348,7 +10381,7 @@
       <c r="D46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="43"/>
+      <c r="E46" s="42"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
@@ -10365,7 +10398,7 @@
       <c r="D47" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="44"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
@@ -10382,7 +10415,7 @@
       <c r="D48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="41" t="s">
         <v>380</v>
       </c>
       <c r="F48" s="9"/>
@@ -10401,7 +10434,7 @@
       <c r="D49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="43"/>
+      <c r="E49" s="42"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
@@ -10418,7 +10451,7 @@
       <c r="D50" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="43"/>
+      <c r="E50" s="42"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
@@ -10435,7 +10468,7 @@
       <c r="D51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="43"/>
+      <c r="E51" s="42"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
@@ -10452,7 +10485,7 @@
       <c r="D52" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="43"/>
+      <c r="E52" s="42"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
@@ -10469,7 +10502,7 @@
       <c r="D53" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="43"/>
+      <c r="E53" s="42"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
@@ -10486,7 +10519,7 @@
       <c r="D54" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="43"/>
+      <c r="E54" s="42"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
@@ -10503,7 +10536,7 @@
       <c r="D55" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="44"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
@@ -10520,7 +10553,7 @@
       <c r="D56" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="41" t="s">
         <v>381</v>
       </c>
       <c r="F56" s="9"/>
@@ -10539,7 +10572,7 @@
       <c r="D57" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="43"/>
+      <c r="E57" s="42"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
@@ -10556,7 +10589,7 @@
       <c r="D58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E58" s="43"/>
+      <c r="E58" s="42"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
@@ -10573,7 +10606,7 @@
       <c r="D59" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="43"/>
+      <c r="E59" s="42"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
@@ -10590,7 +10623,7 @@
       <c r="D60" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="43"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
@@ -10607,7 +10640,7 @@
       <c r="D61" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E61" s="43"/>
+      <c r="E61" s="42"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
@@ -10624,7 +10657,7 @@
       <c r="D62" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="43"/>
+      <c r="E62" s="42"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
@@ -10641,7 +10674,7 @@
       <c r="D63" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="43"/>
+      <c r="E63" s="42"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
@@ -10658,7 +10691,7 @@
       <c r="D64" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="43"/>
+      <c r="E64" s="42"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
@@ -10675,7 +10708,7 @@
       <c r="D65" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="43"/>
+      <c r="E65" s="42"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
@@ -10692,7 +10725,7 @@
       <c r="D66" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="43"/>
+      <c r="E66" s="42"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
@@ -10709,7 +10742,7 @@
       <c r="D67" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="43"/>
+      <c r="E67" s="42"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
@@ -10726,7 +10759,7 @@
       <c r="D68" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E68" s="43"/>
+      <c r="E68" s="42"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
@@ -10743,7 +10776,7 @@
       <c r="D69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="43"/>
+      <c r="E69" s="42"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
@@ -10760,7 +10793,7 @@
       <c r="D70" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E70" s="43"/>
+      <c r="E70" s="42"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
@@ -10777,7 +10810,7 @@
       <c r="D71" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="44"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
@@ -10813,7 +10846,7 @@
       <c r="D73" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="47" t="s">
+      <c r="E73" s="46" t="s">
         <v>382</v>
       </c>
       <c r="F73" s="9"/>
@@ -10832,7 +10865,7 @@
       <c r="D74" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="50"/>
+      <c r="E74" s="49"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
@@ -10849,7 +10882,7 @@
       <c r="D75" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="42" t="s">
+      <c r="E75" s="41" t="s">
         <v>383</v>
       </c>
       <c r="F75" s="9"/>
@@ -10868,7 +10901,7 @@
       <c r="D76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="43"/>
+      <c r="E76" s="42"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
@@ -10885,7 +10918,7 @@
       <c r="D77" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="43"/>
+      <c r="E77" s="42"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
@@ -10902,7 +10935,7 @@
       <c r="D78" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="43"/>
+      <c r="E78" s="42"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
@@ -10919,7 +10952,7 @@
       <c r="D79" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E79" s="43"/>
+      <c r="E79" s="42"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
@@ -10936,7 +10969,7 @@
       <c r="D80" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="43"/>
+      <c r="E80" s="42"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -10953,7 +10986,7 @@
       <c r="D81" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="43"/>
+      <c r="E81" s="42"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
@@ -10970,7 +11003,7 @@
       <c r="D82" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="43"/>
+      <c r="E82" s="42"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
@@ -10987,7 +11020,7 @@
       <c r="D83" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="43"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
@@ -11004,7 +11037,7 @@
       <c r="D84" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="43"/>
+      <c r="E84" s="42"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
@@ -11021,7 +11054,7 @@
       <c r="D85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="43"/>
+      <c r="E85" s="42"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
@@ -11038,7 +11071,7 @@
       <c r="D86" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="43"/>
+      <c r="E86" s="42"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
@@ -11055,7 +11088,7 @@
       <c r="D87" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="43"/>
+      <c r="E87" s="42"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
@@ -11072,7 +11105,7 @@
       <c r="D88" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="44"/>
+      <c r="E88" s="43"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
@@ -11089,7 +11122,7 @@
       <c r="D89" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="47" t="s">
+      <c r="E89" s="46" t="s">
         <v>384</v>
       </c>
       <c r="F89" s="9"/>
@@ -11108,7 +11141,7 @@
       <c r="D90" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="50"/>
+      <c r="E90" s="49"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
@@ -11125,7 +11158,7 @@
       <c r="D91" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="42" t="s">
+      <c r="E91" s="41" t="s">
         <v>385</v>
       </c>
       <c r="F91" s="9"/>
@@ -11144,7 +11177,7 @@
       <c r="D92" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E92" s="43"/>
+      <c r="E92" s="42"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
@@ -11161,7 +11194,7 @@
       <c r="D93" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E93" s="43"/>
+      <c r="E93" s="42"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
@@ -11178,7 +11211,7 @@
       <c r="D94" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E94" s="43"/>
+      <c r="E94" s="42"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
@@ -11195,7 +11228,7 @@
       <c r="D95" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="43"/>
+      <c r="E95" s="42"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
@@ -11212,7 +11245,7 @@
       <c r="D96" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="43"/>
+      <c r="E96" s="42"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
@@ -11229,7 +11262,7 @@
       <c r="D97" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="43"/>
+      <c r="E97" s="42"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
@@ -11246,7 +11279,7 @@
       <c r="D98" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E98" s="43"/>
+      <c r="E98" s="42"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
@@ -11263,7 +11296,7 @@
       <c r="D99" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="43"/>
+      <c r="E99" s="42"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
@@ -11280,7 +11313,7 @@
       <c r="D100" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="43"/>
+      <c r="E100" s="42"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
@@ -11297,7 +11330,7 @@
       <c r="D101" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="43"/>
+      <c r="E101" s="42"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
@@ -11314,7 +11347,7 @@
       <c r="D102" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="43"/>
+      <c r="E102" s="42"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
@@ -11331,7 +11364,7 @@
       <c r="D103" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E103" s="43"/>
+      <c r="E103" s="42"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
@@ -11348,7 +11381,7 @@
       <c r="D104" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E104" s="44"/>
+      <c r="E104" s="43"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
@@ -11365,7 +11398,7 @@
       <c r="D105" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="42" t="s">
+      <c r="E105" s="41" t="s">
         <v>386</v>
       </c>
       <c r="F105" s="9"/>
@@ -11384,7 +11417,7 @@
       <c r="D106" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="43"/>
+      <c r="E106" s="42"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
@@ -11401,7 +11434,7 @@
       <c r="D107" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E107" s="43"/>
+      <c r="E107" s="42"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
@@ -11418,7 +11451,7 @@
       <c r="D108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E108" s="43"/>
+      <c r="E108" s="42"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
@@ -11435,7 +11468,7 @@
       <c r="D109" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="43"/>
+      <c r="E109" s="42"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
@@ -11452,7 +11485,7 @@
       <c r="D110" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="43"/>
+      <c r="E110" s="42"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
@@ -11469,7 +11502,7 @@
       <c r="D111" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E111" s="43"/>
+      <c r="E111" s="42"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
@@ -11486,7 +11519,7 @@
       <c r="D112" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="44"/>
+      <c r="E112" s="43"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
@@ -11762,7 +11795,7 @@
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="45" t="s">
+      <c r="D141" s="44" t="s">
         <v>425</v>
       </c>
       <c r="F141" s="9"/>
@@ -11778,7 +11811,7 @@
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="45"/>
+      <c r="D142" s="44"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
@@ -11792,7 +11825,7 @@
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="45"/>
+      <c r="D143" s="44"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
@@ -11806,7 +11839,7 @@
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="45"/>
+      <c r="D144" s="44"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
@@ -11820,7 +11853,7 @@
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="45" t="s">
+      <c r="D145" s="44" t="s">
         <v>426</v>
       </c>
       <c r="F145" s="9"/>
@@ -11836,7 +11869,7 @@
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="45"/>
+      <c r="D146" s="44"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
@@ -11850,7 +11883,7 @@
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="45"/>
+      <c r="D147" s="44"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
@@ -11864,7 +11897,7 @@
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="45"/>
+      <c r="D148" s="44"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
@@ -11878,7 +11911,7 @@
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="45" t="s">
+      <c r="D149" s="44" t="s">
         <v>427</v>
       </c>
       <c r="F149" s="9"/>
@@ -11894,7 +11927,7 @@
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="45"/>
+      <c r="D150" s="44"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
@@ -11908,7 +11941,7 @@
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="45"/>
+      <c r="D151" s="44"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
@@ -11922,7 +11955,7 @@
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="45"/>
+      <c r="D152" s="44"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
@@ -11936,7 +11969,7 @@
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="45"/>
+      <c r="D153" s="44"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
@@ -11950,7 +11983,7 @@
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="45"/>
+      <c r="D154" s="44"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
@@ -11964,7 +11997,7 @@
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="45"/>
+      <c r="D155" s="44"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
@@ -11978,7 +12011,7 @@
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="45"/>
+      <c r="D156" s="44"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
@@ -11992,7 +12025,7 @@
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="45" t="s">
+      <c r="D157" s="44" t="s">
         <v>428</v>
       </c>
       <c r="F157" s="9"/>
@@ -12008,7 +12041,7 @@
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="45"/>
+      <c r="D158" s="44"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
@@ -12022,7 +12055,7 @@
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="45"/>
+      <c r="D159" s="44"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
@@ -12036,7 +12069,7 @@
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="45"/>
+      <c r="D160" s="44"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
@@ -12050,7 +12083,7 @@
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="45" t="s">
+      <c r="D161" s="44" t="s">
         <v>429</v>
       </c>
       <c r="F161" s="9"/>
@@ -12066,7 +12099,7 @@
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="45"/>
+      <c r="D162" s="44"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
@@ -12080,7 +12113,7 @@
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="45"/>
+      <c r="D163" s="44"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
@@ -12094,7 +12127,7 @@
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="45"/>
+      <c r="D164" s="44"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
@@ -12108,7 +12141,7 @@
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="45" t="s">
+      <c r="D165" s="44" t="s">
         <v>563</v>
       </c>
       <c r="F165" s="9"/>
@@ -12124,7 +12157,7 @@
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="45"/>
+      <c r="D166" s="44"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
@@ -12138,7 +12171,7 @@
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="45"/>
+      <c r="D167" s="44"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
@@ -12152,7 +12185,7 @@
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="45"/>
+      <c r="D168" s="44"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
@@ -12166,7 +12199,7 @@
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="45"/>
+      <c r="D169" s="44"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
@@ -12180,7 +12213,7 @@
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="45"/>
+      <c r="D170" s="44"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
@@ -12194,7 +12227,7 @@
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="45"/>
+      <c r="D171" s="44"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
@@ -12208,7 +12241,7 @@
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="45"/>
+      <c r="D172" s="44"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
@@ -12222,7 +12255,7 @@
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="45" t="s">
+      <c r="D173" s="44" t="s">
         <v>572</v>
       </c>
       <c r="F173" s="9"/>
@@ -12238,7 +12271,7 @@
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="45"/>
+      <c r="D174" s="44"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
@@ -12252,7 +12285,7 @@
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="45"/>
+      <c r="D175" s="44"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
@@ -12266,7 +12299,7 @@
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="45"/>
+      <c r="D176" s="44"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
@@ -12280,10 +12313,10 @@
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="45" t="s">
+      <c r="D177" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="E177" s="47" t="s">
+      <c r="E177" s="46" t="s">
         <v>430</v>
       </c>
       <c r="F177" s="9"/>
@@ -12299,8 +12332,8 @@
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="46"/>
-      <c r="E178" s="48"/>
+      <c r="D178" s="45"/>
+      <c r="E178" s="47"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
@@ -12314,8 +12347,8 @@
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="46"/>
-      <c r="E179" s="48"/>
+      <c r="D179" s="45"/>
+      <c r="E179" s="47"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
@@ -12329,8 +12362,8 @@
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="46"/>
-      <c r="E180" s="48"/>
+      <c r="D180" s="45"/>
+      <c r="E180" s="47"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
@@ -12344,8 +12377,8 @@
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="46"/>
-      <c r="E181" s="48"/>
+      <c r="D181" s="45"/>
+      <c r="E181" s="47"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
@@ -12359,8 +12392,8 @@
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="46"/>
-      <c r="E182" s="48"/>
+      <c r="D182" s="45"/>
+      <c r="E182" s="47"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
@@ -12374,8 +12407,8 @@
       <c r="C183" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="46"/>
-      <c r="E183" s="48"/>
+      <c r="D183" s="45"/>
+      <c r="E183" s="47"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
@@ -12389,7 +12422,7 @@
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="49" t="s">
+      <c r="D184" s="48" t="s">
         <v>589</v>
       </c>
       <c r="F184" s="9"/>
@@ -12405,7 +12438,7 @@
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="49"/>
+      <c r="D185" s="48"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
@@ -12419,7 +12452,7 @@
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="49"/>
+      <c r="D186" s="48"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
@@ -12433,7 +12466,7 @@
       <c r="C187" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="49"/>
+      <c r="D187" s="48"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
@@ -12888,7 +12921,7 @@
         <v>601</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>353</v>
+        <v>226</v>
       </c>
       <c r="D231" s="11" t="s">
         <v>350</v>
@@ -12903,16 +12936,16 @@
       <c r="A232" s="4">
         <v>231</v>
       </c>
-      <c r="B232" s="40" t="s">
+      <c r="B232" s="38" t="s">
         <v>352</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>226</v>
+        <v>353</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="E232" s="41" t="s">
+      <c r="E232" s="39" t="s">
         <v>854</v>
       </c>
       <c r="F232" s="9"/>
@@ -13098,12 +13131,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13119,6 +13146,12 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12825"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KNX_1 (192.168.1.51)" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="863">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -3548,9 +3548,6 @@
   </si>
   <si>
     <t>P30 (6+T)</t>
-  </si>
-  <si>
-    <t>Garaż</t>
   </si>
   <si>
     <t>P14 (6+T)</t>
@@ -5041,9 +5038,6 @@
     <t>P13 Temp_Set</t>
   </si>
   <si>
-    <t>Do czego potrzebne? Co na którym bajcie?</t>
-  </si>
-  <si>
     <t>przyjmuje wartosci ujemne</t>
   </si>
   <si>
@@ -5069,6 +5063,9 @@
   </si>
   <si>
     <t>Czujka Ruchu 15</t>
+  </si>
+  <si>
+    <t>Co na którym bajcie?</t>
   </si>
 </sst>
 </file>
@@ -5154,7 +5151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5224,7 +5221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5315,12 +5312,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5349,6 +5340,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5658,8 +5661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="K232" sqref="K232"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5700,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -5708,7 +5711,7 @@
       <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="39" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="9"/>
@@ -5719,7 +5722,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -5727,14 +5730,14 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -5742,14 +5745,14 @@
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -5757,14 +5760,14 @@
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -5772,14 +5775,14 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -5787,14 +5790,14 @@
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -5802,14 +5805,14 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -5817,14 +5820,14 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -5832,14 +5835,14 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -5847,14 +5850,14 @@
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -5862,14 +5865,14 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -5877,14 +5880,14 @@
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -5892,14 +5895,14 @@
       <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -5907,14 +5910,14 @@
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -5923,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5931,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -5940,7 +5943,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5948,7 +5951,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -5956,7 +5959,7 @@
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="39" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5965,7 +5968,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -5973,14 +5976,14 @@
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -5988,14 +5991,14 @@
       <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -6003,14 +6006,14 @@
       <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -6018,14 +6021,14 @@
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -6033,14 +6036,14 @@
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -6048,14 +6051,14 @@
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -6063,14 +6066,14 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -6078,7 +6081,7 @@
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="41" t="s">
+      <c r="E26" s="39" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6087,7 +6090,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -6095,14 +6098,14 @@
       <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -6110,14 +6113,14 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -6125,14 +6128,14 @@
       <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -6140,14 +6143,14 @@
       <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -6155,14 +6158,14 @@
       <c r="D31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -6170,14 +6173,14 @@
       <c r="D32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="42"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -6185,14 +6188,14 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="42"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -6200,14 +6203,14 @@
       <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -6215,14 +6218,14 @@
       <c r="D35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -6230,14 +6233,14 @@
       <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -6245,14 +6248,14 @@
       <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="42"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -6260,14 +6263,14 @@
       <c r="D38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="42"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -6275,14 +6278,14 @@
       <c r="D39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="43"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -6290,7 +6293,7 @@
       <c r="D40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="39" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6299,7 +6302,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -6307,14 +6310,14 @@
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="42"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>41</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -6322,14 +6325,14 @@
       <c r="D42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
@@ -6337,14 +6340,14 @@
       <c r="D43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="42"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
@@ -6352,14 +6355,14 @@
       <c r="D44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="42"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>44</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -6367,14 +6370,14 @@
       <c r="D45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="42"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -6382,14 +6385,14 @@
       <c r="D46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="42"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
@@ -6397,14 +6400,14 @@
       <c r="D47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="42"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -6412,14 +6415,14 @@
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="42"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
@@ -6427,14 +6430,14 @@
       <c r="D49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="42"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
@@ -6442,14 +6445,14 @@
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="42"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>50</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -6457,14 +6460,14 @@
       <c r="D51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>51</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -6472,14 +6475,14 @@
       <c r="D52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="42"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -6487,14 +6490,14 @@
       <c r="D53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="43"/>
+      <c r="E53" s="41"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>53</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -6502,7 +6505,7 @@
       <c r="D54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="39" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6511,7 +6514,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
@@ -6519,14 +6522,14 @@
       <c r="D55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="42"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>55</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -6534,14 +6537,14 @@
       <c r="D56" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="42"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>56</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -6549,14 +6552,14 @@
       <c r="D57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="42"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>57</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -6564,14 +6567,14 @@
       <c r="D58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="42"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>58</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -6579,14 +6582,14 @@
       <c r="D59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="42"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>59</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -6594,14 +6597,14 @@
       <c r="D60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="42"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>60</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
@@ -6609,14 +6612,14 @@
       <c r="D61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="43"/>
+      <c r="E61" s="41"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>61</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>4</v>
@@ -6624,7 +6627,7 @@
       <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="E62" s="39" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6633,7 +6636,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
@@ -6641,14 +6644,14 @@
       <c r="D63" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="42"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>63</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -6656,14 +6659,14 @@
       <c r="D64" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="42"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>64</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
@@ -6671,14 +6674,14 @@
       <c r="D65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="42"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>65</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
@@ -6686,14 +6689,14 @@
       <c r="D66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="42"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>66</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>4</v>
@@ -6701,14 +6704,14 @@
       <c r="D67" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="42"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>67</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>4</v>
@@ -6716,14 +6719,14 @@
       <c r="D68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="42"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>68</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>4</v>
@@ -6731,14 +6734,14 @@
       <c r="D69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="43"/>
+      <c r="E69" s="41"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>69</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -6746,7 +6749,7 @@
       <c r="D70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="41" t="s">
+      <c r="E70" s="39" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6755,7 +6758,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
@@ -6763,14 +6766,14 @@
       <c r="D71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="42"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>71</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>4</v>
@@ -6778,14 +6781,14 @@
       <c r="D72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="42"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>72</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>4</v>
@@ -6793,14 +6796,14 @@
       <c r="D73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="42"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>73</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -6808,14 +6811,14 @@
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="42"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>74</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
@@ -6823,14 +6826,14 @@
       <c r="D75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="42"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>75</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>4</v>
@@ -6838,14 +6841,14 @@
       <c r="D76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="42"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>76</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>4</v>
@@ -6853,14 +6856,14 @@
       <c r="D77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="43"/>
+      <c r="E77" s="41"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -6869,7 +6872,7 @@
         <v>82</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -6877,7 +6880,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>4</v>
@@ -6885,8 +6888,8 @@
       <c r="D79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="41" t="s">
-        <v>409</v>
+      <c r="E79" s="39" t="s">
+        <v>408</v>
       </c>
       <c r="F79" s="30"/>
     </row>
@@ -6895,7 +6898,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>4</v>
@@ -6903,7 +6906,7 @@
       <c r="D80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="42"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6911,7 +6914,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -6919,7 +6922,7 @@
       <c r="D81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="42"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6927,7 +6930,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="36" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
@@ -6935,14 +6938,14 @@
       <c r="D82" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="42"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>82</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
@@ -6950,7 +6953,7 @@
       <c r="D83" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="42"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6958,7 +6961,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="36" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>4</v>
@@ -6966,7 +6969,7 @@
       <c r="D84" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="42"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6974,7 +6977,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
@@ -6982,7 +6985,7 @@
       <c r="D85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E85" s="42"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -6990,7 +6993,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>4</v>
@@ -6998,7 +7001,7 @@
       <c r="D86" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="43"/>
+      <c r="E86" s="41"/>
       <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -7006,7 +7009,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
@@ -7014,7 +7017,7 @@
       <c r="D87" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="39" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7023,7 +7026,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -7031,14 +7034,14 @@
       <c r="D88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="43"/>
+      <c r="E88" s="41"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>88</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -7046,7 +7049,7 @@
       <c r="D89" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="41" t="s">
+      <c r="E89" s="39" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7055,7 +7058,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>4</v>
@@ -7063,14 +7066,14 @@
       <c r="D90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="42"/>
+      <c r="E90" s="40"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>90</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
@@ -7078,14 +7081,14 @@
       <c r="D91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="42"/>
+      <c r="E91" s="40"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>91</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -7093,14 +7096,14 @@
       <c r="D92" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="42"/>
+      <c r="E92" s="40"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>92</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
@@ -7108,14 +7111,14 @@
       <c r="D93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E93" s="42"/>
+      <c r="E93" s="40"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>93</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>4</v>
@@ -7123,14 +7126,14 @@
       <c r="D94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="42"/>
+      <c r="E94" s="40"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>94</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
@@ -7138,14 +7141,14 @@
       <c r="D95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="42"/>
+      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>95</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>4</v>
@@ -7153,14 +7156,14 @@
       <c r="D96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="42"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>96</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>4</v>
@@ -7168,14 +7171,14 @@
       <c r="D97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E97" s="42"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>97</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
@@ -7183,14 +7186,14 @@
       <c r="D98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="42"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>98</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>4</v>
@@ -7198,14 +7201,14 @@
       <c r="D99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="42"/>
+      <c r="E99" s="40"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>99</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>4</v>
@@ -7213,14 +7216,14 @@
       <c r="D100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="42"/>
+      <c r="E100" s="40"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>100</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>4</v>
@@ -7228,14 +7231,14 @@
       <c r="D101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="42"/>
+      <c r="E101" s="40"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>101</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
@@ -7243,14 +7246,14 @@
       <c r="D102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="43"/>
+      <c r="E102" s="41"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>102</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
@@ -7258,7 +7261,7 @@
       <c r="D103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="41" t="s">
+      <c r="E103" s="39" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7267,7 +7270,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="37" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
@@ -7275,14 +7278,14 @@
       <c r="D104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="42"/>
+      <c r="E104" s="40"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>104</v>
       </c>
       <c r="B105" s="37" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
@@ -7290,14 +7293,14 @@
       <c r="D105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="42"/>
+      <c r="E105" s="40"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>105</v>
       </c>
       <c r="B106" s="37" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -7305,14 +7308,14 @@
       <c r="D106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E106" s="42"/>
+      <c r="E106" s="40"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>106</v>
       </c>
       <c r="B107" s="37" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
@@ -7320,14 +7323,14 @@
       <c r="D107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="42"/>
+      <c r="E107" s="40"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>107</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
@@ -7335,14 +7338,14 @@
       <c r="D108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E108" s="42"/>
+      <c r="E108" s="40"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>108</v>
       </c>
       <c r="B109" s="37" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
@@ -7350,14 +7353,14 @@
       <c r="D109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="42"/>
+      <c r="E109" s="40"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>109</v>
       </c>
       <c r="B110" s="37" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
@@ -7365,14 +7368,14 @@
       <c r="D110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="43"/>
+      <c r="E110" s="41"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>110</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -7380,7 +7383,7 @@
       <c r="D111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="E111" s="39" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7389,7 +7392,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="37" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
@@ -7397,14 +7400,14 @@
       <c r="D112" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E112" s="42"/>
+      <c r="E112" s="40"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>112</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>4</v>
@@ -7412,14 +7415,14 @@
       <c r="D113" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="42"/>
+      <c r="E113" s="40"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>113</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
@@ -7427,14 +7430,14 @@
       <c r="D114" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="42"/>
+      <c r="E114" s="40"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>114</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>4</v>
@@ -7442,14 +7445,14 @@
       <c r="D115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="42"/>
+      <c r="E115" s="40"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
         <v>115</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>4</v>
@@ -7457,14 +7460,14 @@
       <c r="D116" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="42"/>
+      <c r="E116" s="40"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>116</v>
       </c>
       <c r="B117" s="37" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>4</v>
@@ -7472,14 +7475,14 @@
       <c r="D117" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="42"/>
+      <c r="E117" s="40"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>117</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>4</v>
@@ -7487,14 +7490,14 @@
       <c r="D118" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="42"/>
+      <c r="E118" s="40"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>118</v>
       </c>
       <c r="B119" s="37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>4</v>
@@ -7502,14 +7505,14 @@
       <c r="D119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="42"/>
+      <c r="E119" s="40"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
         <v>119</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>4</v>
@@ -7517,14 +7520,14 @@
       <c r="D120" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E120" s="42"/>
+      <c r="E120" s="40"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>120</v>
       </c>
       <c r="B121" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>4</v>
@@ -7532,14 +7535,14 @@
       <c r="D121" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="42"/>
+      <c r="E121" s="40"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
         <v>121</v>
       </c>
       <c r="B122" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>4</v>
@@ -7547,14 +7550,14 @@
       <c r="D122" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E122" s="42"/>
+      <c r="E122" s="40"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>122</v>
       </c>
       <c r="B123" s="37" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>4</v>
@@ -7562,14 +7565,14 @@
       <c r="D123" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E123" s="42"/>
+      <c r="E123" s="40"/>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
         <v>123</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>4</v>
@@ -7577,14 +7580,14 @@
       <c r="D124" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="43"/>
+      <c r="E124" s="41"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>124</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>4</v>
@@ -7592,7 +7595,7 @@
       <c r="D125" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="41" t="s">
+      <c r="E125" s="39" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7601,7 +7604,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>4</v>
@@ -7609,14 +7612,14 @@
       <c r="D126" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="42"/>
+      <c r="E126" s="40"/>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
         <v>126</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>4</v>
@@ -7624,14 +7627,14 @@
       <c r="D127" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="42"/>
+      <c r="E127" s="40"/>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
         <v>127</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>4</v>
@@ -7639,14 +7642,14 @@
       <c r="D128" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E128" s="42"/>
+      <c r="E128" s="40"/>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>128</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>4</v>
@@ -7654,14 +7657,14 @@
       <c r="D129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="42"/>
+      <c r="E129" s="40"/>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
         <v>129</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>4</v>
@@ -7669,14 +7672,14 @@
       <c r="D130" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="42"/>
+      <c r="E130" s="40"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>130</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>4</v>
@@ -7684,14 +7687,14 @@
       <c r="D131" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E131" s="42"/>
+      <c r="E131" s="40"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
         <v>131</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>4</v>
@@ -7699,14 +7702,14 @@
       <c r="D132" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E132" s="42"/>
+      <c r="E132" s="40"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>132</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>4</v>
@@ -7714,14 +7717,14 @@
       <c r="D133" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E133" s="42"/>
+      <c r="E133" s="40"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
         <v>133</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>4</v>
@@ -7729,14 +7732,14 @@
       <c r="D134" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E134" s="42"/>
+      <c r="E134" s="40"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>4</v>
@@ -7744,14 +7747,14 @@
       <c r="D135" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="42"/>
+      <c r="E135" s="40"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>135</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>4</v>
@@ -7759,14 +7762,14 @@
       <c r="D136" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E136" s="42"/>
+      <c r="E136" s="40"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>4</v>
@@ -7774,14 +7777,14 @@
       <c r="D137" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="42"/>
+      <c r="E137" s="40"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>137</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>4</v>
@@ -7789,14 +7792,14 @@
       <c r="D138" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E138" s="43"/>
+      <c r="E138" s="41"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>4</v>
@@ -7804,7 +7807,7 @@
       <c r="D139" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E139" s="41" t="s">
+      <c r="E139" s="39" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7813,7 +7816,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>4</v>
@@ -7821,14 +7824,14 @@
       <c r="D140" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E140" s="42"/>
+      <c r="E140" s="40"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
@@ -7836,14 +7839,14 @@
       <c r="D141" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E141" s="42"/>
+      <c r="E141" s="40"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>141</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
@@ -7851,14 +7854,14 @@
       <c r="D142" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="42"/>
+      <c r="E142" s="40"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>142</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
@@ -7866,14 +7869,14 @@
       <c r="D143" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E143" s="42"/>
+      <c r="E143" s="40"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>143</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
@@ -7881,14 +7884,14 @@
       <c r="D144" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="42"/>
+      <c r="E144" s="40"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>144</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
@@ -7896,14 +7899,14 @@
       <c r="D145" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E145" s="42"/>
+      <c r="E145" s="40"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
         <v>145</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
@@ -7911,14 +7914,14 @@
       <c r="D146" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E146" s="43"/>
+      <c r="E146" s="41"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>146</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
@@ -7927,7 +7930,7 @@
         <v>151</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F147" s="12"/>
     </row>
@@ -7936,7 +7939,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
@@ -7944,7 +7947,7 @@
       <c r="D148" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E148" s="41" t="s">
+      <c r="E148" s="39" t="s">
         <v>369</v>
       </c>
       <c r="F148" s="30"/>
@@ -7954,7 +7957,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
@@ -7962,7 +7965,7 @@
       <c r="D149" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E149" s="42"/>
+      <c r="E149" s="40"/>
       <c r="F149" s="30"/>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7970,7 +7973,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
@@ -7978,7 +7981,7 @@
       <c r="D150" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="42"/>
+      <c r="E150" s="40"/>
       <c r="F150" s="30"/>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7986,7 +7989,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
@@ -7994,7 +7997,7 @@
       <c r="D151" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E151" s="42"/>
+      <c r="E151" s="40"/>
       <c r="F151" s="30"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8002,7 +8005,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>4</v>
@@ -8010,7 +8013,7 @@
       <c r="D152" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E152" s="42"/>
+      <c r="E152" s="40"/>
       <c r="F152" s="30"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8018,7 +8021,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
@@ -8026,7 +8029,7 @@
       <c r="D153" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E153" s="42"/>
+      <c r="E153" s="40"/>
       <c r="F153" s="30"/>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8034,7 +8037,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
@@ -8042,7 +8045,7 @@
       <c r="D154" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="42"/>
+      <c r="E154" s="40"/>
       <c r="F154" s="30"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8050,7 +8053,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
@@ -8058,7 +8061,7 @@
       <c r="D155" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="43"/>
+      <c r="E155" s="41"/>
       <c r="F155" s="30"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8066,7 +8069,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
@@ -8074,7 +8077,7 @@
       <c r="D156" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E156" s="41" t="s">
+      <c r="E156" s="39" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8083,7 +8086,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
@@ -8091,14 +8094,14 @@
       <c r="D157" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="42"/>
+      <c r="E157" s="40"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>157</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
@@ -8106,14 +8109,14 @@
       <c r="D158" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E158" s="42"/>
+      <c r="E158" s="40"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>158</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
@@ -8121,14 +8124,14 @@
       <c r="D159" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E159" s="42"/>
+      <c r="E159" s="40"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>159</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
@@ -8136,14 +8139,14 @@
       <c r="D160" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E160" s="42"/>
+      <c r="E160" s="40"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>160</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
@@ -8151,14 +8154,14 @@
       <c r="D161" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E161" s="42"/>
+      <c r="E161" s="40"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
         <v>161</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
@@ -8166,14 +8169,14 @@
       <c r="D162" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E162" s="42"/>
+      <c r="E162" s="40"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>162</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
@@ -8181,14 +8184,14 @@
       <c r="D163" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="42"/>
+      <c r="E163" s="40"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>163</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>4</v>
@@ -8196,14 +8199,14 @@
       <c r="D164" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E164" s="42"/>
+      <c r="E164" s="40"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>164</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>4</v>
@@ -8211,14 +8214,14 @@
       <c r="D165" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E165" s="42"/>
+      <c r="E165" s="40"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
         <v>165</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
@@ -8226,14 +8229,14 @@
       <c r="D166" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="42"/>
+      <c r="E166" s="40"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>166</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>4</v>
@@ -8241,14 +8244,14 @@
       <c r="D167" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E167" s="42"/>
+      <c r="E167" s="40"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>167</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>4</v>
@@ -8256,14 +8259,14 @@
       <c r="D168" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E168" s="42"/>
+      <c r="E168" s="40"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>168</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>4</v>
@@ -8271,14 +8274,14 @@
       <c r="D169" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E169" s="43"/>
+      <c r="E169" s="41"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
         <v>169</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
@@ -8286,7 +8289,7 @@
       <c r="D170" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="41" t="s">
+      <c r="E170" s="39" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8295,7 +8298,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>4</v>
@@ -8303,14 +8306,14 @@
       <c r="D171" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="42"/>
+      <c r="E171" s="40"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>171</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>4</v>
@@ -8318,14 +8321,14 @@
       <c r="D172" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="42"/>
+      <c r="E172" s="40"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>172</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>4</v>
@@ -8333,14 +8336,14 @@
       <c r="D173" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="42"/>
+      <c r="E173" s="40"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
         <v>173</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
@@ -8348,14 +8351,14 @@
       <c r="D174" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="42"/>
+      <c r="E174" s="40"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>174</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>4</v>
@@ -8363,14 +8366,14 @@
       <c r="D175" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="43"/>
+      <c r="E175" s="41"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>175</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
@@ -8378,7 +8381,7 @@
       <c r="D176" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="41" t="s">
+      <c r="E176" s="39" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8387,7 +8390,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
@@ -8395,14 +8398,14 @@
       <c r="D177" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="42"/>
+      <c r="E177" s="40"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
         <v>177</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
@@ -8410,14 +8413,14 @@
       <c r="D178" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="42"/>
+      <c r="E178" s="40"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>178</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>4</v>
@@ -8425,14 +8428,14 @@
       <c r="D179" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="42"/>
+      <c r="E179" s="40"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>179</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
@@ -8440,14 +8443,14 @@
       <c r="D180" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="42"/>
+      <c r="E180" s="40"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>180</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
@@ -8455,14 +8458,14 @@
       <c r="D181" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="42"/>
+      <c r="E181" s="40"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
         <v>181</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
@@ -8470,14 +8473,14 @@
       <c r="D182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="42"/>
+      <c r="E182" s="40"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>182</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>4</v>
@@ -8485,14 +8488,14 @@
       <c r="D183" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E183" s="43"/>
+      <c r="E183" s="41"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
         <v>183</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
@@ -8500,7 +8503,7 @@
       <c r="D184" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E184" s="41" t="s">
+      <c r="E184" s="39" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8509,7 +8512,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
@@ -8517,14 +8520,14 @@
       <c r="D185" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E185" s="42"/>
+      <c r="E185" s="40"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
         <v>185</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
@@ -8532,14 +8535,14 @@
       <c r="D186" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E186" s="42"/>
+      <c r="E186" s="40"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
         <v>186</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>4</v>
@@ -8547,14 +8550,14 @@
       <c r="D187" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="43"/>
+      <c r="E187" s="41"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
         <v>187</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
@@ -8562,7 +8565,7 @@
       <c r="D188" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="41" t="s">
+      <c r="E188" s="39" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8571,7 +8574,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>4</v>
@@ -8579,14 +8582,14 @@
       <c r="D189" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E189" s="42"/>
+      <c r="E189" s="40"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>189</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>4</v>
@@ -8594,14 +8597,14 @@
       <c r="D190" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="42"/>
+      <c r="E190" s="40"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>190</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>4</v>
@@ -8609,14 +8612,14 @@
       <c r="D191" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="42"/>
+      <c r="E191" s="40"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
         <v>191</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
@@ -8624,14 +8627,14 @@
       <c r="D192" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="42"/>
-    </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E192" s="40"/>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>192</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>4</v>
@@ -8639,14 +8642,14 @@
       <c r="D193" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E193" s="42"/>
-    </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E193" s="40"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
         <v>193</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>4</v>
@@ -8654,14 +8657,14 @@
       <c r="D194" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E194" s="42"/>
-    </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E194" s="40"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
         <v>194</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>4</v>
@@ -8669,14 +8672,14 @@
       <c r="D195" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E195" s="42"/>
-    </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E195" s="40"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>195</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>4</v>
@@ -8684,14 +8687,14 @@
       <c r="D196" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E196" s="42"/>
-    </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E196" s="40"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>196</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>4</v>
@@ -8699,14 +8702,14 @@
       <c r="D197" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E197" s="42"/>
-    </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E197" s="40"/>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>197</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>4</v>
@@ -8714,14 +8717,14 @@
       <c r="D198" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E198" s="42"/>
-    </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E198" s="40"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>198</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>4</v>
@@ -8729,14 +8732,14 @@
       <c r="D199" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E199" s="42"/>
-    </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E199" s="40"/>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>199</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>4</v>
@@ -8744,14 +8747,14 @@
       <c r="D200" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E200" s="42"/>
-    </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E200" s="40"/>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>200</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>4</v>
@@ -8759,14 +8762,14 @@
       <c r="D201" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E201" s="43"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E201" s="41"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>4</v>
@@ -8775,119 +8778,116 @@
         <v>227</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>839</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D203" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E203" s="41" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="E203" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="E204" s="42"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="E204" s="40"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D205" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="E205" s="42"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="E205" s="40"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E206" s="42"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="E206" s="40"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D207" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="E207" s="42"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="E207" s="40"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="E208" s="42"/>
+        <v>398</v>
+      </c>
+      <c r="E208" s="40"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>208</v>
       </c>
       <c r="B209" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D209" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -8895,16 +8895,16 @@
         <v>209</v>
       </c>
       <c r="B210" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -8912,16 +8912,16 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D211" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="E211" s="12" t="s">
         <v>858</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D211" s="11" t="s">
-        <v>859</v>
-      </c>
-      <c r="E211" s="12" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -8929,7 +8929,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>226</v>
@@ -8944,7 +8944,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>226</v>
@@ -8959,7 +8959,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="36" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>226</v>
@@ -8974,7 +8974,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>226</v>
@@ -8989,7 +8989,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>226</v>
@@ -9004,7 +9004,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="36" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>226</v>
@@ -9019,7 +9019,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="36" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>226</v>
@@ -9034,7 +9034,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>226</v>
@@ -9049,7 +9049,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="36" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>226</v>
@@ -9064,7 +9064,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>226</v>
@@ -9079,7 +9079,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="36" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>226</v>
@@ -9094,7 +9094,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>226</v>
@@ -9109,7 +9109,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="36" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>226</v>
@@ -9124,7 +9124,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="36" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>226</v>
@@ -9139,7 +9139,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>226</v>
@@ -9154,7 +9154,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="36" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>226</v>
@@ -9169,7 +9169,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>226</v>
@@ -9184,7 +9184,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>226</v>
@@ -9199,7 +9199,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>226</v>
@@ -9214,7 +9214,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>226</v>
@@ -9229,13 +9229,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E232" s="37"/>
     </row>
@@ -9244,13 +9244,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E233" s="5"/>
     </row>
@@ -9259,13 +9259,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="36" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E234" s="12"/>
     </row>
@@ -9274,7 +9274,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="36" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>226</v>
@@ -9287,7 +9287,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="36" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>226</v>
@@ -9300,16 +9300,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="E237" s="41" t="s">
-        <v>411</v>
+        <v>392</v>
+      </c>
+      <c r="E237" s="39" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -9317,121 +9317,121 @@
         <v>237</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="E238" s="42"/>
+        <v>401</v>
+      </c>
+      <c r="E238" s="40"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>238</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="E239" s="42"/>
+        <v>402</v>
+      </c>
+      <c r="E239" s="40"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>239</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="E240" s="42"/>
+        <v>403</v>
+      </c>
+      <c r="E240" s="40"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>240</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E241" s="42"/>
+        <v>404</v>
+      </c>
+      <c r="E241" s="40"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>241</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="E242" s="42"/>
+        <v>405</v>
+      </c>
+      <c r="E242" s="40"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>242</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="E243" s="42"/>
+        <v>406</v>
+      </c>
+      <c r="E243" s="40"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>243</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="E244" s="43"/>
+        <v>407</v>
+      </c>
+      <c r="E244" s="41"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="E245" s="12" t="s">
         <v>861</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D245" s="12" t="s">
-        <v>862</v>
-      </c>
-      <c r="E245" s="12" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -9439,26 +9439,26 @@
         <v>245</v>
       </c>
       <c r="B246" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D246" s="12"/>
-      <c r="E246" s="40"/>
+      <c r="E246" s="38"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>246</v>
       </c>
       <c r="B247" s="36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D247" s="12"/>
-      <c r="E247" s="40"/>
+      <c r="E247" s="38"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
@@ -9542,12 +9542,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9559,11 +9558,12 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9574,8 +9574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9613,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -9621,8 +9621,8 @@
       <c r="D2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="41" t="s">
-        <v>376</v>
+      <c r="E2" s="39" t="s">
+        <v>375</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -9632,7 +9632,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -9640,7 +9640,7 @@
       <c r="D3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
@@ -9649,7 +9649,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -9657,7 +9657,7 @@
       <c r="D4" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -9666,7 +9666,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
@@ -9674,7 +9674,7 @@
       <c r="D5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
@@ -9683,7 +9683,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
@@ -9691,7 +9691,7 @@
       <c r="D6" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
@@ -9700,7 +9700,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -9708,7 +9708,7 @@
       <c r="D7" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
@@ -9717,7 +9717,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
@@ -9725,7 +9725,7 @@
       <c r="D8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
@@ -9734,7 +9734,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -9742,7 +9742,7 @@
       <c r="D9" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
@@ -9751,7 +9751,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -9759,7 +9759,7 @@
       <c r="D10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
@@ -9768,7 +9768,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -9776,7 +9776,7 @@
       <c r="D11" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
@@ -9785,7 +9785,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -9793,7 +9793,7 @@
       <c r="D12" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
@@ -9802,7 +9802,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -9810,7 +9810,7 @@
       <c r="D13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -9819,7 +9819,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -9827,7 +9827,7 @@
       <c r="D14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
@@ -9836,7 +9836,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -9844,7 +9844,7 @@
       <c r="D15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="41"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
@@ -9853,7 +9853,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -9861,8 +9861,8 @@
       <c r="D16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="41" t="s">
-        <v>377</v>
+      <c r="E16" s="39" t="s">
+        <v>376</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -9872,7 +9872,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -9880,7 +9880,7 @@
       <c r="D17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
@@ -9889,7 +9889,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -9897,7 +9897,7 @@
       <c r="D18" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
@@ -9906,7 +9906,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -9914,7 +9914,7 @@
       <c r="D19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
@@ -9923,7 +9923,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -9931,7 +9931,7 @@
       <c r="D20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
@@ -9940,7 +9940,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
@@ -9948,7 +9948,7 @@
       <c r="D21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
@@ -9957,7 +9957,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -9965,7 +9965,7 @@
       <c r="D22" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
@@ -9974,7 +9974,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>4</v>
@@ -9982,7 +9982,7 @@
       <c r="D23" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
@@ -9991,7 +9991,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
@@ -9999,8 +9999,8 @@
       <c r="D24" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="41" t="s">
-        <v>378</v>
+      <c r="E24" s="39" t="s">
+        <v>377</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -10010,7 +10010,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -10018,7 +10018,7 @@
       <c r="D25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
@@ -10027,7 +10027,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>4</v>
@@ -10035,7 +10035,7 @@
       <c r="D26" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
@@ -10044,7 +10044,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>4</v>
@@ -10052,7 +10052,7 @@
       <c r="D27" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
@@ -10061,7 +10061,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>4</v>
@@ -10069,7 +10069,7 @@
       <c r="D28" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
@@ -10078,7 +10078,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>4</v>
@@ -10086,7 +10086,7 @@
       <c r="D29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
@@ -10095,7 +10095,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -10103,7 +10103,7 @@
       <c r="D30" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
@@ -10112,7 +10112,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -10120,7 +10120,7 @@
       <c r="D31" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="41"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
@@ -10129,7 +10129,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>4</v>
@@ -10138,7 +10138,7 @@
         <v>258</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -10148,7 +10148,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>4</v>
@@ -10157,7 +10157,7 @@
         <v>259</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -10167,7 +10167,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -10175,8 +10175,8 @@
       <c r="D34" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="41" t="s">
-        <v>379</v>
+      <c r="E34" s="39" t="s">
+        <v>378</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -10186,7 +10186,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>4</v>
@@ -10194,7 +10194,7 @@
       <c r="D35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
@@ -10203,7 +10203,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>4</v>
@@ -10211,7 +10211,7 @@
       <c r="D36" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
@@ -10220,7 +10220,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>4</v>
@@ -10228,7 +10228,7 @@
       <c r="D37" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="42"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
@@ -10237,7 +10237,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
@@ -10245,7 +10245,7 @@
       <c r="D38" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="42"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
@@ -10254,7 +10254,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>4</v>
@@ -10262,7 +10262,7 @@
       <c r="D39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="42"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
@@ -10271,7 +10271,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>4</v>
@@ -10279,7 +10279,7 @@
       <c r="D40" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="42"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
@@ -10288,7 +10288,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>4</v>
@@ -10296,7 +10296,7 @@
       <c r="D41" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="42"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
@@ -10305,7 +10305,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>4</v>
@@ -10313,7 +10313,7 @@
       <c r="D42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
@@ -10322,7 +10322,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>4</v>
@@ -10330,7 +10330,7 @@
       <c r="D43" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="42"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
@@ -10339,7 +10339,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>4</v>
@@ -10347,7 +10347,7 @@
       <c r="D44" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="42"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
@@ -10356,7 +10356,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>4</v>
@@ -10364,7 +10364,7 @@
       <c r="D45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="42"/>
+      <c r="E45" s="40"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
@@ -10373,7 +10373,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>4</v>
@@ -10381,7 +10381,7 @@
       <c r="D46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="42"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
@@ -10390,7 +10390,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>4</v>
@@ -10398,7 +10398,7 @@
       <c r="D47" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="43"/>
+      <c r="E47" s="41"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
@@ -10407,7 +10407,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>4</v>
@@ -10415,8 +10415,8 @@
       <c r="D48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="41" t="s">
-        <v>380</v>
+      <c r="E48" s="39" t="s">
+        <v>379</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -10426,7 +10426,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>4</v>
@@ -10434,7 +10434,7 @@
       <c r="D49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="42"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
@@ -10443,7 +10443,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>4</v>
@@ -10451,7 +10451,7 @@
       <c r="D50" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="42"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
@@ -10460,7 +10460,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>4</v>
@@ -10468,7 +10468,7 @@
       <c r="D51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="40"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
@@ -10477,7 +10477,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>4</v>
@@ -10485,7 +10485,7 @@
       <c r="D52" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="42"/>
+      <c r="E52" s="40"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
@@ -10494,7 +10494,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -10502,7 +10502,7 @@
       <c r="D53" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="42"/>
+      <c r="E53" s="40"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
@@ -10511,7 +10511,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>4</v>
@@ -10519,7 +10519,7 @@
       <c r="D54" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="42"/>
+      <c r="E54" s="40"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
@@ -10528,7 +10528,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>4</v>
@@ -10536,7 +10536,7 @@
       <c r="D55" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="43"/>
+      <c r="E55" s="41"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
@@ -10545,7 +10545,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -10553,8 +10553,8 @@
       <c r="D56" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="41" t="s">
-        <v>381</v>
+      <c r="E56" s="39" t="s">
+        <v>380</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -10564,7 +10564,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -10572,7 +10572,7 @@
       <c r="D57" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="42"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
@@ -10581,7 +10581,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>4</v>
@@ -10589,7 +10589,7 @@
       <c r="D58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E58" s="42"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
@@ -10598,7 +10598,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>4</v>
@@ -10606,7 +10606,7 @@
       <c r="D59" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="42"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
@@ -10615,7 +10615,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>4</v>
@@ -10623,7 +10623,7 @@
       <c r="D60" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="42"/>
+      <c r="E60" s="40"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
@@ -10632,7 +10632,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>4</v>
@@ -10640,7 +10640,7 @@
       <c r="D61" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E61" s="42"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
@@ -10649,7 +10649,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>4</v>
@@ -10657,7 +10657,7 @@
       <c r="D62" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="42"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
@@ -10666,7 +10666,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>4</v>
@@ -10674,7 +10674,7 @@
       <c r="D63" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="42"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
@@ -10683,7 +10683,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>4</v>
@@ -10691,7 +10691,7 @@
       <c r="D64" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="42"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
@@ -10700,7 +10700,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>4</v>
@@ -10708,7 +10708,7 @@
       <c r="D65" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="42"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
@@ -10717,7 +10717,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>4</v>
@@ -10725,7 +10725,7 @@
       <c r="D66" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="42"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
@@ -10734,7 +10734,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>4</v>
@@ -10742,7 +10742,7 @@
       <c r="D67" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="42"/>
+      <c r="E67" s="40"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
@@ -10751,7 +10751,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>4</v>
@@ -10759,7 +10759,7 @@
       <c r="D68" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E68" s="42"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
@@ -10768,7 +10768,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>4</v>
@@ -10776,7 +10776,7 @@
       <c r="D69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="42"/>
+      <c r="E69" s="40"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
@@ -10785,7 +10785,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
@@ -10793,7 +10793,7 @@
       <c r="D70" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E70" s="42"/>
+      <c r="E70" s="40"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
@@ -10802,7 +10802,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
@@ -10810,7 +10810,7 @@
       <c r="D71" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="43"/>
+      <c r="E71" s="41"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
@@ -10819,7 +10819,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>4</v>
@@ -10828,7 +10828,7 @@
         <v>298</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -10838,7 +10838,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>4</v>
@@ -10846,8 +10846,8 @@
       <c r="D73" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="46" t="s">
-        <v>382</v>
+      <c r="E73" s="44" t="s">
+        <v>381</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -10857,7 +10857,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -10865,7 +10865,7 @@
       <c r="D74" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="49"/>
+      <c r="E74" s="47"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
@@ -10874,7 +10874,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>4</v>
@@ -10882,8 +10882,8 @@
       <c r="D75" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="41" t="s">
-        <v>383</v>
+      <c r="E75" s="39" t="s">
+        <v>382</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
@@ -10893,7 +10893,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>4</v>
@@ -10901,7 +10901,7 @@
       <c r="D76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="42"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
@@ -10910,7 +10910,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>4</v>
@@ -10918,7 +10918,7 @@
       <c r="D77" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="42"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
@@ -10927,7 +10927,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -10935,7 +10935,7 @@
       <c r="D78" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="42"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
@@ -10944,7 +10944,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>4</v>
@@ -10952,7 +10952,7 @@
       <c r="D79" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E79" s="42"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
@@ -10961,7 +10961,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>4</v>
@@ -10969,7 +10969,7 @@
       <c r="D80" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="42"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -10978,7 +10978,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>4</v>
@@ -10986,7 +10986,7 @@
       <c r="D81" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="42"/>
+      <c r="E81" s="40"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
@@ -10995,7 +10995,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>4</v>
@@ -11003,7 +11003,7 @@
       <c r="D82" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="42"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
@@ -11012,7 +11012,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>4</v>
@@ -11020,7 +11020,7 @@
       <c r="D83" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="42"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
@@ -11029,7 +11029,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>4</v>
@@ -11037,7 +11037,7 @@
       <c r="D84" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="42"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
@@ -11046,7 +11046,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>4</v>
@@ -11054,7 +11054,7 @@
       <c r="D85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="42"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
@@ -11063,7 +11063,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>4</v>
@@ -11071,7 +11071,7 @@
       <c r="D86" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="42"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
@@ -11080,7 +11080,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>4</v>
@@ -11088,7 +11088,7 @@
       <c r="D87" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="42"/>
+      <c r="E87" s="40"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
@@ -11097,7 +11097,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>4</v>
@@ -11105,7 +11105,7 @@
       <c r="D88" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="43"/>
+      <c r="E88" s="41"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
@@ -11114,7 +11114,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -11122,8 +11122,8 @@
       <c r="D89" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="46" t="s">
-        <v>384</v>
+      <c r="E89" s="44" t="s">
+        <v>383</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
@@ -11133,7 +11133,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>4</v>
@@ -11141,7 +11141,7 @@
       <c r="D90" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="49"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
@@ -11150,7 +11150,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
@@ -11158,8 +11158,8 @@
       <c r="D91" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="41" t="s">
-        <v>385</v>
+      <c r="E91" s="39" t="s">
+        <v>384</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -11169,7 +11169,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>4</v>
@@ -11177,7 +11177,7 @@
       <c r="D92" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E92" s="42"/>
+      <c r="E92" s="40"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
@@ -11186,7 +11186,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>4</v>
@@ -11194,7 +11194,7 @@
       <c r="D93" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E93" s="42"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
@@ -11203,7 +11203,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>4</v>
@@ -11211,7 +11211,7 @@
       <c r="D94" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E94" s="42"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
@@ -11220,7 +11220,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>4</v>
@@ -11228,7 +11228,7 @@
       <c r="D95" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="42"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
@@ -11237,7 +11237,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>4</v>
@@ -11245,7 +11245,7 @@
       <c r="D96" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="42"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
@@ -11254,7 +11254,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>4</v>
@@ -11262,7 +11262,7 @@
       <c r="D97" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="42"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
@@ -11271,7 +11271,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>4</v>
@@ -11279,7 +11279,7 @@
       <c r="D98" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E98" s="42"/>
+      <c r="E98" s="40"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
@@ -11288,7 +11288,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>4</v>
@@ -11296,7 +11296,7 @@
       <c r="D99" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="42"/>
+      <c r="E99" s="40"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
@@ -11305,7 +11305,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>4</v>
@@ -11313,7 +11313,7 @@
       <c r="D100" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="42"/>
+      <c r="E100" s="40"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
@@ -11322,7 +11322,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>4</v>
@@ -11330,7 +11330,7 @@
       <c r="D101" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="42"/>
+      <c r="E101" s="40"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
@@ -11339,7 +11339,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>4</v>
@@ -11347,7 +11347,7 @@
       <c r="D102" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="42"/>
+      <c r="E102" s="40"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
@@ -11356,7 +11356,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>4</v>
@@ -11364,7 +11364,7 @@
       <c r="D103" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E103" s="42"/>
+      <c r="E103" s="40"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
@@ -11373,7 +11373,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>4</v>
@@ -11381,7 +11381,7 @@
       <c r="D104" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E104" s="43"/>
+      <c r="E104" s="41"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
@@ -11390,7 +11390,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>4</v>
@@ -11398,8 +11398,8 @@
       <c r="D105" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="41" t="s">
-        <v>386</v>
+      <c r="E105" s="39" t="s">
+        <v>385</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
@@ -11409,7 +11409,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>4</v>
@@ -11417,7 +11417,7 @@
       <c r="D106" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="42"/>
+      <c r="E106" s="40"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
@@ -11426,7 +11426,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>4</v>
@@ -11434,7 +11434,7 @@
       <c r="D107" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E107" s="42"/>
+      <c r="E107" s="40"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
@@ -11443,7 +11443,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>4</v>
@@ -11451,7 +11451,7 @@
       <c r="D108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E108" s="42"/>
+      <c r="E108" s="40"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
@@ -11460,7 +11460,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>4</v>
@@ -11468,7 +11468,7 @@
       <c r="D109" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="42"/>
+      <c r="E109" s="40"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
@@ -11477,7 +11477,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>4</v>
@@ -11485,7 +11485,7 @@
       <c r="D110" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="42"/>
+      <c r="E110" s="40"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
@@ -11494,7 +11494,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>4</v>
@@ -11502,7 +11502,7 @@
       <c r="D111" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E111" s="42"/>
+      <c r="E111" s="40"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
@@ -11511,7 +11511,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>4</v>
@@ -11519,7 +11519,7 @@
       <c r="D112" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="43"/>
+      <c r="E112" s="41"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
@@ -11528,16 +11528,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" s="9"/>
@@ -11548,16 +11548,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -11567,16 +11567,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D115" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -11790,13 +11790,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="44" t="s">
-        <v>425</v>
+      <c r="D141" s="42" t="s">
+        <v>424</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
@@ -11806,12 +11806,12 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="44"/>
+      <c r="D142" s="42"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
@@ -11820,12 +11820,12 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="44"/>
+      <c r="D143" s="42"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
@@ -11834,12 +11834,12 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="44"/>
+      <c r="D144" s="42"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
@@ -11848,13 +11848,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="44" t="s">
-        <v>426</v>
+      <c r="D145" s="42" t="s">
+        <v>425</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
@@ -11864,12 +11864,12 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="44"/>
+      <c r="D146" s="42"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
@@ -11878,12 +11878,12 @@
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="44"/>
+      <c r="D147" s="42"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
@@ -11892,12 +11892,12 @@
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="44"/>
+      <c r="D148" s="42"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
@@ -11906,13 +11906,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="44" t="s">
-        <v>427</v>
+      <c r="D149" s="42" t="s">
+        <v>426</v>
       </c>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
@@ -11922,12 +11922,12 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="44"/>
+      <c r="D150" s="42"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
@@ -11936,12 +11936,12 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="44"/>
+      <c r="D151" s="42"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
@@ -11950,12 +11950,12 @@
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="44"/>
+      <c r="D152" s="42"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
@@ -11964,12 +11964,12 @@
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="44"/>
+      <c r="D153" s="42"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
@@ -11978,12 +11978,12 @@
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="44"/>
+      <c r="D154" s="42"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
@@ -11992,12 +11992,12 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="44"/>
+      <c r="D155" s="42"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
@@ -12006,12 +12006,12 @@
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="44"/>
+      <c r="D156" s="42"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
@@ -12020,13 +12020,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="44" t="s">
-        <v>428</v>
+      <c r="D157" s="42" t="s">
+        <v>427</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
@@ -12036,12 +12036,12 @@
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="44"/>
+      <c r="D158" s="42"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
@@ -12050,12 +12050,12 @@
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="44"/>
+      <c r="D159" s="42"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
@@ -12064,12 +12064,12 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="44"/>
+      <c r="D160" s="42"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
@@ -12078,13 +12078,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="44" t="s">
-        <v>429</v>
+      <c r="D161" s="42" t="s">
+        <v>428</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
@@ -12094,12 +12094,12 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="44"/>
+      <c r="D162" s="42"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
@@ -12108,12 +12108,12 @@
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="44"/>
+      <c r="D163" s="42"/>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
@@ -12122,12 +12122,12 @@
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="44"/>
+      <c r="D164" s="42"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
@@ -12136,13 +12136,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="44" t="s">
-        <v>563</v>
+      <c r="D165" s="42" t="s">
+        <v>562</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
@@ -12152,12 +12152,12 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="44"/>
+      <c r="D166" s="42"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
@@ -12166,12 +12166,12 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="44"/>
+      <c r="D167" s="42"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
@@ -12180,12 +12180,12 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="44"/>
+      <c r="D168" s="42"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
@@ -12194,12 +12194,12 @@
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="44"/>
+      <c r="D169" s="42"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
@@ -12208,12 +12208,12 @@
         <v>169</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="44"/>
+      <c r="D170" s="42"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
@@ -12222,12 +12222,12 @@
         <v>170</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="44"/>
+      <c r="D171" s="42"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
@@ -12236,12 +12236,12 @@
         <v>171</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="44"/>
+      <c r="D172" s="42"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
@@ -12250,13 +12250,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="44" t="s">
-        <v>572</v>
+      <c r="D173" s="42" t="s">
+        <v>571</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
@@ -12266,12 +12266,12 @@
         <v>173</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="44"/>
+      <c r="D174" s="42"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
@@ -12280,12 +12280,12 @@
         <v>174</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="44"/>
+      <c r="D175" s="42"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
@@ -12294,12 +12294,12 @@
         <v>175</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="44"/>
+      <c r="D176" s="42"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
@@ -12308,16 +12308,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="44" t="s">
-        <v>577</v>
-      </c>
-      <c r="E177" s="46" t="s">
-        <v>430</v>
+      <c r="D177" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="E177" s="44" t="s">
+        <v>429</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
@@ -12327,13 +12327,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="45"/>
-      <c r="E178" s="47"/>
+      <c r="D178" s="43"/>
+      <c r="E178" s="45"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
@@ -12342,13 +12342,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="45"/>
-      <c r="E179" s="47"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="45"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
@@ -12357,13 +12357,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="45"/>
-      <c r="E180" s="47"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="45"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
@@ -12372,13 +12372,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="45"/>
-      <c r="E181" s="47"/>
+      <c r="D181" s="43"/>
+      <c r="E181" s="45"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
@@ -12387,13 +12387,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="45"/>
-      <c r="E182" s="47"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="45"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
@@ -12402,13 +12402,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C183" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="45"/>
-      <c r="E183" s="47"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="45"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
@@ -12417,13 +12417,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="48" t="s">
-        <v>589</v>
+      <c r="D184" s="46" t="s">
+        <v>588</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
@@ -12433,12 +12433,12 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="48"/>
+      <c r="D185" s="46"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
@@ -12447,12 +12447,12 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="48"/>
+      <c r="D186" s="46"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
@@ -12461,12 +12461,12 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C187" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="48"/>
+      <c r="D187" s="46"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
@@ -12657,7 +12657,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C212" s="22" t="s">
         <v>226</v>
@@ -12673,7 +12673,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C213" s="22" t="s">
         <v>226</v>
@@ -12689,7 +12689,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C214" s="22" t="s">
         <v>226</v>
@@ -12705,7 +12705,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C215" s="22" t="s">
         <v>226</v>
@@ -12721,7 +12721,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C216" s="22" t="s">
         <v>226</v>
@@ -12737,7 +12737,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C217" s="22" t="s">
         <v>226</v>
@@ -12753,7 +12753,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C218" s="22" t="s">
         <v>226</v>
@@ -12769,7 +12769,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C219" s="22" t="s">
         <v>226</v>
@@ -12785,7 +12785,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C220" s="22" t="s">
         <v>226</v>
@@ -12801,7 +12801,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C221" s="22" t="s">
         <v>226</v>
@@ -12817,7 +12817,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C222" s="22" t="s">
         <v>226</v>
@@ -12833,7 +12833,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C223" s="22" t="s">
         <v>226</v>
@@ -12847,7 +12847,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C224" s="22" t="s">
         <v>226</v>
@@ -12902,13 +12902,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
@@ -12918,7 +12918,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>226</v>
@@ -12927,26 +12927,26 @@
         <v>350</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="4">
+      <c r="A232" s="48">
         <v>231</v>
       </c>
-      <c r="B232" s="38" t="s">
+      <c r="B232" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="50" t="s">
         <v>353</v>
       </c>
-      <c r="D232" s="11" t="s">
+      <c r="D232" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="E232" s="39" t="s">
-        <v>854</v>
+      <c r="E232" s="51" t="s">
+        <v>862</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
@@ -13131,6 +13131,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13146,12 +13152,6 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="864">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -5066,6 +5066,9 @@
   </si>
   <si>
     <t>Co na którym bajcie?</t>
+  </si>
+  <si>
+    <t>obw_153</t>
   </si>
 </sst>
 </file>
@@ -5315,6 +5318,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5340,18 +5355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5711,7 +5714,7 @@
       <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="43" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="9"/>
@@ -5730,7 +5733,7 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
@@ -5745,7 +5748,7 @@
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
@@ -5760,7 +5763,7 @@
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
@@ -5775,7 +5778,7 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
@@ -5790,7 +5793,7 @@
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
@@ -5805,7 +5808,7 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
@@ -5820,7 +5823,7 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -5835,7 +5838,7 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
@@ -5850,7 +5853,7 @@
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
@@ -5865,7 +5868,7 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
@@ -5880,7 +5883,7 @@
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -5895,7 +5898,7 @@
       <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
@@ -5910,7 +5913,7 @@
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -5959,7 +5962,7 @@
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="43" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5976,7 +5979,7 @@
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
@@ -5991,7 +5994,7 @@
       <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
@@ -6006,7 +6009,7 @@
       <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -6021,7 +6024,7 @@
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
@@ -6036,7 +6039,7 @@
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
@@ -6051,7 +6054,7 @@
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -6066,7 +6069,7 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
@@ -6081,7 +6084,7 @@
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="43" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6098,7 +6101,7 @@
       <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
@@ -6113,7 +6116,7 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
@@ -6128,7 +6131,7 @@
       <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
@@ -6143,7 +6146,7 @@
       <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
@@ -6158,7 +6161,7 @@
       <c r="D31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="40"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
@@ -6173,7 +6176,7 @@
       <c r="D32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="40"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
@@ -6188,7 +6191,7 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="40"/>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
@@ -6203,7 +6206,7 @@
       <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="40"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
@@ -6218,7 +6221,7 @@
       <c r="D35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
@@ -6233,7 +6236,7 @@
       <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="40"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
@@ -6248,7 +6251,7 @@
       <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
@@ -6263,7 +6266,7 @@
       <c r="D38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="40"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
@@ -6278,7 +6281,7 @@
       <c r="D39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="41"/>
+      <c r="E39" s="45"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
@@ -6293,7 +6296,7 @@
       <c r="D40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="43" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6310,7 +6313,7 @@
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="40"/>
+      <c r="E41" s="44"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
@@ -6325,7 +6328,7 @@
       <c r="D42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="40"/>
+      <c r="E42" s="44"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
@@ -6340,7 +6343,7 @@
       <c r="D43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="40"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
@@ -6355,7 +6358,7 @@
       <c r="D44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="40"/>
+      <c r="E44" s="44"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
@@ -6370,7 +6373,7 @@
       <c r="D45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="40"/>
+      <c r="E45" s="44"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
@@ -6385,7 +6388,7 @@
       <c r="D46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="40"/>
+      <c r="E46" s="44"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
@@ -6400,7 +6403,7 @@
       <c r="D47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="40"/>
+      <c r="E47" s="44"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
@@ -6415,7 +6418,7 @@
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="40"/>
+      <c r="E48" s="44"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
@@ -6430,7 +6433,7 @@
       <c r="D49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="40"/>
+      <c r="E49" s="44"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
@@ -6445,7 +6448,7 @@
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="40"/>
+      <c r="E50" s="44"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
@@ -6460,7 +6463,7 @@
       <c r="D51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="40"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
@@ -6475,7 +6478,7 @@
       <c r="D52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="40"/>
+      <c r="E52" s="44"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
@@ -6490,7 +6493,7 @@
       <c r="D53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="41"/>
+      <c r="E53" s="45"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
@@ -6505,7 +6508,7 @@
       <c r="D54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="43" t="s">
         <v>359</v>
       </c>
     </row>
@@ -6522,7 +6525,7 @@
       <c r="D55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="40"/>
+      <c r="E55" s="44"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
@@ -6537,7 +6540,7 @@
       <c r="D56" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="40"/>
+      <c r="E56" s="44"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
@@ -6552,7 +6555,7 @@
       <c r="D57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="40"/>
+      <c r="E57" s="44"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
@@ -6567,7 +6570,7 @@
       <c r="D58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="40"/>
+      <c r="E58" s="44"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
@@ -6582,7 +6585,7 @@
       <c r="D59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="40"/>
+      <c r="E59" s="44"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
@@ -6597,7 +6600,7 @@
       <c r="D60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="40"/>
+      <c r="E60" s="44"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
@@ -6612,7 +6615,7 @@
       <c r="D61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="45"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
@@ -6627,7 +6630,7 @@
       <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="43" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6644,7 +6647,7 @@
       <c r="D63" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="40"/>
+      <c r="E63" s="44"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
@@ -6659,7 +6662,7 @@
       <c r="D64" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="40"/>
+      <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
@@ -6674,7 +6677,7 @@
       <c r="D65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="40"/>
+      <c r="E65" s="44"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
@@ -6689,7 +6692,7 @@
       <c r="D66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="40"/>
+      <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
@@ -6704,7 +6707,7 @@
       <c r="D67" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="40"/>
+      <c r="E67" s="44"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
@@ -6719,7 +6722,7 @@
       <c r="D68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="40"/>
+      <c r="E68" s="44"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
@@ -6734,7 +6737,7 @@
       <c r="D69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="41"/>
+      <c r="E69" s="45"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
@@ -6749,7 +6752,7 @@
       <c r="D70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="43" t="s">
         <v>361</v>
       </c>
     </row>
@@ -6766,7 +6769,7 @@
       <c r="D71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="40"/>
+      <c r="E71" s="44"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
@@ -6781,7 +6784,7 @@
       <c r="D72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="40"/>
+      <c r="E72" s="44"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
@@ -6796,7 +6799,7 @@
       <c r="D73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="40"/>
+      <c r="E73" s="44"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
@@ -6811,7 +6814,7 @@
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="40"/>
+      <c r="E74" s="44"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
@@ -6826,7 +6829,7 @@
       <c r="D75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="40"/>
+      <c r="E75" s="44"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
@@ -6841,7 +6844,7 @@
       <c r="D76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="40"/>
+      <c r="E76" s="44"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
@@ -6856,7 +6859,7 @@
       <c r="D77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="41"/>
+      <c r="E77" s="45"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
@@ -6888,7 +6891,7 @@
       <c r="D79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="43" t="s">
         <v>408</v>
       </c>
       <c r="F79" s="30"/>
@@ -6906,7 +6909,7 @@
       <c r="D80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="40"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -6922,7 +6925,7 @@
       <c r="D81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="40"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -6938,7 +6941,7 @@
       <c r="D82" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="40"/>
+      <c r="E82" s="44"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
@@ -6953,7 +6956,7 @@
       <c r="D83" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="40"/>
+      <c r="E83" s="44"/>
       <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -6969,7 +6972,7 @@
       <c r="D84" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="40"/>
+      <c r="E84" s="44"/>
       <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -6985,7 +6988,7 @@
       <c r="D85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E85" s="40"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -7001,7 +7004,7 @@
       <c r="D86" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="41"/>
+      <c r="E86" s="45"/>
       <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -7017,7 +7020,7 @@
       <c r="D87" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="39" t="s">
+      <c r="E87" s="43" t="s">
         <v>363</v>
       </c>
     </row>
@@ -7034,7 +7037,7 @@
       <c r="D88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="41"/>
+      <c r="E88" s="45"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
@@ -7049,7 +7052,7 @@
       <c r="D89" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="39" t="s">
+      <c r="E89" s="43" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7066,7 +7069,7 @@
       <c r="D90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="40"/>
+      <c r="E90" s="44"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
@@ -7081,7 +7084,7 @@
       <c r="D91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="40"/>
+      <c r="E91" s="44"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
@@ -7096,7 +7099,7 @@
       <c r="D92" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="40"/>
+      <c r="E92" s="44"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
@@ -7111,7 +7114,7 @@
       <c r="D93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E93" s="40"/>
+      <c r="E93" s="44"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
@@ -7126,7 +7129,7 @@
       <c r="D94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="40"/>
+      <c r="E94" s="44"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
@@ -7141,7 +7144,7 @@
       <c r="D95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="40"/>
+      <c r="E95" s="44"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
@@ -7156,7 +7159,7 @@
       <c r="D96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="40"/>
+      <c r="E96" s="44"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
@@ -7171,7 +7174,7 @@
       <c r="D97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E97" s="40"/>
+      <c r="E97" s="44"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
@@ -7186,7 +7189,7 @@
       <c r="D98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="40"/>
+      <c r="E98" s="44"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
@@ -7201,7 +7204,7 @@
       <c r="D99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="40"/>
+      <c r="E99" s="44"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
@@ -7216,7 +7219,7 @@
       <c r="D100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="40"/>
+      <c r="E100" s="44"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
@@ -7231,7 +7234,7 @@
       <c r="D101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="40"/>
+      <c r="E101" s="44"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
@@ -7246,7 +7249,7 @@
       <c r="D102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="41"/>
+      <c r="E102" s="45"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
@@ -7261,7 +7264,7 @@
       <c r="D103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="39" t="s">
+      <c r="E103" s="43" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7278,7 +7281,7 @@
       <c r="D104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="40"/>
+      <c r="E104" s="44"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
@@ -7293,7 +7296,7 @@
       <c r="D105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="40"/>
+      <c r="E105" s="44"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
@@ -7308,7 +7311,7 @@
       <c r="D106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E106" s="40"/>
+      <c r="E106" s="44"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
@@ -7323,7 +7326,7 @@
       <c r="D107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="40"/>
+      <c r="E107" s="44"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
@@ -7338,7 +7341,7 @@
       <c r="D108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E108" s="40"/>
+      <c r="E108" s="44"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
@@ -7353,7 +7356,7 @@
       <c r="D109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="40"/>
+      <c r="E109" s="44"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
@@ -7368,7 +7371,7 @@
       <c r="D110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="41"/>
+      <c r="E110" s="45"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
@@ -7383,7 +7386,7 @@
       <c r="D111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="39" t="s">
+      <c r="E111" s="43" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7400,7 +7403,7 @@
       <c r="D112" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E112" s="40"/>
+      <c r="E112" s="44"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
@@ -7415,7 +7418,7 @@
       <c r="D113" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="40"/>
+      <c r="E113" s="44"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
@@ -7430,7 +7433,7 @@
       <c r="D114" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="40"/>
+      <c r="E114" s="44"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
@@ -7445,7 +7448,7 @@
       <c r="D115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="40"/>
+      <c r="E115" s="44"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
@@ -7460,7 +7463,7 @@
       <c r="D116" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="40"/>
+      <c r="E116" s="44"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
@@ -7475,7 +7478,7 @@
       <c r="D117" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="40"/>
+      <c r="E117" s="44"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
@@ -7490,7 +7493,7 @@
       <c r="D118" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="40"/>
+      <c r="E118" s="44"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
@@ -7505,7 +7508,7 @@
       <c r="D119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="40"/>
+      <c r="E119" s="44"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
@@ -7520,7 +7523,7 @@
       <c r="D120" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E120" s="40"/>
+      <c r="E120" s="44"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
@@ -7535,7 +7538,7 @@
       <c r="D121" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="40"/>
+      <c r="E121" s="44"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
@@ -7550,7 +7553,7 @@
       <c r="D122" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E122" s="40"/>
+      <c r="E122" s="44"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
@@ -7565,7 +7568,7 @@
       <c r="D123" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E123" s="40"/>
+      <c r="E123" s="44"/>
     </row>
     <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
@@ -7580,7 +7583,7 @@
       <c r="D124" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="41"/>
+      <c r="E124" s="45"/>
     </row>
     <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
@@ -7595,7 +7598,7 @@
       <c r="D125" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="39" t="s">
+      <c r="E125" s="43" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7612,7 +7615,7 @@
       <c r="D126" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="40"/>
+      <c r="E126" s="44"/>
     </row>
     <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
@@ -7627,7 +7630,7 @@
       <c r="D127" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="40"/>
+      <c r="E127" s="44"/>
     </row>
     <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
@@ -7642,7 +7645,7 @@
       <c r="D128" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E128" s="40"/>
+      <c r="E128" s="44"/>
     </row>
     <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
@@ -7657,7 +7660,7 @@
       <c r="D129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="40"/>
+      <c r="E129" s="44"/>
     </row>
     <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
@@ -7672,7 +7675,7 @@
       <c r="D130" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="40"/>
+      <c r="E130" s="44"/>
     </row>
     <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
@@ -7687,7 +7690,7 @@
       <c r="D131" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E131" s="40"/>
+      <c r="E131" s="44"/>
     </row>
     <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
@@ -7702,7 +7705,7 @@
       <c r="D132" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E132" s="40"/>
+      <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
@@ -7717,7 +7720,7 @@
       <c r="D133" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E133" s="40"/>
+      <c r="E133" s="44"/>
     </row>
     <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
@@ -7732,7 +7735,7 @@
       <c r="D134" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E134" s="40"/>
+      <c r="E134" s="44"/>
     </row>
     <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
@@ -7747,7 +7750,7 @@
       <c r="D135" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="40"/>
+      <c r="E135" s="44"/>
     </row>
     <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
@@ -7762,7 +7765,7 @@
       <c r="D136" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E136" s="40"/>
+      <c r="E136" s="44"/>
     </row>
     <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
@@ -7777,7 +7780,7 @@
       <c r="D137" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="40"/>
+      <c r="E137" s="44"/>
     </row>
     <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
@@ -7792,7 +7795,7 @@
       <c r="D138" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E138" s="41"/>
+      <c r="E138" s="45"/>
     </row>
     <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
@@ -7807,7 +7810,7 @@
       <c r="D139" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E139" s="39" t="s">
+      <c r="E139" s="43" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7824,7 +7827,7 @@
       <c r="D140" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E140" s="40"/>
+      <c r="E140" s="44"/>
     </row>
     <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
@@ -7839,7 +7842,7 @@
       <c r="D141" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E141" s="40"/>
+      <c r="E141" s="44"/>
     </row>
     <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
@@ -7854,7 +7857,7 @@
       <c r="D142" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="40"/>
+      <c r="E142" s="44"/>
     </row>
     <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
@@ -7869,7 +7872,7 @@
       <c r="D143" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E143" s="40"/>
+      <c r="E143" s="44"/>
     </row>
     <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
@@ -7884,7 +7887,7 @@
       <c r="D144" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="40"/>
+      <c r="E144" s="44"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
@@ -7899,7 +7902,7 @@
       <c r="D145" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E145" s="40"/>
+      <c r="E145" s="44"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
@@ -7914,7 +7917,7 @@
       <c r="D146" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E146" s="41"/>
+      <c r="E146" s="45"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
@@ -7947,7 +7950,7 @@
       <c r="D148" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E148" s="39" t="s">
+      <c r="E148" s="43" t="s">
         <v>369</v>
       </c>
       <c r="F148" s="30"/>
@@ -7965,7 +7968,7 @@
       <c r="D149" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E149" s="40"/>
+      <c r="E149" s="44"/>
       <c r="F149" s="30"/>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7981,7 +7984,7 @@
       <c r="D150" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="40"/>
+      <c r="E150" s="44"/>
       <c r="F150" s="30"/>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7997,7 +8000,7 @@
       <c r="D151" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E151" s="40"/>
+      <c r="E151" s="44"/>
       <c r="F151" s="30"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8013,7 +8016,7 @@
       <c r="D152" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E152" s="40"/>
+      <c r="E152" s="44"/>
       <c r="F152" s="30"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8029,7 +8032,7 @@
       <c r="D153" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E153" s="40"/>
+      <c r="E153" s="44"/>
       <c r="F153" s="30"/>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8045,7 +8048,7 @@
       <c r="D154" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="40"/>
+      <c r="E154" s="44"/>
       <c r="F154" s="30"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8061,7 +8064,7 @@
       <c r="D155" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="41"/>
+      <c r="E155" s="45"/>
       <c r="F155" s="30"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8077,7 +8080,7 @@
       <c r="D156" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E156" s="39" t="s">
+      <c r="E156" s="43" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8094,7 +8097,7 @@
       <c r="D157" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="40"/>
+      <c r="E157" s="44"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
@@ -8109,7 +8112,7 @@
       <c r="D158" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E158" s="40"/>
+      <c r="E158" s="44"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
@@ -8124,7 +8127,7 @@
       <c r="D159" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E159" s="40"/>
+      <c r="E159" s="44"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
@@ -8139,7 +8142,7 @@
       <c r="D160" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E160" s="40"/>
+      <c r="E160" s="44"/>
     </row>
     <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
@@ -8154,7 +8157,7 @@
       <c r="D161" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E161" s="40"/>
+      <c r="E161" s="44"/>
     </row>
     <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
@@ -8169,7 +8172,7 @@
       <c r="D162" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E162" s="40"/>
+      <c r="E162" s="44"/>
     </row>
     <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
@@ -8184,7 +8187,7 @@
       <c r="D163" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="40"/>
+      <c r="E163" s="44"/>
     </row>
     <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
@@ -8199,7 +8202,7 @@
       <c r="D164" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E164" s="40"/>
+      <c r="E164" s="44"/>
     </row>
     <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
@@ -8214,7 +8217,7 @@
       <c r="D165" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E165" s="40"/>
+      <c r="E165" s="44"/>
     </row>
     <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
@@ -8229,7 +8232,7 @@
       <c r="D166" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="40"/>
+      <c r="E166" s="44"/>
     </row>
     <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
@@ -8244,7 +8247,7 @@
       <c r="D167" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E167" s="40"/>
+      <c r="E167" s="44"/>
     </row>
     <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
@@ -8259,7 +8262,7 @@
       <c r="D168" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E168" s="40"/>
+      <c r="E168" s="44"/>
     </row>
     <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
@@ -8274,7 +8277,7 @@
       <c r="D169" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E169" s="41"/>
+      <c r="E169" s="45"/>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
@@ -8289,7 +8292,7 @@
       <c r="D170" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="39" t="s">
+      <c r="E170" s="43" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8306,7 +8309,7 @@
       <c r="D171" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="40"/>
+      <c r="E171" s="44"/>
     </row>
     <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
@@ -8321,7 +8324,7 @@
       <c r="D172" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="40"/>
+      <c r="E172" s="44"/>
     </row>
     <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
@@ -8336,7 +8339,7 @@
       <c r="D173" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="40"/>
+      <c r="E173" s="44"/>
     </row>
     <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
@@ -8351,7 +8354,7 @@
       <c r="D174" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="40"/>
+      <c r="E174" s="44"/>
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
@@ -8366,7 +8369,7 @@
       <c r="D175" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="41"/>
+      <c r="E175" s="45"/>
     </row>
     <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
@@ -8381,7 +8384,7 @@
       <c r="D176" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="39" t="s">
+      <c r="E176" s="43" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8398,7 +8401,7 @@
       <c r="D177" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="40"/>
+      <c r="E177" s="44"/>
     </row>
     <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
@@ -8413,7 +8416,7 @@
       <c r="D178" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="40"/>
+      <c r="E178" s="44"/>
     </row>
     <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
@@ -8428,7 +8431,7 @@
       <c r="D179" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="40"/>
+      <c r="E179" s="44"/>
     </row>
     <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
@@ -8443,7 +8446,7 @@
       <c r="D180" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="40"/>
+      <c r="E180" s="44"/>
     </row>
     <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
@@ -8458,7 +8461,7 @@
       <c r="D181" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="40"/>
+      <c r="E181" s="44"/>
     </row>
     <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
@@ -8473,7 +8476,7 @@
       <c r="D182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="40"/>
+      <c r="E182" s="44"/>
     </row>
     <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
@@ -8488,7 +8491,7 @@
       <c r="D183" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E183" s="41"/>
+      <c r="E183" s="45"/>
     </row>
     <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
@@ -8503,7 +8506,7 @@
       <c r="D184" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E184" s="39" t="s">
+      <c r="E184" s="43" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8520,7 +8523,7 @@
       <c r="D185" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E185" s="40"/>
+      <c r="E185" s="44"/>
     </row>
     <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
@@ -8535,7 +8538,7 @@
       <c r="D186" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E186" s="40"/>
+      <c r="E186" s="44"/>
     </row>
     <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
@@ -8550,7 +8553,7 @@
       <c r="D187" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="41"/>
+      <c r="E187" s="45"/>
     </row>
     <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
@@ -8565,7 +8568,7 @@
       <c r="D188" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="39" t="s">
+      <c r="E188" s="43" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8582,7 +8585,7 @@
       <c r="D189" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E189" s="40"/>
+      <c r="E189" s="44"/>
     </row>
     <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
@@ -8597,7 +8600,7 @@
       <c r="D190" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="40"/>
+      <c r="E190" s="44"/>
     </row>
     <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
@@ -8612,7 +8615,7 @@
       <c r="D191" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="40"/>
+      <c r="E191" s="44"/>
     </row>
     <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
@@ -8627,7 +8630,7 @@
       <c r="D192" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="40"/>
+      <c r="E192" s="44"/>
     </row>
     <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
@@ -8642,7 +8645,7 @@
       <c r="D193" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E193" s="40"/>
+      <c r="E193" s="44"/>
     </row>
     <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
@@ -8657,7 +8660,7 @@
       <c r="D194" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E194" s="40"/>
+      <c r="E194" s="44"/>
     </row>
     <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
@@ -8672,7 +8675,7 @@
       <c r="D195" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E195" s="40"/>
+      <c r="E195" s="44"/>
     </row>
     <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
@@ -8687,7 +8690,7 @@
       <c r="D196" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E196" s="40"/>
+      <c r="E196" s="44"/>
     </row>
     <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
@@ -8702,7 +8705,7 @@
       <c r="D197" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E197" s="40"/>
+      <c r="E197" s="44"/>
     </row>
     <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
@@ -8717,7 +8720,7 @@
       <c r="D198" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E198" s="40"/>
+      <c r="E198" s="44"/>
     </row>
     <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
@@ -8732,7 +8735,7 @@
       <c r="D199" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E199" s="40"/>
+      <c r="E199" s="44"/>
     </row>
     <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
@@ -8747,7 +8750,7 @@
       <c r="D200" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E200" s="40"/>
+      <c r="E200" s="44"/>
     </row>
     <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
@@ -8762,7 +8765,7 @@
       <c r="D201" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E201" s="41"/>
+      <c r="E201" s="45"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
@@ -8794,7 +8797,7 @@
       <c r="D203" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="E203" s="39" t="s">
+      <c r="E203" s="43" t="s">
         <v>409</v>
       </c>
     </row>
@@ -8811,7 +8814,7 @@
       <c r="D204" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E204" s="40"/>
+      <c r="E204" s="44"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
@@ -8826,7 +8829,7 @@
       <c r="D205" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="E205" s="40"/>
+      <c r="E205" s="44"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
@@ -8841,7 +8844,7 @@
       <c r="D206" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E206" s="40"/>
+      <c r="E206" s="44"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
@@ -8856,7 +8859,7 @@
       <c r="D207" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E207" s="40"/>
+      <c r="E207" s="44"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
@@ -8871,7 +8874,7 @@
       <c r="D208" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E208" s="40"/>
+      <c r="E208" s="44"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
@@ -9308,7 +9311,7 @@
       <c r="D237" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E237" s="39" t="s">
+      <c r="E237" s="43" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9325,7 +9328,7 @@
       <c r="D238" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="E238" s="40"/>
+      <c r="E238" s="44"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
@@ -9340,7 +9343,7 @@
       <c r="D239" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E239" s="40"/>
+      <c r="E239" s="44"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
@@ -9355,7 +9358,7 @@
       <c r="D240" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="E240" s="40"/>
+      <c r="E240" s="44"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
@@ -9370,7 +9373,7 @@
       <c r="D241" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E241" s="40"/>
+      <c r="E241" s="44"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
@@ -9385,7 +9388,7 @@
       <c r="D242" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E242" s="40"/>
+      <c r="E242" s="44"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
@@ -9400,7 +9403,7 @@
       <c r="D243" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E243" s="40"/>
+      <c r="E243" s="44"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
@@ -9415,7 +9418,7 @@
       <c r="D244" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E244" s="41"/>
+      <c r="E244" s="45"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
@@ -9542,11 +9545,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9558,12 +9562,11 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9574,8 +9577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9621,7 +9624,7 @@
       <c r="D2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="43" t="s">
         <v>375</v>
       </c>
       <c r="F2" s="9"/>
@@ -9640,7 +9643,7 @@
       <c r="D3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
@@ -9657,7 +9660,7 @@
       <c r="D4" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="40"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -9674,7 +9677,7 @@
       <c r="D5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="40"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
@@ -9691,7 +9694,7 @@
       <c r="D6" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
@@ -9708,7 +9711,7 @@
       <c r="D7" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="40"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
@@ -9725,7 +9728,7 @@
       <c r="D8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="40"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
@@ -9742,7 +9745,7 @@
       <c r="D9" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
@@ -9759,7 +9762,7 @@
       <c r="D10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="40"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
@@ -9776,7 +9779,7 @@
       <c r="D11" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="40"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
@@ -9793,7 +9796,7 @@
       <c r="D12" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="40"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
@@ -9810,7 +9813,7 @@
       <c r="D13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
@@ -9827,7 +9830,7 @@
       <c r="D14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
@@ -9844,7 +9847,7 @@
       <c r="D15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
@@ -9861,7 +9864,7 @@
       <c r="D16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="43" t="s">
         <v>376</v>
       </c>
       <c r="F16" s="9"/>
@@ -9880,7 +9883,7 @@
       <c r="D17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
@@ -9897,7 +9900,7 @@
       <c r="D18" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
@@ -9914,7 +9917,7 @@
       <c r="D19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="40"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
@@ -9931,7 +9934,7 @@
       <c r="D20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
@@ -9948,7 +9951,7 @@
       <c r="D21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
@@ -9965,7 +9968,7 @@
       <c r="D22" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="40"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
@@ -9982,7 +9985,7 @@
       <c r="D23" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
@@ -9999,7 +10002,7 @@
       <c r="D24" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="43" t="s">
         <v>377</v>
       </c>
       <c r="F24" s="9"/>
@@ -10018,7 +10021,7 @@
       <c r="D25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
@@ -10035,7 +10038,7 @@
       <c r="D26" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
@@ -10052,7 +10055,7 @@
       <c r="D27" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="40"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
@@ -10069,7 +10072,7 @@
       <c r="D28" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="40"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
@@ -10086,7 +10089,7 @@
       <c r="D29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="40"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
@@ -10103,7 +10106,7 @@
       <c r="D30" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="40"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
@@ -10120,7 +10123,7 @@
       <c r="D31" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="41"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
@@ -10175,7 +10178,7 @@
       <c r="D34" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="43" t="s">
         <v>378</v>
       </c>
       <c r="F34" s="9"/>
@@ -10194,7 +10197,7 @@
       <c r="D35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
@@ -10211,7 +10214,7 @@
       <c r="D36" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="40"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
@@ -10228,7 +10231,7 @@
       <c r="D37" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="40"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
@@ -10245,7 +10248,7 @@
       <c r="D38" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="40"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
@@ -10262,7 +10265,7 @@
       <c r="D39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="40"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
@@ -10279,7 +10282,7 @@
       <c r="D40" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="40"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
@@ -10296,7 +10299,7 @@
       <c r="D41" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="40"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
@@ -10313,7 +10316,7 @@
       <c r="D42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="40"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
@@ -10330,7 +10333,7 @@
       <c r="D43" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="40"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
@@ -10347,7 +10350,7 @@
       <c r="D44" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="40"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
@@ -10364,7 +10367,7 @@
       <c r="D45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="40"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
@@ -10381,7 +10384,7 @@
       <c r="D46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="40"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
@@ -10398,7 +10401,7 @@
       <c r="D47" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="41"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
@@ -10415,7 +10418,7 @@
       <c r="D48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="43" t="s">
         <v>379</v>
       </c>
       <c r="F48" s="9"/>
@@ -10434,7 +10437,7 @@
       <c r="D49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="40"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
@@ -10451,7 +10454,7 @@
       <c r="D50" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="40"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
@@ -10468,7 +10471,7 @@
       <c r="D51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="40"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
@@ -10485,7 +10488,7 @@
       <c r="D52" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="40"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
@@ -10502,7 +10505,7 @@
       <c r="D53" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="40"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
@@ -10519,7 +10522,7 @@
       <c r="D54" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="40"/>
+      <c r="E54" s="44"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
@@ -10536,7 +10539,7 @@
       <c r="D55" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="41"/>
+      <c r="E55" s="45"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
@@ -10553,7 +10556,7 @@
       <c r="D56" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="43" t="s">
         <v>380</v>
       </c>
       <c r="F56" s="9"/>
@@ -10572,7 +10575,7 @@
       <c r="D57" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="40"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
@@ -10589,7 +10592,7 @@
       <c r="D58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E58" s="40"/>
+      <c r="E58" s="44"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
@@ -10606,7 +10609,7 @@
       <c r="D59" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="40"/>
+      <c r="E59" s="44"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
@@ -10623,7 +10626,7 @@
       <c r="D60" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="40"/>
+      <c r="E60" s="44"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
@@ -10640,7 +10643,7 @@
       <c r="D61" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E61" s="40"/>
+      <c r="E61" s="44"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
@@ -10657,7 +10660,7 @@
       <c r="D62" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="40"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
@@ -10674,7 +10677,7 @@
       <c r="D63" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="40"/>
+      <c r="E63" s="44"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
@@ -10691,7 +10694,7 @@
       <c r="D64" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="40"/>
+      <c r="E64" s="44"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
@@ -10708,7 +10711,7 @@
       <c r="D65" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="40"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
@@ -10725,7 +10728,7 @@
       <c r="D66" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="40"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
@@ -10742,7 +10745,7 @@
       <c r="D67" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="40"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
@@ -10759,7 +10762,7 @@
       <c r="D68" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E68" s="40"/>
+      <c r="E68" s="44"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
@@ -10776,7 +10779,7 @@
       <c r="D69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="40"/>
+      <c r="E69" s="44"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
@@ -10793,7 +10796,7 @@
       <c r="D70" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E70" s="40"/>
+      <c r="E70" s="44"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
@@ -10810,7 +10813,7 @@
       <c r="D71" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="41"/>
+      <c r="E71" s="45"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
@@ -10846,7 +10849,7 @@
       <c r="D73" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="44" t="s">
+      <c r="E73" s="48" t="s">
         <v>381</v>
       </c>
       <c r="F73" s="9"/>
@@ -10865,7 +10868,7 @@
       <c r="D74" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="47"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
@@ -10882,7 +10885,7 @@
       <c r="D75" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="43" t="s">
         <v>382</v>
       </c>
       <c r="F75" s="9"/>
@@ -10901,7 +10904,7 @@
       <c r="D76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="40"/>
+      <c r="E76" s="44"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
@@ -10918,7 +10921,7 @@
       <c r="D77" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="40"/>
+      <c r="E77" s="44"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
@@ -10935,7 +10938,7 @@
       <c r="D78" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="40"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
@@ -10952,7 +10955,7 @@
       <c r="D79" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E79" s="40"/>
+      <c r="E79" s="44"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
@@ -10969,7 +10972,7 @@
       <c r="D80" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="40"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
@@ -10986,7 +10989,7 @@
       <c r="D81" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="40"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
@@ -11003,7 +11006,7 @@
       <c r="D82" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="40"/>
+      <c r="E82" s="44"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
@@ -11020,7 +11023,7 @@
       <c r="D83" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="40"/>
+      <c r="E83" s="44"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
@@ -11037,7 +11040,7 @@
       <c r="D84" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="40"/>
+      <c r="E84" s="44"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
@@ -11054,7 +11057,7 @@
       <c r="D85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="40"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
@@ -11071,7 +11074,7 @@
       <c r="D86" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="40"/>
+      <c r="E86" s="44"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
@@ -11088,7 +11091,7 @@
       <c r="D87" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="40"/>
+      <c r="E87" s="44"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
@@ -11105,7 +11108,7 @@
       <c r="D88" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="41"/>
+      <c r="E88" s="45"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
@@ -11122,7 +11125,7 @@
       <c r="D89" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="44" t="s">
+      <c r="E89" s="48" t="s">
         <v>383</v>
       </c>
       <c r="F89" s="9"/>
@@ -11141,7 +11144,7 @@
       <c r="D90" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="47"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
@@ -11158,7 +11161,7 @@
       <c r="D91" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="39" t="s">
+      <c r="E91" s="43" t="s">
         <v>384</v>
       </c>
       <c r="F91" s="9"/>
@@ -11177,7 +11180,7 @@
       <c r="D92" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E92" s="40"/>
+      <c r="E92" s="44"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
@@ -11194,7 +11197,7 @@
       <c r="D93" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E93" s="40"/>
+      <c r="E93" s="44"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
@@ -11211,7 +11214,7 @@
       <c r="D94" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E94" s="40"/>
+      <c r="E94" s="44"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
@@ -11228,7 +11231,7 @@
       <c r="D95" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="40"/>
+      <c r="E95" s="44"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
@@ -11245,7 +11248,7 @@
       <c r="D96" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="40"/>
+      <c r="E96" s="44"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
@@ -11262,7 +11265,7 @@
       <c r="D97" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="40"/>
+      <c r="E97" s="44"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
@@ -11279,7 +11282,7 @@
       <c r="D98" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E98" s="40"/>
+      <c r="E98" s="44"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
@@ -11296,7 +11299,7 @@
       <c r="D99" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="40"/>
+      <c r="E99" s="44"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
@@ -11313,7 +11316,7 @@
       <c r="D100" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="40"/>
+      <c r="E100" s="44"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
@@ -11330,7 +11333,7 @@
       <c r="D101" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="40"/>
+      <c r="E101" s="44"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
@@ -11347,7 +11350,7 @@
       <c r="D102" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="40"/>
+      <c r="E102" s="44"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
@@ -11364,7 +11367,7 @@
       <c r="D103" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E103" s="40"/>
+      <c r="E103" s="44"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
@@ -11381,7 +11384,7 @@
       <c r="D104" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E104" s="41"/>
+      <c r="E104" s="45"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
@@ -11398,7 +11401,7 @@
       <c r="D105" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="39" t="s">
+      <c r="E105" s="43" t="s">
         <v>385</v>
       </c>
       <c r="F105" s="9"/>
@@ -11417,7 +11420,7 @@
       <c r="D106" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="40"/>
+      <c r="E106" s="44"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
@@ -11434,7 +11437,7 @@
       <c r="D107" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E107" s="40"/>
+      <c r="E107" s="44"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
@@ -11451,7 +11454,7 @@
       <c r="D108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E108" s="40"/>
+      <c r="E108" s="44"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
@@ -11468,7 +11471,7 @@
       <c r="D109" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="40"/>
+      <c r="E109" s="44"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
@@ -11485,7 +11488,7 @@
       <c r="D110" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="40"/>
+      <c r="E110" s="44"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
@@ -11502,7 +11505,7 @@
       <c r="D111" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E111" s="40"/>
+      <c r="E111" s="44"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
@@ -11519,7 +11522,7 @@
       <c r="D112" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="41"/>
+      <c r="E112" s="45"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
@@ -11795,7 +11798,7 @@
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="42" t="s">
+      <c r="D141" s="46" t="s">
         <v>424</v>
       </c>
       <c r="F141" s="9"/>
@@ -11811,7 +11814,7 @@
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="42"/>
+      <c r="D142" s="46"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
@@ -11825,7 +11828,7 @@
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="42"/>
+      <c r="D143" s="46"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
@@ -11839,7 +11842,7 @@
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="42"/>
+      <c r="D144" s="46"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
@@ -11853,7 +11856,7 @@
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="42" t="s">
+      <c r="D145" s="46" t="s">
         <v>425</v>
       </c>
       <c r="F145" s="9"/>
@@ -11869,7 +11872,7 @@
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="42"/>
+      <c r="D146" s="46"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
@@ -11883,7 +11886,7 @@
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="42"/>
+      <c r="D147" s="46"/>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
@@ -11897,7 +11900,7 @@
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="42"/>
+      <c r="D148" s="46"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
@@ -11911,7 +11914,7 @@
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="42" t="s">
+      <c r="D149" s="46" t="s">
         <v>426</v>
       </c>
       <c r="F149" s="9"/>
@@ -11927,7 +11930,7 @@
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="42"/>
+      <c r="D150" s="46"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
@@ -11941,7 +11944,7 @@
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="42"/>
+      <c r="D151" s="46"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
@@ -11955,7 +11958,7 @@
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="42"/>
+      <c r="D152" s="46"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
@@ -11969,7 +11972,7 @@
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="42"/>
+      <c r="D153" s="46"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
@@ -11983,7 +11986,7 @@
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="42"/>
+      <c r="D154" s="46"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
@@ -11997,7 +12000,7 @@
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="42"/>
+      <c r="D155" s="46"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
@@ -12011,7 +12014,7 @@
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="42"/>
+      <c r="D156" s="46"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
@@ -12025,7 +12028,7 @@
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="42" t="s">
+      <c r="D157" s="46" t="s">
         <v>427</v>
       </c>
       <c r="F157" s="9"/>
@@ -12041,7 +12044,7 @@
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="42"/>
+      <c r="D158" s="46"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
@@ -12055,7 +12058,7 @@
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="42"/>
+      <c r="D159" s="46"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
@@ -12069,7 +12072,7 @@
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="42"/>
+      <c r="D160" s="46"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
@@ -12083,7 +12086,7 @@
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="42" t="s">
+      <c r="D161" s="46" t="s">
         <v>428</v>
       </c>
       <c r="F161" s="9"/>
@@ -12099,7 +12102,7 @@
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="42"/>
+      <c r="D162" s="46"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
@@ -12113,7 +12116,10 @@
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="42"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="7" t="s">
+        <v>863</v>
+      </c>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
@@ -12127,7 +12133,7 @@
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="42"/>
+      <c r="D164" s="46"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
@@ -12141,7 +12147,7 @@
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="42" t="s">
+      <c r="D165" s="46" t="s">
         <v>562</v>
       </c>
       <c r="F165" s="9"/>
@@ -12157,7 +12163,7 @@
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="42"/>
+      <c r="D166" s="46"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
@@ -12171,7 +12177,7 @@
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="42"/>
+      <c r="D167" s="46"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
@@ -12185,7 +12191,7 @@
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="42"/>
+      <c r="D168" s="46"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
@@ -12199,7 +12205,7 @@
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="42"/>
+      <c r="D169" s="46"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
@@ -12213,7 +12219,7 @@
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="42"/>
+      <c r="D170" s="46"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
@@ -12227,7 +12233,7 @@
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="42"/>
+      <c r="D171" s="46"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
@@ -12241,7 +12247,7 @@
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="42"/>
+      <c r="D172" s="46"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
@@ -12255,7 +12261,7 @@
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="42" t="s">
+      <c r="D173" s="46" t="s">
         <v>571</v>
       </c>
       <c r="F173" s="9"/>
@@ -12271,7 +12277,7 @@
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="42"/>
+      <c r="D174" s="46"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
@@ -12285,7 +12291,7 @@
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="42"/>
+      <c r="D175" s="46"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
@@ -12299,7 +12305,7 @@
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="42"/>
+      <c r="D176" s="46"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
@@ -12313,10 +12319,10 @@
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="42" t="s">
+      <c r="D177" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="E177" s="44" t="s">
+      <c r="E177" s="48" t="s">
         <v>429</v>
       </c>
       <c r="F177" s="9"/>
@@ -12332,8 +12338,8 @@
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="43"/>
-      <c r="E178" s="45"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="49"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
@@ -12347,8 +12353,8 @@
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="43"/>
-      <c r="E179" s="45"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="49"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
@@ -12362,8 +12368,8 @@
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="43"/>
-      <c r="E180" s="45"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="49"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
@@ -12377,8 +12383,8 @@
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="43"/>
-      <c r="E181" s="45"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="49"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
@@ -12392,8 +12398,8 @@
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="43"/>
-      <c r="E182" s="45"/>
+      <c r="D182" s="47"/>
+      <c r="E182" s="49"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
@@ -12407,8 +12413,8 @@
       <c r="C183" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="43"/>
-      <c r="E183" s="45"/>
+      <c r="D183" s="47"/>
+      <c r="E183" s="49"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
@@ -12422,7 +12428,7 @@
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="46" t="s">
+      <c r="D184" s="50" t="s">
         <v>588</v>
       </c>
       <c r="F184" s="9"/>
@@ -12438,7 +12444,7 @@
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="46"/>
+      <c r="D185" s="50"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
@@ -12452,7 +12458,7 @@
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="46"/>
+      <c r="D186" s="50"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
@@ -12466,7 +12472,7 @@
       <c r="C187" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="46"/>
+      <c r="D187" s="50"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
@@ -12933,19 +12939,19 @@
       <c r="G231" s="9"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="48">
+      <c r="A232" s="39">
         <v>231</v>
       </c>
-      <c r="B232" s="49" t="s">
+      <c r="B232" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="C232" s="50" t="s">
+      <c r="C232" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="D232" s="49" t="s">
+      <c r="D232" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="E232" s="51" t="s">
+      <c r="E232" s="42" t="s">
         <v>862</v>
       </c>
       <c r="F232" s="9"/>
@@ -13131,12 +13137,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13152,6 +13152,12 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="12825" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="14520" windowHeight="12828" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KNX_1 (192.168.1.51)" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="865">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -5069,12 +5069,15 @@
   </si>
   <si>
     <t>obw_153</t>
+  </si>
+  <si>
+    <t>pętla 15 (oranzeria)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5133,7 +5136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5155,6 +5158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5224,7 +5233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5357,6 +5366,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -5418,7 +5430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5453,7 +5465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5668,18 +5680,18 @@
       <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="17" style="13" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="10"/>
+    <col min="7" max="8" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5701,7 +5713,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5720,7 +5732,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5735,7 +5747,7 @@
       </c>
       <c r="E3" s="44"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5750,7 +5762,7 @@
       </c>
       <c r="E4" s="44"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5765,7 +5777,7 @@
       </c>
       <c r="E5" s="44"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5780,7 +5792,7 @@
       </c>
       <c r="E6" s="44"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5795,7 +5807,7 @@
       </c>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5810,7 +5822,7 @@
       </c>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5825,7 +5837,7 @@
       </c>
       <c r="E9" s="44"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5840,7 +5852,7 @@
       </c>
       <c r="E10" s="44"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5855,7 +5867,7 @@
       </c>
       <c r="E11" s="44"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5870,7 +5882,7 @@
       </c>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5885,7 +5897,7 @@
       </c>
       <c r="E13" s="44"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5900,7 +5912,7 @@
       </c>
       <c r="E14" s="44"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5915,7 +5927,7 @@
       </c>
       <c r="E15" s="45"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5932,7 +5944,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -5949,7 +5961,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5966,7 +5978,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -5981,7 +5993,7 @@
       </c>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -5996,7 +6008,7 @@
       </c>
       <c r="E20" s="44"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -6011,7 +6023,7 @@
       </c>
       <c r="E21" s="44"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -6026,7 +6038,7 @@
       </c>
       <c r="E22" s="44"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -6041,7 +6053,7 @@
       </c>
       <c r="E23" s="44"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -6056,7 +6068,7 @@
       </c>
       <c r="E24" s="44"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -6071,7 +6083,7 @@
       </c>
       <c r="E25" s="45"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -6088,7 +6100,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -6103,7 +6115,7 @@
       </c>
       <c r="E27" s="44"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -6118,7 +6130,7 @@
       </c>
       <c r="E28" s="44"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -6133,7 +6145,7 @@
       </c>
       <c r="E29" s="44"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -6148,7 +6160,7 @@
       </c>
       <c r="E30" s="44"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -6163,7 +6175,7 @@
       </c>
       <c r="E31" s="44"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -6178,7 +6190,7 @@
       </c>
       <c r="E32" s="44"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -6193,7 +6205,7 @@
       </c>
       <c r="E33" s="44"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -6208,7 +6220,7 @@
       </c>
       <c r="E34" s="44"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -6223,7 +6235,7 @@
       </c>
       <c r="E35" s="44"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -6238,7 +6250,7 @@
       </c>
       <c r="E36" s="44"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -6253,7 +6265,7 @@
       </c>
       <c r="E37" s="44"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -6268,7 +6280,7 @@
       </c>
       <c r="E38" s="44"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -6283,7 +6295,7 @@
       </c>
       <c r="E39" s="45"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -6300,7 +6312,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -6315,7 +6327,7 @@
       </c>
       <c r="E41" s="44"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -6330,7 +6342,7 @@
       </c>
       <c r="E42" s="44"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -6345,7 +6357,7 @@
       </c>
       <c r="E43" s="44"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -6360,7 +6372,7 @@
       </c>
       <c r="E44" s="44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6375,7 +6387,7 @@
       </c>
       <c r="E45" s="44"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6390,7 +6402,7 @@
       </c>
       <c r="E46" s="44"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6405,7 +6417,7 @@
       </c>
       <c r="E47" s="44"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6420,7 +6432,7 @@
       </c>
       <c r="E48" s="44"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6435,7 +6447,7 @@
       </c>
       <c r="E49" s="44"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6450,7 +6462,7 @@
       </c>
       <c r="E50" s="44"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6465,7 +6477,7 @@
       </c>
       <c r="E51" s="44"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6480,7 +6492,7 @@
       </c>
       <c r="E52" s="44"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6495,7 +6507,7 @@
       </c>
       <c r="E53" s="45"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6512,7 +6524,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6527,7 +6539,7 @@
       </c>
       <c r="E55" s="44"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -6542,7 +6554,7 @@
       </c>
       <c r="E56" s="44"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -6557,7 +6569,7 @@
       </c>
       <c r="E57" s="44"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -6572,7 +6584,7 @@
       </c>
       <c r="E58" s="44"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -6587,7 +6599,7 @@
       </c>
       <c r="E59" s="44"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -6602,7 +6614,7 @@
       </c>
       <c r="E60" s="44"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -6617,7 +6629,7 @@
       </c>
       <c r="E61" s="45"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -6634,7 +6646,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -6649,7 +6661,7 @@
       </c>
       <c r="E63" s="44"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -6664,7 +6676,7 @@
       </c>
       <c r="E64" s="44"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -6679,7 +6691,7 @@
       </c>
       <c r="E65" s="44"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -6694,7 +6706,7 @@
       </c>
       <c r="E66" s="44"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -6709,7 +6721,7 @@
       </c>
       <c r="E67" s="44"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -6724,7 +6736,7 @@
       </c>
       <c r="E68" s="44"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -6739,7 +6751,7 @@
       </c>
       <c r="E69" s="45"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -6756,7 +6768,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -6771,7 +6783,7 @@
       </c>
       <c r="E71" s="44"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -6786,7 +6798,7 @@
       </c>
       <c r="E72" s="44"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -6801,7 +6813,7 @@
       </c>
       <c r="E73" s="44"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -6816,7 +6828,7 @@
       </c>
       <c r="E74" s="44"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -6831,7 +6843,7 @@
       </c>
       <c r="E75" s="44"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -6846,7 +6858,7 @@
       </c>
       <c r="E76" s="44"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -6861,7 +6873,7 @@
       </c>
       <c r="E77" s="45"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -6878,7 +6890,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -6896,7 +6908,7 @@
       </c>
       <c r="F79" s="30"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>79</v>
       </c>
@@ -6912,7 +6924,7 @@
       <c r="E80" s="44"/>
       <c r="F80" s="30"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -6928,7 +6940,7 @@
       <c r="E81" s="44"/>
       <c r="F81" s="30"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -6943,7 +6955,7 @@
       </c>
       <c r="E82" s="44"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -6959,7 +6971,7 @@
       <c r="E83" s="44"/>
       <c r="F83" s="30"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -6975,7 +6987,7 @@
       <c r="E84" s="44"/>
       <c r="F84" s="30"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -6991,7 +7003,7 @@
       <c r="E85" s="44"/>
       <c r="F85" s="30"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -7007,7 +7019,7 @@
       <c r="E86" s="45"/>
       <c r="F86" s="30"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -7024,7 +7036,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -7039,7 +7051,7 @@
       </c>
       <c r="E88" s="45"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -7056,7 +7068,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -7071,7 +7083,7 @@
       </c>
       <c r="E90" s="44"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -7086,7 +7098,7 @@
       </c>
       <c r="E91" s="44"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -7101,7 +7113,7 @@
       </c>
       <c r="E92" s="44"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -7116,7 +7128,7 @@
       </c>
       <c r="E93" s="44"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -7131,7 +7143,7 @@
       </c>
       <c r="E94" s="44"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -7146,7 +7158,7 @@
       </c>
       <c r="E95" s="44"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -7161,7 +7173,7 @@
       </c>
       <c r="E96" s="44"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -7176,7 +7188,7 @@
       </c>
       <c r="E97" s="44"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>97</v>
       </c>
@@ -7191,7 +7203,7 @@
       </c>
       <c r="E98" s="44"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>98</v>
       </c>
@@ -7206,7 +7218,7 @@
       </c>
       <c r="E99" s="44"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>99</v>
       </c>
@@ -7221,7 +7233,7 @@
       </c>
       <c r="E100" s="44"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>100</v>
       </c>
@@ -7236,7 +7248,7 @@
       </c>
       <c r="E101" s="44"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>101</v>
       </c>
@@ -7251,7 +7263,7 @@
       </c>
       <c r="E102" s="45"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>102</v>
       </c>
@@ -7268,7 +7280,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>103</v>
       </c>
@@ -7283,7 +7295,7 @@
       </c>
       <c r="E104" s="44"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>104</v>
       </c>
@@ -7298,7 +7310,7 @@
       </c>
       <c r="E105" s="44"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>105</v>
       </c>
@@ -7313,7 +7325,7 @@
       </c>
       <c r="E106" s="44"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>106</v>
       </c>
@@ -7328,7 +7340,7 @@
       </c>
       <c r="E107" s="44"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>107</v>
       </c>
@@ -7343,7 +7355,7 @@
       </c>
       <c r="E108" s="44"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>108</v>
       </c>
@@ -7358,7 +7370,7 @@
       </c>
       <c r="E109" s="44"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>109</v>
       </c>
@@ -7373,7 +7385,7 @@
       </c>
       <c r="E110" s="45"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>110</v>
       </c>
@@ -7390,7 +7402,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>111</v>
       </c>
@@ -7405,7 +7417,7 @@
       </c>
       <c r="E112" s="44"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -7420,7 +7432,7 @@
       </c>
       <c r="E113" s="44"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>113</v>
       </c>
@@ -7435,7 +7447,7 @@
       </c>
       <c r="E114" s="44"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -7450,7 +7462,7 @@
       </c>
       <c r="E115" s="44"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>115</v>
       </c>
@@ -7465,7 +7477,7 @@
       </c>
       <c r="E116" s="44"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -7480,7 +7492,7 @@
       </c>
       <c r="E117" s="44"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>117</v>
       </c>
@@ -7495,7 +7507,7 @@
       </c>
       <c r="E118" s="44"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -7510,7 +7522,7 @@
       </c>
       <c r="E119" s="44"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>119</v>
       </c>
@@ -7525,7 +7537,7 @@
       </c>
       <c r="E120" s="44"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -7540,7 +7552,7 @@
       </c>
       <c r="E121" s="44"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>121</v>
       </c>
@@ -7555,7 +7567,7 @@
       </c>
       <c r="E122" s="44"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>122</v>
       </c>
@@ -7570,7 +7582,7 @@
       </c>
       <c r="E123" s="44"/>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>123</v>
       </c>
@@ -7585,7 +7597,7 @@
       </c>
       <c r="E124" s="45"/>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>124</v>
       </c>
@@ -7602,7 +7614,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>125</v>
       </c>
@@ -7617,7 +7629,7 @@
       </c>
       <c r="E126" s="44"/>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>126</v>
       </c>
@@ -7632,7 +7644,7 @@
       </c>
       <c r="E127" s="44"/>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>127</v>
       </c>
@@ -7647,7 +7659,7 @@
       </c>
       <c r="E128" s="44"/>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>128</v>
       </c>
@@ -7662,7 +7674,7 @@
       </c>
       <c r="E129" s="44"/>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>129</v>
       </c>
@@ -7677,7 +7689,7 @@
       </c>
       <c r="E130" s="44"/>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>130</v>
       </c>
@@ -7692,7 +7704,7 @@
       </c>
       <c r="E131" s="44"/>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>131</v>
       </c>
@@ -7707,7 +7719,7 @@
       </c>
       <c r="E132" s="44"/>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>132</v>
       </c>
@@ -7722,7 +7734,7 @@
       </c>
       <c r="E133" s="44"/>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>133</v>
       </c>
@@ -7737,7 +7749,7 @@
       </c>
       <c r="E134" s="44"/>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>134</v>
       </c>
@@ -7752,7 +7764,7 @@
       </c>
       <c r="E135" s="44"/>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>135</v>
       </c>
@@ -7767,7 +7779,7 @@
       </c>
       <c r="E136" s="44"/>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>136</v>
       </c>
@@ -7782,7 +7794,7 @@
       </c>
       <c r="E137" s="44"/>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>137</v>
       </c>
@@ -7797,7 +7809,7 @@
       </c>
       <c r="E138" s="45"/>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>138</v>
       </c>
@@ -7814,7 +7826,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>139</v>
       </c>
@@ -7829,7 +7841,7 @@
       </c>
       <c r="E140" s="44"/>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>140</v>
       </c>
@@ -7844,7 +7856,7 @@
       </c>
       <c r="E141" s="44"/>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>141</v>
       </c>
@@ -7859,7 +7871,7 @@
       </c>
       <c r="E142" s="44"/>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>142</v>
       </c>
@@ -7874,7 +7886,7 @@
       </c>
       <c r="E143" s="44"/>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>143</v>
       </c>
@@ -7889,7 +7901,7 @@
       </c>
       <c r="E144" s="44"/>
     </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>144</v>
       </c>
@@ -7904,7 +7916,7 @@
       </c>
       <c r="E145" s="44"/>
     </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>145</v>
       </c>
@@ -7919,7 +7931,7 @@
       </c>
       <c r="E146" s="45"/>
     </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>146</v>
       </c>
@@ -7937,7 +7949,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>147</v>
       </c>
@@ -7955,7 +7967,7 @@
       </c>
       <c r="F148" s="30"/>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>148</v>
       </c>
@@ -7971,7 +7983,7 @@
       <c r="E149" s="44"/>
       <c r="F149" s="30"/>
     </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>149</v>
       </c>
@@ -7987,7 +7999,7 @@
       <c r="E150" s="44"/>
       <c r="F150" s="30"/>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>150</v>
       </c>
@@ -8003,7 +8015,7 @@
       <c r="E151" s="44"/>
       <c r="F151" s="30"/>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>151</v>
       </c>
@@ -8019,7 +8031,7 @@
       <c r="E152" s="44"/>
       <c r="F152" s="30"/>
     </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>152</v>
       </c>
@@ -8035,7 +8047,7 @@
       <c r="E153" s="44"/>
       <c r="F153" s="30"/>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>153</v>
       </c>
@@ -8051,7 +8063,7 @@
       <c r="E154" s="44"/>
       <c r="F154" s="30"/>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>154</v>
       </c>
@@ -8067,7 +8079,7 @@
       <c r="E155" s="45"/>
       <c r="F155" s="30"/>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>155</v>
       </c>
@@ -8084,7 +8096,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>156</v>
       </c>
@@ -8099,7 +8111,7 @@
       </c>
       <c r="E157" s="44"/>
     </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>157</v>
       </c>
@@ -8114,7 +8126,7 @@
       </c>
       <c r="E158" s="44"/>
     </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>158</v>
       </c>
@@ -8129,7 +8141,7 @@
       </c>
       <c r="E159" s="44"/>
     </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>159</v>
       </c>
@@ -8144,7 +8156,7 @@
       </c>
       <c r="E160" s="44"/>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>160</v>
       </c>
@@ -8159,7 +8171,7 @@
       </c>
       <c r="E161" s="44"/>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>161</v>
       </c>
@@ -8174,7 +8186,7 @@
       </c>
       <c r="E162" s="44"/>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>162</v>
       </c>
@@ -8189,7 +8201,7 @@
       </c>
       <c r="E163" s="44"/>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>163</v>
       </c>
@@ -8204,7 +8216,7 @@
       </c>
       <c r="E164" s="44"/>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>164</v>
       </c>
@@ -8219,7 +8231,7 @@
       </c>
       <c r="E165" s="44"/>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>165</v>
       </c>
@@ -8234,7 +8246,7 @@
       </c>
       <c r="E166" s="44"/>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>166</v>
       </c>
@@ -8249,7 +8261,7 @@
       </c>
       <c r="E167" s="44"/>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>167</v>
       </c>
@@ -8264,7 +8276,7 @@
       </c>
       <c r="E168" s="44"/>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>168</v>
       </c>
@@ -8279,7 +8291,7 @@
       </c>
       <c r="E169" s="45"/>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>169</v>
       </c>
@@ -8296,7 +8308,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>170</v>
       </c>
@@ -8311,7 +8323,7 @@
       </c>
       <c r="E171" s="44"/>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>171</v>
       </c>
@@ -8326,7 +8338,7 @@
       </c>
       <c r="E172" s="44"/>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>172</v>
       </c>
@@ -8341,7 +8353,7 @@
       </c>
       <c r="E173" s="44"/>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>173</v>
       </c>
@@ -8356,7 +8368,7 @@
       </c>
       <c r="E174" s="44"/>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>174</v>
       </c>
@@ -8371,7 +8383,7 @@
       </c>
       <c r="E175" s="45"/>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>175</v>
       </c>
@@ -8388,7 +8400,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>176</v>
       </c>
@@ -8403,7 +8415,7 @@
       </c>
       <c r="E177" s="44"/>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>177</v>
       </c>
@@ -8418,7 +8430,7 @@
       </c>
       <c r="E178" s="44"/>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>178</v>
       </c>
@@ -8433,7 +8445,7 @@
       </c>
       <c r="E179" s="44"/>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>179</v>
       </c>
@@ -8448,7 +8460,7 @@
       </c>
       <c r="E180" s="44"/>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>180</v>
       </c>
@@ -8463,7 +8475,7 @@
       </c>
       <c r="E181" s="44"/>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>181</v>
       </c>
@@ -8478,7 +8490,7 @@
       </c>
       <c r="E182" s="44"/>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>182</v>
       </c>
@@ -8493,7 +8505,7 @@
       </c>
       <c r="E183" s="45"/>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>183</v>
       </c>
@@ -8510,7 +8522,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>184</v>
       </c>
@@ -8525,7 +8537,7 @@
       </c>
       <c r="E185" s="44"/>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>185</v>
       </c>
@@ -8540,7 +8552,7 @@
       </c>
       <c r="E186" s="44"/>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>186</v>
       </c>
@@ -8555,7 +8567,7 @@
       </c>
       <c r="E187" s="45"/>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>187</v>
       </c>
@@ -8572,7 +8584,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="14">
         <v>188</v>
       </c>
@@ -8587,7 +8599,7 @@
       </c>
       <c r="E189" s="44"/>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="14">
         <v>189</v>
       </c>
@@ -8602,7 +8614,7 @@
       </c>
       <c r="E190" s="44"/>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="14">
         <v>190</v>
       </c>
@@ -8617,7 +8629,7 @@
       </c>
       <c r="E191" s="44"/>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="14">
         <v>191</v>
       </c>
@@ -8632,7 +8644,7 @@
       </c>
       <c r="E192" s="44"/>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="14">
         <v>192</v>
       </c>
@@ -8647,7 +8659,7 @@
       </c>
       <c r="E193" s="44"/>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="14">
         <v>193</v>
       </c>
@@ -8662,7 +8674,7 @@
       </c>
       <c r="E194" s="44"/>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="14">
         <v>194</v>
       </c>
@@ -8677,7 +8689,7 @@
       </c>
       <c r="E195" s="44"/>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="14">
         <v>195</v>
       </c>
@@ -8692,7 +8704,7 @@
       </c>
       <c r="E196" s="44"/>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="14">
         <v>196</v>
       </c>
@@ -8707,7 +8719,7 @@
       </c>
       <c r="E197" s="44"/>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="14">
         <v>197</v>
       </c>
@@ -8722,7 +8734,7 @@
       </c>
       <c r="E198" s="44"/>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14">
         <v>198</v>
       </c>
@@ -8737,7 +8749,7 @@
       </c>
       <c r="E199" s="44"/>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="14">
         <v>199</v>
       </c>
@@ -8752,7 +8764,7 @@
       </c>
       <c r="E200" s="44"/>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="14">
         <v>200</v>
       </c>
@@ -8767,7 +8779,7 @@
       </c>
       <c r="E201" s="45"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="14">
         <v>201</v>
       </c>
@@ -8784,7 +8796,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="14">
         <v>202</v>
       </c>
@@ -8801,7 +8813,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="14">
         <v>203</v>
       </c>
@@ -8816,7 +8828,7 @@
       </c>
       <c r="E204" s="44"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="14">
         <v>204</v>
       </c>
@@ -8831,7 +8843,7 @@
       </c>
       <c r="E205" s="44"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="14">
         <v>205</v>
       </c>
@@ -8846,7 +8858,7 @@
       </c>
       <c r="E206" s="44"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="14">
         <v>206</v>
       </c>
@@ -8861,7 +8873,7 @@
       </c>
       <c r="E207" s="44"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="14">
         <v>207</v>
       </c>
@@ -8876,7 +8888,7 @@
       </c>
       <c r="E208" s="44"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="14">
         <v>208</v>
       </c>
@@ -8893,7 +8905,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="14">
         <v>209</v>
       </c>
@@ -8910,7 +8922,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="14">
         <v>210</v>
       </c>
@@ -8927,7 +8939,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="14">
         <v>211</v>
       </c>
@@ -8942,7 +8954,7 @@
       </c>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="14">
         <v>212</v>
       </c>
@@ -8957,7 +8969,7 @@
       </c>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="14">
         <v>213</v>
       </c>
@@ -8972,7 +8984,7 @@
       </c>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="14">
         <v>214</v>
       </c>
@@ -8987,7 +8999,7 @@
       </c>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="14">
         <v>215</v>
       </c>
@@ -9002,7 +9014,7 @@
       </c>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="14">
         <v>216</v>
       </c>
@@ -9017,7 +9029,7 @@
       </c>
       <c r="E217" s="12"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="14">
         <v>217</v>
       </c>
@@ -9032,7 +9044,7 @@
       </c>
       <c r="E218" s="12"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="14">
         <v>218</v>
       </c>
@@ -9047,7 +9059,7 @@
       </c>
       <c r="E219" s="12"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="14">
         <v>219</v>
       </c>
@@ -9062,7 +9074,7 @@
       </c>
       <c r="E220" s="36"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="14">
         <v>220</v>
       </c>
@@ -9077,7 +9089,7 @@
       </c>
       <c r="E221" s="12"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="14">
         <v>221</v>
       </c>
@@ -9092,7 +9104,7 @@
       </c>
       <c r="E222" s="12"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="14">
         <v>222</v>
       </c>
@@ -9107,7 +9119,7 @@
       </c>
       <c r="E223" s="12"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="14">
         <v>223</v>
       </c>
@@ -9122,7 +9134,7 @@
       </c>
       <c r="E224" s="12"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="14">
         <v>224</v>
       </c>
@@ -9137,7 +9149,7 @@
       </c>
       <c r="E225" s="12"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="14">
         <v>225</v>
       </c>
@@ -9152,7 +9164,7 @@
       </c>
       <c r="E226" s="12"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="14">
         <v>226</v>
       </c>
@@ -9167,7 +9179,7 @@
       </c>
       <c r="E227" s="12"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="14">
         <v>227</v>
       </c>
@@ -9182,7 +9194,7 @@
       </c>
       <c r="E228" s="12"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="14">
         <v>228</v>
       </c>
@@ -9197,7 +9209,7 @@
       </c>
       <c r="E229" s="12"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="14">
         <v>229</v>
       </c>
@@ -9212,7 +9224,7 @@
       </c>
       <c r="E230" s="12"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="14">
         <v>230</v>
       </c>
@@ -9227,7 +9239,7 @@
       </c>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="14">
         <v>231</v>
       </c>
@@ -9242,7 +9254,7 @@
       </c>
       <c r="E232" s="37"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="14">
         <v>232</v>
       </c>
@@ -9257,7 +9269,7 @@
       </c>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="14">
         <v>233</v>
       </c>
@@ -9272,7 +9284,7 @@
       </c>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="14">
         <v>234</v>
       </c>
@@ -9285,7 +9297,7 @@
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="14">
         <v>235</v>
       </c>
@@ -9298,7 +9310,7 @@
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="14">
         <v>236</v>
       </c>
@@ -9315,7 +9327,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="14">
         <v>237</v>
       </c>
@@ -9330,7 +9342,7 @@
       </c>
       <c r="E238" s="44"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="14">
         <v>238</v>
       </c>
@@ -9345,7 +9357,7 @@
       </c>
       <c r="E239" s="44"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="14">
         <v>239</v>
       </c>
@@ -9360,7 +9372,7 @@
       </c>
       <c r="E240" s="44"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="14">
         <v>240</v>
       </c>
@@ -9375,7 +9387,7 @@
       </c>
       <c r="E241" s="44"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="14">
         <v>241</v>
       </c>
@@ -9390,7 +9402,7 @@
       </c>
       <c r="E242" s="44"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="14">
         <v>242</v>
       </c>
@@ -9405,7 +9417,7 @@
       </c>
       <c r="E243" s="44"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="14">
         <v>243</v>
       </c>
@@ -9420,7 +9432,7 @@
       </c>
       <c r="E244" s="45"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="14">
         <v>244</v>
       </c>
@@ -9437,7 +9449,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="14">
         <v>245</v>
       </c>
@@ -9450,7 +9462,7 @@
       <c r="D246" s="12"/>
       <c r="E246" s="38"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="14">
         <v>246</v>
       </c>
@@ -9463,7 +9475,7 @@
       <c r="D247" s="12"/>
       <c r="E247" s="38"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="14">
         <v>247</v>
       </c>
@@ -9472,7 +9484,7 @@
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="14">
         <v>248</v>
       </c>
@@ -9481,7 +9493,7 @@
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="14">
         <v>249</v>
       </c>
@@ -9489,7 +9501,7 @@
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="14">
         <v>250</v>
       </c>
@@ -9497,7 +9509,7 @@
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
     </row>
-    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="14">
         <v>251</v>
       </c>
@@ -9509,31 +9521,31 @@
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="14">
         <v>252</v>
       </c>
       <c r="C253" s="28"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="14">
         <v>253</v>
       </c>
       <c r="C254" s="28"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="14">
         <v>254</v>
       </c>
       <c r="C255" s="28"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="14">
         <v>255</v>
       </c>
       <c r="C256" s="28"/>
     </row>
-    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="24"/>
       <c r="C257" s="25"/>
@@ -9545,12 +9557,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9562,11 +9573,12 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9578,23 +9590,23 @@
   <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -9611,7 +9623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9630,7 +9642,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9647,7 +9659,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9664,7 +9676,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9681,7 +9693,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -9698,7 +9710,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -9715,7 +9727,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9732,7 +9744,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9749,7 +9761,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9766,7 +9778,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -9783,7 +9795,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -9800,7 +9812,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -9817,7 +9829,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -9834,7 +9846,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -9851,7 +9863,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -9870,7 +9882,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -9887,7 +9899,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -9904,7 +9916,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -9921,7 +9933,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -9938,7 +9950,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -9955,7 +9967,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -9972,7 +9984,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -9989,7 +10001,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -10008,7 +10020,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -10025,7 +10037,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -10042,7 +10054,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -10059,7 +10071,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -10076,7 +10088,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -10093,7 +10105,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -10110,7 +10122,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -10127,7 +10139,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -10146,7 +10158,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -10165,7 +10177,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -10184,7 +10196,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -10201,7 +10213,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -10218,7 +10230,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -10235,7 +10247,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -10252,7 +10264,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -10269,7 +10281,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -10286,7 +10298,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -10303,7 +10315,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -10320,7 +10332,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -10337,7 +10349,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -10354,7 +10366,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -10371,7 +10383,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -10388,7 +10400,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -10405,7 +10417,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -10424,7 +10436,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -10441,7 +10453,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -10458,7 +10470,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -10475,7 +10487,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -10492,7 +10504,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -10509,7 +10521,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -10526,7 +10538,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -10543,7 +10555,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -10562,7 +10574,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -10579,7 +10591,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -10596,7 +10608,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -10613,7 +10625,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -10630,7 +10642,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -10647,7 +10659,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10664,7 +10676,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10681,7 +10693,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10698,7 +10710,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10715,7 +10727,7 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10732,7 +10744,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10749,7 +10761,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10766,7 +10778,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10783,7 +10795,7 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10800,7 +10812,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10817,7 +10829,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10836,7 +10848,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10855,7 +10867,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10872,7 +10884,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10891,7 +10903,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10908,7 +10920,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10925,7 +10937,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10942,7 +10954,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10959,7 +10971,7 @@
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10976,7 +10988,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -10993,7 +11005,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -11010,7 +11022,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -11027,7 +11039,7 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -11044,7 +11056,7 @@
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -11061,7 +11073,7 @@
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -11078,7 +11090,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -11095,7 +11107,7 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -11112,7 +11124,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -11131,7 +11143,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -11148,7 +11160,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -11167,7 +11179,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -11184,7 +11196,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -11201,7 +11213,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -11218,7 +11230,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -11235,7 +11247,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -11252,7 +11264,7 @@
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -11269,7 +11281,7 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -11286,7 +11298,7 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -11303,7 +11315,7 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -11320,7 +11332,7 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -11337,7 +11349,7 @@
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -11354,7 +11366,7 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -11371,7 +11383,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -11388,7 +11400,7 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -11407,7 +11419,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -11424,7 +11436,7 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -11441,7 +11453,7 @@
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -11458,7 +11470,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -11475,7 +11487,7 @@
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -11492,7 +11504,7 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -11509,7 +11521,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -11526,7 +11538,7 @@
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -11546,7 +11558,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -11565,7 +11577,7 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -11585,7 +11597,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -11594,7 +11606,7 @@
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -11606,7 +11618,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -11615,7 +11627,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -11627,7 +11639,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -11636,7 +11648,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -11648,7 +11660,7 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -11657,7 +11669,7 @@
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>122</v>
       </c>
@@ -11669,126 +11681,126 @@
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -11804,7 +11816,7 @@
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -11818,7 +11830,7 @@
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -11832,7 +11844,7 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -11846,7 +11858,7 @@
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -11862,7 +11874,7 @@
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -11876,21 +11888,24 @@
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="52" t="s">
         <v>544</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D147" s="46"/>
+      <c r="E147" s="7" t="s">
+        <v>864</v>
+      </c>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -11904,7 +11919,7 @@
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -11920,7 +11935,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -11934,7 +11949,7 @@
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -11948,7 +11963,7 @@
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -11962,7 +11977,7 @@
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -11976,7 +11991,7 @@
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -11990,7 +12005,7 @@
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -12004,7 +12019,7 @@
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -12018,7 +12033,7 @@
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -12034,7 +12049,7 @@
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -12048,7 +12063,7 @@
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -12062,7 +12077,7 @@
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -12076,7 +12091,7 @@
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -12092,7 +12107,7 @@
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -12106,7 +12121,7 @@
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -12123,7 +12138,7 @@
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -12137,7 +12152,7 @@
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -12153,7 +12168,7 @@
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -12167,7 +12182,7 @@
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -12181,7 +12196,7 @@
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -12195,7 +12210,7 @@
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -12209,7 +12224,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -12223,7 +12238,7 @@
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -12237,7 +12252,7 @@
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -12251,7 +12266,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -12267,7 +12282,7 @@
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -12281,7 +12296,7 @@
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -12295,7 +12310,7 @@
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -12309,7 +12324,7 @@
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -12328,7 +12343,7 @@
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -12343,7 +12358,7 @@
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -12358,7 +12373,7 @@
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -12373,7 +12388,7 @@
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -12388,7 +12403,7 @@
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -12403,7 +12418,7 @@
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -12418,7 +12433,7 @@
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -12434,7 +12449,7 @@
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -12448,7 +12463,7 @@
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -12462,7 +12477,7 @@
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -12476,7 +12491,7 @@
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -12485,7 +12500,7 @@
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -12494,7 +12509,7 @@
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -12503,7 +12518,7 @@
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -12512,7 +12527,7 @@
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -12521,7 +12536,7 @@
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -12530,7 +12545,7 @@
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -12539,126 +12554,126 @@
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>194</v>
       </c>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>195</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>196</v>
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>197</v>
       </c>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>198</v>
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>199</v>
       </c>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>200</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>201</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>202</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>203</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>204</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>205</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>206</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>207</v>
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>208</v>
       </c>
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>209</v>
       </c>
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>210</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -12674,7 +12689,7 @@
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -12690,7 +12705,7 @@
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -12706,7 +12721,7 @@
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -12722,7 +12737,7 @@
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -12738,7 +12753,7 @@
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -12754,7 +12769,7 @@
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -12770,7 +12785,7 @@
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -12786,7 +12801,7 @@
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -12802,7 +12817,7 @@
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -12818,7 +12833,7 @@
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -12834,7 +12849,7 @@
       <c r="F222" s="9"/>
       <c r="G222" s="9"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -12848,7 +12863,7 @@
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -12862,7 +12877,7 @@
       <c r="F224" s="9"/>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -12872,7 +12887,7 @@
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -12882,28 +12897,28 @@
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>226</v>
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>227</v>
       </c>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>228</v>
       </c>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -12919,7 +12934,7 @@
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -12938,7 +12953,7 @@
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="39">
         <v>231</v>
       </c>
@@ -12957,175 +12972,175 @@
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>232</v>
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>233</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>234</v>
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>235</v>
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>236</v>
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>237</v>
       </c>
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>238</v>
       </c>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>239</v>
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="9"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>240</v>
       </c>
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>241</v>
       </c>
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>242</v>
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>243</v>
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>244</v>
       </c>
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>245</v>
       </c>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>246</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="9"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>247</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>248</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="9"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>249</v>
       </c>
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>250</v>
       </c>
       <c r="F251" s="9"/>
       <c r="G251" s="9"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>251</v>
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>252</v>
       </c>
       <c r="F253" s="9"/>
       <c r="G253" s="9"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>253</v>
       </c>
       <c r="F254" s="9"/>
       <c r="G254" s="9"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>254</v>
       </c>
       <c r="F255" s="9"/>
       <c r="G255" s="9"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>255</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
     </row>
-    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="24"/>
       <c r="C257" s="25"/>
@@ -13137,6 +13152,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13152,12 +13173,6 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019EFE88-C54F-419E-AB21-3FA024634487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="14520" windowHeight="12828" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KNX_1 (192.168.1.51)" sheetId="3" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="870">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -5072,12 +5073,27 @@
   </si>
   <si>
     <t>pętla 15 (oranzeria)</t>
+  </si>
+  <si>
+    <t>P33 Klawisz 1</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>P33(1+T)</t>
+  </si>
+  <si>
+    <t>P33 Temp_Act</t>
+  </si>
+  <si>
+    <t>temperatura w garażu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5136,7 +5152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5152,12 +5168,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5233,7 +5243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5327,16 +5337,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5366,13 +5367,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5463,6 +5470,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5498,6 +5522,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -5673,25 +5714,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="17" style="13" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="13" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="10"/>
+    <col min="7" max="8" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5713,7 +5754,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5726,13 +5767,13 @@
       <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5745,9 +5786,9 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5760,9 +5801,9 @@
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5775,9 +5816,9 @@
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5790,9 +5831,9 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5805,9 +5846,9 @@
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="41"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5820,9 +5861,9 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5835,9 +5876,9 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5850,9 +5891,9 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5865,9 +5906,9 @@
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="44"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5880,9 +5921,9 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="44"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5895,9 +5936,9 @@
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5910,9 +5951,9 @@
       <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5925,9 +5966,9 @@
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="45"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5944,7 +5985,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -5961,7 +6002,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5974,11 +6015,11 @@
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="40" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -5991,9 +6032,9 @@
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="44"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -6006,9 +6047,9 @@
       <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="44"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -6021,9 +6062,9 @@
       <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="44"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -6036,9 +6077,9 @@
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -6051,9 +6092,9 @@
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="44"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -6066,9 +6107,9 @@
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="44"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -6081,9 +6122,9 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="45"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -6096,11 +6137,11 @@
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="40" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -6113,9 +6154,9 @@
       <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="44"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -6128,9 +6169,9 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="44"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -6143,9 +6184,9 @@
       <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="44"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -6158,9 +6199,9 @@
       <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="44"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -6173,9 +6214,9 @@
       <c r="D31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="44"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="41"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -6188,9 +6229,9 @@
       <c r="D32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="44"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -6203,9 +6244,9 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="44"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -6218,9 +6259,9 @@
       <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="44"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -6233,9 +6274,9 @@
       <c r="D35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="44"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -6248,9 +6289,9 @@
       <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="44"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -6263,9 +6304,9 @@
       <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="44"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -6278,9 +6319,9 @@
       <c r="D38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="44"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="41"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -6293,9 +6334,9 @@
       <c r="D39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="45"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -6308,11 +6349,11 @@
       <c r="D40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="40" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -6325,9 +6366,9 @@
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="44"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -6340,9 +6381,9 @@
       <c r="D42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="44"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="41"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -6355,9 +6396,9 @@
       <c r="D43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="44"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -6370,9 +6411,9 @@
       <c r="D44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="44"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="41"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6385,9 +6426,9 @@
       <c r="D45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="44"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6400,9 +6441,9 @@
       <c r="D46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="44"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="41"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6415,9 +6456,9 @@
       <c r="D47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="44"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6430,9 +6471,9 @@
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="44"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6445,9 +6486,9 @@
       <c r="D49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="44"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="41"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6460,9 +6501,9 @@
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="44"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="41"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6475,9 +6516,9 @@
       <c r="D51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="44"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="41"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6490,9 +6531,9 @@
       <c r="D52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="44"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="41"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6505,9 +6546,9 @@
       <c r="D53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="45"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6520,11 +6561,11 @@
       <c r="D54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="40" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6537,9 +6578,9 @@
       <c r="D55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="44"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="41"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -6552,9 +6593,9 @@
       <c r="D56" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="44"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="41"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -6567,9 +6608,9 @@
       <c r="D57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="44"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="41"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -6582,9 +6623,9 @@
       <c r="D58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="44"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="41"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -6597,9 +6638,9 @@
       <c r="D59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="44"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="41"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -6612,9 +6653,9 @@
       <c r="D60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="44"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="41"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -6627,9 +6668,9 @@
       <c r="D61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="45"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="42"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -6642,11 +6683,11 @@
       <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="43" t="s">
+      <c r="E62" s="40" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -6659,9 +6700,9 @@
       <c r="D63" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="44"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="41"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -6674,9 +6715,9 @@
       <c r="D64" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="44"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="41"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -6689,9 +6730,9 @@
       <c r="D65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="44"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="41"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -6704,9 +6745,9 @@
       <c r="D66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="44"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="41"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -6719,9 +6760,9 @@
       <c r="D67" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="44"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="41"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -6734,9 +6775,9 @@
       <c r="D68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="44"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="41"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -6749,9 +6790,9 @@
       <c r="D69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="45"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E69" s="42"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -6764,11 +6805,11 @@
       <c r="D70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="40" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -6781,9 +6822,9 @@
       <c r="D71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="44"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E71" s="41"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -6796,9 +6837,9 @@
       <c r="D72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="44"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E72" s="41"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -6811,9 +6852,9 @@
       <c r="D73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="44"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E73" s="41"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -6826,9 +6867,9 @@
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="44"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E74" s="41"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -6841,9 +6882,9 @@
       <c r="D75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="44"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E75" s="41"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -6856,9 +6897,9 @@
       <c r="D76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="44"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="41"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -6871,9 +6912,9 @@
       <c r="D77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="45"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E77" s="42"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -6890,7 +6931,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -6903,12 +6944,12 @@
       <c r="D79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="43" t="s">
+      <c r="E79" s="40" t="s">
         <v>408</v>
       </c>
       <c r="F79" s="30"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>79</v>
       </c>
@@ -6921,10 +6962,10 @@
       <c r="D80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="44"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="30"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -6937,10 +6978,10 @@
       <c r="D81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="44"/>
+      <c r="E81" s="41"/>
       <c r="F81" s="30"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -6953,9 +6994,9 @@
       <c r="D82" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="44"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E82" s="41"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -6968,10 +7009,10 @@
       <c r="D83" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="44"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="30"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -6984,10 +7025,10 @@
       <c r="D84" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="44"/>
+      <c r="E84" s="41"/>
       <c r="F84" s="30"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -7000,10 +7041,10 @@
       <c r="D85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E85" s="44"/>
+      <c r="E85" s="41"/>
       <c r="F85" s="30"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -7016,10 +7057,10 @@
       <c r="D86" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="45"/>
+      <c r="E86" s="42"/>
       <c r="F86" s="30"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -7032,11 +7073,11 @@
       <c r="D87" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="43" t="s">
+      <c r="E87" s="40" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -7049,9 +7090,9 @@
       <c r="D88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="45"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E88" s="42"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -7064,11 +7105,11 @@
       <c r="D89" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="43" t="s">
+      <c r="E89" s="40" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -7081,9 +7122,9 @@
       <c r="D90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="44"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E90" s="41"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -7096,9 +7137,9 @@
       <c r="D91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="44"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E91" s="41"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -7111,9 +7152,9 @@
       <c r="D92" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="44"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E92" s="41"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -7126,9 +7167,9 @@
       <c r="D93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E93" s="44"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E93" s="41"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -7141,9 +7182,9 @@
       <c r="D94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="44"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E94" s="41"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -7156,9 +7197,9 @@
       <c r="D95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="44"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E95" s="41"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -7171,9 +7212,9 @@
       <c r="D96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="44"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E96" s="41"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -7186,9 +7227,9 @@
       <c r="D97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E97" s="44"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="41"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>97</v>
       </c>
@@ -7201,9 +7242,9 @@
       <c r="D98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="44"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E98" s="41"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>98</v>
       </c>
@@ -7216,9 +7257,9 @@
       <c r="D99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="44"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E99" s="41"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>99</v>
       </c>
@@ -7231,9 +7272,9 @@
       <c r="D100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="44"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="41"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>100</v>
       </c>
@@ -7246,9 +7287,9 @@
       <c r="D101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="44"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E101" s="41"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>101</v>
       </c>
@@ -7261,9 +7302,9 @@
       <c r="D102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="45"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E102" s="42"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>102</v>
       </c>
@@ -7276,11 +7317,11 @@
       <c r="D103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="43" t="s">
+      <c r="E103" s="40" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>103</v>
       </c>
@@ -7293,9 +7334,9 @@
       <c r="D104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="44"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E104" s="41"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>104</v>
       </c>
@@ -7308,9 +7349,9 @@
       <c r="D105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="44"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E105" s="41"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>105</v>
       </c>
@@ -7323,9 +7364,9 @@
       <c r="D106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E106" s="44"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E106" s="41"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>106</v>
       </c>
@@ -7338,9 +7379,9 @@
       <c r="D107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="44"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E107" s="41"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>107</v>
       </c>
@@ -7353,9 +7394,9 @@
       <c r="D108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E108" s="44"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E108" s="41"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>108</v>
       </c>
@@ -7368,9 +7409,9 @@
       <c r="D109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="44"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E109" s="41"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>109</v>
       </c>
@@ -7383,9 +7424,9 @@
       <c r="D110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="45"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E110" s="42"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>110</v>
       </c>
@@ -7398,11 +7439,11 @@
       <c r="D111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="43" t="s">
+      <c r="E111" s="40" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>111</v>
       </c>
@@ -7415,9 +7456,9 @@
       <c r="D112" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E112" s="44"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E112" s="41"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -7430,9 +7471,9 @@
       <c r="D113" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="44"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E113" s="41"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>113</v>
       </c>
@@ -7445,9 +7486,9 @@
       <c r="D114" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="44"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="41"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -7460,9 +7501,9 @@
       <c r="D115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="44"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E115" s="41"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
         <v>115</v>
       </c>
@@ -7475,9 +7516,9 @@
       <c r="D116" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="44"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="41"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -7490,9 +7531,9 @@
       <c r="D117" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="44"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E117" s="41"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>117</v>
       </c>
@@ -7505,9 +7546,9 @@
       <c r="D118" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="44"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E118" s="41"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -7520,9 +7561,9 @@
       <c r="D119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="44"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="41"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
         <v>119</v>
       </c>
@@ -7535,9 +7576,9 @@
       <c r="D120" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E120" s="44"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E120" s="41"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -7550,9 +7591,9 @@
       <c r="D121" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="44"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E121" s="41"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
         <v>121</v>
       </c>
@@ -7565,9 +7606,9 @@
       <c r="D122" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E122" s="44"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E122" s="41"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>122</v>
       </c>
@@ -7580,9 +7621,9 @@
       <c r="D123" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E123" s="44"/>
-    </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="41"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
         <v>123</v>
       </c>
@@ -7595,9 +7636,9 @@
       <c r="D124" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="45"/>
-    </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="42"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>124</v>
       </c>
@@ -7610,11 +7651,11 @@
       <c r="D125" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="43" t="s">
+      <c r="E125" s="40" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14">
         <v>125</v>
       </c>
@@ -7627,9 +7668,9 @@
       <c r="D126" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="44"/>
-    </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="41"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
         <v>126</v>
       </c>
@@ -7642,9 +7683,9 @@
       <c r="D127" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="44"/>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E127" s="41"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
         <v>127</v>
       </c>
@@ -7657,9 +7698,9 @@
       <c r="D128" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E128" s="44"/>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E128" s="41"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>128</v>
       </c>
@@ -7672,9 +7713,9 @@
       <c r="D129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="44"/>
-    </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E129" s="41"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
         <v>129</v>
       </c>
@@ -7687,9 +7728,9 @@
       <c r="D130" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="44"/>
-    </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E130" s="41"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>130</v>
       </c>
@@ -7702,9 +7743,9 @@
       <c r="D131" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E131" s="44"/>
-    </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="41"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
         <v>131</v>
       </c>
@@ -7717,9 +7758,9 @@
       <c r="D132" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E132" s="44"/>
-    </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="41"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>132</v>
       </c>
@@ -7732,9 +7773,9 @@
       <c r="D133" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E133" s="44"/>
-    </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="41"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
         <v>133</v>
       </c>
@@ -7747,9 +7788,9 @@
       <c r="D134" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E134" s="44"/>
-    </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="41"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>134</v>
       </c>
@@ -7762,9 +7803,9 @@
       <c r="D135" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="44"/>
-    </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E135" s="41"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>135</v>
       </c>
@@ -7777,9 +7818,9 @@
       <c r="D136" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E136" s="44"/>
-    </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E136" s="41"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>136</v>
       </c>
@@ -7792,9 +7833,9 @@
       <c r="D137" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="44"/>
-    </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E137" s="41"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>137</v>
       </c>
@@ -7807,9 +7848,9 @@
       <c r="D138" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E138" s="45"/>
-    </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E138" s="42"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>138</v>
       </c>
@@ -7822,11 +7863,11 @@
       <c r="D139" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E139" s="43" t="s">
+      <c r="E139" s="40" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14">
         <v>139</v>
       </c>
@@ -7839,9 +7880,9 @@
       <c r="D140" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E140" s="44"/>
-    </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E140" s="41"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>140</v>
       </c>
@@ -7854,9 +7895,9 @@
       <c r="D141" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E141" s="44"/>
-    </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E141" s="41"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>141</v>
       </c>
@@ -7869,9 +7910,9 @@
       <c r="D142" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="44"/>
-    </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E142" s="41"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>142</v>
       </c>
@@ -7884,9 +7925,9 @@
       <c r="D143" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E143" s="44"/>
-    </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E143" s="41"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>143</v>
       </c>
@@ -7899,9 +7940,9 @@
       <c r="D144" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="44"/>
-    </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E144" s="41"/>
+    </row>
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>144</v>
       </c>
@@ -7914,9 +7955,9 @@
       <c r="D145" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E145" s="44"/>
-    </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="41"/>
+    </row>
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
         <v>145</v>
       </c>
@@ -7929,9 +7970,9 @@
       <c r="D146" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E146" s="45"/>
-    </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="42"/>
+    </row>
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>146</v>
       </c>
@@ -7949,7 +7990,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>147</v>
       </c>
@@ -7962,12 +8003,12 @@
       <c r="D148" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E148" s="43" t="s">
+      <c r="E148" s="40" t="s">
         <v>369</v>
       </c>
       <c r="F148" s="30"/>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>148</v>
       </c>
@@ -7980,10 +8021,10 @@
       <c r="D149" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E149" s="44"/>
+      <c r="E149" s="41"/>
       <c r="F149" s="30"/>
     </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>149</v>
       </c>
@@ -7996,10 +8037,10 @@
       <c r="D150" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="44"/>
+      <c r="E150" s="41"/>
       <c r="F150" s="30"/>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>150</v>
       </c>
@@ -8012,10 +8053,10 @@
       <c r="D151" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E151" s="44"/>
+      <c r="E151" s="41"/>
       <c r="F151" s="30"/>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>151</v>
       </c>
@@ -8028,10 +8069,10 @@
       <c r="D152" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E152" s="44"/>
+      <c r="E152" s="41"/>
       <c r="F152" s="30"/>
     </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>152</v>
       </c>
@@ -8044,10 +8085,10 @@
       <c r="D153" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E153" s="44"/>
+      <c r="E153" s="41"/>
       <c r="F153" s="30"/>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14">
         <v>153</v>
       </c>
@@ -8060,10 +8101,10 @@
       <c r="D154" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="44"/>
+      <c r="E154" s="41"/>
       <c r="F154" s="30"/>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
         <v>154</v>
       </c>
@@ -8076,10 +8117,10 @@
       <c r="D155" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="45"/>
+      <c r="E155" s="42"/>
       <c r="F155" s="30"/>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14">
         <v>155</v>
       </c>
@@ -8092,11 +8133,11 @@
       <c r="D156" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E156" s="43" t="s">
+      <c r="E156" s="40" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>156</v>
       </c>
@@ -8109,9 +8150,9 @@
       <c r="D157" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="44"/>
-    </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E157" s="41"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>157</v>
       </c>
@@ -8124,9 +8165,9 @@
       <c r="D158" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E158" s="44"/>
-    </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E158" s="41"/>
+    </row>
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>158</v>
       </c>
@@ -8139,9 +8180,9 @@
       <c r="D159" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E159" s="44"/>
-    </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="41"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>159</v>
       </c>
@@ -8154,9 +8195,9 @@
       <c r="D160" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E160" s="44"/>
-    </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E160" s="41"/>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>160</v>
       </c>
@@ -8169,9 +8210,9 @@
       <c r="D161" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E161" s="44"/>
-    </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E161" s="41"/>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
         <v>161</v>
       </c>
@@ -8184,9 +8225,9 @@
       <c r="D162" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E162" s="44"/>
-    </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E162" s="41"/>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>162</v>
       </c>
@@ -8199,9 +8240,9 @@
       <c r="D163" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="44"/>
-    </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E163" s="41"/>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>163</v>
       </c>
@@ -8214,9 +8255,9 @@
       <c r="D164" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E164" s="44"/>
-    </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="41"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>164</v>
       </c>
@@ -8229,9 +8270,9 @@
       <c r="D165" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E165" s="44"/>
-    </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E165" s="41"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
         <v>165</v>
       </c>
@@ -8244,9 +8285,9 @@
       <c r="D166" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="44"/>
-    </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E166" s="41"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>166</v>
       </c>
@@ -8259,9 +8300,9 @@
       <c r="D167" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E167" s="44"/>
-    </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="41"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>167</v>
       </c>
@@ -8274,9 +8315,9 @@
       <c r="D168" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E168" s="44"/>
-    </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E168" s="41"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>168</v>
       </c>
@@ -8289,9 +8330,9 @@
       <c r="D169" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E169" s="45"/>
-    </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E169" s="42"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
         <v>169</v>
       </c>
@@ -8304,11 +8345,11 @@
       <c r="D170" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="43" t="s">
+      <c r="E170" s="40" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>170</v>
       </c>
@@ -8321,9 +8362,9 @@
       <c r="D171" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="44"/>
-    </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E171" s="41"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>171</v>
       </c>
@@ -8336,9 +8377,9 @@
       <c r="D172" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="44"/>
-    </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E172" s="41"/>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>172</v>
       </c>
@@ -8351,9 +8392,9 @@
       <c r="D173" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="44"/>
-    </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E173" s="41"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
         <v>173</v>
       </c>
@@ -8366,9 +8407,9 @@
       <c r="D174" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="44"/>
-    </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="41"/>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>174</v>
       </c>
@@ -8381,9 +8422,9 @@
       <c r="D175" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="45"/>
-    </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="42"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>175</v>
       </c>
@@ -8396,11 +8437,11 @@
       <c r="D176" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="43" t="s">
+      <c r="E176" s="40" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>176</v>
       </c>
@@ -8413,9 +8454,9 @@
       <c r="D177" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="44"/>
-    </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="41"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
         <v>177</v>
       </c>
@@ -8428,9 +8469,9 @@
       <c r="D178" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="44"/>
-    </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E178" s="41"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>178</v>
       </c>
@@ -8443,9 +8484,9 @@
       <c r="D179" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="44"/>
-    </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E179" s="41"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>179</v>
       </c>
@@ -8458,9 +8499,9 @@
       <c r="D180" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="44"/>
-    </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E180" s="41"/>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>180</v>
       </c>
@@ -8473,9 +8514,9 @@
       <c r="D181" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="44"/>
-    </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E181" s="41"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
         <v>181</v>
       </c>
@@ -8488,9 +8529,9 @@
       <c r="D182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="44"/>
-    </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E182" s="41"/>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>182</v>
       </c>
@@ -8503,9 +8544,9 @@
       <c r="D183" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E183" s="45"/>
-    </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E183" s="42"/>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
         <v>183</v>
       </c>
@@ -8518,11 +8559,11 @@
       <c r="D184" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E184" s="43" t="s">
+      <c r="E184" s="40" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14">
         <v>184</v>
       </c>
@@ -8535,9 +8576,9 @@
       <c r="D185" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E185" s="44"/>
-    </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E185" s="41"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
         <v>185</v>
       </c>
@@ -8550,9 +8591,9 @@
       <c r="D186" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E186" s="44"/>
-    </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="41"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
         <v>186</v>
       </c>
@@ -8565,9 +8606,9 @@
       <c r="D187" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="45"/>
-    </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E187" s="42"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
         <v>187</v>
       </c>
@@ -8580,11 +8621,11 @@
       <c r="D188" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="43" t="s">
+      <c r="E188" s="40" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14">
         <v>188</v>
       </c>
@@ -8597,9 +8638,9 @@
       <c r="D189" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E189" s="44"/>
-    </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E189" s="41"/>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>189</v>
       </c>
@@ -8612,9 +8653,9 @@
       <c r="D190" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="44"/>
-    </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E190" s="41"/>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>190</v>
       </c>
@@ -8627,9 +8668,9 @@
       <c r="D191" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="44"/>
-    </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E191" s="41"/>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
         <v>191</v>
       </c>
@@ -8642,9 +8683,9 @@
       <c r="D192" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="44"/>
-    </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E192" s="41"/>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>192</v>
       </c>
@@ -8657,9 +8698,9 @@
       <c r="D193" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E193" s="44"/>
-    </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E193" s="41"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
         <v>193</v>
       </c>
@@ -8672,9 +8713,9 @@
       <c r="D194" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E194" s="44"/>
-    </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E194" s="41"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
         <v>194</v>
       </c>
@@ -8687,9 +8728,9 @@
       <c r="D195" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E195" s="44"/>
-    </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E195" s="41"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>195</v>
       </c>
@@ -8702,9 +8743,9 @@
       <c r="D196" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E196" s="44"/>
-    </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E196" s="41"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>196</v>
       </c>
@@ -8717,9 +8758,9 @@
       <c r="D197" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E197" s="44"/>
-    </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E197" s="41"/>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>197</v>
       </c>
@@ -8732,9 +8773,9 @@
       <c r="D198" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E198" s="44"/>
-    </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E198" s="41"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>198</v>
       </c>
@@ -8747,9 +8788,9 @@
       <c r="D199" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E199" s="44"/>
-    </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E199" s="41"/>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>199</v>
       </c>
@@ -8762,9 +8803,9 @@
       <c r="D200" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E200" s="44"/>
-    </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E200" s="41"/>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>200</v>
       </c>
@@ -8777,9 +8818,9 @@
       <c r="D201" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E201" s="45"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="42"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>201</v>
       </c>
@@ -8796,7 +8837,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>202</v>
       </c>
@@ -8809,11 +8850,11 @@
       <c r="D203" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="E203" s="43" t="s">
+      <c r="E203" s="40" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>203</v>
       </c>
@@ -8826,9 +8867,9 @@
       <c r="D204" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E204" s="44"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E204" s="41"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>204</v>
       </c>
@@ -8841,9 +8882,9 @@
       <c r="D205" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="E205" s="44"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E205" s="41"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>205</v>
       </c>
@@ -8856,9 +8897,9 @@
       <c r="D206" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E206" s="44"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E206" s="41"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>206</v>
       </c>
@@ -8871,9 +8912,9 @@
       <c r="D207" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E207" s="44"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E207" s="41"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
         <v>207</v>
       </c>
@@ -8886,9 +8927,9 @@
       <c r="D208" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E208" s="44"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E208" s="41"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>208</v>
       </c>
@@ -8905,7 +8946,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="14">
         <v>209</v>
       </c>
@@ -8922,7 +8963,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="14">
         <v>210</v>
       </c>
@@ -8939,7 +8980,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
         <v>211</v>
       </c>
@@ -8954,7 +8995,7 @@
       </c>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
         <v>212</v>
       </c>
@@ -8969,7 +9010,7 @@
       </c>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="14">
         <v>213</v>
       </c>
@@ -8984,7 +9025,7 @@
       </c>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>214</v>
       </c>
@@ -8999,7 +9040,7 @@
       </c>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
         <v>215</v>
       </c>
@@ -9014,7 +9055,7 @@
       </c>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="14">
         <v>216</v>
       </c>
@@ -9029,7 +9070,7 @@
       </c>
       <c r="E217" s="12"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>217</v>
       </c>
@@ -9044,7 +9085,7 @@
       </c>
       <c r="E218" s="12"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>218</v>
       </c>
@@ -9059,7 +9100,7 @@
       </c>
       <c r="E219" s="12"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="14">
         <v>219</v>
       </c>
@@ -9074,7 +9115,7 @@
       </c>
       <c r="E220" s="36"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>220</v>
       </c>
@@ -9089,7 +9130,7 @@
       </c>
       <c r="E221" s="12"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>221</v>
       </c>
@@ -9104,7 +9145,7 @@
       </c>
       <c r="E222" s="12"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>222</v>
       </c>
@@ -9119,7 +9160,7 @@
       </c>
       <c r="E223" s="12"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="14">
         <v>223</v>
       </c>
@@ -9134,7 +9175,7 @@
       </c>
       <c r="E224" s="12"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="14">
         <v>224</v>
       </c>
@@ -9149,7 +9190,7 @@
       </c>
       <c r="E225" s="12"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="14">
         <v>225</v>
       </c>
@@ -9164,7 +9205,7 @@
       </c>
       <c r="E226" s="12"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>226</v>
       </c>
@@ -9179,7 +9220,7 @@
       </c>
       <c r="E227" s="12"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="14">
         <v>227</v>
       </c>
@@ -9194,7 +9235,7 @@
       </c>
       <c r="E228" s="12"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>228</v>
       </c>
@@ -9209,7 +9250,7 @@
       </c>
       <c r="E229" s="12"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>229</v>
       </c>
@@ -9224,7 +9265,7 @@
       </c>
       <c r="E230" s="12"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>230</v>
       </c>
@@ -9239,7 +9280,7 @@
       </c>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>231</v>
       </c>
@@ -9254,7 +9295,7 @@
       </c>
       <c r="E232" s="37"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>232</v>
       </c>
@@ -9269,7 +9310,7 @@
       </c>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>233</v>
       </c>
@@ -9284,7 +9325,7 @@
       </c>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>234</v>
       </c>
@@ -9297,7 +9338,7 @@
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>235</v>
       </c>
@@ -9310,7 +9351,7 @@
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>236</v>
       </c>
@@ -9323,11 +9364,11 @@
       <c r="D237" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E237" s="43" t="s">
+      <c r="E237" s="40" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>237</v>
       </c>
@@ -9340,9 +9381,9 @@
       <c r="D238" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="E238" s="44"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E238" s="41"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>238</v>
       </c>
@@ -9355,9 +9396,9 @@
       <c r="D239" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E239" s="44"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E239" s="41"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>239</v>
       </c>
@@ -9370,9 +9411,9 @@
       <c r="D240" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="E240" s="44"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E240" s="41"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>240</v>
       </c>
@@ -9385,9 +9426,9 @@
       <c r="D241" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E241" s="44"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E241" s="41"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>241</v>
       </c>
@@ -9400,9 +9441,9 @@
       <c r="D242" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E242" s="44"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E242" s="41"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>242</v>
       </c>
@@ -9415,9 +9456,9 @@
       <c r="D243" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E243" s="44"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E243" s="41"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>243</v>
       </c>
@@ -9430,9 +9471,9 @@
       <c r="D244" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E244" s="45"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E244" s="42"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>244</v>
       </c>
@@ -9449,7 +9490,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
         <v>245</v>
       </c>
@@ -9462,7 +9503,7 @@
       <c r="D246" s="12"/>
       <c r="E246" s="38"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>246</v>
       </c>
@@ -9475,7 +9516,7 @@
       <c r="D247" s="12"/>
       <c r="E247" s="38"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>247</v>
       </c>
@@ -9484,7 +9525,7 @@
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>248</v>
       </c>
@@ -9493,7 +9534,7 @@
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>249</v>
       </c>
@@ -9501,7 +9542,7 @@
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>250</v>
       </c>
@@ -9509,7 +9550,7 @@
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
     </row>
-    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
         <v>251</v>
       </c>
@@ -9521,31 +9562,31 @@
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>252</v>
       </c>
       <c r="C253" s="28"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
         <v>253</v>
       </c>
       <c r="C254" s="28"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
         <v>254</v>
       </c>
       <c r="C255" s="28"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>255</v>
       </c>
       <c r="C256" s="28"/>
     </row>
-    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="24"/>
       <c r="C257" s="25"/>
@@ -9557,11 +9598,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9573,12 +9615,11 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9586,27 +9627,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="39.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -9623,7 +9664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9636,13 +9677,13 @@
       <c r="D2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>375</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9655,11 +9696,11 @@
       <c r="D3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9672,11 +9713,11 @@
       <c r="D4" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9689,11 +9730,11 @@
       <c r="D5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -9706,11 +9747,11 @@
       <c r="D6" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="41"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -9723,11 +9764,11 @@
       <c r="D7" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="44"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9740,11 +9781,11 @@
       <c r="D8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9757,11 +9798,11 @@
       <c r="D9" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9774,11 +9815,11 @@
       <c r="D10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -9791,11 +9832,11 @@
       <c r="D11" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -9808,11 +9849,11 @@
       <c r="D12" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -9825,11 +9866,11 @@
       <c r="D13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -9842,11 +9883,11 @@
       <c r="D14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -9859,11 +9900,11 @@
       <c r="D15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -9876,13 +9917,13 @@
       <c r="D16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="40" t="s">
         <v>376</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -9895,11 +9936,11 @@
       <c r="D17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -9912,11 +9953,11 @@
       <c r="D18" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -9929,11 +9970,11 @@
       <c r="D19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="41"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -9946,11 +9987,11 @@
       <c r="D20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -9963,11 +10004,11 @@
       <c r="D21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -9980,11 +10021,11 @@
       <c r="D22" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="44"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -9997,11 +10038,11 @@
       <c r="D23" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="45"/>
+      <c r="E23" s="42"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -10014,13 +10055,13 @@
       <c r="D24" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="40" t="s">
         <v>377</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -10033,11 +10074,11 @@
       <c r="D25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="44"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -10050,11 +10091,11 @@
       <c r="D26" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -10067,11 +10108,11 @@
       <c r="D27" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="44"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -10084,11 +10125,11 @@
       <c r="D28" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -10101,11 +10142,11 @@
       <c r="D29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="41"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -10118,11 +10159,11 @@
       <c r="D30" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="44"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -10135,11 +10176,11 @@
       <c r="D31" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="45"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -10158,7 +10199,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -10177,7 +10218,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -10190,13 +10231,13 @@
       <c r="D34" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="40" t="s">
         <v>378</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -10209,11 +10250,11 @@
       <c r="D35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="44"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -10226,11 +10267,11 @@
       <c r="D36" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="44"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -10243,11 +10284,11 @@
       <c r="D37" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="44"/>
+      <c r="E37" s="41"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -10260,11 +10301,11 @@
       <c r="D38" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="44"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -10277,11 +10318,11 @@
       <c r="D39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="44"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -10294,11 +10335,11 @@
       <c r="D40" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="44"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -10311,11 +10352,11 @@
       <c r="D41" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="44"/>
+      <c r="E41" s="41"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -10328,11 +10369,11 @@
       <c r="D42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="44"/>
+      <c r="E42" s="41"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -10345,11 +10386,11 @@
       <c r="D43" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="44"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -10362,11 +10403,11 @@
       <c r="D44" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="44"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -10379,11 +10420,11 @@
       <c r="D45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="44"/>
+      <c r="E45" s="41"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -10396,11 +10437,11 @@
       <c r="D46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="44"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -10413,11 +10454,11 @@
       <c r="D47" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="45"/>
+      <c r="E47" s="42"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -10430,13 +10471,13 @@
       <c r="D48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="40" t="s">
         <v>379</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -10449,11 +10490,11 @@
       <c r="D49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="44"/>
+      <c r="E49" s="41"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -10466,11 +10507,11 @@
       <c r="D50" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="44"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -10483,11 +10524,11 @@
       <c r="D51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="44"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -10500,11 +10541,11 @@
       <c r="D52" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="44"/>
+      <c r="E52" s="41"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -10517,11 +10558,11 @@
       <c r="D53" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="44"/>
+      <c r="E53" s="41"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -10534,11 +10575,11 @@
       <c r="D54" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="44"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -10551,11 +10592,11 @@
       <c r="D55" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="45"/>
+      <c r="E55" s="42"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -10568,13 +10609,13 @@
       <c r="D56" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="40" t="s">
         <v>380</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -10587,11 +10628,11 @@
       <c r="D57" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="44"/>
+      <c r="E57" s="41"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -10604,11 +10645,11 @@
       <c r="D58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E58" s="44"/>
+      <c r="E58" s="41"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -10621,11 +10662,11 @@
       <c r="D59" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="44"/>
+      <c r="E59" s="41"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -10638,11 +10679,11 @@
       <c r="D60" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="44"/>
+      <c r="E60" s="41"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -10655,11 +10696,11 @@
       <c r="D61" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E61" s="44"/>
+      <c r="E61" s="41"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10672,11 +10713,11 @@
       <c r="D62" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="44"/>
+      <c r="E62" s="41"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10689,11 +10730,11 @@
       <c r="D63" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="44"/>
+      <c r="E63" s="41"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10706,11 +10747,11 @@
       <c r="D64" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="44"/>
+      <c r="E64" s="41"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10723,11 +10764,11 @@
       <c r="D65" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="44"/>
+      <c r="E65" s="41"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10740,11 +10781,11 @@
       <c r="D66" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="44"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10757,11 +10798,11 @@
       <c r="D67" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="44"/>
+      <c r="E67" s="41"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10774,11 +10815,11 @@
       <c r="D68" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E68" s="44"/>
+      <c r="E68" s="41"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10791,11 +10832,11 @@
       <c r="D69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="44"/>
+      <c r="E69" s="41"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10808,11 +10849,11 @@
       <c r="D70" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E70" s="44"/>
+      <c r="E70" s="41"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10825,11 +10866,11 @@
       <c r="D71" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="45"/>
+      <c r="E71" s="42"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10848,7 +10889,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10861,13 +10902,13 @@
       <c r="D73" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="45" t="s">
         <v>381</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10880,11 +10921,11 @@
       <c r="D74" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="48"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10897,13 +10938,13 @@
       <c r="D75" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="43" t="s">
+      <c r="E75" s="40" t="s">
         <v>382</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10916,11 +10957,11 @@
       <c r="D76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="44"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10933,11 +10974,11 @@
       <c r="D77" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="44"/>
+      <c r="E77" s="41"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10950,11 +10991,11 @@
       <c r="D78" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="44"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10967,11 +11008,11 @@
       <c r="D79" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E79" s="44"/>
+      <c r="E79" s="41"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10984,11 +11025,11 @@
       <c r="D80" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="44"/>
+      <c r="E80" s="41"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -11001,11 +11042,11 @@
       <c r="D81" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="44"/>
+      <c r="E81" s="41"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -11018,11 +11059,11 @@
       <c r="D82" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="44"/>
+      <c r="E82" s="41"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -11035,11 +11076,11 @@
       <c r="D83" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="44"/>
+      <c r="E83" s="41"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -11052,11 +11093,11 @@
       <c r="D84" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="44"/>
+      <c r="E84" s="41"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -11069,11 +11110,11 @@
       <c r="D85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="44"/>
+      <c r="E85" s="41"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -11086,11 +11127,11 @@
       <c r="D86" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="44"/>
+      <c r="E86" s="41"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -11103,11 +11144,11 @@
       <c r="D87" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="44"/>
+      <c r="E87" s="41"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -11120,11 +11161,11 @@
       <c r="D88" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="45"/>
+      <c r="E88" s="42"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -11137,13 +11178,13 @@
       <c r="D89" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="48" t="s">
+      <c r="E89" s="45" t="s">
         <v>383</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -11156,11 +11197,11 @@
       <c r="D90" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="51"/>
+      <c r="E90" s="48"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -11173,13 +11214,13 @@
       <c r="D91" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="43" t="s">
+      <c r="E91" s="40" t="s">
         <v>384</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -11192,11 +11233,11 @@
       <c r="D92" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E92" s="44"/>
+      <c r="E92" s="41"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -11209,11 +11250,11 @@
       <c r="D93" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E93" s="44"/>
+      <c r="E93" s="41"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -11226,11 +11267,11 @@
       <c r="D94" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E94" s="44"/>
+      <c r="E94" s="41"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -11243,11 +11284,11 @@
       <c r="D95" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="44"/>
+      <c r="E95" s="41"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -11260,11 +11301,11 @@
       <c r="D96" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="44"/>
+      <c r="E96" s="41"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -11277,11 +11318,11 @@
       <c r="D97" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="44"/>
+      <c r="E97" s="41"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -11294,11 +11335,11 @@
       <c r="D98" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E98" s="44"/>
+      <c r="E98" s="41"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -11311,11 +11352,11 @@
       <c r="D99" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="44"/>
+      <c r="E99" s="41"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -11328,11 +11369,11 @@
       <c r="D100" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="44"/>
+      <c r="E100" s="41"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -11345,11 +11386,11 @@
       <c r="D101" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="44"/>
+      <c r="E101" s="41"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -11362,11 +11403,11 @@
       <c r="D102" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="44"/>
+      <c r="E102" s="41"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -11379,11 +11420,11 @@
       <c r="D103" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E103" s="44"/>
+      <c r="E103" s="41"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -11396,11 +11437,11 @@
       <c r="D104" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E104" s="45"/>
+      <c r="E104" s="42"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -11413,13 +11454,13 @@
       <c r="D105" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="40" t="s">
         <v>385</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -11432,11 +11473,11 @@
       <c r="D106" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="44"/>
+      <c r="E106" s="41"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -11449,11 +11490,11 @@
       <c r="D107" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E107" s="44"/>
+      <c r="E107" s="41"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -11466,11 +11507,11 @@
       <c r="D108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E108" s="44"/>
+      <c r="E108" s="41"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -11483,11 +11524,11 @@
       <c r="D109" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="44"/>
+      <c r="E109" s="41"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -11500,11 +11541,11 @@
       <c r="D110" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="44"/>
+      <c r="E110" s="41"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -11517,11 +11558,11 @@
       <c r="D111" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E111" s="44"/>
+      <c r="E111" s="41"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -11534,11 +11575,11 @@
       <c r="D112" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="45"/>
+      <c r="E112" s="42"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -11558,7 +11599,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -11577,7 +11618,7 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -11597,7 +11638,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -11606,7 +11647,7 @@
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -11618,7 +11659,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -11627,7 +11668,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -11639,7 +11680,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -11648,7 +11689,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -11660,147 +11701,165 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="4">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="49">
         <v>121</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="B122" s="39" t="s">
+        <v>865</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="39" t="s">
+        <v>866</v>
+      </c>
+      <c r="E122" s="50" t="s">
+        <v>867</v>
+      </c>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="14">
+    <row r="123" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="49">
         <v>122</v>
       </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="7"/>
+      <c r="B123" s="51" t="s">
+        <v>868</v>
+      </c>
+      <c r="C123" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D123" s="39" t="s">
+        <v>866</v>
+      </c>
+      <c r="E123" s="50" t="s">
+        <v>869</v>
+      </c>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>123</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>124</v>
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>126</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>127</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>128</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>129</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>130</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>131</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -11810,13 +11869,13 @@
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="46" t="s">
+      <c r="D141" s="43" t="s">
         <v>424</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -11826,11 +11885,11 @@
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="46"/>
+      <c r="D142" s="43"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -11840,11 +11899,11 @@
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="46"/>
+      <c r="D143" s="43"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -11854,11 +11913,11 @@
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="46"/>
+      <c r="D144" s="43"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -11868,13 +11927,13 @@
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="46" t="s">
+      <c r="D145" s="43" t="s">
         <v>425</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -11884,28 +11943,28 @@
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="46"/>
+      <c r="D146" s="43"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147" s="52" t="s">
+      <c r="B147" s="5" t="s">
         <v>544</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="46"/>
+      <c r="D147" s="43"/>
       <c r="E147" s="7" t="s">
         <v>864</v>
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -11915,11 +11974,11 @@
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="46"/>
+      <c r="D148" s="43"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -11929,13 +11988,13 @@
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="46" t="s">
+      <c r="D149" s="43" t="s">
         <v>426</v>
       </c>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -11945,11 +12004,11 @@
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="46"/>
+      <c r="D150" s="43"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -11959,11 +12018,11 @@
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="46"/>
+      <c r="D151" s="43"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -11973,11 +12032,11 @@
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="46"/>
+      <c r="D152" s="43"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -11987,11 +12046,11 @@
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="46"/>
+      <c r="D153" s="43"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -12001,11 +12060,11 @@
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="46"/>
+      <c r="D154" s="43"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -12015,11 +12074,11 @@
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="46"/>
+      <c r="D155" s="43"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -12029,11 +12088,11 @@
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="46"/>
+      <c r="D156" s="43"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -12043,13 +12102,13 @@
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="46" t="s">
+      <c r="D157" s="43" t="s">
         <v>427</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -12059,11 +12118,11 @@
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="46"/>
+      <c r="D158" s="43"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -12073,11 +12132,11 @@
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="46"/>
+      <c r="D159" s="43"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -12087,11 +12146,11 @@
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="46"/>
+      <c r="D160" s="43"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -12101,13 +12160,13 @@
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="46" t="s">
+      <c r="D161" s="43" t="s">
         <v>428</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -12117,11 +12176,11 @@
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="46"/>
+      <c r="D162" s="43"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -12131,14 +12190,14 @@
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="46"/>
+      <c r="D163" s="43"/>
       <c r="E163" s="7" t="s">
         <v>863</v>
       </c>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -12148,11 +12207,11 @@
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="46"/>
+      <c r="D164" s="43"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -12162,13 +12221,13 @@
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="46" t="s">
+      <c r="D165" s="43" t="s">
         <v>562</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -12178,11 +12237,11 @@
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="46"/>
+      <c r="D166" s="43"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -12192,11 +12251,11 @@
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="46"/>
+      <c r="D167" s="43"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -12206,11 +12265,11 @@
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="46"/>
+      <c r="D168" s="43"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -12220,11 +12279,11 @@
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="46"/>
+      <c r="D169" s="43"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -12234,11 +12293,11 @@
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="46"/>
+      <c r="D170" s="43"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -12248,11 +12307,11 @@
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="46"/>
+      <c r="D171" s="43"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -12262,11 +12321,11 @@
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="46"/>
+      <c r="D172" s="43"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -12276,13 +12335,13 @@
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="46" t="s">
+      <c r="D173" s="43" t="s">
         <v>571</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -12292,11 +12351,11 @@
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="46"/>
+      <c r="D174" s="43"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -12306,11 +12365,11 @@
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="46"/>
+      <c r="D175" s="43"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -12320,11 +12379,11 @@
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="46"/>
+      <c r="D176" s="43"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -12334,16 +12393,16 @@
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="46" t="s">
+      <c r="D177" s="43" t="s">
         <v>576</v>
       </c>
-      <c r="E177" s="48" t="s">
+      <c r="E177" s="45" t="s">
         <v>429</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -12353,12 +12412,12 @@
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="47"/>
-      <c r="E178" s="49"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="46"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -12368,12 +12427,12 @@
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="47"/>
-      <c r="E179" s="49"/>
+      <c r="D179" s="44"/>
+      <c r="E179" s="46"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -12383,12 +12442,12 @@
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="47"/>
-      <c r="E180" s="49"/>
+      <c r="D180" s="44"/>
+      <c r="E180" s="46"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -12398,12 +12457,12 @@
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="47"/>
-      <c r="E181" s="49"/>
+      <c r="D181" s="44"/>
+      <c r="E181" s="46"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -12413,12 +12472,12 @@
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="47"/>
-      <c r="E182" s="49"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="46"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -12428,12 +12487,12 @@
       <c r="C183" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="47"/>
-      <c r="E183" s="49"/>
+      <c r="D183" s="44"/>
+      <c r="E183" s="46"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -12443,13 +12502,13 @@
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="50" t="s">
+      <c r="D184" s="47" t="s">
         <v>588</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -12459,11 +12518,11 @@
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="50"/>
+      <c r="D185" s="47"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -12473,11 +12532,11 @@
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="50"/>
+      <c r="D186" s="47"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -12487,11 +12546,11 @@
       <c r="C187" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="50"/>
+      <c r="D187" s="47"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -12500,7 +12559,7 @@
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -12509,7 +12568,7 @@
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -12518,7 +12577,7 @@
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -12527,7 +12586,7 @@
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -12536,7 +12595,7 @@
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -12545,7 +12604,7 @@
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -12554,126 +12613,126 @@
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>194</v>
       </c>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>195</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>197</v>
       </c>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>199</v>
       </c>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>201</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>203</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>205</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>207</v>
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>209</v>
       </c>
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -12689,7 +12748,7 @@
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -12705,7 +12764,7 @@
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -12721,7 +12780,7 @@
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -12737,7 +12796,7 @@
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -12753,7 +12812,7 @@
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -12769,7 +12828,7 @@
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -12785,7 +12844,7 @@
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -12801,7 +12860,7 @@
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -12817,7 +12876,7 @@
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -12833,7 +12892,7 @@
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -12849,7 +12908,7 @@
       <c r="F222" s="9"/>
       <c r="G222" s="9"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -12863,7 +12922,7 @@
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -12877,7 +12936,7 @@
       <c r="F224" s="9"/>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>224</v>
       </c>
@@ -12887,7 +12946,7 @@
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -12897,28 +12956,28 @@
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>226</v>
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>227</v>
       </c>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>228</v>
       </c>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -12934,7 +12993,7 @@
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -12953,194 +13012,194 @@
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="39">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="14">
         <v>231</v>
       </c>
-      <c r="B232" s="40" t="s">
+      <c r="B232" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C232" s="41" t="s">
+      <c r="C232" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D232" s="40" t="s">
+      <c r="D232" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="E232" s="42" t="s">
+      <c r="E232" s="7" t="s">
         <v>862</v>
       </c>
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>232</v>
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>233</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>234</v>
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>235</v>
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>236</v>
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>237</v>
       </c>
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>238</v>
       </c>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>239</v>
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="9"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>240</v>
       </c>
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>241</v>
       </c>
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>242</v>
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>243</v>
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>244</v>
       </c>
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>245</v>
       </c>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>246</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="9"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>247</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>248</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="9"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>249</v>
       </c>
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>250</v>
       </c>
       <c r="F251" s="9"/>
       <c r="G251" s="9"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>251</v>
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>252</v>
       </c>
       <c r="F253" s="9"/>
       <c r="G253" s="9"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>253</v>
       </c>
       <c r="F254" s="9"/>
       <c r="G254" s="9"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>254</v>
       </c>
       <c r="F255" s="9"/>
       <c r="G255" s="9"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>255</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
     </row>
-    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="24"/>
       <c r="C257" s="25"/>
@@ -13152,12 +13211,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13173,6 +13226,12 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019EFE88-C54F-419E-AB21-3FA024634487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KNX_1 (192.168.1.51)" sheetId="3" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="871">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -5078,9 +5077,6 @@
     <t>P33 Klawisz 1</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>P33(1+T)</t>
   </si>
   <si>
@@ -5088,12 +5084,18 @@
   </si>
   <si>
     <t>temperatura w garażu</t>
+  </si>
+  <si>
+    <t>0/0/220</t>
+  </si>
+  <si>
+    <t>0/4/13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5340,6 +5342,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5367,19 +5378,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normalny 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5470,23 +5472,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5522,23 +5507,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -5714,25 +5682,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="17" style="13" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="10"/>
+    <col min="7" max="8" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5754,7 +5722,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5767,13 +5735,13 @@
       <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="43" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5786,9 +5754,9 @@
       <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5801,9 +5769,9 @@
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5816,9 +5784,9 @@
       <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="41"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="44"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5831,9 +5799,9 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5846,9 +5814,9 @@
       <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="41"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5861,9 +5829,9 @@
       <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5876,9 +5844,9 @@
       <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="41"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5891,9 +5859,9 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="44"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5906,9 +5874,9 @@
       <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="44"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5921,9 +5889,9 @@
       <c r="D12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5936,9 +5904,9 @@
       <c r="D13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5951,9 +5919,9 @@
       <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="41"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5966,9 +5934,9 @@
       <c r="D15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5985,7 +5953,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -6002,7 +5970,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -6015,11 +5983,11 @@
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="43" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -6032,9 +6000,9 @@
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -6047,9 +6015,9 @@
       <c r="D20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="44"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -6062,9 +6030,9 @@
       <c r="D21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="41"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="44"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -6077,9 +6045,9 @@
       <c r="D22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -6092,9 +6060,9 @@
       <c r="D23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="44"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -6107,9 +6075,9 @@
       <c r="D24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="44"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -6122,9 +6090,9 @@
       <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -6137,11 +6105,11 @@
       <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="43" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -6154,9 +6122,9 @@
       <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="41"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -6169,9 +6137,9 @@
       <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="41"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -6184,9 +6152,9 @@
       <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -6199,9 +6167,9 @@
       <c r="D30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="41"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="44"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -6214,9 +6182,9 @@
       <c r="D31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="41"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="44"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -6229,9 +6197,9 @@
       <c r="D32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="41"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="44"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -6244,9 +6212,9 @@
       <c r="D33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="41"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -6259,9 +6227,9 @@
       <c r="D34" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="41"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="44"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -6274,9 +6242,9 @@
       <c r="D35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -6289,9 +6257,9 @@
       <c r="D36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="44"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -6304,9 +6272,9 @@
       <c r="D37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="41"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="44"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -6319,9 +6287,9 @@
       <c r="D38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -6334,9 +6302,9 @@
       <c r="D39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="42"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="45"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -6349,11 +6317,11 @@
       <c r="D40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="43" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -6366,9 +6334,9 @@
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="44"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -6381,9 +6349,9 @@
       <c r="D42" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="41"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="44"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -6396,9 +6364,9 @@
       <c r="D43" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="41"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="44"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -6411,9 +6379,9 @@
       <c r="D44" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="41"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="44"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6426,9 +6394,9 @@
       <c r="D45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="41"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="44"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6441,9 +6409,9 @@
       <c r="D46" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="41"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="44"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6456,9 +6424,9 @@
       <c r="D47" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="41"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="44"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6471,9 +6439,9 @@
       <c r="D48" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="41"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="44"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6486,9 +6454,9 @@
       <c r="D49" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="41"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="44"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6501,9 +6469,9 @@
       <c r="D50" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="41"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="44"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6516,9 +6484,9 @@
       <c r="D51" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="41"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="44"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6531,9 +6499,9 @@
       <c r="D52" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="41"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="44"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6546,9 +6514,9 @@
       <c r="D53" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="42"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="45"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6561,11 +6529,11 @@
       <c r="D54" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="43" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6578,9 +6546,9 @@
       <c r="D55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="41"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="44"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -6593,9 +6561,9 @@
       <c r="D56" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="41"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="44"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -6608,9 +6576,9 @@
       <c r="D57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="41"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="44"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -6623,9 +6591,9 @@
       <c r="D58" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="41"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="44"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -6638,9 +6606,9 @@
       <c r="D59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="41"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="44"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -6653,9 +6621,9 @@
       <c r="D60" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="41"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="44"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -6668,9 +6636,9 @@
       <c r="D61" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="42"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="45"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -6683,11 +6651,11 @@
       <c r="D62" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="43" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -6700,9 +6668,9 @@
       <c r="D63" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="41"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="44"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -6715,9 +6683,9 @@
       <c r="D64" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="41"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="44"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -6730,9 +6698,9 @@
       <c r="D65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="41"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="44"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -6745,9 +6713,9 @@
       <c r="D66" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="41"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="44"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -6760,9 +6728,9 @@
       <c r="D67" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="41"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="44"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -6775,9 +6743,9 @@
       <c r="D68" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="41"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="44"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -6790,9 +6758,9 @@
       <c r="D69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="42"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="45"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -6805,11 +6773,11 @@
       <c r="D70" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="E70" s="43" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -6822,9 +6790,9 @@
       <c r="D71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="41"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="44"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -6837,9 +6805,9 @@
       <c r="D72" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="41"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="44"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -6852,9 +6820,9 @@
       <c r="D73" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="41"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="44"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -6867,9 +6835,9 @@
       <c r="D74" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="41"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="44"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -6882,9 +6850,9 @@
       <c r="D75" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="41"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="44"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -6897,9 +6865,9 @@
       <c r="D76" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="41"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="44"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -6912,9 +6880,9 @@
       <c r="D77" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E77" s="42"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="45"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -6931,7 +6899,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -6944,12 +6912,12 @@
       <c r="D79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="43" t="s">
         <v>408</v>
       </c>
       <c r="F79" s="30"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>79</v>
       </c>
@@ -6962,10 +6930,10 @@
       <c r="D80" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E80" s="41"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="30"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -6978,10 +6946,10 @@
       <c r="D81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="41"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="30"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -6994,9 +6962,9 @@
       <c r="D82" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E82" s="41"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="44"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -7009,10 +6977,10 @@
       <c r="D83" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E83" s="41"/>
+      <c r="E83" s="44"/>
       <c r="F83" s="30"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -7025,10 +6993,10 @@
       <c r="D84" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="41"/>
+      <c r="E84" s="44"/>
       <c r="F84" s="30"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -7041,10 +7009,10 @@
       <c r="D85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E85" s="41"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="30"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -7057,10 +7025,10 @@
       <c r="D86" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E86" s="42"/>
+      <c r="E86" s="45"/>
       <c r="F86" s="30"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -7073,11 +7041,11 @@
       <c r="D87" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="43" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -7090,9 +7058,9 @@
       <c r="D88" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="42"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="45"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -7105,11 +7073,11 @@
       <c r="D89" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="43" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -7122,9 +7090,9 @@
       <c r="D90" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="41"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="44"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -7137,9 +7105,9 @@
       <c r="D91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="41"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="44"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -7152,9 +7120,9 @@
       <c r="D92" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="41"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="44"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -7167,9 +7135,9 @@
       <c r="D93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E93" s="41"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="44"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -7182,9 +7150,9 @@
       <c r="D94" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E94" s="41"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="44"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -7197,9 +7165,9 @@
       <c r="D95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="41"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="44"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -7212,9 +7180,9 @@
       <c r="D96" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="41"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="44"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -7227,9 +7195,9 @@
       <c r="D97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E97" s="41"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="44"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>97</v>
       </c>
@@ -7242,9 +7210,9 @@
       <c r="D98" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E98" s="41"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="44"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>98</v>
       </c>
@@ -7257,9 +7225,9 @@
       <c r="D99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E99" s="41"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="44"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="14">
         <v>99</v>
       </c>
@@ -7272,9 +7240,9 @@
       <c r="D100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E100" s="41"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="44"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="14">
         <v>100</v>
       </c>
@@ -7287,9 +7255,9 @@
       <c r="D101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="41"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="44"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>101</v>
       </c>
@@ -7302,9 +7270,9 @@
       <c r="D102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E102" s="42"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="45"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="14">
         <v>102</v>
       </c>
@@ -7317,11 +7285,11 @@
       <c r="D103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E103" s="40" t="s">
+      <c r="E103" s="43" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="14">
         <v>103</v>
       </c>
@@ -7334,9 +7302,9 @@
       <c r="D104" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E104" s="41"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="44"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="14">
         <v>104</v>
       </c>
@@ -7349,9 +7317,9 @@
       <c r="D105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E105" s="41"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="44"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="14">
         <v>105</v>
       </c>
@@ -7364,9 +7332,9 @@
       <c r="D106" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E106" s="41"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="44"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="14">
         <v>106</v>
       </c>
@@ -7379,9 +7347,9 @@
       <c r="D107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E107" s="41"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="44"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>107</v>
       </c>
@@ -7394,9 +7362,9 @@
       <c r="D108" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E108" s="41"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="44"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="14">
         <v>108</v>
       </c>
@@ -7409,9 +7377,9 @@
       <c r="D109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="41"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="44"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <v>109</v>
       </c>
@@ -7424,9 +7392,9 @@
       <c r="D110" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E110" s="42"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="45"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="14">
         <v>110</v>
       </c>
@@ -7439,11 +7407,11 @@
       <c r="D111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E111" s="43" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="14">
         <v>111</v>
       </c>
@@ -7456,9 +7424,9 @@
       <c r="D112" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E112" s="41"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="44"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -7471,9 +7439,9 @@
       <c r="D113" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E113" s="41"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="44"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="14">
         <v>113</v>
       </c>
@@ -7486,9 +7454,9 @@
       <c r="D114" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="41"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="44"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -7501,9 +7469,9 @@
       <c r="D115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="41"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="44"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>115</v>
       </c>
@@ -7516,9 +7484,9 @@
       <c r="D116" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E116" s="41"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="44"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -7531,9 +7499,9 @@
       <c r="D117" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="41"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="44"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="14">
         <v>117</v>
       </c>
@@ -7546,9 +7514,9 @@
       <c r="D118" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E118" s="41"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="44"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -7561,9 +7529,9 @@
       <c r="D119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="41"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="44"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="14">
         <v>119</v>
       </c>
@@ -7576,9 +7544,9 @@
       <c r="D120" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="E120" s="41"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="44"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -7591,9 +7559,9 @@
       <c r="D121" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E121" s="41"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E121" s="44"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
         <v>121</v>
       </c>
@@ -7606,9 +7574,9 @@
       <c r="D122" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E122" s="41"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="44"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>122</v>
       </c>
@@ -7621,9 +7589,9 @@
       <c r="D123" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E123" s="41"/>
-    </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E123" s="44"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14">
         <v>123</v>
       </c>
@@ -7636,9 +7604,9 @@
       <c r="D124" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E124" s="42"/>
-    </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E124" s="45"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14">
         <v>124</v>
       </c>
@@ -7651,11 +7619,11 @@
       <c r="D125" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E125" s="43" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="14">
         <v>125</v>
       </c>
@@ -7668,9 +7636,9 @@
       <c r="D126" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E126" s="41"/>
-    </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E126" s="44"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14">
         <v>126</v>
       </c>
@@ -7683,9 +7651,9 @@
       <c r="D127" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E127" s="41"/>
-    </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E127" s="44"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14">
         <v>127</v>
       </c>
@@ -7698,9 +7666,9 @@
       <c r="D128" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E128" s="41"/>
-    </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E128" s="44"/>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="14">
         <v>128</v>
       </c>
@@ -7713,9 +7681,9 @@
       <c r="D129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="41"/>
-    </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E129" s="44"/>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14">
         <v>129</v>
       </c>
@@ -7728,9 +7696,9 @@
       <c r="D130" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E130" s="41"/>
-    </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E130" s="44"/>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>130</v>
       </c>
@@ -7743,9 +7711,9 @@
       <c r="D131" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E131" s="41"/>
-    </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E131" s="44"/>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14">
         <v>131</v>
       </c>
@@ -7758,9 +7726,9 @@
       <c r="D132" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E132" s="41"/>
-    </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E132" s="44"/>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14">
         <v>132</v>
       </c>
@@ -7773,9 +7741,9 @@
       <c r="D133" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E133" s="41"/>
-    </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E133" s="44"/>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14">
         <v>133</v>
       </c>
@@ -7788,9 +7756,9 @@
       <c r="D134" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E134" s="41"/>
-    </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E134" s="44"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="14">
         <v>134</v>
       </c>
@@ -7803,9 +7771,9 @@
       <c r="D135" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E135" s="41"/>
-    </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E135" s="44"/>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="14">
         <v>135</v>
       </c>
@@ -7818,9 +7786,9 @@
       <c r="D136" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E136" s="41"/>
-    </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E136" s="44"/>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="14">
         <v>136</v>
       </c>
@@ -7833,9 +7801,9 @@
       <c r="D137" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E137" s="41"/>
-    </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E137" s="44"/>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="14">
         <v>137</v>
       </c>
@@ -7848,9 +7816,9 @@
       <c r="D138" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E138" s="42"/>
-    </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E138" s="45"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="14">
         <v>138</v>
       </c>
@@ -7863,11 +7831,11 @@
       <c r="D139" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E139" s="40" t="s">
+      <c r="E139" s="43" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="14">
         <v>139</v>
       </c>
@@ -7880,9 +7848,9 @@
       <c r="D140" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E140" s="41"/>
-    </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E140" s="44"/>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="14">
         <v>140</v>
       </c>
@@ -7895,9 +7863,9 @@
       <c r="D141" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="E141" s="41"/>
-    </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E141" s="44"/>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="14">
         <v>141</v>
       </c>
@@ -7910,9 +7878,9 @@
       <c r="D142" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="41"/>
-    </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E142" s="44"/>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="14">
         <v>142</v>
       </c>
@@ -7925,9 +7893,9 @@
       <c r="D143" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E143" s="41"/>
-    </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="44"/>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="14">
         <v>143</v>
       </c>
@@ -7940,9 +7908,9 @@
       <c r="D144" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E144" s="41"/>
-    </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E144" s="44"/>
+    </row>
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="14">
         <v>144</v>
       </c>
@@ -7955,9 +7923,9 @@
       <c r="D145" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E145" s="41"/>
-    </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E145" s="44"/>
+    </row>
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="14">
         <v>145</v>
       </c>
@@ -7970,9 +7938,9 @@
       <c r="D146" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E146" s="42"/>
-    </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E146" s="45"/>
+    </row>
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="14">
         <v>146</v>
       </c>
@@ -7990,7 +7958,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="14">
         <v>147</v>
       </c>
@@ -8003,12 +7971,12 @@
       <c r="D148" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E148" s="40" t="s">
+      <c r="E148" s="43" t="s">
         <v>369</v>
       </c>
       <c r="F148" s="30"/>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="14">
         <v>148</v>
       </c>
@@ -8021,10 +7989,10 @@
       <c r="D149" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E149" s="41"/>
+      <c r="E149" s="44"/>
       <c r="F149" s="30"/>
     </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="14">
         <v>149</v>
       </c>
@@ -8037,10 +8005,10 @@
       <c r="D150" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="41"/>
+      <c r="E150" s="44"/>
       <c r="F150" s="30"/>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="14">
         <v>150</v>
       </c>
@@ -8053,10 +8021,10 @@
       <c r="D151" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E151" s="41"/>
+      <c r="E151" s="44"/>
       <c r="F151" s="30"/>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="14">
         <v>151</v>
       </c>
@@ -8069,10 +8037,10 @@
       <c r="D152" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E152" s="41"/>
+      <c r="E152" s="44"/>
       <c r="F152" s="30"/>
     </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="14">
         <v>152</v>
       </c>
@@ -8085,10 +8053,10 @@
       <c r="D153" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E153" s="41"/>
+      <c r="E153" s="44"/>
       <c r="F153" s="30"/>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>153</v>
       </c>
@@ -8101,10 +8069,10 @@
       <c r="D154" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="E154" s="41"/>
+      <c r="E154" s="44"/>
       <c r="F154" s="30"/>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="14">
         <v>154</v>
       </c>
@@ -8117,10 +8085,10 @@
       <c r="D155" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E155" s="42"/>
+      <c r="E155" s="45"/>
       <c r="F155" s="30"/>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="14">
         <v>155</v>
       </c>
@@ -8133,11 +8101,11 @@
       <c r="D156" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E156" s="40" t="s">
+      <c r="E156" s="43" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="14">
         <v>156</v>
       </c>
@@ -8150,9 +8118,9 @@
       <c r="D157" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E157" s="41"/>
-    </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E157" s="44"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="14">
         <v>157</v>
       </c>
@@ -8165,9 +8133,9 @@
       <c r="D158" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E158" s="41"/>
-    </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E158" s="44"/>
+    </row>
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="14">
         <v>158</v>
       </c>
@@ -8180,9 +8148,9 @@
       <c r="D159" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="E159" s="41"/>
-    </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E159" s="44"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>159</v>
       </c>
@@ -8195,9 +8163,9 @@
       <c r="D160" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E160" s="41"/>
-    </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E160" s="44"/>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="14">
         <v>160</v>
       </c>
@@ -8210,9 +8178,9 @@
       <c r="D161" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E161" s="41"/>
-    </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E161" s="44"/>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="14">
         <v>161</v>
       </c>
@@ -8225,9 +8193,9 @@
       <c r="D162" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E162" s="41"/>
-    </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E162" s="44"/>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="14">
         <v>162</v>
       </c>
@@ -8240,9 +8208,9 @@
       <c r="D163" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E163" s="41"/>
-    </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E163" s="44"/>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="14">
         <v>163</v>
       </c>
@@ -8255,9 +8223,9 @@
       <c r="D164" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E164" s="41"/>
-    </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E164" s="44"/>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="14">
         <v>164</v>
       </c>
@@ -8270,9 +8238,9 @@
       <c r="D165" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E165" s="41"/>
-    </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E165" s="44"/>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="14">
         <v>165</v>
       </c>
@@ -8285,9 +8253,9 @@
       <c r="D166" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="41"/>
-    </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E166" s="44"/>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="14">
         <v>166</v>
       </c>
@@ -8300,9 +8268,9 @@
       <c r="D167" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E167" s="41"/>
-    </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E167" s="44"/>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>167</v>
       </c>
@@ -8315,9 +8283,9 @@
       <c r="D168" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E168" s="41"/>
-    </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E168" s="44"/>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="14">
         <v>168</v>
       </c>
@@ -8330,9 +8298,9 @@
       <c r="D169" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E169" s="42"/>
-    </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E169" s="45"/>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="14">
         <v>169</v>
       </c>
@@ -8345,11 +8313,11 @@
       <c r="D170" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="E170" s="40" t="s">
+      <c r="E170" s="43" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="14">
         <v>170</v>
       </c>
@@ -8362,9 +8330,9 @@
       <c r="D171" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E171" s="41"/>
-    </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E171" s="44"/>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="14">
         <v>171</v>
       </c>
@@ -8377,9 +8345,9 @@
       <c r="D172" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E172" s="41"/>
-    </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E172" s="44"/>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="14">
         <v>172</v>
       </c>
@@ -8392,9 +8360,9 @@
       <c r="D173" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E173" s="41"/>
-    </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E173" s="44"/>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>173</v>
       </c>
@@ -8407,9 +8375,9 @@
       <c r="D174" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E174" s="41"/>
-    </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E174" s="44"/>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="14">
         <v>174</v>
       </c>
@@ -8422,9 +8390,9 @@
       <c r="D175" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="E175" s="42"/>
-    </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E175" s="45"/>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="14">
         <v>175</v>
       </c>
@@ -8437,11 +8405,11 @@
       <c r="D176" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E176" s="40" t="s">
+      <c r="E176" s="43" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="14">
         <v>176</v>
       </c>
@@ -8454,9 +8422,9 @@
       <c r="D177" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E177" s="41"/>
-    </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E177" s="44"/>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="14">
         <v>177</v>
       </c>
@@ -8469,9 +8437,9 @@
       <c r="D178" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="E178" s="41"/>
-    </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E178" s="44"/>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="14">
         <v>178</v>
       </c>
@@ -8484,9 +8452,9 @@
       <c r="D179" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E179" s="41"/>
-    </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E179" s="44"/>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>179</v>
       </c>
@@ -8499,9 +8467,9 @@
       <c r="D180" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E180" s="41"/>
-    </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E180" s="44"/>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="14">
         <v>180</v>
       </c>
@@ -8514,9 +8482,9 @@
       <c r="D181" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="E181" s="41"/>
-    </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E181" s="44"/>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="14">
         <v>181</v>
       </c>
@@ -8529,9 +8497,9 @@
       <c r="D182" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="E182" s="41"/>
-    </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E182" s="44"/>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="14">
         <v>182</v>
       </c>
@@ -8544,9 +8512,9 @@
       <c r="D183" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E183" s="42"/>
-    </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E183" s="45"/>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="14">
         <v>183</v>
       </c>
@@ -8559,11 +8527,11 @@
       <c r="D184" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E184" s="40" t="s">
+      <c r="E184" s="43" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="14">
         <v>184</v>
       </c>
@@ -8576,9 +8544,9 @@
       <c r="D185" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E185" s="41"/>
-    </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E185" s="44"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>185</v>
       </c>
@@ -8591,9 +8559,9 @@
       <c r="D186" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E186" s="41"/>
-    </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E186" s="44"/>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="14">
         <v>186</v>
       </c>
@@ -8606,9 +8574,9 @@
       <c r="D187" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E187" s="42"/>
-    </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E187" s="45"/>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="14">
         <v>187</v>
       </c>
@@ -8621,11 +8589,11 @@
       <c r="D188" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E188" s="40" t="s">
+      <c r="E188" s="43" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="14">
         <v>188</v>
       </c>
@@ -8638,9 +8606,9 @@
       <c r="D189" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="E189" s="41"/>
-    </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E189" s="44"/>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="14">
         <v>189</v>
       </c>
@@ -8653,9 +8621,9 @@
       <c r="D190" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E190" s="41"/>
-    </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E190" s="44"/>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="14">
         <v>190</v>
       </c>
@@ -8668,9 +8636,9 @@
       <c r="D191" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E191" s="41"/>
-    </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E191" s="44"/>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="14">
         <v>191</v>
       </c>
@@ -8683,9 +8651,9 @@
       <c r="D192" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E192" s="41"/>
-    </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E192" s="44"/>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="14">
         <v>192</v>
       </c>
@@ -8698,9 +8666,9 @@
       <c r="D193" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E193" s="41"/>
-    </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E193" s="44"/>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="14">
         <v>193</v>
       </c>
@@ -8713,9 +8681,9 @@
       <c r="D194" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E194" s="41"/>
-    </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E194" s="44"/>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="14">
         <v>194</v>
       </c>
@@ -8728,9 +8696,9 @@
       <c r="D195" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E195" s="41"/>
-    </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E195" s="44"/>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="14">
         <v>195</v>
       </c>
@@ -8743,9 +8711,9 @@
       <c r="D196" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E196" s="41"/>
-    </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E196" s="44"/>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="14">
         <v>196</v>
       </c>
@@ -8758,9 +8726,9 @@
       <c r="D197" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="E197" s="41"/>
-    </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E197" s="44"/>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="14">
         <v>197</v>
       </c>
@@ -8773,9 +8741,9 @@
       <c r="D198" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="E198" s="41"/>
-    </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E198" s="44"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="14">
         <v>198</v>
       </c>
@@ -8788,9 +8756,9 @@
       <c r="D199" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E199" s="41"/>
-    </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E199" s="44"/>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="14">
         <v>199</v>
       </c>
@@ -8803,9 +8771,9 @@
       <c r="D200" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E200" s="41"/>
-    </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E200" s="44"/>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="14">
         <v>200</v>
       </c>
@@ -8818,9 +8786,9 @@
       <c r="D201" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="E201" s="42"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E201" s="45"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="14">
         <v>201</v>
       </c>
@@ -8837,7 +8805,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="14">
         <v>202</v>
       </c>
@@ -8850,11 +8818,11 @@
       <c r="D203" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="E203" s="40" t="s">
+      <c r="E203" s="43" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="14">
         <v>203</v>
       </c>
@@ -8867,9 +8835,9 @@
       <c r="D204" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="E204" s="41"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E204" s="44"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="14">
         <v>204</v>
       </c>
@@ -8882,9 +8850,9 @@
       <c r="D205" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="E205" s="41"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E205" s="44"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="14">
         <v>205</v>
       </c>
@@ -8897,9 +8865,9 @@
       <c r="D206" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E206" s="41"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E206" s="44"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="14">
         <v>206</v>
       </c>
@@ -8912,9 +8880,9 @@
       <c r="D207" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E207" s="41"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E207" s="44"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="14">
         <v>207</v>
       </c>
@@ -8927,9 +8895,9 @@
       <c r="D208" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="E208" s="41"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="44"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="14">
         <v>208</v>
       </c>
@@ -8946,7 +8914,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="14">
         <v>209</v>
       </c>
@@ -8963,7 +8931,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="14">
         <v>210</v>
       </c>
@@ -8980,7 +8948,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="14">
         <v>211</v>
       </c>
@@ -8995,7 +8963,7 @@
       </c>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="14">
         <v>212</v>
       </c>
@@ -9010,7 +8978,7 @@
       </c>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="14">
         <v>213</v>
       </c>
@@ -9025,7 +8993,7 @@
       </c>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="14">
         <v>214</v>
       </c>
@@ -9040,7 +9008,7 @@
       </c>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="14">
         <v>215</v>
       </c>
@@ -9055,7 +9023,7 @@
       </c>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="14">
         <v>216</v>
       </c>
@@ -9070,7 +9038,7 @@
       </c>
       <c r="E217" s="12"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="14">
         <v>217</v>
       </c>
@@ -9085,7 +9053,7 @@
       </c>
       <c r="E218" s="12"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="14">
         <v>218</v>
       </c>
@@ -9100,7 +9068,7 @@
       </c>
       <c r="E219" s="12"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="14">
         <v>219</v>
       </c>
@@ -9115,7 +9083,7 @@
       </c>
       <c r="E220" s="36"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="14">
         <v>220</v>
       </c>
@@ -9130,7 +9098,7 @@
       </c>
       <c r="E221" s="12"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="14">
         <v>221</v>
       </c>
@@ -9145,7 +9113,7 @@
       </c>
       <c r="E222" s="12"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="14">
         <v>222</v>
       </c>
@@ -9160,7 +9128,7 @@
       </c>
       <c r="E223" s="12"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="14">
         <v>223</v>
       </c>
@@ -9175,7 +9143,7 @@
       </c>
       <c r="E224" s="12"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="14">
         <v>224</v>
       </c>
@@ -9190,7 +9158,7 @@
       </c>
       <c r="E225" s="12"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="14">
         <v>225</v>
       </c>
@@ -9205,7 +9173,7 @@
       </c>
       <c r="E226" s="12"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="14">
         <v>226</v>
       </c>
@@ -9220,7 +9188,7 @@
       </c>
       <c r="E227" s="12"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="14">
         <v>227</v>
       </c>
@@ -9235,7 +9203,7 @@
       </c>
       <c r="E228" s="12"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="14">
         <v>228</v>
       </c>
@@ -9250,7 +9218,7 @@
       </c>
       <c r="E229" s="12"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="14">
         <v>229</v>
       </c>
@@ -9265,7 +9233,7 @@
       </c>
       <c r="E230" s="12"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="14">
         <v>230</v>
       </c>
@@ -9280,7 +9248,7 @@
       </c>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="14">
         <v>231</v>
       </c>
@@ -9295,7 +9263,7 @@
       </c>
       <c r="E232" s="37"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="14">
         <v>232</v>
       </c>
@@ -9310,7 +9278,7 @@
       </c>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="14">
         <v>233</v>
       </c>
@@ -9325,7 +9293,7 @@
       </c>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="14">
         <v>234</v>
       </c>
@@ -9338,7 +9306,7 @@
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="14">
         <v>235</v>
       </c>
@@ -9351,7 +9319,7 @@
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="14">
         <v>236</v>
       </c>
@@ -9364,11 +9332,11 @@
       <c r="D237" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E237" s="40" t="s">
+      <c r="E237" s="43" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="14">
         <v>237</v>
       </c>
@@ -9381,9 +9349,9 @@
       <c r="D238" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="E238" s="41"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="44"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="14">
         <v>238</v>
       </c>
@@ -9396,9 +9364,9 @@
       <c r="D239" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E239" s="41"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="44"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="14">
         <v>239</v>
       </c>
@@ -9411,9 +9379,9 @@
       <c r="D240" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="E240" s="41"/>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E240" s="44"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="14">
         <v>240</v>
       </c>
@@ -9426,9 +9394,9 @@
       <c r="D241" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E241" s="41"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E241" s="44"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="14">
         <v>241</v>
       </c>
@@ -9441,9 +9409,9 @@
       <c r="D242" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E242" s="41"/>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E242" s="44"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="14">
         <v>242</v>
       </c>
@@ -9456,9 +9424,9 @@
       <c r="D243" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E243" s="41"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E243" s="44"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="14">
         <v>243</v>
       </c>
@@ -9471,9 +9439,9 @@
       <c r="D244" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E244" s="42"/>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E244" s="45"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="14">
         <v>244</v>
       </c>
@@ -9490,7 +9458,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="14">
         <v>245</v>
       </c>
@@ -9503,7 +9471,7 @@
       <c r="D246" s="12"/>
       <c r="E246" s="38"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="14">
         <v>246</v>
       </c>
@@ -9516,7 +9484,7 @@
       <c r="D247" s="12"/>
       <c r="E247" s="38"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="14">
         <v>247</v>
       </c>
@@ -9525,7 +9493,7 @@
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="14">
         <v>248</v>
       </c>
@@ -9534,7 +9502,7 @@
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="14">
         <v>249</v>
       </c>
@@ -9542,7 +9510,7 @@
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="14">
         <v>250</v>
       </c>
@@ -9550,7 +9518,7 @@
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
     </row>
-    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="14">
         <v>251</v>
       </c>
@@ -9562,31 +9530,31 @@
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="14">
         <v>252</v>
       </c>
       <c r="C253" s="28"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="14">
         <v>253</v>
       </c>
       <c r="C254" s="28"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="14">
         <v>254</v>
       </c>
       <c r="C255" s="28"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="14">
         <v>255</v>
       </c>
       <c r="C256" s="28"/>
     </row>
-    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="24"/>
       <c r="C257" s="25"/>
@@ -9598,12 +9566,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9615,11 +9582,12 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9627,27 +9595,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -9664,7 +9632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9677,13 +9645,13 @@
       <c r="D2" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="43" t="s">
         <v>375</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9696,11 +9664,11 @@
       <c r="D3" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9713,11 +9681,11 @@
       <c r="D4" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9730,11 +9698,11 @@
       <c r="D5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -9747,11 +9715,11 @@
       <c r="D6" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -9764,11 +9732,11 @@
       <c r="D7" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9781,11 +9749,11 @@
       <c r="D8" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9798,11 +9766,11 @@
       <c r="D9" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="41"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9815,11 +9783,11 @@
       <c r="D10" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -9832,11 +9800,11 @@
       <c r="D11" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -9849,11 +9817,11 @@
       <c r="D12" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -9866,11 +9834,11 @@
       <c r="D13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -9883,11 +9851,11 @@
       <c r="D14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -9900,11 +9868,11 @@
       <c r="D15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -9917,13 +9885,13 @@
       <c r="D16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="43" t="s">
         <v>376</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -9936,11 +9904,11 @@
       <c r="D17" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -9953,11 +9921,11 @@
       <c r="D18" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -9970,11 +9938,11 @@
       <c r="D19" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -9987,11 +9955,11 @@
       <c r="D20" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -10004,11 +9972,11 @@
       <c r="D21" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -10021,11 +9989,11 @@
       <c r="D22" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -10038,11 +10006,11 @@
       <c r="D23" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -10055,13 +10023,13 @@
       <c r="D24" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="43" t="s">
         <v>377</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -10074,11 +10042,11 @@
       <c r="D25" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -10091,11 +10059,11 @@
       <c r="D26" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -10108,11 +10076,11 @@
       <c r="D27" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -10125,11 +10093,11 @@
       <c r="D28" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="41"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -10142,11 +10110,11 @@
       <c r="D29" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E29" s="41"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -10159,11 +10127,11 @@
       <c r="D30" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E30" s="41"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -10176,11 +10144,11 @@
       <c r="D31" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -10199,7 +10167,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -10218,7 +10186,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -10231,13 +10199,13 @@
       <c r="D34" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="43" t="s">
         <v>378</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -10250,11 +10218,11 @@
       <c r="D35" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E35" s="41"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -10267,11 +10235,11 @@
       <c r="D36" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="41"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -10284,11 +10252,11 @@
       <c r="D37" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="41"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -10301,11 +10269,11 @@
       <c r="D38" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="41"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -10318,11 +10286,11 @@
       <c r="D39" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="41"/>
+      <c r="E39" s="44"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -10335,11 +10303,11 @@
       <c r="D40" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="E40" s="41"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -10352,11 +10320,11 @@
       <c r="D41" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E41" s="41"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -10369,11 +10337,11 @@
       <c r="D42" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E42" s="41"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -10386,11 +10354,11 @@
       <c r="D43" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E43" s="41"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -10403,11 +10371,11 @@
       <c r="D44" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E44" s="41"/>
+      <c r="E44" s="44"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -10420,11 +10388,11 @@
       <c r="D45" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="41"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -10437,11 +10405,11 @@
       <c r="D46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="41"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -10454,11 +10422,11 @@
       <c r="D47" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E47" s="42"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -10471,13 +10439,13 @@
       <c r="D48" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="43" t="s">
         <v>379</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -10490,11 +10458,11 @@
       <c r="D49" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="41"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -10507,11 +10475,11 @@
       <c r="D50" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E50" s="41"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -10524,11 +10492,11 @@
       <c r="D51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E51" s="41"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -10541,11 +10509,11 @@
       <c r="D52" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E52" s="41"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -10558,11 +10526,11 @@
       <c r="D53" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="E53" s="41"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -10575,11 +10543,11 @@
       <c r="D54" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E54" s="41"/>
+      <c r="E54" s="44"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -10592,11 +10560,11 @@
       <c r="D55" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="E55" s="42"/>
+      <c r="E55" s="45"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -10609,13 +10577,13 @@
       <c r="D56" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E56" s="40" t="s">
+      <c r="E56" s="43" t="s">
         <v>380</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -10628,11 +10596,11 @@
       <c r="D57" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="E57" s="41"/>
+      <c r="E57" s="44"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -10645,11 +10613,11 @@
       <c r="D58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E58" s="41"/>
+      <c r="E58" s="44"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -10662,11 +10630,11 @@
       <c r="D59" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="41"/>
+      <c r="E59" s="44"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -10679,11 +10647,11 @@
       <c r="D60" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E60" s="41"/>
+      <c r="E60" s="44"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -10696,11 +10664,11 @@
       <c r="D61" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E61" s="41"/>
+      <c r="E61" s="44"/>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10713,11 +10681,11 @@
       <c r="D62" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="41"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10730,11 +10698,11 @@
       <c r="D63" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="41"/>
+      <c r="E63" s="44"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10747,11 +10715,11 @@
       <c r="D64" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="41"/>
+      <c r="E64" s="44"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10764,11 +10732,11 @@
       <c r="D65" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E65" s="41"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10781,11 +10749,11 @@
       <c r="D66" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E66" s="41"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10798,11 +10766,11 @@
       <c r="D67" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="E67" s="41"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10815,11 +10783,11 @@
       <c r="D68" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E68" s="41"/>
+      <c r="E68" s="44"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10832,11 +10800,11 @@
       <c r="D69" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E69" s="41"/>
+      <c r="E69" s="44"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10849,11 +10817,11 @@
       <c r="D70" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E70" s="41"/>
+      <c r="E70" s="44"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10866,11 +10834,11 @@
       <c r="D71" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E71" s="42"/>
+      <c r="E71" s="45"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10889,7 +10857,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10902,13 +10870,13 @@
       <c r="D73" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E73" s="48" t="s">
         <v>381</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10921,11 +10889,11 @@
       <c r="D74" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="48"/>
+      <c r="E74" s="51"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10938,13 +10906,13 @@
       <c r="D75" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E75" s="43" t="s">
         <v>382</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10957,11 +10925,11 @@
       <c r="D76" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="41"/>
+      <c r="E76" s="44"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10974,11 +10942,11 @@
       <c r="D77" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E77" s="41"/>
+      <c r="E77" s="44"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10991,11 +10959,11 @@
       <c r="D78" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="41"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -11008,11 +10976,11 @@
       <c r="D79" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="E79" s="41"/>
+      <c r="E79" s="44"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -11025,11 +10993,11 @@
       <c r="D80" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="41"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -11042,11 +11010,11 @@
       <c r="D81" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="41"/>
+      <c r="E81" s="44"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -11059,11 +11027,11 @@
       <c r="D82" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="41"/>
+      <c r="E82" s="44"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -11076,11 +11044,11 @@
       <c r="D83" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="41"/>
+      <c r="E83" s="44"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -11093,11 +11061,11 @@
       <c r="D84" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="41"/>
+      <c r="E84" s="44"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -11110,11 +11078,11 @@
       <c r="D85" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="41"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -11127,11 +11095,11 @@
       <c r="D86" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="41"/>
+      <c r="E86" s="44"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -11144,11 +11112,11 @@
       <c r="D87" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="41"/>
+      <c r="E87" s="44"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -11161,11 +11129,11 @@
       <c r="D88" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="42"/>
+      <c r="E88" s="45"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -11178,13 +11146,13 @@
       <c r="D89" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="45" t="s">
+      <c r="E89" s="48" t="s">
         <v>383</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -11197,11 +11165,11 @@
       <c r="D90" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="48"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -11214,13 +11182,13 @@
       <c r="D91" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="43" t="s">
         <v>384</v>
       </c>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -11233,11 +11201,11 @@
       <c r="D92" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E92" s="41"/>
+      <c r="E92" s="44"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -11250,11 +11218,11 @@
       <c r="D93" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E93" s="41"/>
+      <c r="E93" s="44"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -11267,11 +11235,11 @@
       <c r="D94" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E94" s="41"/>
+      <c r="E94" s="44"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -11284,11 +11252,11 @@
       <c r="D95" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="41"/>
+      <c r="E95" s="44"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -11301,11 +11269,11 @@
       <c r="D96" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="41"/>
+      <c r="E96" s="44"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -11318,11 +11286,11 @@
       <c r="D97" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="E97" s="41"/>
+      <c r="E97" s="44"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -11335,11 +11303,11 @@
       <c r="D98" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E98" s="41"/>
+      <c r="E98" s="44"/>
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -11352,11 +11320,11 @@
       <c r="D99" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E99" s="41"/>
+      <c r="E99" s="44"/>
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -11369,11 +11337,11 @@
       <c r="D100" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E100" s="41"/>
+      <c r="E100" s="44"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -11386,11 +11354,11 @@
       <c r="D101" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E101" s="41"/>
+      <c r="E101" s="44"/>
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -11403,11 +11371,11 @@
       <c r="D102" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E102" s="41"/>
+      <c r="E102" s="44"/>
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -11420,11 +11388,11 @@
       <c r="D103" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="E103" s="41"/>
+      <c r="E103" s="44"/>
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -11437,11 +11405,11 @@
       <c r="D104" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="E104" s="42"/>
+      <c r="E104" s="45"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -11454,13 +11422,13 @@
       <c r="D105" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="43" t="s">
         <v>385</v>
       </c>
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -11473,11 +11441,11 @@
       <c r="D106" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E106" s="41"/>
+      <c r="E106" s="44"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -11490,11 +11458,11 @@
       <c r="D107" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="E107" s="41"/>
+      <c r="E107" s="44"/>
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -11507,11 +11475,11 @@
       <c r="D108" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="E108" s="41"/>
+      <c r="E108" s="44"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -11524,11 +11492,11 @@
       <c r="D109" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="41"/>
+      <c r="E109" s="44"/>
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -11541,11 +11509,11 @@
       <c r="D110" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="E110" s="41"/>
+      <c r="E110" s="44"/>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -11558,11 +11526,11 @@
       <c r="D111" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="E111" s="41"/>
+      <c r="E111" s="44"/>
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -11575,11 +11543,11 @@
       <c r="D112" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="E112" s="42"/>
+      <c r="E112" s="45"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -11599,7 +11567,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -11618,7 +11586,7 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -11638,16 +11606,26 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
         <v>115</v>
       </c>
-      <c r="B116" s="5"/>
-      <c r="D116" s="5"/>
+      <c r="B116" s="39" t="s">
+        <v>865</v>
+      </c>
+      <c r="C116" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="39" t="s">
+        <v>869</v>
+      </c>
+      <c r="E116" s="41" t="s">
+        <v>866</v>
+      </c>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -11659,7 +11637,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -11668,7 +11646,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -11680,7 +11658,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -11689,7 +11667,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -11701,165 +11679,147 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="49">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="14">
         <v>121</v>
       </c>
-      <c r="B122" s="39" t="s">
-        <v>865</v>
-      </c>
-      <c r="C122" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D122" s="39" t="s">
-        <v>866</v>
-      </c>
-      <c r="E122" s="50" t="s">
-        <v>867</v>
-      </c>
+      <c r="B122" s="5"/>
+      <c r="D122" s="5"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="49">
+    <row r="123" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="14">
         <v>122</v>
       </c>
-      <c r="B123" s="51" t="s">
-        <v>868</v>
-      </c>
-      <c r="C123" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="D123" s="39" t="s">
-        <v>866</v>
-      </c>
-      <c r="E123" s="50" t="s">
-        <v>869</v>
-      </c>
+      <c r="B123" s="32"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="7"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -11869,13 +11829,13 @@
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="43" t="s">
+      <c r="D141" s="46" t="s">
         <v>424</v>
       </c>
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -11885,11 +11845,11 @@
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="43"/>
+      <c r="D142" s="46"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -11899,11 +11859,11 @@
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="43"/>
+      <c r="D143" s="46"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -11913,11 +11873,11 @@
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="43"/>
+      <c r="D144" s="46"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -11927,13 +11887,13 @@
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="43" t="s">
+      <c r="D145" s="46" t="s">
         <v>425</v>
       </c>
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -11943,11 +11903,11 @@
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="43"/>
+      <c r="D146" s="46"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -11957,14 +11917,14 @@
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="43"/>
+      <c r="D147" s="46"/>
       <c r="E147" s="7" t="s">
         <v>864</v>
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -11974,11 +11934,11 @@
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="43"/>
+      <c r="D148" s="46"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -11988,13 +11948,13 @@
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="43" t="s">
+      <c r="D149" s="46" t="s">
         <v>426</v>
       </c>
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -12004,11 +11964,11 @@
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="43"/>
+      <c r="D150" s="46"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -12018,11 +11978,11 @@
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="43"/>
+      <c r="D151" s="46"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -12032,11 +11992,11 @@
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="43"/>
+      <c r="D152" s="46"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -12046,11 +12006,11 @@
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="43"/>
+      <c r="D153" s="46"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -12060,11 +12020,11 @@
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="43"/>
+      <c r="D154" s="46"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -12074,11 +12034,11 @@
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="43"/>
+      <c r="D155" s="46"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -12088,11 +12048,11 @@
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="43"/>
+      <c r="D156" s="46"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -12102,13 +12062,13 @@
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="43" t="s">
+      <c r="D157" s="46" t="s">
         <v>427</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -12118,11 +12078,11 @@
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="43"/>
+      <c r="D158" s="46"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -12132,11 +12092,11 @@
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="43"/>
+      <c r="D159" s="46"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -12146,11 +12106,11 @@
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="43"/>
+      <c r="D160" s="46"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -12160,13 +12120,13 @@
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="43" t="s">
+      <c r="D161" s="46" t="s">
         <v>428</v>
       </c>
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -12176,11 +12136,11 @@
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="43"/>
+      <c r="D162" s="46"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -12190,14 +12150,14 @@
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="43"/>
+      <c r="D163" s="46"/>
       <c r="E163" s="7" t="s">
         <v>863</v>
       </c>
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -12207,11 +12167,11 @@
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="43"/>
+      <c r="D164" s="46"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -12221,13 +12181,13 @@
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="43" t="s">
+      <c r="D165" s="46" t="s">
         <v>562</v>
       </c>
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -12237,11 +12197,11 @@
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="43"/>
+      <c r="D166" s="46"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -12251,11 +12211,11 @@
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="43"/>
+      <c r="D167" s="46"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -12265,11 +12225,11 @@
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="43"/>
+      <c r="D168" s="46"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -12279,11 +12239,11 @@
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="43"/>
+      <c r="D169" s="46"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -12293,11 +12253,11 @@
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="43"/>
+      <c r="D170" s="46"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -12307,11 +12267,11 @@
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="43"/>
+      <c r="D171" s="46"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -12321,11 +12281,11 @@
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="43"/>
+      <c r="D172" s="46"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -12335,13 +12295,13 @@
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="43" t="s">
+      <c r="D173" s="46" t="s">
         <v>571</v>
       </c>
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -12351,11 +12311,11 @@
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="43"/>
+      <c r="D174" s="46"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -12365,11 +12325,11 @@
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="43"/>
+      <c r="D175" s="46"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -12379,11 +12339,11 @@
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="43"/>
+      <c r="D176" s="46"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -12393,16 +12353,16 @@
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="43" t="s">
+      <c r="D177" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="E177" s="45" t="s">
+      <c r="E177" s="48" t="s">
         <v>429</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -12412,12 +12372,12 @@
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="44"/>
-      <c r="E178" s="46"/>
+      <c r="D178" s="47"/>
+      <c r="E178" s="49"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -12427,12 +12387,12 @@
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="44"/>
-      <c r="E179" s="46"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="49"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -12442,12 +12402,12 @@
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="44"/>
-      <c r="E180" s="46"/>
+      <c r="D180" s="47"/>
+      <c r="E180" s="49"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -12457,12 +12417,12 @@
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="44"/>
-      <c r="E181" s="46"/>
+      <c r="D181" s="47"/>
+      <c r="E181" s="49"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -12472,12 +12432,12 @@
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="44"/>
-      <c r="E182" s="46"/>
+      <c r="D182" s="47"/>
+      <c r="E182" s="49"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -12487,12 +12447,12 @@
       <c r="C183" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="44"/>
-      <c r="E183" s="46"/>
+      <c r="D183" s="47"/>
+      <c r="E183" s="49"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -12502,13 +12462,13 @@
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="47" t="s">
+      <c r="D184" s="50" t="s">
         <v>588</v>
       </c>
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -12518,11 +12478,11 @@
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="47"/>
+      <c r="D185" s="50"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -12532,11 +12492,11 @@
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="47"/>
+      <c r="D186" s="50"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -12546,11 +12506,11 @@
       <c r="C187" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="47"/>
+      <c r="D187" s="50"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -12559,7 +12519,7 @@
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -12568,7 +12528,7 @@
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -12577,7 +12537,7 @@
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>190</v>
       </c>
@@ -12586,7 +12546,7 @@
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>191</v>
       </c>
@@ -12595,7 +12555,7 @@
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>192</v>
       </c>
@@ -12604,7 +12564,7 @@
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>193</v>
       </c>
@@ -12613,126 +12573,126 @@
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>194</v>
       </c>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>195</v>
       </c>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>196</v>
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>197</v>
       </c>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>198</v>
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>199</v>
       </c>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>200</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>201</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>202</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>203</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>204</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>205</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>206</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>207</v>
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>208</v>
       </c>
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>209</v>
       </c>
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>210</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -12748,7 +12708,7 @@
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -12764,7 +12724,7 @@
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -12780,7 +12740,7 @@
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -12796,7 +12756,7 @@
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -12812,7 +12772,7 @@
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -12828,7 +12788,7 @@
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -12844,7 +12804,7 @@
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -12860,7 +12820,7 @@
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -12876,7 +12836,7 @@
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -12892,7 +12852,7 @@
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -12908,7 +12868,7 @@
       <c r="F222" s="9"/>
       <c r="G222" s="9"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -12922,7 +12882,7 @@
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -12936,17 +12896,26 @@
       <c r="F224" s="9"/>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="40">
         <v>224</v>
       </c>
-      <c r="B225" s="32"/>
-      <c r="C225" s="22"/>
-      <c r="D225" s="11"/>
+      <c r="B225" s="42" t="s">
+        <v>867</v>
+      </c>
+      <c r="C225" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D225" s="39" t="s">
+        <v>870</v>
+      </c>
+      <c r="E225" s="41" t="s">
+        <v>868</v>
+      </c>
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -12956,28 +12925,28 @@
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>226</v>
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>227</v>
       </c>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>228</v>
       </c>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -12993,7 +12962,7 @@
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -13012,14 +12981,14 @@
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="14">
         <v>231</v>
       </c>
       <c r="B232" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C232" s="5" t="s">
+      <c r="C232" s="2" t="s">
         <v>353</v>
       </c>
       <c r="D232" s="11" t="s">
@@ -13031,175 +13000,175 @@
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>232</v>
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>233</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>234</v>
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>235</v>
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>236</v>
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>237</v>
       </c>
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>238</v>
       </c>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>239</v>
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="9"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>240</v>
       </c>
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>241</v>
       </c>
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>242</v>
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>243</v>
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>244</v>
       </c>
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>245</v>
       </c>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>246</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="9"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>247</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>248</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="9"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>249</v>
       </c>
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>250</v>
       </c>
       <c r="F251" s="9"/>
       <c r="G251" s="9"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>251</v>
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>252</v>
       </c>
       <c r="F253" s="9"/>
       <c r="G253" s="9"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>253</v>
       </c>
       <c r="F254" s="9"/>
       <c r="G254" s="9"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>254</v>
       </c>
       <c r="F255" s="9"/>
       <c r="G255" s="9"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>255</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
     </row>
-    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="24"/>
       <c r="C257" s="25"/>
@@ -13211,6 +13180,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13226,12 +13201,6 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675199C1-23D8-46D8-8576-42CC5549B994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KNX_1 (192.168.1.51)" sheetId="3" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="900">
   <si>
     <t>Nazwa sygnału</t>
   </si>
@@ -5090,13 +5091,100 @@
   </si>
   <si>
     <t>0/4/13</t>
+  </si>
+  <si>
+    <t>Aktor nowy w garażu</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 1</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 2</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 3</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 4</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 5</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 6</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 7</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 8</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 9</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 10</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 11</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 12</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 13</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 14</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 15</t>
+  </si>
+  <si>
+    <t>P34 Klawisz 16</t>
+  </si>
+  <si>
+    <t>P34 (8) (Garaż)</t>
+  </si>
+  <si>
+    <t>baner 1</t>
+  </si>
+  <si>
+    <t>baner 2</t>
+  </si>
+  <si>
+    <t>lampy bus</t>
+  </si>
+  <si>
+    <t>brama 1</t>
+  </si>
+  <si>
+    <t>brama 2</t>
+  </si>
+  <si>
+    <t>ACT_J Kanał 1</t>
+  </si>
+  <si>
+    <t>ACT_J Kanał 2</t>
+  </si>
+  <si>
+    <t>ACT_J Kanał 3</t>
+  </si>
+  <si>
+    <t>ACT_J Kanał 4</t>
+  </si>
+  <si>
+    <t>ACT_J Kanał 5</t>
+  </si>
+  <si>
+    <t>ACT_J Kanał 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5151,6 +5239,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5245,7 +5339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5378,10 +5472,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -5472,6 +5575,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5507,6 +5627,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -5682,25 +5819,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="F202" sqref="F202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="17" style="13" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="13" customWidth="1"/>
     <col min="6" max="6" width="37" style="7" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="10"/>
+    <col min="7" max="8" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -5722,7 +5859,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -5741,7 +5878,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -5756,7 +5893,7 @@
       </c>
       <c r="E3" s="44"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -5771,7 +5908,7 @@
       </c>
       <c r="E4" s="44"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5786,7 +5923,7 @@
       </c>
       <c r="E5" s="44"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -5801,7 +5938,7 @@
       </c>
       <c r="E6" s="44"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -5816,7 +5953,7 @@
       </c>
       <c r="E7" s="44"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -5831,7 +5968,7 @@
       </c>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -5846,7 +5983,7 @@
       </c>
       <c r="E9" s="44"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5861,7 +5998,7 @@
       </c>
       <c r="E10" s="44"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -5876,7 +6013,7 @@
       </c>
       <c r="E11" s="44"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -5891,7 +6028,7 @@
       </c>
       <c r="E12" s="44"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -5906,7 +6043,7 @@
       </c>
       <c r="E13" s="44"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -5921,7 +6058,7 @@
       </c>
       <c r="E14" s="44"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -5936,7 +6073,7 @@
       </c>
       <c r="E15" s="45"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -5953,7 +6090,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -5970,7 +6107,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -5987,7 +6124,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -6002,7 +6139,7 @@
       </c>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -6017,7 +6154,7 @@
       </c>
       <c r="E20" s="44"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -6032,7 +6169,7 @@
       </c>
       <c r="E21" s="44"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -6047,7 +6184,7 @@
       </c>
       <c r="E22" s="44"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -6062,7 +6199,7 @@
       </c>
       <c r="E23" s="44"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -6077,7 +6214,7 @@
       </c>
       <c r="E24" s="44"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -6092,7 +6229,7 @@
       </c>
       <c r="E25" s="45"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -6109,7 +6246,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -6124,7 +6261,7 @@
       </c>
       <c r="E27" s="44"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -6139,7 +6276,7 @@
       </c>
       <c r="E28" s="44"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -6154,7 +6291,7 @@
       </c>
       <c r="E29" s="44"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -6169,7 +6306,7 @@
       </c>
       <c r="E30" s="44"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -6184,7 +6321,7 @@
       </c>
       <c r="E31" s="44"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -6199,7 +6336,7 @@
       </c>
       <c r="E32" s="44"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -6214,7 +6351,7 @@
       </c>
       <c r="E33" s="44"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -6229,7 +6366,7 @@
       </c>
       <c r="E34" s="44"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -6244,7 +6381,7 @@
       </c>
       <c r="E35" s="44"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -6259,7 +6396,7 @@
       </c>
       <c r="E36" s="44"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -6274,7 +6411,7 @@
       </c>
       <c r="E37" s="44"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -6289,7 +6426,7 @@
       </c>
       <c r="E38" s="44"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -6304,7 +6441,7 @@
       </c>
       <c r="E39" s="45"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -6321,7 +6458,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -6336,7 +6473,7 @@
       </c>
       <c r="E41" s="44"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -6351,7 +6488,7 @@
       </c>
       <c r="E42" s="44"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -6366,7 +6503,7 @@
       </c>
       <c r="E43" s="44"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -6381,7 +6518,7 @@
       </c>
       <c r="E44" s="44"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -6396,7 +6533,7 @@
       </c>
       <c r="E45" s="44"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -6411,7 +6548,7 @@
       </c>
       <c r="E46" s="44"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -6426,7 +6563,7 @@
       </c>
       <c r="E47" s="44"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -6441,7 +6578,7 @@
       </c>
       <c r="E48" s="44"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -6456,7 +6593,7 @@
       </c>
       <c r="E49" s="44"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -6471,7 +6608,7 @@
       </c>
       <c r="E50" s="44"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -6486,7 +6623,7 @@
       </c>
       <c r="E51" s="44"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -6501,7 +6638,7 @@
       </c>
       <c r="E52" s="44"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6516,7 +6653,7 @@
       </c>
       <c r="E53" s="45"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -6533,7 +6670,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -6548,7 +6685,7 @@
       </c>
       <c r="E55" s="44"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -6563,7 +6700,7 @@
       </c>
       <c r="E56" s="44"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -6578,7 +6715,7 @@
       </c>
       <c r="E57" s="44"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -6593,7 +6730,7 @@
       </c>
       <c r="E58" s="44"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -6608,7 +6745,7 @@
       </c>
       <c r="E59" s="44"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -6623,7 +6760,7 @@
       </c>
       <c r="E60" s="44"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -6638,7 +6775,7 @@
       </c>
       <c r="E61" s="45"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -6655,7 +6792,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -6670,7 +6807,7 @@
       </c>
       <c r="E63" s="44"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -6685,7 +6822,7 @@
       </c>
       <c r="E64" s="44"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -6700,7 +6837,7 @@
       </c>
       <c r="E65" s="44"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -6715,7 +6852,7 @@
       </c>
       <c r="E66" s="44"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -6730,7 +6867,7 @@
       </c>
       <c r="E67" s="44"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -6745,7 +6882,7 @@
       </c>
       <c r="E68" s="44"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -6760,7 +6897,7 @@
       </c>
       <c r="E69" s="45"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -6777,7 +6914,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -6792,7 +6929,7 @@
       </c>
       <c r="E71" s="44"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -6807,7 +6944,7 @@
       </c>
       <c r="E72" s="44"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -6822,7 +6959,7 @@
       </c>
       <c r="E73" s="44"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -6837,7 +6974,7 @@
       </c>
       <c r="E74" s="44"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -6852,7 +6989,7 @@
       </c>
       <c r="E75" s="44"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -6867,7 +7004,7 @@
       </c>
       <c r="E76" s="44"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -6882,7 +7019,7 @@
       </c>
       <c r="E77" s="45"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -6899,7 +7036,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -6917,7 +7054,7 @@
       </c>
       <c r="F79" s="30"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>79</v>
       </c>
@@ -6933,7 +7070,7 @@
       <c r="E80" s="44"/>
       <c r="F80" s="30"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -6949,7 +7086,7 @@
       <c r="E81" s="44"/>
       <c r="F81" s="30"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -6964,7 +7101,7 @@
       </c>
       <c r="E82" s="44"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -6980,7 +7117,7 @@
       <c r="E83" s="44"/>
       <c r="F83" s="30"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -6996,7 +7133,7 @@
       <c r="E84" s="44"/>
       <c r="F84" s="30"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -7012,7 +7149,7 @@
       <c r="E85" s="44"/>
       <c r="F85" s="30"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -7028,7 +7165,7 @@
       <c r="E86" s="45"/>
       <c r="F86" s="30"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -7045,7 +7182,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -7060,7 +7197,7 @@
       </c>
       <c r="E88" s="45"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -7077,7 +7214,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -7092,7 +7229,7 @@
       </c>
       <c r="E90" s="44"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -7107,7 +7244,7 @@
       </c>
       <c r="E91" s="44"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -7122,7 +7259,7 @@
       </c>
       <c r="E92" s="44"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -7137,7 +7274,7 @@
       </c>
       <c r="E93" s="44"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -7152,7 +7289,7 @@
       </c>
       <c r="E94" s="44"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -7167,7 +7304,7 @@
       </c>
       <c r="E95" s="44"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -7182,7 +7319,7 @@
       </c>
       <c r="E96" s="44"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -7197,7 +7334,7 @@
       </c>
       <c r="E97" s="44"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>97</v>
       </c>
@@ -7212,7 +7349,7 @@
       </c>
       <c r="E98" s="44"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>98</v>
       </c>
@@ -7227,7 +7364,7 @@
       </c>
       <c r="E99" s="44"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>99</v>
       </c>
@@ -7242,7 +7379,7 @@
       </c>
       <c r="E100" s="44"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>100</v>
       </c>
@@ -7257,7 +7394,7 @@
       </c>
       <c r="E101" s="44"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>101</v>
       </c>
@@ -7272,7 +7409,7 @@
       </c>
       <c r="E102" s="45"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>102</v>
       </c>
@@ -7289,7 +7426,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>103</v>
       </c>
@@ -7304,7 +7441,7 @@
       </c>
       <c r="E104" s="44"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="14">
         <v>104</v>
       </c>
@@ -7319,7 +7456,7 @@
       </c>
       <c r="E105" s="44"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="14">
         <v>105</v>
       </c>
@@ -7334,7 +7471,7 @@
       </c>
       <c r="E106" s="44"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="14">
         <v>106</v>
       </c>
@@ -7349,7 +7486,7 @@
       </c>
       <c r="E107" s="44"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="14">
         <v>107</v>
       </c>
@@ -7364,7 +7501,7 @@
       </c>
       <c r="E108" s="44"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>108</v>
       </c>
@@ -7379,7 +7516,7 @@
       </c>
       <c r="E109" s="44"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>109</v>
       </c>
@@ -7394,7 +7531,7 @@
       </c>
       <c r="E110" s="45"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>110</v>
       </c>
@@ -7411,7 +7548,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="14">
         <v>111</v>
       </c>
@@ -7426,7 +7563,7 @@
       </c>
       <c r="E112" s="44"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -7441,7 +7578,7 @@
       </c>
       <c r="E113" s="44"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="14">
         <v>113</v>
       </c>
@@ -7456,7 +7593,7 @@
       </c>
       <c r="E114" s="44"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -7471,7 +7608,7 @@
       </c>
       <c r="E115" s="44"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="14">
         <v>115</v>
       </c>
@@ -7486,7 +7623,7 @@
       </c>
       <c r="E116" s="44"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="14">
         <v>116</v>
       </c>
@@ -7501,7 +7638,7 @@
       </c>
       <c r="E117" s="44"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="14">
         <v>117</v>
       </c>
@@ -7516,7 +7653,7 @@
       </c>
       <c r="E118" s="44"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="14">
         <v>118</v>
       </c>
@@ -7531,7 +7668,7 @@
       </c>
       <c r="E119" s="44"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="14">
         <v>119</v>
       </c>
@@ -7546,7 +7683,7 @@
       </c>
       <c r="E120" s="44"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="14">
         <v>120</v>
       </c>
@@ -7561,7 +7698,7 @@
       </c>
       <c r="E121" s="44"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="14">
         <v>121</v>
       </c>
@@ -7576,7 +7713,7 @@
       </c>
       <c r="E122" s="44"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="14">
         <v>122</v>
       </c>
@@ -7591,7 +7728,7 @@
       </c>
       <c r="E123" s="44"/>
     </row>
-    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14">
         <v>123</v>
       </c>
@@ -7606,7 +7743,7 @@
       </c>
       <c r="E124" s="45"/>
     </row>
-    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14">
         <v>124</v>
       </c>
@@ -7623,7 +7760,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14">
         <v>125</v>
       </c>
@@ -7638,7 +7775,7 @@
       </c>
       <c r="E126" s="44"/>
     </row>
-    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14">
         <v>126</v>
       </c>
@@ -7653,7 +7790,7 @@
       </c>
       <c r="E127" s="44"/>
     </row>
-    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14">
         <v>127</v>
       </c>
@@ -7668,7 +7805,7 @@
       </c>
       <c r="E128" s="44"/>
     </row>
-    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>128</v>
       </c>
@@ -7683,7 +7820,7 @@
       </c>
       <c r="E129" s="44"/>
     </row>
-    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14">
         <v>129</v>
       </c>
@@ -7698,7 +7835,7 @@
       </c>
       <c r="E130" s="44"/>
     </row>
-    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14">
         <v>130</v>
       </c>
@@ -7713,7 +7850,7 @@
       </c>
       <c r="E131" s="44"/>
     </row>
-    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14">
         <v>131</v>
       </c>
@@ -7728,7 +7865,7 @@
       </c>
       <c r="E132" s="44"/>
     </row>
-    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>132</v>
       </c>
@@ -7743,7 +7880,7 @@
       </c>
       <c r="E133" s="44"/>
     </row>
-    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14">
         <v>133</v>
       </c>
@@ -7758,7 +7895,7 @@
       </c>
       <c r="E134" s="44"/>
     </row>
-    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>134</v>
       </c>
@@ -7773,7 +7910,7 @@
       </c>
       <c r="E135" s="44"/>
     </row>
-    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14">
         <v>135</v>
       </c>
@@ -7788,7 +7925,7 @@
       </c>
       <c r="E136" s="44"/>
     </row>
-    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>136</v>
       </c>
@@ -7803,7 +7940,7 @@
       </c>
       <c r="E137" s="44"/>
     </row>
-    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="14">
         <v>137</v>
       </c>
@@ -7818,7 +7955,7 @@
       </c>
       <c r="E138" s="45"/>
     </row>
-    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>138</v>
       </c>
@@ -7835,7 +7972,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14">
         <v>139</v>
       </c>
@@ -7850,7 +7987,7 @@
       </c>
       <c r="E140" s="44"/>
     </row>
-    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>140</v>
       </c>
@@ -7865,7 +8002,7 @@
       </c>
       <c r="E141" s="44"/>
     </row>
-    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14">
         <v>141</v>
       </c>
@@ -7880,7 +8017,7 @@
       </c>
       <c r="E142" s="44"/>
     </row>
-    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14">
         <v>142</v>
       </c>
@@ -7895,7 +8032,7 @@
       </c>
       <c r="E143" s="44"/>
     </row>
-    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="14">
         <v>143</v>
       </c>
@@ -7910,7 +8047,7 @@
       </c>
       <c r="E144" s="44"/>
     </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>144</v>
       </c>
@@ -7925,7 +8062,7 @@
       </c>
       <c r="E145" s="44"/>
     </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
         <v>145</v>
       </c>
@@ -7940,7 +8077,7 @@
       </c>
       <c r="E146" s="45"/>
     </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>146</v>
       </c>
@@ -7958,7 +8095,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="14">
         <v>147</v>
       </c>
@@ -7976,7 +8113,7 @@
       </c>
       <c r="F148" s="30"/>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>148</v>
       </c>
@@ -7992,7 +8129,7 @@
       <c r="E149" s="44"/>
       <c r="F149" s="30"/>
     </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14">
         <v>149</v>
       </c>
@@ -8008,7 +8145,7 @@
       <c r="E150" s="44"/>
       <c r="F150" s="30"/>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>150</v>
       </c>
@@ -8024,7 +8161,7 @@
       <c r="E151" s="44"/>
       <c r="F151" s="30"/>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="14">
         <v>151</v>
       </c>
@@ -8040,7 +8177,7 @@
       <c r="E152" s="44"/>
       <c r="F152" s="30"/>
     </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>152</v>
       </c>
@@ -8056,7 +8193,7 @@
       <c r="E153" s="44"/>
       <c r="F153" s="30"/>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="14">
         <v>153</v>
       </c>
@@ -8072,7 +8209,7 @@
       <c r="E154" s="44"/>
       <c r="F154" s="30"/>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
         <v>154</v>
       </c>
@@ -8088,7 +8225,7 @@
       <c r="E155" s="45"/>
       <c r="F155" s="30"/>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14">
         <v>155</v>
       </c>
@@ -8105,7 +8242,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>156</v>
       </c>
@@ -8120,7 +8257,7 @@
       </c>
       <c r="E157" s="44"/>
     </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14">
         <v>157</v>
       </c>
@@ -8135,7 +8272,7 @@
       </c>
       <c r="E158" s="44"/>
     </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>158</v>
       </c>
@@ -8150,7 +8287,7 @@
       </c>
       <c r="E159" s="44"/>
     </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14">
         <v>159</v>
       </c>
@@ -8165,7 +8302,7 @@
       </c>
       <c r="E160" s="44"/>
     </row>
-    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="14">
         <v>160</v>
       </c>
@@ -8180,7 +8317,7 @@
       </c>
       <c r="E161" s="44"/>
     </row>
-    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14">
         <v>161</v>
       </c>
@@ -8195,7 +8332,7 @@
       </c>
       <c r="E162" s="44"/>
     </row>
-    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="14">
         <v>162</v>
       </c>
@@ -8210,7 +8347,7 @@
       </c>
       <c r="E163" s="44"/>
     </row>
-    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="14">
         <v>163</v>
       </c>
@@ -8225,7 +8362,7 @@
       </c>
       <c r="E164" s="44"/>
     </row>
-    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="14">
         <v>164</v>
       </c>
@@ -8240,7 +8377,7 @@
       </c>
       <c r="E165" s="44"/>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14">
         <v>165</v>
       </c>
@@ -8255,7 +8392,7 @@
       </c>
       <c r="E166" s="44"/>
     </row>
-    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14">
         <v>166</v>
       </c>
@@ -8270,7 +8407,7 @@
       </c>
       <c r="E167" s="44"/>
     </row>
-    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="14">
         <v>167</v>
       </c>
@@ -8285,7 +8422,7 @@
       </c>
       <c r="E168" s="44"/>
     </row>
-    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="14">
         <v>168</v>
       </c>
@@ -8300,7 +8437,7 @@
       </c>
       <c r="E169" s="45"/>
     </row>
-    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="14">
         <v>169</v>
       </c>
@@ -8317,7 +8454,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="14">
         <v>170</v>
       </c>
@@ -8332,7 +8469,7 @@
       </c>
       <c r="E171" s="44"/>
     </row>
-    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14">
         <v>171</v>
       </c>
@@ -8347,7 +8484,7 @@
       </c>
       <c r="E172" s="44"/>
     </row>
-    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14">
         <v>172</v>
       </c>
@@ -8362,7 +8499,7 @@
       </c>
       <c r="E173" s="44"/>
     </row>
-    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="14">
         <v>173</v>
       </c>
@@ -8377,7 +8514,7 @@
       </c>
       <c r="E174" s="44"/>
     </row>
-    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14">
         <v>174</v>
       </c>
@@ -8392,7 +8529,7 @@
       </c>
       <c r="E175" s="45"/>
     </row>
-    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="14">
         <v>175</v>
       </c>
@@ -8409,7 +8546,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="14">
         <v>176</v>
       </c>
@@ -8424,7 +8561,7 @@
       </c>
       <c r="E177" s="44"/>
     </row>
-    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="14">
         <v>177</v>
       </c>
@@ -8439,7 +8576,7 @@
       </c>
       <c r="E178" s="44"/>
     </row>
-    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="14">
         <v>178</v>
       </c>
@@ -8454,7 +8591,7 @@
       </c>
       <c r="E179" s="44"/>
     </row>
-    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="14">
         <v>179</v>
       </c>
@@ -8469,7 +8606,7 @@
       </c>
       <c r="E180" s="44"/>
     </row>
-    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="14">
         <v>180</v>
       </c>
@@ -8484,7 +8621,7 @@
       </c>
       <c r="E181" s="44"/>
     </row>
-    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="14">
         <v>181</v>
       </c>
@@ -8499,7 +8636,7 @@
       </c>
       <c r="E182" s="44"/>
     </row>
-    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14">
         <v>182</v>
       </c>
@@ -8514,7 +8651,7 @@
       </c>
       <c r="E183" s="45"/>
     </row>
-    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14">
         <v>183</v>
       </c>
@@ -8531,7 +8668,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14">
         <v>184</v>
       </c>
@@ -8546,7 +8683,7 @@
       </c>
       <c r="E185" s="44"/>
     </row>
-    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14">
         <v>185</v>
       </c>
@@ -8561,7 +8698,7 @@
       </c>
       <c r="E186" s="44"/>
     </row>
-    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14">
         <v>186</v>
       </c>
@@ -8576,7 +8713,7 @@
       </c>
       <c r="E187" s="45"/>
     </row>
-    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14">
         <v>187</v>
       </c>
@@ -8593,7 +8730,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="14">
         <v>188</v>
       </c>
@@ -8608,7 +8745,7 @@
       </c>
       <c r="E189" s="44"/>
     </row>
-    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14">
         <v>189</v>
       </c>
@@ -8623,7 +8760,7 @@
       </c>
       <c r="E190" s="44"/>
     </row>
-    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="14">
         <v>190</v>
       </c>
@@ -8638,7 +8775,7 @@
       </c>
       <c r="E191" s="44"/>
     </row>
-    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14">
         <v>191</v>
       </c>
@@ -8653,7 +8790,7 @@
       </c>
       <c r="E192" s="44"/>
     </row>
-    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14">
         <v>192</v>
       </c>
@@ -8668,7 +8805,7 @@
       </c>
       <c r="E193" s="44"/>
     </row>
-    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="14">
         <v>193</v>
       </c>
@@ -8683,7 +8820,7 @@
       </c>
       <c r="E194" s="44"/>
     </row>
-    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14">
         <v>194</v>
       </c>
@@ -8698,7 +8835,7 @@
       </c>
       <c r="E195" s="44"/>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="14">
         <v>195</v>
       </c>
@@ -8713,7 +8850,7 @@
       </c>
       <c r="E196" s="44"/>
     </row>
-    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14">
         <v>196</v>
       </c>
@@ -8728,7 +8865,7 @@
       </c>
       <c r="E197" s="44"/>
     </row>
-    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14">
         <v>197</v>
       </c>
@@ -8743,7 +8880,7 @@
       </c>
       <c r="E198" s="44"/>
     </row>
-    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="14">
         <v>198</v>
       </c>
@@ -8758,7 +8895,7 @@
       </c>
       <c r="E199" s="44"/>
     </row>
-    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="14">
         <v>199</v>
       </c>
@@ -8773,7 +8910,7 @@
       </c>
       <c r="E200" s="44"/>
     </row>
-    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="14">
         <v>200</v>
       </c>
@@ -8788,7 +8925,7 @@
       </c>
       <c r="E201" s="45"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="14">
         <v>201</v>
       </c>
@@ -8805,7 +8942,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="14">
         <v>202</v>
       </c>
@@ -8822,7 +8959,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="14">
         <v>203</v>
       </c>
@@ -8837,7 +8974,7 @@
       </c>
       <c r="E204" s="44"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="14">
         <v>204</v>
       </c>
@@ -8852,7 +8989,7 @@
       </c>
       <c r="E205" s="44"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="14">
         <v>205</v>
       </c>
@@ -8867,7 +9004,7 @@
       </c>
       <c r="E206" s="44"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="14">
         <v>206</v>
       </c>
@@ -8882,7 +9019,7 @@
       </c>
       <c r="E207" s="44"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="14">
         <v>207</v>
       </c>
@@ -8897,7 +9034,7 @@
       </c>
       <c r="E208" s="44"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="14">
         <v>208</v>
       </c>
@@ -8914,7 +9051,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="14">
         <v>209</v>
       </c>
@@ -8931,7 +9068,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="14">
         <v>210</v>
       </c>
@@ -8948,7 +9085,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="14">
         <v>211</v>
       </c>
@@ -8963,7 +9100,7 @@
       </c>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="14">
         <v>212</v>
       </c>
@@ -8978,7 +9115,7 @@
       </c>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="14">
         <v>213</v>
       </c>
@@ -8993,7 +9130,7 @@
       </c>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="14">
         <v>214</v>
       </c>
@@ -9008,7 +9145,7 @@
       </c>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="14">
         <v>215</v>
       </c>
@@ -9023,7 +9160,7 @@
       </c>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="14">
         <v>216</v>
       </c>
@@ -9038,7 +9175,7 @@
       </c>
       <c r="E217" s="12"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="14">
         <v>217</v>
       </c>
@@ -9053,7 +9190,7 @@
       </c>
       <c r="E218" s="12"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="14">
         <v>218</v>
       </c>
@@ -9068,7 +9205,7 @@
       </c>
       <c r="E219" s="12"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="14">
         <v>219</v>
       </c>
@@ -9083,7 +9220,7 @@
       </c>
       <c r="E220" s="36"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="14">
         <v>220</v>
       </c>
@@ -9098,7 +9235,7 @@
       </c>
       <c r="E221" s="12"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="14">
         <v>221</v>
       </c>
@@ -9113,7 +9250,7 @@
       </c>
       <c r="E222" s="12"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="14">
         <v>222</v>
       </c>
@@ -9128,7 +9265,7 @@
       </c>
       <c r="E223" s="12"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="14">
         <v>223</v>
       </c>
@@ -9143,7 +9280,7 @@
       </c>
       <c r="E224" s="12"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="14">
         <v>224</v>
       </c>
@@ -9158,7 +9295,7 @@
       </c>
       <c r="E225" s="12"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="14">
         <v>225</v>
       </c>
@@ -9173,7 +9310,7 @@
       </c>
       <c r="E226" s="12"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="14">
         <v>226</v>
       </c>
@@ -9188,7 +9325,7 @@
       </c>
       <c r="E227" s="12"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="14">
         <v>227</v>
       </c>
@@ -9203,7 +9340,7 @@
       </c>
       <c r="E228" s="12"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="14">
         <v>228</v>
       </c>
@@ -9218,7 +9355,7 @@
       </c>
       <c r="E229" s="12"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="14">
         <v>229</v>
       </c>
@@ -9233,7 +9370,7 @@
       </c>
       <c r="E230" s="12"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="14">
         <v>230</v>
       </c>
@@ -9248,7 +9385,7 @@
       </c>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>231</v>
       </c>
@@ -9263,7 +9400,7 @@
       </c>
       <c r="E232" s="37"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="14">
         <v>232</v>
       </c>
@@ -9278,7 +9415,7 @@
       </c>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="14">
         <v>233</v>
       </c>
@@ -9293,7 +9430,7 @@
       </c>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="14">
         <v>234</v>
       </c>
@@ -9306,7 +9443,7 @@
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="14">
         <v>235</v>
       </c>
@@ -9319,7 +9456,7 @@
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="14">
         <v>236</v>
       </c>
@@ -9336,7 +9473,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>237</v>
       </c>
@@ -9351,7 +9488,7 @@
       </c>
       <c r="E238" s="44"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>238</v>
       </c>
@@ -9366,7 +9503,7 @@
       </c>
       <c r="E239" s="44"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>239</v>
       </c>
@@ -9381,7 +9518,7 @@
       </c>
       <c r="E240" s="44"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>240</v>
       </c>
@@ -9396,7 +9533,7 @@
       </c>
       <c r="E241" s="44"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>241</v>
       </c>
@@ -9411,7 +9548,7 @@
       </c>
       <c r="E242" s="44"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>242</v>
       </c>
@@ -9426,7 +9563,7 @@
       </c>
       <c r="E243" s="44"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>243</v>
       </c>
@@ -9441,7 +9578,7 @@
       </c>
       <c r="E244" s="45"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>244</v>
       </c>
@@ -9458,7 +9595,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
         <v>245</v>
       </c>
@@ -9471,7 +9608,7 @@
       <c r="D246" s="12"/>
       <c r="E246" s="38"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>246</v>
       </c>
@@ -9484,7 +9621,7 @@
       <c r="D247" s="12"/>
       <c r="E247" s="38"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>247</v>
       </c>
@@ -9493,7 +9630,7 @@
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>248</v>
       </c>
@@ -9502,7 +9639,7 @@
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>249</v>
       </c>
@@ -9510,7 +9647,7 @@
       <c r="D250" s="12"/>
       <c r="E250" s="12"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>250</v>
       </c>
@@ -9518,7 +9655,7 @@
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
     </row>
-    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
         <v>251</v>
       </c>
@@ -9530,31 +9667,31 @@
       <c r="G252" s="10"/>
       <c r="H252" s="10"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
         <v>252</v>
       </c>
       <c r="C253" s="28"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="14">
         <v>253</v>
       </c>
       <c r="C254" s="28"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="14">
         <v>254</v>
       </c>
       <c r="C255" s="28"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="14">
         <v>255</v>
       </c>
       <c r="C256" s="28"/>
     </row>
-    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="24"/>
       <c r="C257" s="25"/>
@@ -9566,11 +9703,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9582,12 +9720,11 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9595,27 +9732,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="51.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="39.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -9632,7 +9769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -9651,7 +9788,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -9668,7 +9805,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -9685,7 +9822,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -9702,7 +9839,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -9719,7 +9856,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -9736,7 +9873,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -9753,7 +9890,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -9770,7 +9907,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -9787,7 +9924,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -9804,7 +9941,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -9821,7 +9958,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -9838,7 +9975,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -9855,7 +9992,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -9872,7 +10009,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -9891,7 +10028,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -9908,7 +10045,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -9925,7 +10062,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -9942,7 +10079,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -9959,7 +10096,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -9976,7 +10113,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -9993,7 +10130,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -10010,7 +10147,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -10029,7 +10166,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -10046,7 +10183,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -10063,7 +10200,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -10080,7 +10217,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -10097,7 +10234,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -10114,7 +10251,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -10131,7 +10268,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -10148,7 +10285,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -10167,7 +10304,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -10186,7 +10323,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -10205,7 +10342,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -10222,7 +10359,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -10239,7 +10376,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -10256,7 +10393,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -10273,7 +10410,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -10290,7 +10427,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -10307,7 +10444,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -10324,7 +10461,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -10341,7 +10478,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -10358,7 +10495,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -10375,7 +10512,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -10392,7 +10529,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -10409,7 +10546,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -10426,7 +10563,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -10445,7 +10582,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -10462,7 +10599,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -10479,7 +10616,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -10496,7 +10633,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -10513,7 +10650,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -10530,7 +10667,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -10547,7 +10684,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -10564,7 +10701,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -10583,7 +10720,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -10600,7 +10737,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -10617,7 +10754,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -10634,7 +10771,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -10651,7 +10788,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -10668,7 +10805,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -10685,7 +10822,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -10702,7 +10839,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -10719,7 +10856,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -10736,7 +10873,7 @@
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -10753,7 +10890,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -10770,7 +10907,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -10787,7 +10924,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -10804,7 +10941,7 @@
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -10821,7 +10958,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -10838,7 +10975,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -10857,7 +10994,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -10876,7 +11013,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -10893,7 +11030,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -10912,7 +11049,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -10929,7 +11066,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -10946,7 +11083,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -10963,7 +11100,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -10980,7 +11117,7 @@
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -10997,7 +11134,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -11014,7 +11151,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -11031,7 +11168,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -11048,7 +11185,7 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -11065,7 +11202,7 @@
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -11082,7 +11219,7 @@
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -11099,7 +11236,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -11116,7 +11253,7 @@
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -11133,7 +11270,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -11152,7 +11289,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="9"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -11169,7 +11306,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -11188,7 +11325,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -11205,7 +11342,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -11222,7 +11359,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -11239,7 +11376,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -11256,7 +11393,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -11273,7 +11410,7 @@
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -11290,7 +11427,7 @@
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -11307,7 +11444,7 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -11324,7 +11461,7 @@
       <c r="F99" s="9"/>
       <c r="G99" s="9"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -11341,7 +11478,7 @@
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -11358,7 +11495,7 @@
       <c r="F101" s="9"/>
       <c r="G101" s="9"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -11375,7 +11512,7 @@
       <c r="F102" s="9"/>
       <c r="G102" s="9"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -11392,7 +11529,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -11409,7 +11546,7 @@
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -11428,7 +11565,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -11445,7 +11582,7 @@
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -11462,7 +11599,7 @@
       <c r="F107" s="9"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -11479,7 +11616,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -11496,7 +11633,7 @@
       <c r="F109" s="9"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -11513,7 +11650,7 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -11530,7 +11667,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="9"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -11547,7 +11684,7 @@
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
     </row>
-    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14">
         <v>112</v>
       </c>
@@ -11567,7 +11704,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -11586,7 +11723,7 @@
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
     </row>
-    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14">
         <v>114</v>
       </c>
@@ -11606,220 +11743,328 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="40">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
         <v>115</v>
       </c>
-      <c r="B116" s="39" t="s">
+      <c r="B116" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="C116" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D116" s="39" t="s">
+      <c r="C116" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="E116" s="41" t="s">
+      <c r="E116" s="7" t="s">
         <v>866</v>
       </c>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
     </row>
-    <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="14">
+    <row r="117" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="40">
         <v>116</v>
       </c>
-      <c r="B117" s="5"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="7"/>
+      <c r="B117" s="39" t="s">
+        <v>872</v>
+      </c>
+      <c r="C117" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="39"/>
+      <c r="E117" s="52" t="s">
+        <v>888</v>
+      </c>
       <c r="F117" s="9"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="4">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="40">
         <v>117</v>
       </c>
-      <c r="B118" s="5"/>
-      <c r="D118" s="5"/>
+      <c r="B118" s="39" t="s">
+        <v>873</v>
+      </c>
+      <c r="C118" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="39"/>
+      <c r="E118" s="53"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
     </row>
-    <row r="119" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="14">
+    <row r="119" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="40">
         <v>118</v>
       </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="7"/>
+      <c r="B119" s="39" t="s">
+        <v>874</v>
+      </c>
+      <c r="C119" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="39"/>
+      <c r="E119" s="53"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="4">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="40">
         <v>119</v>
       </c>
-      <c r="B120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="B120" s="39" t="s">
+        <v>875</v>
+      </c>
+      <c r="C120" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="39"/>
+      <c r="E120" s="53"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
-    <row r="121" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="14">
+    <row r="121" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="40">
         <v>120</v>
       </c>
-      <c r="B121" s="5"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="7"/>
+      <c r="B121" s="39" t="s">
+        <v>876</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="39"/>
+      <c r="E121" s="53"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="14">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="40">
         <v>121</v>
       </c>
-      <c r="B122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="B122" s="39" t="s">
+        <v>877</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="39"/>
+      <c r="E122" s="53"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
     </row>
-    <row r="123" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="14">
+    <row r="123" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="40">
         <v>122</v>
       </c>
-      <c r="B123" s="32"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="7"/>
+      <c r="B123" s="39" t="s">
+        <v>878</v>
+      </c>
+      <c r="C123" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="39"/>
+      <c r="E123" s="53"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="4">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="40">
         <v>123</v>
       </c>
+      <c r="B124" s="39" t="s">
+        <v>879</v>
+      </c>
+      <c r="C124" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="39"/>
+      <c r="E124" s="53"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="4">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="40">
         <v>124</v>
       </c>
+      <c r="B125" s="39" t="s">
+        <v>880</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="39"/>
+      <c r="E125" s="53"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="40">
         <v>125</v>
       </c>
+      <c r="B126" s="39" t="s">
+        <v>881</v>
+      </c>
+      <c r="C126" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="39"/>
+      <c r="E126" s="53"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="40">
         <v>126</v>
       </c>
+      <c r="B127" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="C127" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="39"/>
+      <c r="E127" s="53"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="4">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="40">
         <v>127</v>
       </c>
+      <c r="B128" s="39" t="s">
+        <v>883</v>
+      </c>
+      <c r="C128" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="39"/>
+      <c r="E128" s="53"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="40">
         <v>128</v>
       </c>
+      <c r="B129" s="39" t="s">
+        <v>884</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="39"/>
+      <c r="E129" s="53"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="40">
         <v>129</v>
       </c>
+      <c r="B130" s="39" t="s">
+        <v>885</v>
+      </c>
+      <c r="C130" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="39"/>
+      <c r="E130" s="53"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="40">
         <v>130</v>
       </c>
+      <c r="B131" s="39" t="s">
+        <v>886</v>
+      </c>
+      <c r="C131" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D131" s="39"/>
+      <c r="E131" s="53"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="40">
         <v>131</v>
       </c>
+      <c r="B132" s="39" t="s">
+        <v>887</v>
+      </c>
+      <c r="C132" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="39"/>
+      <c r="E132" s="54"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>132</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" s="9"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>133</v>
       </c>
       <c r="F134" s="9"/>
       <c r="G134" s="9"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>134</v>
       </c>
       <c r="F135" s="9"/>
       <c r="G135" s="9"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>135</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>136</v>
       </c>
       <c r="F137" s="9"/>
       <c r="G137" s="9"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>137</v>
       </c>
       <c r="F138" s="9"/>
       <c r="G138" s="9"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>138</v>
       </c>
       <c r="F139" s="9"/>
       <c r="G139" s="9"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>139</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -11835,7 +12080,7 @@
       <c r="F141" s="9"/>
       <c r="G141" s="9"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -11849,7 +12094,7 @@
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -11863,7 +12108,7 @@
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -11877,7 +12122,7 @@
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -11893,7 +12138,7 @@
       <c r="F145" s="9"/>
       <c r="G145" s="9"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -11907,7 +12152,7 @@
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -11924,7 +12169,7 @@
       <c r="F147" s="9"/>
       <c r="G147" s="9"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -11938,7 +12183,7 @@
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -11954,7 +12199,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="9"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -11968,7 +12213,7 @@
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -11982,7 +12227,7 @@
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -11996,7 +12241,7 @@
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -12010,7 +12255,7 @@
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -12024,7 +12269,7 @@
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -12038,7 +12283,7 @@
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -12052,7 +12297,7 @@
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -12068,7 +12313,7 @@
       <c r="F157" s="9"/>
       <c r="G157" s="9"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -12082,7 +12327,7 @@
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -12096,7 +12341,7 @@
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -12110,7 +12355,7 @@
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -12126,7 +12371,7 @@
       <c r="F161" s="9"/>
       <c r="G161" s="9"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -12140,7 +12385,7 @@
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -12157,7 +12402,7 @@
       <c r="F163" s="9"/>
       <c r="G163" s="9"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -12171,7 +12416,7 @@
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -12187,7 +12432,7 @@
       <c r="F165" s="9"/>
       <c r="G165" s="9"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -12201,7 +12446,7 @@
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -12215,7 +12460,7 @@
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -12229,7 +12474,7 @@
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -12243,7 +12488,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>169</v>
       </c>
@@ -12257,7 +12502,7 @@
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>170</v>
       </c>
@@ -12271,7 +12516,7 @@
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>171</v>
       </c>
@@ -12285,7 +12530,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>172</v>
       </c>
@@ -12301,7 +12546,7 @@
       <c r="F173" s="9"/>
       <c r="G173" s="9"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>173</v>
       </c>
@@ -12315,7 +12560,7 @@
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>174</v>
       </c>
@@ -12329,7 +12574,7 @@
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>175</v>
       </c>
@@ -12343,7 +12588,7 @@
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>176</v>
       </c>
@@ -12362,7 +12607,7 @@
       <c r="F177" s="9"/>
       <c r="G177" s="9"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>177</v>
       </c>
@@ -12377,7 +12622,7 @@
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>178</v>
       </c>
@@ -12392,7 +12637,7 @@
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>179</v>
       </c>
@@ -12407,7 +12652,7 @@
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>180</v>
       </c>
@@ -12422,7 +12667,7 @@
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>181</v>
       </c>
@@ -12437,7 +12682,7 @@
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>182</v>
       </c>
@@ -12452,7 +12697,7 @@
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>183</v>
       </c>
@@ -12468,7 +12713,7 @@
       <c r="F184" s="9"/>
       <c r="G184" s="9"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>184</v>
       </c>
@@ -12482,7 +12727,7 @@
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>185</v>
       </c>
@@ -12496,7 +12741,7 @@
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>186</v>
       </c>
@@ -12510,7 +12755,7 @@
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>187</v>
       </c>
@@ -12519,7 +12764,7 @@
       <c r="F188" s="9"/>
       <c r="G188" s="9"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>188</v>
       </c>
@@ -12528,7 +12773,7 @@
       <c r="F189" s="9"/>
       <c r="G189" s="9"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>189</v>
       </c>
@@ -12537,162 +12782,214 @@
       <c r="F190" s="9"/>
       <c r="G190" s="9"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="40">
         <v>190</v>
       </c>
-      <c r="B191" s="5"/>
-      <c r="D191" s="5"/>
+      <c r="B191" s="39" t="s">
+        <v>894</v>
+      </c>
+      <c r="C191" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D191" s="39" t="s">
+        <v>889</v>
+      </c>
+      <c r="E191" s="52" t="s">
+        <v>871</v>
+      </c>
       <c r="F191" s="9"/>
       <c r="G191" s="9"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="40">
         <v>191</v>
       </c>
-      <c r="B192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="B192" s="39" t="s">
+        <v>895</v>
+      </c>
+      <c r="C192" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D192" s="39" t="s">
+        <v>890</v>
+      </c>
+      <c r="E192" s="53"/>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="40">
         <v>192</v>
       </c>
-      <c r="B193" s="5"/>
-      <c r="D193" s="5"/>
+      <c r="B193" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="C193" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>891</v>
+      </c>
+      <c r="E193" s="53"/>
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="40">
         <v>193</v>
       </c>
-      <c r="B194" s="5"/>
-      <c r="D194" s="5"/>
+      <c r="B194" s="39" t="s">
+        <v>897</v>
+      </c>
+      <c r="C194" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" s="39" t="s">
+        <v>892</v>
+      </c>
+      <c r="E194" s="53"/>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="40">
         <v>194</v>
       </c>
+      <c r="B195" s="39" t="s">
+        <v>898</v>
+      </c>
+      <c r="C195" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D195" s="39" t="s">
+        <v>893</v>
+      </c>
+      <c r="E195" s="53"/>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="40">
         <v>195</v>
       </c>
+      <c r="B196" s="39" t="s">
+        <v>899</v>
+      </c>
+      <c r="C196" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D196" s="39"/>
+      <c r="E196" s="54"/>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>196</v>
       </c>
       <c r="F197" s="9"/>
       <c r="G197" s="9"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>197</v>
       </c>
       <c r="F198" s="9"/>
       <c r="G198" s="9"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>198</v>
       </c>
       <c r="F199" s="9"/>
       <c r="G199" s="9"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>199</v>
       </c>
       <c r="F200" s="9"/>
       <c r="G200" s="9"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>200</v>
       </c>
       <c r="F201" s="9"/>
       <c r="G201" s="9"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>201</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>202</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>203</v>
       </c>
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>204</v>
       </c>
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>205</v>
       </c>
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>206</v>
       </c>
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>207</v>
       </c>
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>208</v>
       </c>
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>209</v>
       </c>
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>210</v>
       </c>
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>211</v>
       </c>
@@ -12708,7 +13005,7 @@
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>212</v>
       </c>
@@ -12724,7 +13021,7 @@
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>213</v>
       </c>
@@ -12740,7 +13037,7 @@
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>214</v>
       </c>
@@ -12756,7 +13053,7 @@
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>215</v>
       </c>
@@ -12772,7 +13069,7 @@
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>216</v>
       </c>
@@ -12788,7 +13085,7 @@
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>217</v>
       </c>
@@ -12804,7 +13101,7 @@
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>218</v>
       </c>
@@ -12820,7 +13117,7 @@
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>219</v>
       </c>
@@ -12836,7 +13133,7 @@
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>220</v>
       </c>
@@ -12852,7 +13149,7 @@
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>221</v>
       </c>
@@ -12868,7 +13165,7 @@
       <c r="F222" s="9"/>
       <c r="G222" s="9"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>222</v>
       </c>
@@ -12882,7 +13179,7 @@
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>223</v>
       </c>
@@ -12896,7 +13193,7 @@
       <c r="F224" s="9"/>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>224</v>
       </c>
@@ -12915,7 +13212,7 @@
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>225</v>
       </c>
@@ -12925,28 +13222,28 @@
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>226</v>
       </c>
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>227</v>
       </c>
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>228</v>
       </c>
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>229</v>
       </c>
@@ -12962,7 +13259,7 @@
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>230</v>
       </c>
@@ -12981,7 +13278,7 @@
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="14">
         <v>231</v>
       </c>
@@ -13000,175 +13297,175 @@
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>232</v>
       </c>
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>233</v>
       </c>
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>234</v>
       </c>
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>235</v>
       </c>
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>236</v>
       </c>
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>237</v>
       </c>
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>238</v>
       </c>
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>239</v>
       </c>
       <c r="F240" s="9"/>
       <c r="G240" s="9"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>240</v>
       </c>
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>241</v>
       </c>
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>242</v>
       </c>
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>243</v>
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>244</v>
       </c>
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>245</v>
       </c>
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>246</v>
       </c>
       <c r="F247" s="9"/>
       <c r="G247" s="9"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>247</v>
       </c>
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>248</v>
       </c>
       <c r="F249" s="9"/>
       <c r="G249" s="9"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>249</v>
       </c>
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>250</v>
       </c>
       <c r="F251" s="9"/>
       <c r="G251" s="9"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>251</v>
       </c>
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>252</v>
       </c>
       <c r="F253" s="9"/>
       <c r="G253" s="9"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>253</v>
       </c>
       <c r="F254" s="9"/>
       <c r="G254" s="9"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>254</v>
       </c>
       <c r="F255" s="9"/>
       <c r="G255" s="9"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>255</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
     </row>
-    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="24"/>
       <c r="C257" s="25"/>
@@ -13179,13 +13476,9 @@
       <c r="H257" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
+  <mergeCells count="23">
+    <mergeCell ref="E191:E196"/>
+    <mergeCell ref="E117:E132"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
@@ -13201,7 +13494,14 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Kurasik/doc/Crestron-KNX.xlsx
+++ b/Kurasik/doc/Crestron-KNX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675199C1-23D8-46D8-8576-42CC5549B994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB71FDF-43E4-4DD9-9CD4-3D6177EEB8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5156,12 +5156,6 @@
     <t>lampy bus</t>
   </si>
   <si>
-    <t>brama 1</t>
-  </si>
-  <si>
-    <t>brama 2</t>
-  </si>
-  <si>
     <t>ACT_J Kanał 1</t>
   </si>
   <si>
@@ -5178,6 +5172,12 @@
   </si>
   <si>
     <t>ACT_J Kanał 6</t>
+  </si>
+  <si>
+    <t>brama 1 (szklana)</t>
+  </si>
+  <si>
+    <t>brama 2 (Hormann)</t>
   </si>
 </sst>
 </file>
@@ -5454,6 +5454,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5470,15 +5479,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9703,12 +9703,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="E26:E39"/>
-    <mergeCell ref="E40:E53"/>
-    <mergeCell ref="E54:E61"/>
+    <mergeCell ref="E203:E208"/>
+    <mergeCell ref="E237:E244"/>
+    <mergeCell ref="E176:E183"/>
+    <mergeCell ref="E184:E187"/>
+    <mergeCell ref="E188:E201"/>
     <mergeCell ref="E170:E175"/>
     <mergeCell ref="E70:E77"/>
     <mergeCell ref="E87:E88"/>
@@ -9720,11 +9719,12 @@
     <mergeCell ref="E139:E146"/>
     <mergeCell ref="E148:E155"/>
     <mergeCell ref="E156:E169"/>
-    <mergeCell ref="E203:E208"/>
-    <mergeCell ref="E237:E244"/>
-    <mergeCell ref="E176:E183"/>
-    <mergeCell ref="E184:E187"/>
-    <mergeCell ref="E188:E201"/>
+    <mergeCell ref="E62:E69"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E39"/>
+    <mergeCell ref="E40:E53"/>
+    <mergeCell ref="E54:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9736,7 +9736,7 @@
   <dimension ref="A1:H257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11007,7 +11007,7 @@
       <c r="D73" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="51" t="s">
         <v>381</v>
       </c>
       <c r="F73" s="9"/>
@@ -11026,7 +11026,7 @@
       <c r="D74" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="54"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
@@ -11283,7 +11283,7 @@
       <c r="D89" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="48" t="s">
+      <c r="E89" s="51" t="s">
         <v>383</v>
       </c>
       <c r="F89" s="9"/>
@@ -11302,7 +11302,7 @@
       <c r="D90" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="51"/>
+      <c r="E90" s="54"/>
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
@@ -11773,7 +11773,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="39"/>
-      <c r="E117" s="52" t="s">
+      <c r="E117" s="46" t="s">
         <v>888</v>
       </c>
       <c r="F117" s="9"/>
@@ -11791,7 +11791,7 @@
         <v>4</v>
       </c>
       <c r="D118" s="39"/>
-      <c r="E118" s="53"/>
+      <c r="E118" s="47"/>
       <c r="F118" s="9"/>
       <c r="G118" s="9"/>
     </row>
@@ -11806,7 +11806,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="39"/>
-      <c r="E119" s="53"/>
+      <c r="E119" s="47"/>
       <c r="F119" s="9"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
@@ -11822,7 +11822,7 @@
         <v>4</v>
       </c>
       <c r="D120" s="39"/>
-      <c r="E120" s="53"/>
+      <c r="E120" s="47"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
     </row>
@@ -11837,7 +11837,7 @@
         <v>4</v>
       </c>
       <c r="D121" s="39"/>
-      <c r="E121" s="53"/>
+      <c r="E121" s="47"/>
       <c r="F121" s="9"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
@@ -11853,7 +11853,7 @@
         <v>4</v>
       </c>
       <c r="D122" s="39"/>
-      <c r="E122" s="53"/>
+      <c r="E122" s="47"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
     </row>
@@ -11868,7 +11868,7 @@
         <v>4</v>
       </c>
       <c r="D123" s="39"/>
-      <c r="E123" s="53"/>
+      <c r="E123" s="47"/>
       <c r="F123" s="9"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
@@ -11884,7 +11884,7 @@
         <v>4</v>
       </c>
       <c r="D124" s="39"/>
-      <c r="E124" s="53"/>
+      <c r="E124" s="47"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
     </row>
@@ -11899,7 +11899,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="39"/>
-      <c r="E125" s="53"/>
+      <c r="E125" s="47"/>
       <c r="F125" s="9"/>
       <c r="G125" s="9"/>
     </row>
@@ -11914,7 +11914,7 @@
         <v>4</v>
       </c>
       <c r="D126" s="39"/>
-      <c r="E126" s="53"/>
+      <c r="E126" s="47"/>
       <c r="F126" s="9"/>
       <c r="G126" s="9"/>
     </row>
@@ -11929,7 +11929,7 @@
         <v>4</v>
       </c>
       <c r="D127" s="39"/>
-      <c r="E127" s="53"/>
+      <c r="E127" s="47"/>
       <c r="F127" s="9"/>
       <c r="G127" s="9"/>
     </row>
@@ -11944,7 +11944,7 @@
         <v>4</v>
       </c>
       <c r="D128" s="39"/>
-      <c r="E128" s="53"/>
+      <c r="E128" s="47"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
     </row>
@@ -11959,7 +11959,7 @@
         <v>4</v>
       </c>
       <c r="D129" s="39"/>
-      <c r="E129" s="53"/>
+      <c r="E129" s="47"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
     </row>
@@ -11974,7 +11974,7 @@
         <v>4</v>
       </c>
       <c r="D130" s="39"/>
-      <c r="E130" s="53"/>
+      <c r="E130" s="47"/>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
     </row>
@@ -11989,7 +11989,7 @@
         <v>4</v>
       </c>
       <c r="D131" s="39"/>
-      <c r="E131" s="53"/>
+      <c r="E131" s="47"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
     </row>
@@ -12004,7 +12004,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="39"/>
-      <c r="E132" s="54"/>
+      <c r="E132" s="48"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
     </row>
@@ -12074,7 +12074,7 @@
       <c r="C141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D141" s="46" t="s">
+      <c r="D141" s="49" t="s">
         <v>424</v>
       </c>
       <c r="F141" s="9"/>
@@ -12090,7 +12090,7 @@
       <c r="C142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D142" s="46"/>
+      <c r="D142" s="49"/>
       <c r="F142" s="9"/>
       <c r="G142" s="9"/>
     </row>
@@ -12104,7 +12104,7 @@
       <c r="C143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="46"/>
+      <c r="D143" s="49"/>
       <c r="F143" s="9"/>
       <c r="G143" s="9"/>
     </row>
@@ -12118,7 +12118,7 @@
       <c r="C144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="46"/>
+      <c r="D144" s="49"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
     </row>
@@ -12132,7 +12132,7 @@
       <c r="C145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="46" t="s">
+      <c r="D145" s="49" t="s">
         <v>425</v>
       </c>
       <c r="F145" s="9"/>
@@ -12148,7 +12148,7 @@
       <c r="C146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="46"/>
+      <c r="D146" s="49"/>
       <c r="F146" s="9"/>
       <c r="G146" s="9"/>
     </row>
@@ -12162,7 +12162,7 @@
       <c r="C147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D147" s="46"/>
+      <c r="D147" s="49"/>
       <c r="E147" s="7" t="s">
         <v>864</v>
       </c>
@@ -12179,7 +12179,7 @@
       <c r="C148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D148" s="46"/>
+      <c r="D148" s="49"/>
       <c r="F148" s="9"/>
       <c r="G148" s="9"/>
     </row>
@@ -12193,7 +12193,7 @@
       <c r="C149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D149" s="46" t="s">
+      <c r="D149" s="49" t="s">
         <v>426</v>
       </c>
       <c r="F149" s="9"/>
@@ -12209,7 +12209,7 @@
       <c r="C150" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D150" s="46"/>
+      <c r="D150" s="49"/>
       <c r="F150" s="9"/>
       <c r="G150" s="9"/>
     </row>
@@ -12223,7 +12223,7 @@
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="46"/>
+      <c r="D151" s="49"/>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
     </row>
@@ -12237,7 +12237,7 @@
       <c r="C152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D152" s="46"/>
+      <c r="D152" s="49"/>
       <c r="F152" s="9"/>
       <c r="G152" s="9"/>
     </row>
@@ -12251,7 +12251,7 @@
       <c r="C153" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D153" s="46"/>
+      <c r="D153" s="49"/>
       <c r="F153" s="9"/>
       <c r="G153" s="9"/>
     </row>
@@ -12265,7 +12265,7 @@
       <c r="C154" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D154" s="46"/>
+      <c r="D154" s="49"/>
       <c r="F154" s="9"/>
       <c r="G154" s="9"/>
     </row>
@@ -12279,7 +12279,7 @@
       <c r="C155" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D155" s="46"/>
+      <c r="D155" s="49"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
     </row>
@@ -12293,7 +12293,7 @@
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="46"/>
+      <c r="D156" s="49"/>
       <c r="F156" s="9"/>
       <c r="G156" s="9"/>
     </row>
@@ -12307,7 +12307,7 @@
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D157" s="46" t="s">
+      <c r="D157" s="49" t="s">
         <v>427</v>
       </c>
       <c r="F157" s="9"/>
@@ -12323,7 +12323,7 @@
       <c r="C158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="46"/>
+      <c r="D158" s="49"/>
       <c r="F158" s="9"/>
       <c r="G158" s="9"/>
     </row>
@@ -12337,7 +12337,7 @@
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D159" s="46"/>
+      <c r="D159" s="49"/>
       <c r="F159" s="9"/>
       <c r="G159" s="9"/>
     </row>
@@ -12351,7 +12351,7 @@
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D160" s="46"/>
+      <c r="D160" s="49"/>
       <c r="F160" s="9"/>
       <c r="G160" s="9"/>
     </row>
@@ -12365,7 +12365,7 @@
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D161" s="46" t="s">
+      <c r="D161" s="49" t="s">
         <v>428</v>
       </c>
       <c r="F161" s="9"/>
@@ -12381,7 +12381,7 @@
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D162" s="46"/>
+      <c r="D162" s="49"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
     </row>
@@ -12395,7 +12395,7 @@
       <c r="C163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="46"/>
+      <c r="D163" s="49"/>
       <c r="E163" s="7" t="s">
         <v>863</v>
       </c>
@@ -12412,7 +12412,7 @@
       <c r="C164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D164" s="46"/>
+      <c r="D164" s="49"/>
       <c r="F164" s="9"/>
       <c r="G164" s="9"/>
     </row>
@@ -12426,7 +12426,7 @@
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D165" s="46" t="s">
+      <c r="D165" s="49" t="s">
         <v>562</v>
       </c>
       <c r="F165" s="9"/>
@@ -12442,7 +12442,7 @@
       <c r="C166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D166" s="46"/>
+      <c r="D166" s="49"/>
       <c r="F166" s="9"/>
       <c r="G166" s="9"/>
     </row>
@@ -12456,7 +12456,7 @@
       <c r="C167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D167" s="46"/>
+      <c r="D167" s="49"/>
       <c r="F167" s="9"/>
       <c r="G167" s="9"/>
     </row>
@@ -12470,7 +12470,7 @@
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D168" s="46"/>
+      <c r="D168" s="49"/>
       <c r="F168" s="9"/>
       <c r="G168" s="9"/>
     </row>
@@ -12484,7 +12484,7 @@
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D169" s="46"/>
+      <c r="D169" s="49"/>
       <c r="F169" s="9"/>
       <c r="G169" s="9"/>
     </row>
@@ -12498,7 +12498,7 @@
       <c r="C170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D170" s="46"/>
+      <c r="D170" s="49"/>
       <c r="F170" s="9"/>
       <c r="G170" s="9"/>
     </row>
@@ -12512,7 +12512,7 @@
       <c r="C171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="46"/>
+      <c r="D171" s="49"/>
       <c r="F171" s="9"/>
       <c r="G171" s="9"/>
     </row>
@@ -12526,7 +12526,7 @@
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D172" s="46"/>
+      <c r="D172" s="49"/>
       <c r="F172" s="9"/>
       <c r="G172" s="9"/>
     </row>
@@ -12540,7 +12540,7 @@
       <c r="C173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D173" s="46" t="s">
+      <c r="D173" s="49" t="s">
         <v>571</v>
       </c>
       <c r="F173" s="9"/>
@@ -12556,7 +12556,7 @@
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="46"/>
+      <c r="D174" s="49"/>
       <c r="F174" s="9"/>
       <c r="G174" s="9"/>
     </row>
@@ -12570,7 +12570,7 @@
       <c r="C175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D175" s="46"/>
+      <c r="D175" s="49"/>
       <c r="F175" s="9"/>
       <c r="G175" s="9"/>
     </row>
@@ -12584,7 +12584,7 @@
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D176" s="46"/>
+      <c r="D176" s="49"/>
       <c r="F176" s="9"/>
       <c r="G176" s="9"/>
     </row>
@@ -12598,10 +12598,10 @@
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D177" s="46" t="s">
+      <c r="D177" s="49" t="s">
         <v>576</v>
       </c>
-      <c r="E177" s="48" t="s">
+      <c r="E177" s="51" t="s">
         <v>429</v>
       </c>
       <c r="F177" s="9"/>
@@ -12617,8 +12617,8 @@
       <c r="C178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D178" s="47"/>
-      <c r="E178" s="49"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="52"/>
       <c r="F178" s="9"/>
       <c r="G178" s="9"/>
     </row>
@@ -12632,8 +12632,8 @@
       <c r="C179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D179" s="47"/>
-      <c r="E179" s="49"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="52"/>
       <c r="F179" s="9"/>
       <c r="G179" s="9"/>
     </row>
@@ -12647,8 +12647,8 @@
       <c r="C180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D180" s="47"/>
-      <c r="E180" s="49"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="52"/>
       <c r="F180" s="9"/>
       <c r="G180" s="9"/>
     </row>
@@ -12662,8 +12662,8 @@
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D181" s="47"/>
-      <c r="E181" s="49"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="52"/>
       <c r="F181" s="9"/>
       <c r="G181" s="9"/>
     </row>
@@ -12677,8 +12677,8 @@
       <c r="C182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="47"/>
-      <c r="E182" s="49"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="52"/>
       <c r="F182" s="9"/>
       <c r="G182" s="9"/>
     </row>
@@ -12692,8 +12692,8 @@
       <c r="C183" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="47"/>
-      <c r="E183" s="49"/>
+      <c r="D183" s="50"/>
+      <c r="E183" s="52"/>
       <c r="F183" s="9"/>
       <c r="G183" s="9"/>
     </row>
@@ -12707,7 +12707,7 @@
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="50" t="s">
+      <c r="D184" s="53" t="s">
         <v>588</v>
       </c>
       <c r="F184" s="9"/>
@@ -12723,7 +12723,7 @@
       <c r="C185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="50"/>
+      <c r="D185" s="53"/>
       <c r="F185" s="9"/>
       <c r="G185" s="9"/>
     </row>
@@ -12737,7 +12737,7 @@
       <c r="C186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="50"/>
+      <c r="D186" s="53"/>
       <c r="F186" s="9"/>
       <c r="G186" s="9"/>
     </row>
@@ -12751,7 +12751,7 @@
       <c r="C187" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="50"/>
+      <c r="D187" s="53"/>
       <c r="F187" s="9"/>
       <c r="G187" s="9"/>
     </row>
@@ -12787,7 +12787,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="39" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C191" s="39" t="s">
         <v>4</v>
@@ -12795,7 +12795,7 @@
       <c r="D191" s="39" t="s">
         <v>889</v>
       </c>
-      <c r="E191" s="52" t="s">
+      <c r="E191" s="46" t="s">
         <v>871</v>
       </c>
       <c r="F191" s="9"/>
@@ -12806,7 +12806,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="39" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C192" s="39" t="s">
         <v>4</v>
@@ -12814,7 +12814,7 @@
       <c r="D192" s="39" t="s">
         <v>890</v>
       </c>
-      <c r="E192" s="53"/>
+      <c r="E192" s="47"/>
       <c r="F192" s="9"/>
       <c r="G192" s="9"/>
     </row>
@@ -12823,7 +12823,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="39" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C193" s="39" t="s">
         <v>4</v>
@@ -12831,7 +12831,7 @@
       <c r="D193" s="39" t="s">
         <v>891</v>
       </c>
-      <c r="E193" s="53"/>
+      <c r="E193" s="47"/>
       <c r="F193" s="9"/>
       <c r="G193" s="9"/>
     </row>
@@ -12840,15 +12840,15 @@
         <v>193</v>
       </c>
       <c r="B194" s="39" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C194" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D194" s="39" t="s">
-        <v>892</v>
-      </c>
-      <c r="E194" s="53"/>
+        <v>898</v>
+      </c>
+      <c r="E194" s="47"/>
       <c r="F194" s="9"/>
       <c r="G194" s="9"/>
     </row>
@@ -12857,15 +12857,15 @@
         <v>194</v>
       </c>
       <c r="B195" s="39" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C195" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D195" s="39" t="s">
-        <v>893</v>
-      </c>
-      <c r="E195" s="53"/>
+        <v>899</v>
+      </c>
+      <c r="E195" s="47"/>
       <c r="F195" s="9"/>
       <c r="G195" s="9"/>
     </row>
@@ -12874,13 +12874,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="39" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C196" s="39" t="s">
         <v>4</v>
       </c>
       <c r="D196" s="39"/>
-      <c r="E196" s="54"/>
+      <c r="E196" s="48"/>
       <c r="F196" s="9"/>
       <c r="G196" s="9"/>
     </row>
@@ -13477,16 +13477,22 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="E56:E71"/>
+    <mergeCell ref="E2:E15"/>
+    <mergeCell ref="E16:E23"/>
+    <mergeCell ref="E24:E31"/>
+    <mergeCell ref="E34:E47"/>
+    <mergeCell ref="E48:E55"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E104"/>
+    <mergeCell ref="E105:E112"/>
     <mergeCell ref="E191:E196"/>
     <mergeCell ref="E117:E132"/>
     <mergeCell ref="D177:D183"/>
     <mergeCell ref="E177:E183"/>
     <mergeCell ref="D184:D187"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E91:E104"/>
-    <mergeCell ref="E105:E112"/>
     <mergeCell ref="D173:D176"/>
     <mergeCell ref="D141:D144"/>
     <mergeCell ref="D145:D148"/>
@@ -13494,12 +13500,6 @@
     <mergeCell ref="D157:D160"/>
     <mergeCell ref="D161:D164"/>
     <mergeCell ref="D165:D172"/>
-    <mergeCell ref="E56:E71"/>
-    <mergeCell ref="E2:E15"/>
-    <mergeCell ref="E16:E23"/>
-    <mergeCell ref="E24:E31"/>
-    <mergeCell ref="E34:E47"/>
-    <mergeCell ref="E48:E55"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
